--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/BALANCE    ZAVALETA   MARZO  2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/BALANCE    ZAVALETA   MARZO  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="8" activeTab="8"/>
+    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="10" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -22,8 +22,10 @@
     <sheet name="COMPRAS  DE ENERO  2022" sheetId="11" r:id="rId8"/>
     <sheet name="FEBRERO       2 0 2 2      " sheetId="12" r:id="rId9"/>
     <sheet name="COMPRAS   FEBRERO    2 0  2 2  " sheetId="13" r:id="rId10"/>
-    <sheet name="Hoja2" sheetId="14" r:id="rId11"/>
-    <sheet name="REPORTE ENERO 2022" sheetId="9" r:id="rId12"/>
+    <sheet name="    M A R Z O     2 0 2 2      " sheetId="14" r:id="rId11"/>
+    <sheet name="COMPRAS     MARZO     2022    " sheetId="15" r:id="rId12"/>
+    <sheet name="Hoja3" sheetId="16" r:id="rId13"/>
+    <sheet name="REPORTE ENERO 2022" sheetId="9" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -372,8 +374,90 @@
 </comments>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ROUSS</author>
+  </authors>
+  <commentList>
+    <comment ref="J23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ROUSS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ROUSS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J43" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ROUSS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="461">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1753,6 +1837,9 @@
   </si>
   <si>
     <t>ENCHILADA</t>
+  </si>
+  <si>
+    <t>BALANCE      ABASTO 4 CARNES    Z A V A L E T A      M A R Z O           2 0 2 2</t>
   </si>
 </sst>
 </file>
@@ -3626,7 +3713,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="559">
+  <cellXfs count="561">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -4529,39 +4616,6 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="2" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="55" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4634,10 +4688,76 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4681,39 +4801,6 @@
     </xf>
     <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4856,6 +4943,8 @@
     <xf numFmtId="44" fontId="11" fillId="14" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -7131,6 +7220,432 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2012060D-6A0F-41D2-A832-74F72EF945FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="4895850" y="12153899"/>
+          <a:ext cx="85725" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="1 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C84F863B-1E69-40C9-AAA6-E150E727BC58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4857750" y="11658600"/>
+          <a:ext cx="419100" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F282856-1683-4627-996E-9F4AD530C284}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="4895850" y="12153899"/>
+          <a:ext cx="85725" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Conector recto de flecha 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC19A0EA-B603-496A-8B2F-50F1F36E5D63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="11639550"/>
+          <a:ext cx="1781175" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>47623</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133352</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Abrir llave 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97978218-9641-42D3-AAF9-C49E03D3CF46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="7339013" y="10777535"/>
+          <a:ext cx="200026" cy="2228852"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 52985"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>64250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1323990" cy="419708"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectángulo 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81AED0B7-5349-49AD-8D5B-E24B093B3905}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18916712">
+          <a:off x="0" y="12456275"/>
+          <a:ext cx="1323990" cy="419708"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" b="1" cap="none" spc="0">
+              <a:ln w="6600">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="accent2"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Rosy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" b="1" cap="none" spc="0" baseline="0">
+              <a:ln w="6600">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="accent2"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> Tellez</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1400" b="1" cap="none" spc="0">
+            <a:ln w="6600">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="0000FF"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent2"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Conector recto de flecha 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE3DEEAA-4813-4B55-9D28-E8AF250AE061}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4857750" y="12477750"/>
+          <a:ext cx="771525" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -7425,23 +7940,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="450"/>
-      <c r="C1" s="452" t="s">
+      <c r="B1" s="474"/>
+      <c r="C1" s="476" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="453"/>
-      <c r="E1" s="453"/>
-      <c r="F1" s="453"/>
-      <c r="G1" s="453"/>
-      <c r="H1" s="453"/>
-      <c r="I1" s="453"/>
-      <c r="J1" s="453"/>
-      <c r="K1" s="453"/>
-      <c r="L1" s="453"/>
-      <c r="M1" s="453"/>
+      <c r="D1" s="477"/>
+      <c r="E1" s="477"/>
+      <c r="F1" s="477"/>
+      <c r="G1" s="477"/>
+      <c r="H1" s="477"/>
+      <c r="I1" s="477"/>
+      <c r="J1" s="477"/>
+      <c r="K1" s="477"/>
+      <c r="L1" s="477"/>
+      <c r="M1" s="477"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="451"/>
+      <c r="B2" s="475"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -7451,17 +7966,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="454" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="455"/>
+      <c r="B3" s="478" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="479"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="456" t="s">
+      <c r="H3" s="480" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="456"/>
+      <c r="I3" s="480"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -7475,14 +7990,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="457" t="s">
+      <c r="E4" s="481" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="458"/>
-      <c r="H4" s="459" t="s">
+      <c r="F4" s="482"/>
+      <c r="H4" s="483" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="460"/>
+      <c r="I4" s="484"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -7492,10 +8007,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="466" t="s">
+      <c r="P4" s="455" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="467"/>
+      <c r="Q4" s="456"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -8936,11 +9451,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="468">
+      <c r="M39" s="457">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="470">
+      <c r="N39" s="459">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -8966,8 +9481,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="469"/>
-      <c r="N40" s="471"/>
+      <c r="M40" s="458"/>
+      <c r="N40" s="460"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -9182,29 +9697,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="472" t="s">
+      <c r="H52" s="461" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="473"/>
+      <c r="I52" s="462"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="474">
+      <c r="K52" s="463">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="475"/>
-      <c r="M52" s="476">
+      <c r="L52" s="464"/>
+      <c r="M52" s="465">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="477"/>
+      <c r="N52" s="466"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="478" t="s">
+      <c r="D53" s="467" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="478"/>
+      <c r="E53" s="467"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -9215,22 +9730,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="478" t="s">
+      <c r="D54" s="467" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="478"/>
+      <c r="E54" s="467"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="479" t="s">
+      <c r="I54" s="468" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="480"/>
-      <c r="K54" s="481">
+      <c r="J54" s="469"/>
+      <c r="K54" s="470">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="482"/>
+      <c r="L54" s="471"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -9263,11 +9778,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="483">
+      <c r="K56" s="472">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="484"/>
+      <c r="L56" s="473"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -9284,22 +9799,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="461" t="s">
+      <c r="D58" s="450" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="462"/>
+      <c r="E58" s="451"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="463" t="s">
+      <c r="I58" s="452" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="464"/>
-      <c r="K58" s="465">
+      <c r="J58" s="453"/>
+      <c r="K58" s="454">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="465"/>
+      <c r="L58" s="454"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -9443,6 +9958,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -9457,12 +9978,6 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9479,7 +9994,7 @@
   <dimension ref="A1:N115"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="D1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11412,6 +11927,4036 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:Z80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="97" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="1.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="12" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="162" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" style="225" customWidth="1"/>
+    <col min="18" max="18" width="15.28515625" style="227" customWidth="1"/>
+    <col min="19" max="20" width="11.42578125" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B1" s="474"/>
+      <c r="C1" s="516" t="s">
+        <v>460</v>
+      </c>
+      <c r="D1" s="517"/>
+      <c r="E1" s="517"/>
+      <c r="F1" s="517"/>
+      <c r="G1" s="517"/>
+      <c r="H1" s="517"/>
+      <c r="I1" s="517"/>
+      <c r="J1" s="517"/>
+      <c r="K1" s="517"/>
+      <c r="L1" s="517"/>
+      <c r="M1" s="517"/>
+    </row>
+    <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="475"/>
+      <c r="C2" s="3"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="478" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="479"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="H3" s="480" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="480"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="14"/>
+      <c r="P3" s="504" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="514" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="32.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17">
+        <v>1266568.45</v>
+      </c>
+      <c r="D4" s="18">
+        <v>44619</v>
+      </c>
+      <c r="E4" s="481" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="482"/>
+      <c r="H4" s="483" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="484"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="166"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" s="505"/>
+      <c r="Q4" s="323" t="s">
+        <v>217</v>
+      </c>
+      <c r="R4" s="515"/>
+      <c r="W4" s="487" t="s">
+        <v>124</v>
+      </c>
+      <c r="X4" s="487"/>
+      <c r="Y4" s="227"/>
+    </row>
+    <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="24">
+        <v>44620</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="27">
+        <v>44620</v>
+      </c>
+      <c r="F5" s="28"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="29">
+        <v>44620</v>
+      </c>
+      <c r="I5" s="30"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="32">
+        <v>0</v>
+      </c>
+      <c r="N5" s="33">
+        <v>0</v>
+      </c>
+      <c r="O5" s="319"/>
+      <c r="P5" s="34">
+        <f>N5+M5+L5+I5+C5</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="326">
+        <f>P5-F5</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="398">
+        <v>0</v>
+      </c>
+      <c r="S5" s="325"/>
+      <c r="W5" s="487"/>
+      <c r="X5" s="487"/>
+      <c r="Y5" s="233"/>
+    </row>
+    <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="23"/>
+      <c r="B6" s="24">
+        <v>44621</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="27">
+        <v>44621</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="36">
+        <v>44621</v>
+      </c>
+      <c r="I6" s="30"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="32">
+        <v>0</v>
+      </c>
+      <c r="N6" s="33">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="39">
+        <f>N6+M6+L6+I6+C6</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="326">
+        <v>0</v>
+      </c>
+      <c r="R6" s="320">
+        <v>0</v>
+      </c>
+      <c r="S6" s="147"/>
+      <c r="T6" s="128"/>
+      <c r="U6" s="399"/>
+      <c r="W6" s="234">
+        <v>0</v>
+      </c>
+      <c r="X6" s="237"/>
+      <c r="Y6" s="13"/>
+    </row>
+    <row r="7" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="23"/>
+      <c r="B7" s="24">
+        <v>44622</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="27">
+        <v>44622</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="36">
+        <v>44622</v>
+      </c>
+      <c r="I7" s="30"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="32">
+        <v>0</v>
+      </c>
+      <c r="N7" s="33">
+        <v>0</v>
+      </c>
+      <c r="O7" s="224"/>
+      <c r="P7" s="39">
+        <f t="shared" ref="P7:P32" si="0">N7+M7+L7+I7+C7</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="326">
+        <v>0</v>
+      </c>
+      <c r="R7" s="320">
+        <v>0</v>
+      </c>
+      <c r="S7" s="147"/>
+      <c r="T7" s="128"/>
+      <c r="U7" s="34">
+        <v>0</v>
+      </c>
+      <c r="W7" s="234">
+        <v>0</v>
+      </c>
+      <c r="X7" s="237"/>
+      <c r="Y7" s="13"/>
+    </row>
+    <row r="8" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="23"/>
+      <c r="B8" s="24">
+        <v>44623</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="27">
+        <v>44623</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="36">
+        <v>44623</v>
+      </c>
+      <c r="I8" s="30"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="32">
+        <v>0</v>
+      </c>
+      <c r="N8" s="33">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="326">
+        <v>0</v>
+      </c>
+      <c r="R8" s="320">
+        <v>0</v>
+      </c>
+      <c r="S8" s="147"/>
+      <c r="T8" s="128"/>
+      <c r="U8" s="34">
+        <v>0</v>
+      </c>
+      <c r="W8" s="234">
+        <v>0</v>
+      </c>
+      <c r="X8" s="237"/>
+      <c r="Y8" s="13"/>
+    </row>
+    <row r="9" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="23"/>
+      <c r="B9" s="24">
+        <v>44624</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="27">
+        <v>44624</v>
+      </c>
+      <c r="F9" s="28"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="36">
+        <v>44624</v>
+      </c>
+      <c r="I9" s="30"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="223"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="32">
+        <v>0</v>
+      </c>
+      <c r="N9" s="33">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="326">
+        <v>0</v>
+      </c>
+      <c r="R9" s="320">
+        <v>0</v>
+      </c>
+      <c r="S9" s="147"/>
+      <c r="T9" s="128"/>
+      <c r="U9" s="34">
+        <v>0</v>
+      </c>
+      <c r="W9" s="234">
+        <v>0</v>
+      </c>
+      <c r="X9" s="238"/>
+      <c r="Y9" s="13"/>
+    </row>
+    <row r="10" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24">
+        <v>44625</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="27">
+        <v>44625</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="36">
+        <v>44625</v>
+      </c>
+      <c r="I10" s="30"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="167"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="32">
+        <v>0</v>
+      </c>
+      <c r="N10" s="33">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" s="39">
+        <f>N10+M10+L10+I10+C10</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="326">
+        <v>0</v>
+      </c>
+      <c r="R10" s="320">
+        <v>0</v>
+      </c>
+      <c r="S10" s="147"/>
+      <c r="T10" s="128"/>
+      <c r="U10" s="34">
+        <v>0</v>
+      </c>
+      <c r="W10" s="234">
+        <v>0</v>
+      </c>
+      <c r="X10" s="238"/>
+      <c r="Y10" s="13"/>
+    </row>
+    <row r="11" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="23"/>
+      <c r="B11" s="24">
+        <v>44626</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="27">
+        <v>44626</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="36">
+        <v>44626</v>
+      </c>
+      <c r="I11" s="30"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="168"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="32">
+        <v>0</v>
+      </c>
+      <c r="N11" s="33">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="326">
+        <v>0</v>
+      </c>
+      <c r="R11" s="320">
+        <v>0</v>
+      </c>
+      <c r="S11" s="147"/>
+      <c r="T11" s="128"/>
+      <c r="U11" s="34">
+        <v>0</v>
+      </c>
+      <c r="W11" s="234">
+        <v>0</v>
+      </c>
+      <c r="X11" s="237"/>
+      <c r="Y11" s="13"/>
+    </row>
+    <row r="12" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="23"/>
+      <c r="B12" s="24">
+        <v>44627</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="27">
+        <v>44627</v>
+      </c>
+      <c r="F12" s="28"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="36">
+        <v>44627</v>
+      </c>
+      <c r="I12" s="30"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="169"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="32">
+        <v>0</v>
+      </c>
+      <c r="N12" s="33">
+        <v>0</v>
+      </c>
+      <c r="O12" s="329"/>
+      <c r="P12" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="326">
+        <v>0</v>
+      </c>
+      <c r="R12" s="320">
+        <v>0</v>
+      </c>
+      <c r="S12" s="147"/>
+      <c r="T12" s="128"/>
+      <c r="U12" s="34">
+        <f>SUM(U7:U11)</f>
+        <v>0</v>
+      </c>
+      <c r="W12" s="234">
+        <v>0</v>
+      </c>
+      <c r="X12" s="237"/>
+      <c r="Y12" s="13"/>
+    </row>
+    <row r="13" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="23"/>
+      <c r="B13" s="24">
+        <v>44628</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="27">
+        <v>44628</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="36">
+        <v>44628</v>
+      </c>
+      <c r="I13" s="30"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="32">
+        <v>0</v>
+      </c>
+      <c r="N13" s="33">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="326">
+        <v>0</v>
+      </c>
+      <c r="R13" s="320">
+        <v>0</v>
+      </c>
+      <c r="S13" s="400"/>
+      <c r="T13" s="128"/>
+      <c r="U13" s="34"/>
+      <c r="W13" s="234">
+        <v>0</v>
+      </c>
+      <c r="X13" s="237"/>
+      <c r="Y13" s="13"/>
+    </row>
+    <row r="14" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="23"/>
+      <c r="B14" s="24">
+        <v>44629</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="27">
+        <v>44629</v>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="36">
+        <v>44629</v>
+      </c>
+      <c r="I14" s="30"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="32">
+        <v>0</v>
+      </c>
+      <c r="N14" s="33">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="326">
+        <v>0</v>
+      </c>
+      <c r="R14" s="320">
+        <v>0</v>
+      </c>
+      <c r="S14" s="147"/>
+      <c r="W14" s="234">
+        <v>0</v>
+      </c>
+      <c r="X14" s="237"/>
+      <c r="Y14" s="13"/>
+    </row>
+    <row r="15" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="23"/>
+      <c r="B15" s="24">
+        <v>44630</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="27">
+        <v>44630</v>
+      </c>
+      <c r="F15" s="28"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="36">
+        <v>44630</v>
+      </c>
+      <c r="I15" s="30"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="32">
+        <v>0</v>
+      </c>
+      <c r="N15" s="33">
+        <v>0</v>
+      </c>
+      <c r="P15" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="326">
+        <v>0</v>
+      </c>
+      <c r="R15" s="320">
+        <v>0</v>
+      </c>
+      <c r="S15" s="147"/>
+      <c r="W15" s="234">
+        <v>0</v>
+      </c>
+      <c r="X15" s="237"/>
+      <c r="Y15" s="13"/>
+    </row>
+    <row r="16" spans="1:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="23"/>
+      <c r="B16" s="24">
+        <v>44631</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="27">
+        <v>44631</v>
+      </c>
+      <c r="F16" s="28"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="36">
+        <v>44631</v>
+      </c>
+      <c r="I16" s="30"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="169"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="32">
+        <v>0</v>
+      </c>
+      <c r="N16" s="33">
+        <v>0</v>
+      </c>
+      <c r="O16" s="331"/>
+      <c r="P16" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="326">
+        <v>0</v>
+      </c>
+      <c r="R16" s="320">
+        <v>0</v>
+      </c>
+      <c r="S16" s="332"/>
+      <c r="W16" s="234">
+        <v>0</v>
+      </c>
+      <c r="X16" s="239"/>
+      <c r="Y16" s="233"/>
+    </row>
+    <row r="17" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="23"/>
+      <c r="B17" s="24">
+        <v>44632</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="27">
+        <v>44632</v>
+      </c>
+      <c r="F17" s="28"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="36">
+        <v>44632</v>
+      </c>
+      <c r="I17" s="30"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="32">
+        <v>0</v>
+      </c>
+      <c r="N17" s="33">
+        <v>0</v>
+      </c>
+      <c r="P17" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="326">
+        <v>0</v>
+      </c>
+      <c r="R17" s="320">
+        <v>0</v>
+      </c>
+      <c r="S17" s="147"/>
+      <c r="W17" s="235">
+        <v>0</v>
+      </c>
+      <c r="X17" s="237"/>
+      <c r="Y17" s="233"/>
+    </row>
+    <row r="18" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="23"/>
+      <c r="B18" s="24">
+        <v>44633</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="27">
+        <v>44633</v>
+      </c>
+      <c r="F18" s="28"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="36">
+        <v>44633</v>
+      </c>
+      <c r="I18" s="30"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="170"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="32">
+        <v>0</v>
+      </c>
+      <c r="N18" s="33">
+        <v>0</v>
+      </c>
+      <c r="P18" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="326">
+        <v>0</v>
+      </c>
+      <c r="R18" s="320">
+        <v>0</v>
+      </c>
+      <c r="S18" s="147"/>
+      <c r="W18" s="236">
+        <v>0</v>
+      </c>
+      <c r="X18" s="240"/>
+      <c r="Y18" s="233"/>
+    </row>
+    <row r="19" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="23"/>
+      <c r="B19" s="24">
+        <v>44634</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="27">
+        <v>44634</v>
+      </c>
+      <c r="F19" s="28"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="36">
+        <v>44634</v>
+      </c>
+      <c r="I19" s="30"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="32">
+        <v>0</v>
+      </c>
+      <c r="N19" s="33">
+        <v>0</v>
+      </c>
+      <c r="P19" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="326">
+        <v>0</v>
+      </c>
+      <c r="R19" s="320">
+        <v>0</v>
+      </c>
+      <c r="S19" s="147"/>
+      <c r="W19" s="491">
+        <f>SUM(W6:W18)</f>
+        <v>0</v>
+      </c>
+      <c r="X19" s="240"/>
+      <c r="Y19" s="233"/>
+    </row>
+    <row r="20" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="23"/>
+      <c r="B20" s="24">
+        <v>44635</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="27">
+        <v>44635</v>
+      </c>
+      <c r="F20" s="28"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="36">
+        <v>44635</v>
+      </c>
+      <c r="I20" s="30"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="171"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="32">
+        <v>0</v>
+      </c>
+      <c r="N20" s="33">
+        <v>0</v>
+      </c>
+      <c r="P20" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="326">
+        <v>0</v>
+      </c>
+      <c r="R20" s="320">
+        <v>0</v>
+      </c>
+      <c r="S20" s="147"/>
+      <c r="W20" s="492"/>
+      <c r="X20" s="268"/>
+      <c r="Y20" s="233"/>
+    </row>
+    <row r="21" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="23"/>
+      <c r="B21" s="24">
+        <v>44636</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="27">
+        <v>44636</v>
+      </c>
+      <c r="F21" s="28"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="36">
+        <v>44636</v>
+      </c>
+      <c r="I21" s="30"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="32">
+        <v>0</v>
+      </c>
+      <c r="N21" s="33">
+        <v>0</v>
+      </c>
+      <c r="P21" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="326">
+        <v>0</v>
+      </c>
+      <c r="R21" s="320">
+        <v>0</v>
+      </c>
+      <c r="S21" s="147"/>
+      <c r="W21" s="493"/>
+      <c r="X21" s="493"/>
+      <c r="Y21" s="233"/>
+      <c r="Z21" s="128"/>
+    </row>
+    <row r="22" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="23"/>
+      <c r="B22" s="24">
+        <v>44637</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="27">
+        <v>44637</v>
+      </c>
+      <c r="F22" s="28"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="36">
+        <v>44637</v>
+      </c>
+      <c r="I22" s="30"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="32">
+        <v>0</v>
+      </c>
+      <c r="N22" s="33">
+        <v>0</v>
+      </c>
+      <c r="P22" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="326">
+        <v>0</v>
+      </c>
+      <c r="R22" s="320">
+        <v>0</v>
+      </c>
+      <c r="S22" s="147"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="233"/>
+      <c r="Z22" s="128"/>
+    </row>
+    <row r="23" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="23"/>
+      <c r="B23" s="24">
+        <v>44638</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="27">
+        <v>44638</v>
+      </c>
+      <c r="F23" s="28"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="36">
+        <v>44638</v>
+      </c>
+      <c r="I23" s="30"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="172"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="32">
+        <v>0</v>
+      </c>
+      <c r="N23" s="33">
+        <v>0</v>
+      </c>
+      <c r="P23" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="326">
+        <v>0</v>
+      </c>
+      <c r="R23" s="320">
+        <v>0</v>
+      </c>
+      <c r="S23" s="147"/>
+      <c r="W23" s="494"/>
+      <c r="X23" s="494"/>
+      <c r="Y23" s="233"/>
+      <c r="Z23" s="128"/>
+    </row>
+    <row r="24" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="23"/>
+      <c r="B24" s="24">
+        <v>44639</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="27">
+        <v>44639</v>
+      </c>
+      <c r="F24" s="28"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="36">
+        <v>44639</v>
+      </c>
+      <c r="I24" s="30"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="173"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="32">
+        <v>0</v>
+      </c>
+      <c r="N24" s="33">
+        <v>0</v>
+      </c>
+      <c r="P24" s="39">
+        <f>N24+M24+L24+I24+C24</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="326">
+        <v>0</v>
+      </c>
+      <c r="R24" s="320">
+        <v>0</v>
+      </c>
+      <c r="S24" s="147"/>
+      <c r="W24" s="494"/>
+      <c r="X24" s="494"/>
+      <c r="Y24" s="233"/>
+      <c r="Z24" s="128"/>
+    </row>
+    <row r="25" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="23"/>
+      <c r="B25" s="24">
+        <v>44640</v>
+      </c>
+      <c r="C25" s="25"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="27">
+        <v>44640</v>
+      </c>
+      <c r="F25" s="28"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="36">
+        <v>44640</v>
+      </c>
+      <c r="I25" s="30"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="32">
+        <v>0</v>
+      </c>
+      <c r="N25" s="33">
+        <v>0</v>
+      </c>
+      <c r="P25" s="283">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="326">
+        <v>0</v>
+      </c>
+      <c r="R25" s="320">
+        <v>0</v>
+      </c>
+      <c r="W25" s="495"/>
+      <c r="X25" s="495"/>
+      <c r="Y25" s="233"/>
+      <c r="Z25" s="128"/>
+    </row>
+    <row r="26" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="23"/>
+      <c r="B26" s="24">
+        <v>44641</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="27">
+        <v>44641</v>
+      </c>
+      <c r="F26" s="28"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="36">
+        <v>44641</v>
+      </c>
+      <c r="I26" s="30"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="173"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="32">
+        <v>0</v>
+      </c>
+      <c r="N26" s="33">
+        <v>0</v>
+      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" s="284">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="326">
+        <v>0</v>
+      </c>
+      <c r="R26" s="320">
+        <v>0</v>
+      </c>
+      <c r="W26" s="495"/>
+      <c r="X26" s="495"/>
+      <c r="Y26" s="233"/>
+      <c r="Z26" s="128"/>
+    </row>
+    <row r="27" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="23"/>
+      <c r="B27" s="24">
+        <v>44642</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="27">
+        <v>44642</v>
+      </c>
+      <c r="F27" s="28"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="36">
+        <v>44642</v>
+      </c>
+      <c r="I27" s="30"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="174"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="32">
+        <v>0</v>
+      </c>
+      <c r="N27" s="33">
+        <v>0</v>
+      </c>
+      <c r="O27" s="2"/>
+      <c r="P27" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="326">
+        <v>0</v>
+      </c>
+      <c r="R27" s="320">
+        <v>0</v>
+      </c>
+      <c r="W27" s="488"/>
+      <c r="X27" s="489"/>
+      <c r="Y27" s="490"/>
+      <c r="Z27" s="128"/>
+    </row>
+    <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="23"/>
+      <c r="B28" s="24">
+        <v>44643</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="27">
+        <v>44643</v>
+      </c>
+      <c r="F28" s="28"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="36">
+        <v>44643</v>
+      </c>
+      <c r="I28" s="30"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="32">
+        <v>0</v>
+      </c>
+      <c r="N28" s="33">
+        <v>0</v>
+      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="326">
+        <v>0</v>
+      </c>
+      <c r="R28" s="320">
+        <v>0</v>
+      </c>
+      <c r="W28" s="489"/>
+      <c r="X28" s="489"/>
+      <c r="Y28" s="490"/>
+      <c r="Z28" s="128"/>
+    </row>
+    <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="23"/>
+      <c r="B29" s="24">
+        <v>44644</v>
+      </c>
+      <c r="C29" s="25"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="27">
+        <v>44644</v>
+      </c>
+      <c r="F29" s="28"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="36">
+        <v>44644</v>
+      </c>
+      <c r="I29" s="30"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="175"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="32">
+        <v>0</v>
+      </c>
+      <c r="N29" s="33">
+        <v>0</v>
+      </c>
+      <c r="O29" s="559"/>
+      <c r="P29" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="326">
+        <v>0</v>
+      </c>
+      <c r="R29" s="320">
+        <v>0</v>
+      </c>
+      <c r="T29" s="448">
+        <v>7491</v>
+      </c>
+      <c r="U29" s="337"/>
+      <c r="W29" s="128"/>
+      <c r="X29" s="311"/>
+      <c r="Y29" s="312"/>
+      <c r="Z29" s="128"/>
+    </row>
+    <row r="30" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="23"/>
+      <c r="B30" s="24">
+        <v>44645</v>
+      </c>
+      <c r="C30" s="25"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="27">
+        <v>44645</v>
+      </c>
+      <c r="F30" s="28"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="36">
+        <v>44645</v>
+      </c>
+      <c r="I30" s="30"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="32">
+        <v>0</v>
+      </c>
+      <c r="N30" s="33">
+        <v>0</v>
+      </c>
+      <c r="O30" s="560"/>
+      <c r="P30" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="326">
+        <v>0</v>
+      </c>
+      <c r="R30" s="321">
+        <v>0</v>
+      </c>
+      <c r="T30" s="448">
+        <v>26626</v>
+      </c>
+      <c r="X30" s="225"/>
+      <c r="Y30" s="227"/>
+    </row>
+    <row r="31" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="23"/>
+      <c r="B31" s="24">
+        <v>44646</v>
+      </c>
+      <c r="C31" s="25"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="27">
+        <v>44646</v>
+      </c>
+      <c r="F31" s="28"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="36">
+        <v>44646</v>
+      </c>
+      <c r="I31" s="30"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="32">
+        <v>0</v>
+      </c>
+      <c r="N31" s="33">
+        <v>0</v>
+      </c>
+      <c r="O31" s="559"/>
+      <c r="P31" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="326">
+        <v>0</v>
+      </c>
+      <c r="R31" s="322">
+        <v>0</v>
+      </c>
+      <c r="T31" s="448">
+        <v>10137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="23"/>
+      <c r="B32" s="24">
+        <v>44647</v>
+      </c>
+      <c r="C32" s="25"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="27">
+        <v>44647</v>
+      </c>
+      <c r="F32" s="28"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="36">
+        <v>44647</v>
+      </c>
+      <c r="I32" s="30"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="32">
+        <v>0</v>
+      </c>
+      <c r="N32" s="33">
+        <v>0</v>
+      </c>
+      <c r="O32" s="2"/>
+      <c r="P32" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="326">
+        <v>0</v>
+      </c>
+      <c r="R32" s="228">
+        <v>0</v>
+      </c>
+      <c r="T32" s="448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="23"/>
+      <c r="B33" s="24">
+        <v>44648</v>
+      </c>
+      <c r="C33" s="25"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="27">
+        <v>44648</v>
+      </c>
+      <c r="F33" s="28"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="36">
+        <v>44648</v>
+      </c>
+      <c r="I33" s="30"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="247"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="32">
+        <v>0</v>
+      </c>
+      <c r="N33" s="33">
+        <v>0</v>
+      </c>
+      <c r="O33" s="2"/>
+      <c r="P33" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="111">
+        <f t="shared" ref="Q7:Q35" si="1">P33-F33</f>
+        <v>0</v>
+      </c>
+      <c r="R33" s="228"/>
+      <c r="T33" s="449">
+        <f>SUM(T29:T32)</f>
+        <v>44254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="23"/>
+      <c r="B34" s="24">
+        <v>44649</v>
+      </c>
+      <c r="C34" s="25"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="27">
+        <v>44649</v>
+      </c>
+      <c r="F34" s="28"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="36">
+        <v>44649</v>
+      </c>
+      <c r="I34" s="30"/>
+      <c r="J34" s="266"/>
+      <c r="K34" s="248"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="32">
+        <v>0</v>
+      </c>
+      <c r="N34" s="33">
+        <v>0</v>
+      </c>
+      <c r="O34" s="2"/>
+      <c r="P34" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="228"/>
+    </row>
+    <row r="35" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="23"/>
+      <c r="B35" s="24">
+        <v>44650</v>
+      </c>
+      <c r="C35" s="25"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="27">
+        <v>44650</v>
+      </c>
+      <c r="F35" s="28"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="36">
+        <v>44650</v>
+      </c>
+      <c r="I35" s="30"/>
+      <c r="J35" s="266"/>
+      <c r="K35" s="249"/>
+      <c r="L35" s="66"/>
+      <c r="M35" s="267">
+        <v>0</v>
+      </c>
+      <c r="N35" s="268">
+        <v>0</v>
+      </c>
+      <c r="P35" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="444">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="228"/>
+    </row>
+    <row r="36" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="23"/>
+      <c r="B36" s="24">
+        <v>44651</v>
+      </c>
+      <c r="C36" s="25"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="27">
+        <v>44651</v>
+      </c>
+      <c r="F36" s="28"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="36">
+        <v>44651</v>
+      </c>
+      <c r="I36" s="30"/>
+      <c r="J36" s="266"/>
+      <c r="K36" s="250"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="506">
+        <f>SUM(M5:M35)</f>
+        <v>0</v>
+      </c>
+      <c r="N36" s="508">
+        <f>SUM(N5:N35)</f>
+        <v>0</v>
+      </c>
+      <c r="O36" s="276"/>
+      <c r="P36" s="277">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="533">
+        <f>SUM(Q5:Q35)</f>
+        <v>0</v>
+      </c>
+      <c r="R36" s="228"/>
+    </row>
+    <row r="37" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="23"/>
+      <c r="B37" s="24">
+        <v>44652</v>
+      </c>
+      <c r="C37" s="25"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="27">
+        <v>44652</v>
+      </c>
+      <c r="F37" s="28"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="36">
+        <v>44652</v>
+      </c>
+      <c r="I37" s="30"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="61"/>
+      <c r="M37" s="507"/>
+      <c r="N37" s="509"/>
+      <c r="O37" s="276"/>
+      <c r="P37" s="277">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="534"/>
+      <c r="R37" s="227" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="23"/>
+      <c r="B38" s="24">
+        <v>44653</v>
+      </c>
+      <c r="C38" s="25"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="27">
+        <v>44653</v>
+      </c>
+      <c r="F38" s="28"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="36">
+        <v>44653</v>
+      </c>
+      <c r="I38" s="30"/>
+      <c r="J38" s="60"/>
+      <c r="K38" s="177"/>
+      <c r="L38" s="61"/>
+      <c r="M38" s="270"/>
+      <c r="N38" s="271"/>
+      <c r="P38" s="151">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="274"/>
+    </row>
+    <row r="39" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="23"/>
+      <c r="B39" s="24">
+        <v>44654</v>
+      </c>
+      <c r="C39" s="69"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="27">
+        <v>44654</v>
+      </c>
+      <c r="F39" s="70"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="36">
+        <v>44654</v>
+      </c>
+      <c r="I39" s="71"/>
+      <c r="J39" s="60"/>
+      <c r="K39" s="177"/>
+      <c r="L39" s="61"/>
+      <c r="M39" s="535">
+        <f>M36+N36</f>
+        <v>0</v>
+      </c>
+      <c r="N39" s="536"/>
+      <c r="P39" s="34">
+        <f>SUM(P5:P38)</f>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="275"/>
+    </row>
+    <row r="40" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="23"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="71"/>
+      <c r="J40" s="60"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="61"/>
+      <c r="M40" s="278"/>
+      <c r="N40" s="278"/>
+      <c r="P40" s="34"/>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="23"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="77"/>
+      <c r="J41" s="60"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="61"/>
+      <c r="M41" s="269"/>
+      <c r="N41" s="269"/>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="23"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="77"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="173"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="269"/>
+      <c r="N42" s="269"/>
+      <c r="P42" s="34"/>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="23"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="77"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="54"/>
+      <c r="M43" s="269"/>
+      <c r="N43" s="269"/>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="23"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="77"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="61"/>
+      <c r="M44" s="269"/>
+      <c r="N44" s="269"/>
+      <c r="P44" s="34"/>
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="23"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="76"/>
+      <c r="I45" s="77"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="41"/>
+      <c r="L45" s="61"/>
+      <c r="M45" s="269"/>
+      <c r="N45" s="269"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="23"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="76"/>
+      <c r="I46" s="77"/>
+      <c r="J46" s="60"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="61"/>
+      <c r="M46" s="269"/>
+      <c r="N46" s="269"/>
+      <c r="P46" s="34"/>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="23"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="76"/>
+      <c r="I47" s="77"/>
+      <c r="J47" s="60"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="61"/>
+      <c r="M47" s="269"/>
+      <c r="N47" s="269"/>
+      <c r="P47" s="34"/>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="23"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="75"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="76"/>
+      <c r="I48" s="77"/>
+      <c r="J48" s="60"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="61"/>
+      <c r="M48" s="269"/>
+      <c r="N48" s="269"/>
+      <c r="P48" s="34"/>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="23"/>
+      <c r="B49" s="80"/>
+      <c r="C49" s="25">
+        <v>0</v>
+      </c>
+      <c r="D49" s="81"/>
+      <c r="E49" s="82"/>
+      <c r="F49" s="72"/>
+      <c r="H49" s="83"/>
+      <c r="I49" s="77"/>
+      <c r="J49" s="84"/>
+      <c r="K49" s="164"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="34"/>
+      <c r="N49" s="34"/>
+      <c r="P49" s="34"/>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="87">
+        <f>SUM(C5:C49)</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="88"/>
+      <c r="E50" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="90">
+        <f>SUM(F5:F49)</f>
+        <v>0</v>
+      </c>
+      <c r="G50" s="88"/>
+      <c r="H50" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="I50" s="92">
+        <f>SUM(I5:I49)</f>
+        <v>0</v>
+      </c>
+      <c r="J50" s="93"/>
+      <c r="K50" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="L50" s="95">
+        <f>SUM(L5:L49)</f>
+        <v>0</v>
+      </c>
+      <c r="M50" s="96"/>
+      <c r="N50" s="96"/>
+      <c r="P50" s="34"/>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" spans="1:17" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P51" s="34"/>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="98"/>
+      <c r="B52" s="99"/>
+      <c r="C52" s="1"/>
+      <c r="H52" s="461" t="s">
+        <v>11</v>
+      </c>
+      <c r="I52" s="462"/>
+      <c r="J52" s="100"/>
+      <c r="K52" s="463">
+        <f>I50+L50</f>
+        <v>0</v>
+      </c>
+      <c r="L52" s="496"/>
+      <c r="M52" s="272"/>
+      <c r="N52" s="272"/>
+      <c r="P52" s="34"/>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D53" s="467" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="467"/>
+      <c r="F53" s="313">
+        <f>F50-K52-C50</f>
+        <v>0</v>
+      </c>
+      <c r="I53" s="102"/>
+      <c r="J53" s="103"/>
+    </row>
+    <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D54" s="497" t="s">
+        <v>95</v>
+      </c>
+      <c r="E54" s="497"/>
+      <c r="F54" s="111">
+        <v>0</v>
+      </c>
+      <c r="I54" s="468" t="s">
+        <v>13</v>
+      </c>
+      <c r="J54" s="469"/>
+      <c r="K54" s="470">
+        <f>F56+F57+F58</f>
+        <v>0</v>
+      </c>
+      <c r="L54" s="470"/>
+      <c r="M54" s="423"/>
+      <c r="N54" s="423"/>
+      <c r="O54" s="423"/>
+      <c r="P54" s="423"/>
+      <c r="Q54" s="423"/>
+    </row>
+    <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D55" s="314" t="s">
+        <v>94</v>
+      </c>
+      <c r="E55" s="315"/>
+      <c r="F55" s="316">
+        <v>0</v>
+      </c>
+      <c r="I55" s="105"/>
+      <c r="J55" s="106"/>
+      <c r="K55" s="178"/>
+      <c r="L55" s="107"/>
+      <c r="M55" s="423"/>
+      <c r="N55" s="423"/>
+      <c r="O55" s="423"/>
+      <c r="P55" s="423"/>
+      <c r="Q55" s="423"/>
+    </row>
+    <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="98" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="96">
+        <f>SUM(F53:F55)</f>
+        <v>0</v>
+      </c>
+      <c r="H56" s="23"/>
+      <c r="I56" s="108" t="s">
+        <v>15</v>
+      </c>
+      <c r="J56" s="109"/>
+      <c r="K56" s="472">
+        <f>-C4</f>
+        <v>-1266568.45</v>
+      </c>
+      <c r="L56" s="473"/>
+    </row>
+    <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D57" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" s="111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C58" s="112">
+        <v>44619</v>
+      </c>
+      <c r="D58" s="450" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="451"/>
+      <c r="F58" s="113">
+        <v>0</v>
+      </c>
+      <c r="I58" s="452" t="s">
+        <v>198</v>
+      </c>
+      <c r="J58" s="453"/>
+      <c r="K58" s="454">
+        <f>K54+K56</f>
+        <v>-1266568.45</v>
+      </c>
+      <c r="L58" s="454"/>
+    </row>
+    <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C59" s="114"/>
+      <c r="D59" s="115"/>
+      <c r="E59" s="116"/>
+      <c r="F59" s="117"/>
+      <c r="J59" s="118"/>
+    </row>
+    <row r="60" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I60" s="119"/>
+      <c r="J60" s="119"/>
+      <c r="K60" s="179"/>
+      <c r="L60" s="120"/>
+    </row>
+    <row r="61" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="121"/>
+      <c r="C61" s="122"/>
+      <c r="D61" s="123"/>
+      <c r="E61" s="34"/>
+      <c r="I61" s="119"/>
+      <c r="J61" s="119"/>
+      <c r="K61" s="179"/>
+      <c r="L61" s="120"/>
+      <c r="M61" s="124"/>
+      <c r="N61" s="98"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B62" s="121"/>
+      <c r="C62" s="125"/>
+      <c r="E62" s="34"/>
+      <c r="M62" s="124"/>
+      <c r="N62" s="98"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B63" s="121"/>
+      <c r="C63" s="125"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="126"/>
+      <c r="L63" s="127"/>
+      <c r="M63" s="1"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B64" s="121"/>
+      <c r="C64" s="125"/>
+      <c r="E64" s="34"/>
+      <c r="M64" s="1"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B65" s="121"/>
+      <c r="C65" s="125"/>
+      <c r="D65" s="128"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="129"/>
+      <c r="M65" s="1"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D66" s="128"/>
+      <c r="E66" s="130"/>
+      <c r="F66" s="34"/>
+      <c r="M66" s="1"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D67" s="128"/>
+      <c r="E67" s="130"/>
+      <c r="F67" s="34"/>
+      <c r="M67" s="1"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D68" s="128"/>
+      <c r="E68" s="130"/>
+      <c r="F68" s="34"/>
+      <c r="M68" s="1"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D69" s="128"/>
+      <c r="E69" s="130"/>
+      <c r="F69" s="34"/>
+      <c r="M69" s="1"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D70" s="128"/>
+      <c r="E70" s="130"/>
+      <c r="F70" s="34"/>
+      <c r="M70" s="1"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D71" s="128"/>
+      <c r="E71" s="130"/>
+      <c r="F71" s="34"/>
+      <c r="M71" s="1"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D72" s="128"/>
+      <c r="E72" s="130"/>
+      <c r="F72" s="34"/>
+      <c r="M72" s="1"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D73" s="128"/>
+      <c r="E73" s="130"/>
+      <c r="F73" s="34"/>
+      <c r="M73" s="1"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D74" s="128"/>
+      <c r="E74" s="130"/>
+      <c r="F74" s="34"/>
+      <c r="M74" s="1"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D75" s="128"/>
+      <c r="E75" s="130"/>
+      <c r="F75" s="34"/>
+      <c r="M75" s="1"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D76" s="128"/>
+      <c r="E76" s="130"/>
+      <c r="F76" s="34"/>
+      <c r="M76" s="1"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D77" s="128"/>
+      <c r="E77" s="130"/>
+      <c r="F77" s="34"/>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D78" s="128"/>
+      <c r="E78" s="128"/>
+      <c r="F78" s="129"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D79" s="128"/>
+      <c r="E79" s="128"/>
+      <c r="F79" s="129"/>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D80" s="128"/>
+      <c r="E80" s="128"/>
+      <c r="F80" s="129"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+  </mergeCells>
+  <pageMargins left="0.27559055118110237" right="0.15748031496062992" top="0.39370078740157483" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:N115"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" style="98" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="257" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="98" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="116" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="43.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="290" t="s">
+        <v>324</v>
+      </c>
+      <c r="B1" s="291"/>
+      <c r="C1" s="292"/>
+      <c r="D1" s="373"/>
+      <c r="E1" s="292"/>
+      <c r="F1" s="380" t="s">
+        <v>314</v>
+      </c>
+      <c r="I1" s="301" t="s">
+        <v>325</v>
+      </c>
+      <c r="J1" s="302"/>
+      <c r="K1" s="303"/>
+      <c r="L1" s="304"/>
+      <c r="M1" s="303"/>
+      <c r="N1" s="379" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="297" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="298" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="299" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="370" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="300" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="289" t="s">
+        <v>210</v>
+      </c>
+      <c r="I2" s="297" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="309" t="s">
+        <v>265</v>
+      </c>
+      <c r="K2" s="299" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="298" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="299" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="310" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="412"/>
+      <c r="B3" s="413"/>
+      <c r="C3" s="411"/>
+      <c r="D3" s="424"/>
+      <c r="E3" s="411"/>
+      <c r="F3" s="411">
+        <f>C3-E3</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="437"/>
+      <c r="J3" s="438"/>
+      <c r="K3" s="432"/>
+      <c r="L3" s="437"/>
+      <c r="M3" s="432"/>
+      <c r="N3" s="183">
+        <f>K3-M3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="412"/>
+      <c r="B4" s="413"/>
+      <c r="C4" s="411"/>
+      <c r="D4" s="424"/>
+      <c r="E4" s="411"/>
+      <c r="F4" s="411">
+        <f t="shared" ref="F4:F46" si="0">C4-E4</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="138"/>
+      <c r="I4" s="288"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="288"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="137">
+        <f>N3+K4-M4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="412"/>
+      <c r="B5" s="413"/>
+      <c r="C5" s="411"/>
+      <c r="D5" s="424"/>
+      <c r="E5" s="411"/>
+      <c r="F5" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="288"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="288"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="137">
+        <f t="shared" ref="N5:N68" si="1">N4+K5-M5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="412"/>
+      <c r="B6" s="413"/>
+      <c r="C6" s="411"/>
+      <c r="D6" s="424"/>
+      <c r="E6" s="411"/>
+      <c r="F6" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="288"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="288"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="412"/>
+      <c r="B7" s="413"/>
+      <c r="C7" s="411"/>
+      <c r="D7" s="424"/>
+      <c r="E7" s="411"/>
+      <c r="F7" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="288"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="288"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="412"/>
+      <c r="B8" s="413"/>
+      <c r="C8" s="411"/>
+      <c r="D8" s="424"/>
+      <c r="E8" s="411"/>
+      <c r="F8" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="288"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="288"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="412"/>
+      <c r="B9" s="413"/>
+      <c r="C9" s="411"/>
+      <c r="D9" s="424"/>
+      <c r="E9" s="411"/>
+      <c r="F9" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="288"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="288"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="412"/>
+      <c r="B10" s="413"/>
+      <c r="C10" s="411"/>
+      <c r="D10" s="424"/>
+      <c r="E10" s="411"/>
+      <c r="F10" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="138"/>
+      <c r="I10" s="288"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="288"/>
+      <c r="M10" s="111"/>
+      <c r="N10" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="412"/>
+      <c r="B11" s="413"/>
+      <c r="C11" s="411"/>
+      <c r="D11" s="424"/>
+      <c r="E11" s="411"/>
+      <c r="F11" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="288"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="288"/>
+      <c r="M11" s="111"/>
+      <c r="N11" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="412"/>
+      <c r="B12" s="413"/>
+      <c r="C12" s="411"/>
+      <c r="D12" s="424"/>
+      <c r="E12" s="411"/>
+      <c r="F12" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="288"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="288"/>
+      <c r="M12" s="111"/>
+      <c r="N12" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="412"/>
+      <c r="B13" s="413"/>
+      <c r="C13" s="411"/>
+      <c r="D13" s="424"/>
+      <c r="E13" s="411"/>
+      <c r="F13" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="288"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="288"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="412"/>
+      <c r="B14" s="413"/>
+      <c r="C14" s="411"/>
+      <c r="D14" s="424"/>
+      <c r="E14" s="411"/>
+      <c r="F14" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="288"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="288"/>
+      <c r="M14" s="111"/>
+      <c r="N14" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="412"/>
+      <c r="B15" s="413"/>
+      <c r="C15" s="411"/>
+      <c r="D15" s="424"/>
+      <c r="E15" s="411"/>
+      <c r="F15" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="288"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="111"/>
+      <c r="L15" s="288"/>
+      <c r="M15" s="111"/>
+      <c r="N15" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="412"/>
+      <c r="B16" s="413"/>
+      <c r="C16" s="411"/>
+      <c r="D16" s="424"/>
+      <c r="E16" s="411"/>
+      <c r="F16" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="288"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="288"/>
+      <c r="M16" s="111"/>
+      <c r="N16" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="412"/>
+      <c r="B17" s="413"/>
+      <c r="C17" s="411"/>
+      <c r="D17" s="425"/>
+      <c r="E17" s="411"/>
+      <c r="F17" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="288"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="111"/>
+      <c r="L17" s="288"/>
+      <c r="M17" s="111"/>
+      <c r="N17" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="412"/>
+      <c r="B18" s="413"/>
+      <c r="C18" s="411"/>
+      <c r="D18" s="424"/>
+      <c r="E18" s="411"/>
+      <c r="F18" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="288"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="111"/>
+      <c r="L18" s="288"/>
+      <c r="M18" s="111"/>
+      <c r="N18" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="412"/>
+      <c r="B19" s="413"/>
+      <c r="C19" s="411"/>
+      <c r="D19" s="424"/>
+      <c r="E19" s="411"/>
+      <c r="F19" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="288"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="111"/>
+      <c r="L19" s="288"/>
+      <c r="M19" s="111"/>
+      <c r="N19" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="412"/>
+      <c r="B20" s="413"/>
+      <c r="C20" s="411"/>
+      <c r="D20" s="424"/>
+      <c r="E20" s="411"/>
+      <c r="F20" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="288"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="111"/>
+      <c r="L20" s="288"/>
+      <c r="M20" s="111"/>
+      <c r="N20" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="412"/>
+      <c r="B21" s="413"/>
+      <c r="C21" s="411"/>
+      <c r="D21" s="424"/>
+      <c r="E21" s="411"/>
+      <c r="F21" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="288"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="111"/>
+      <c r="L21" s="288"/>
+      <c r="M21" s="111"/>
+      <c r="N21" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="412"/>
+      <c r="B22" s="413"/>
+      <c r="C22" s="411"/>
+      <c r="D22" s="424"/>
+      <c r="E22" s="411"/>
+      <c r="F22" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="138"/>
+      <c r="I22" s="288"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="111"/>
+      <c r="L22" s="288"/>
+      <c r="M22" s="111"/>
+      <c r="N22" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="412"/>
+      <c r="B23" s="413"/>
+      <c r="C23" s="411"/>
+      <c r="D23" s="424"/>
+      <c r="E23" s="411"/>
+      <c r="F23" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="288"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="111"/>
+      <c r="L23" s="288"/>
+      <c r="M23" s="111"/>
+      <c r="N23" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="412"/>
+      <c r="B24" s="413"/>
+      <c r="C24" s="411"/>
+      <c r="D24" s="424"/>
+      <c r="E24" s="411"/>
+      <c r="F24" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="288"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="111"/>
+      <c r="L24" s="288"/>
+      <c r="M24" s="111"/>
+      <c r="N24" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="412"/>
+      <c r="B25" s="413"/>
+      <c r="C25" s="411"/>
+      <c r="D25" s="424"/>
+      <c r="E25" s="411"/>
+      <c r="F25" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="288"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="111"/>
+      <c r="L25" s="288"/>
+      <c r="M25" s="111"/>
+      <c r="N25" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="412"/>
+      <c r="B26" s="413"/>
+      <c r="C26" s="411"/>
+      <c r="D26" s="424"/>
+      <c r="E26" s="411"/>
+      <c r="F26" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="288"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="111"/>
+      <c r="L26" s="288"/>
+      <c r="M26" s="111"/>
+      <c r="N26" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="412"/>
+      <c r="B27" s="413"/>
+      <c r="C27" s="411"/>
+      <c r="D27" s="425"/>
+      <c r="E27" s="411"/>
+      <c r="F27" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="288"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="111"/>
+      <c r="L27" s="288"/>
+      <c r="M27" s="111"/>
+      <c r="N27" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="412"/>
+      <c r="B28" s="413"/>
+      <c r="C28" s="411"/>
+      <c r="D28" s="424"/>
+      <c r="E28" s="411"/>
+      <c r="F28" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="288"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="111"/>
+      <c r="L28" s="288"/>
+      <c r="M28" s="111"/>
+      <c r="N28" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="412"/>
+      <c r="B29" s="413"/>
+      <c r="C29" s="411"/>
+      <c r="D29" s="424"/>
+      <c r="E29" s="411"/>
+      <c r="F29" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="288"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="111"/>
+      <c r="L29" s="288"/>
+      <c r="M29" s="111"/>
+      <c r="N29" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="412"/>
+      <c r="B30" s="413"/>
+      <c r="C30" s="411"/>
+      <c r="D30" s="424"/>
+      <c r="E30" s="411"/>
+      <c r="F30" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="138"/>
+      <c r="I30" s="288"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="111"/>
+      <c r="L30" s="288"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="412"/>
+      <c r="B31" s="413"/>
+      <c r="C31" s="411"/>
+      <c r="D31" s="424"/>
+      <c r="E31" s="411"/>
+      <c r="F31" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="288"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="111"/>
+      <c r="L31" s="288"/>
+      <c r="M31" s="69"/>
+      <c r="N31" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="412"/>
+      <c r="B32" s="413"/>
+      <c r="C32" s="411"/>
+      <c r="D32" s="424"/>
+      <c r="E32" s="411"/>
+      <c r="F32" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="288"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="111"/>
+      <c r="L32" s="288"/>
+      <c r="M32" s="69"/>
+      <c r="N32" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="412"/>
+      <c r="B33" s="413"/>
+      <c r="C33" s="411"/>
+      <c r="D33" s="424"/>
+      <c r="E33" s="411"/>
+      <c r="F33" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="288"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="111"/>
+      <c r="L33" s="288"/>
+      <c r="M33" s="69"/>
+      <c r="N33" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="412"/>
+      <c r="B34" s="413"/>
+      <c r="C34" s="411"/>
+      <c r="D34" s="424"/>
+      <c r="E34" s="411"/>
+      <c r="F34" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="288"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="111"/>
+      <c r="L34" s="288"/>
+      <c r="M34" s="69"/>
+      <c r="N34" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="412"/>
+      <c r="B35" s="413"/>
+      <c r="C35" s="411"/>
+      <c r="D35" s="424"/>
+      <c r="E35" s="411"/>
+      <c r="F35" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="288"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="111"/>
+      <c r="L35" s="288"/>
+      <c r="M35" s="69"/>
+      <c r="N35" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="412"/>
+      <c r="B36" s="413"/>
+      <c r="C36" s="411"/>
+      <c r="D36" s="424"/>
+      <c r="E36" s="411"/>
+      <c r="F36" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="288"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="111"/>
+      <c r="L36" s="288"/>
+      <c r="M36" s="69"/>
+      <c r="N36" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="412"/>
+      <c r="B37" s="413"/>
+      <c r="C37" s="411"/>
+      <c r="D37" s="424"/>
+      <c r="E37" s="411"/>
+      <c r="F37" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="288"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="111"/>
+      <c r="L37" s="288"/>
+      <c r="M37" s="69"/>
+      <c r="N37" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="412"/>
+      <c r="B38" s="431"/>
+      <c r="C38" s="432"/>
+      <c r="D38" s="433"/>
+      <c r="E38" s="432"/>
+      <c r="F38" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="288"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="111"/>
+      <c r="L38" s="288"/>
+      <c r="M38" s="69"/>
+      <c r="N38" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="412"/>
+      <c r="B39" s="245"/>
+      <c r="C39" s="111"/>
+      <c r="D39" s="434"/>
+      <c r="E39" s="111"/>
+      <c r="F39" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="288"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="111"/>
+      <c r="L39" s="288"/>
+      <c r="M39" s="69"/>
+      <c r="N39" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="412"/>
+      <c r="B40" s="245"/>
+      <c r="C40" s="111"/>
+      <c r="D40" s="434"/>
+      <c r="E40" s="111"/>
+      <c r="F40" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="288"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="111"/>
+      <c r="L40" s="288"/>
+      <c r="M40" s="69"/>
+      <c r="N40" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="412"/>
+      <c r="B41" s="245"/>
+      <c r="C41" s="111"/>
+      <c r="D41" s="434"/>
+      <c r="E41" s="111"/>
+      <c r="F41" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="288"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="111"/>
+      <c r="L41" s="288"/>
+      <c r="M41" s="69"/>
+      <c r="N41" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="430"/>
+      <c r="B42" s="246"/>
+      <c r="C42" s="111"/>
+      <c r="D42" s="253"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="288"/>
+      <c r="J42" s="57"/>
+      <c r="K42" s="111"/>
+      <c r="L42" s="288"/>
+      <c r="M42" s="69"/>
+      <c r="N42" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="430"/>
+      <c r="B43" s="435"/>
+      <c r="C43" s="435"/>
+      <c r="D43" s="435"/>
+      <c r="E43" s="435"/>
+      <c r="F43" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="288"/>
+      <c r="J43" s="57"/>
+      <c r="K43" s="111"/>
+      <c r="L43" s="288"/>
+      <c r="M43" s="69"/>
+      <c r="N43" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="430"/>
+      <c r="B44" s="435"/>
+      <c r="C44" s="435"/>
+      <c r="D44" s="435"/>
+      <c r="E44" s="435"/>
+      <c r="F44" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="288"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="111"/>
+      <c r="L44" s="288"/>
+      <c r="M44" s="69"/>
+      <c r="N44" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="430"/>
+      <c r="B45" s="435"/>
+      <c r="C45" s="435"/>
+      <c r="D45" s="435"/>
+      <c r="E45" s="435"/>
+      <c r="F45" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="288"/>
+      <c r="J45" s="57"/>
+      <c r="K45" s="111"/>
+      <c r="L45" s="288"/>
+      <c r="M45" s="69"/>
+      <c r="N45" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="430"/>
+      <c r="B46" s="246"/>
+      <c r="C46" s="111"/>
+      <c r="D46" s="253"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="288"/>
+      <c r="J46" s="57"/>
+      <c r="K46" s="111"/>
+      <c r="L46" s="288"/>
+      <c r="M46" s="69"/>
+      <c r="N46" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="245"/>
+      <c r="B47" s="246"/>
+      <c r="C47" s="111"/>
+      <c r="D47" s="253"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="137">
+        <f t="shared" ref="F47:F78" si="2">F46+C47-E47</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="351"/>
+      <c r="J47" s="439"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="440"/>
+      <c r="M47" s="215"/>
+      <c r="N47" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="245"/>
+      <c r="B48" s="246"/>
+      <c r="C48" s="111"/>
+      <c r="D48" s="253"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="349"/>
+      <c r="J48" s="436"/>
+      <c r="K48" s="436"/>
+      <c r="L48" s="436"/>
+      <c r="M48" s="206"/>
+      <c r="N48" s="137">
+        <f>N47+K48-M48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="134"/>
+      <c r="B49" s="139"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="253"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="349"/>
+      <c r="J49" s="436"/>
+      <c r="K49" s="436"/>
+      <c r="L49" s="436"/>
+      <c r="M49" s="206"/>
+      <c r="N49" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="134"/>
+      <c r="B50" s="139"/>
+      <c r="C50" s="69"/>
+      <c r="D50" s="253"/>
+      <c r="E50" s="69"/>
+      <c r="F50" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="134"/>
+      <c r="J50" s="428"/>
+      <c r="K50" s="215">
+        <v>0</v>
+      </c>
+      <c r="L50" s="429"/>
+      <c r="M50" s="69"/>
+      <c r="N50" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="134"/>
+      <c r="B51" s="139"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="253"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="134"/>
+      <c r="J51" s="139"/>
+      <c r="K51" s="69"/>
+      <c r="L51" s="140"/>
+      <c r="M51" s="69"/>
+      <c r="N51" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="134"/>
+      <c r="B52" s="139"/>
+      <c r="C52" s="69"/>
+      <c r="D52" s="253"/>
+      <c r="E52" s="69"/>
+      <c r="F52" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="134"/>
+      <c r="J52" s="139"/>
+      <c r="K52" s="69"/>
+      <c r="L52" s="140"/>
+      <c r="M52" s="69"/>
+      <c r="N52" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="134"/>
+      <c r="B53" s="139"/>
+      <c r="C53" s="69"/>
+      <c r="D53" s="253"/>
+      <c r="E53" s="69"/>
+      <c r="F53" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="134"/>
+      <c r="J53" s="139"/>
+      <c r="K53" s="69"/>
+      <c r="L53" s="140"/>
+      <c r="M53" s="69"/>
+      <c r="N53" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="134"/>
+      <c r="B54" s="139"/>
+      <c r="C54" s="69"/>
+      <c r="D54" s="253"/>
+      <c r="E54" s="69"/>
+      <c r="F54" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="134"/>
+      <c r="J54" s="139"/>
+      <c r="K54" s="69"/>
+      <c r="L54" s="140"/>
+      <c r="M54" s="69"/>
+      <c r="N54" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="134"/>
+      <c r="B55" s="139"/>
+      <c r="C55" s="69"/>
+      <c r="D55" s="253"/>
+      <c r="E55" s="69"/>
+      <c r="F55" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="134"/>
+      <c r="J55" s="139"/>
+      <c r="K55" s="69"/>
+      <c r="L55" s="140"/>
+      <c r="M55" s="69"/>
+      <c r="N55" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="134"/>
+      <c r="B56" s="139"/>
+      <c r="C56" s="69"/>
+      <c r="D56" s="253"/>
+      <c r="E56" s="69"/>
+      <c r="F56" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="134"/>
+      <c r="J56" s="139"/>
+      <c r="K56" s="69"/>
+      <c r="L56" s="140"/>
+      <c r="M56" s="69"/>
+      <c r="N56" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="134"/>
+      <c r="B57" s="139"/>
+      <c r="C57" s="69"/>
+      <c r="D57" s="253"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="134"/>
+      <c r="J57" s="139"/>
+      <c r="K57" s="69"/>
+      <c r="L57" s="140"/>
+      <c r="M57" s="69"/>
+      <c r="N57" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="134"/>
+      <c r="B58" s="139"/>
+      <c r="C58" s="69"/>
+      <c r="D58" s="253"/>
+      <c r="E58" s="69"/>
+      <c r="F58" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="134"/>
+      <c r="J58" s="139"/>
+      <c r="K58" s="69"/>
+      <c r="L58" s="140"/>
+      <c r="M58" s="69"/>
+      <c r="N58" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="134"/>
+      <c r="B59" s="139"/>
+      <c r="C59" s="69"/>
+      <c r="D59" s="253"/>
+      <c r="E59" s="69"/>
+      <c r="F59" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="134"/>
+      <c r="J59" s="139"/>
+      <c r="K59" s="69"/>
+      <c r="L59" s="140"/>
+      <c r="M59" s="69"/>
+      <c r="N59" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="134"/>
+      <c r="B60" s="139"/>
+      <c r="C60" s="69"/>
+      <c r="D60" s="253"/>
+      <c r="E60" s="69"/>
+      <c r="F60" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="134"/>
+      <c r="J60" s="139"/>
+      <c r="K60" s="69"/>
+      <c r="L60" s="140"/>
+      <c r="M60" s="69"/>
+      <c r="N60" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="134"/>
+      <c r="B61" s="139"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="253"/>
+      <c r="E61" s="69"/>
+      <c r="F61" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="134"/>
+      <c r="J61" s="139"/>
+      <c r="K61" s="69"/>
+      <c r="L61" s="140"/>
+      <c r="M61" s="69"/>
+      <c r="N61" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="134"/>
+      <c r="B62" s="139"/>
+      <c r="C62" s="69"/>
+      <c r="D62" s="254"/>
+      <c r="E62" s="69"/>
+      <c r="F62" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="357"/>
+      <c r="J62" s="358"/>
+      <c r="K62" s="34"/>
+      <c r="L62" s="147"/>
+      <c r="M62" s="34"/>
+      <c r="N62" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="134"/>
+      <c r="B63" s="139"/>
+      <c r="C63" s="69"/>
+      <c r="D63" s="254"/>
+      <c r="E63" s="69"/>
+      <c r="F63" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="357"/>
+      <c r="J63" s="358"/>
+      <c r="K63" s="34"/>
+      <c r="L63" s="147"/>
+      <c r="M63" s="34"/>
+      <c r="N63" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="134"/>
+      <c r="B64" s="139"/>
+      <c r="C64" s="69"/>
+      <c r="D64" s="254"/>
+      <c r="E64" s="69"/>
+      <c r="F64" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="357"/>
+      <c r="J64" s="358"/>
+      <c r="K64" s="34"/>
+      <c r="L64" s="147"/>
+      <c r="M64" s="34"/>
+      <c r="N64" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="134"/>
+      <c r="B65" s="139"/>
+      <c r="C65" s="69"/>
+      <c r="D65" s="254"/>
+      <c r="E65" s="69"/>
+      <c r="F65" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="357"/>
+      <c r="J65" s="358"/>
+      <c r="K65" s="34"/>
+      <c r="L65" s="147"/>
+      <c r="M65" s="34"/>
+      <c r="N65" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="134"/>
+      <c r="B66" s="139"/>
+      <c r="C66" s="69"/>
+      <c r="D66" s="254"/>
+      <c r="E66" s="69"/>
+      <c r="F66" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I66" s="357"/>
+      <c r="J66" s="358"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="147"/>
+      <c r="M66" s="34"/>
+      <c r="N66" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="357"/>
+      <c r="B67" s="358"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="118"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I67" s="357"/>
+      <c r="J67" s="358"/>
+      <c r="K67" s="34"/>
+      <c r="L67" s="147"/>
+      <c r="M67" s="34"/>
+      <c r="N67" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="134"/>
+      <c r="B68" s="139"/>
+      <c r="C68" s="69"/>
+      <c r="D68" s="254"/>
+      <c r="E68" s="69"/>
+      <c r="F68" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I68" s="134"/>
+      <c r="J68" s="139"/>
+      <c r="K68" s="69"/>
+      <c r="L68" s="148"/>
+      <c r="M68" s="69"/>
+      <c r="N68" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="134"/>
+      <c r="B69" s="139"/>
+      <c r="C69" s="69"/>
+      <c r="D69" s="254"/>
+      <c r="E69" s="69"/>
+      <c r="F69" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I69" s="134"/>
+      <c r="J69" s="139"/>
+      <c r="K69" s="69"/>
+      <c r="L69" s="148"/>
+      <c r="M69" s="69"/>
+      <c r="N69" s="137">
+        <f t="shared" ref="N69:N78" si="3">N68+K69-M69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="134"/>
+      <c r="B70" s="139"/>
+      <c r="C70" s="69"/>
+      <c r="D70" s="254"/>
+      <c r="E70" s="69"/>
+      <c r="F70" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I70" s="134"/>
+      <c r="J70" s="139"/>
+      <c r="K70" s="69"/>
+      <c r="L70" s="148"/>
+      <c r="M70" s="69"/>
+      <c r="N70" s="137">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="134"/>
+      <c r="B71" s="139"/>
+      <c r="C71" s="69"/>
+      <c r="D71" s="254"/>
+      <c r="E71" s="69"/>
+      <c r="F71" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I71" s="134"/>
+      <c r="J71" s="139"/>
+      <c r="K71" s="69"/>
+      <c r="L71" s="148"/>
+      <c r="M71" s="69"/>
+      <c r="N71" s="137">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="134"/>
+      <c r="B72" s="139"/>
+      <c r="C72" s="69"/>
+      <c r="D72" s="254"/>
+      <c r="E72" s="69"/>
+      <c r="F72" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I72" s="134"/>
+      <c r="J72" s="139"/>
+      <c r="K72" s="69"/>
+      <c r="L72" s="148"/>
+      <c r="M72" s="69"/>
+      <c r="N72" s="137">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="134"/>
+      <c r="B73" s="139"/>
+      <c r="C73" s="69"/>
+      <c r="D73" s="254"/>
+      <c r="E73" s="69"/>
+      <c r="F73" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I73" s="134"/>
+      <c r="J73" s="139"/>
+      <c r="K73" s="69"/>
+      <c r="L73" s="148"/>
+      <c r="M73" s="69"/>
+      <c r="N73" s="137">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="134"/>
+      <c r="B74" s="139"/>
+      <c r="C74" s="69"/>
+      <c r="D74" s="254"/>
+      <c r="E74" s="69"/>
+      <c r="F74" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I74" s="134"/>
+      <c r="J74" s="139"/>
+      <c r="K74" s="69"/>
+      <c r="L74" s="148"/>
+      <c r="M74" s="69"/>
+      <c r="N74" s="137">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="134"/>
+      <c r="B75" s="139"/>
+      <c r="C75" s="69"/>
+      <c r="D75" s="254"/>
+      <c r="E75" s="69"/>
+      <c r="F75" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I75" s="134"/>
+      <c r="J75" s="139"/>
+      <c r="K75" s="69"/>
+      <c r="L75" s="148"/>
+      <c r="M75" s="69"/>
+      <c r="N75" s="137">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="134"/>
+      <c r="B76" s="139"/>
+      <c r="C76" s="69"/>
+      <c r="D76" s="254"/>
+      <c r="E76" s="69"/>
+      <c r="F76" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I76" s="134"/>
+      <c r="J76" s="139"/>
+      <c r="K76" s="69"/>
+      <c r="L76" s="148"/>
+      <c r="M76" s="69"/>
+      <c r="N76" s="137">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="134"/>
+      <c r="B77" s="139"/>
+      <c r="C77" s="69"/>
+      <c r="D77" s="254"/>
+      <c r="E77" s="69"/>
+      <c r="F77" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I77" s="134"/>
+      <c r="J77" s="139"/>
+      <c r="K77" s="69"/>
+      <c r="L77" s="148"/>
+      <c r="M77" s="69"/>
+      <c r="N77" s="137">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="149"/>
+      <c r="B78" s="210"/>
+      <c r="C78" s="34">
+        <v>0</v>
+      </c>
+      <c r="D78" s="255"/>
+      <c r="E78" s="151"/>
+      <c r="F78" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I78" s="149"/>
+      <c r="J78" s="150"/>
+      <c r="K78" s="151">
+        <v>0</v>
+      </c>
+      <c r="L78" s="152"/>
+      <c r="M78" s="151"/>
+      <c r="N78" s="137">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="211"/>
+      <c r="C79" s="212">
+        <f>SUM(C3:C78)</f>
+        <v>0</v>
+      </c>
+      <c r="D79" s="426"/>
+      <c r="E79" s="414">
+        <f>SUM(E3:E78)</f>
+        <v>0</v>
+      </c>
+      <c r="F79" s="153">
+        <f>SUM(F3:F78)</f>
+        <v>0</v>
+      </c>
+      <c r="K79" s="209">
+        <f>SUM(K3:K78)</f>
+        <v>0</v>
+      </c>
+      <c r="L79" s="209"/>
+      <c r="M79" s="209">
+        <f>SUM(M3:M78)</f>
+        <v>0</v>
+      </c>
+      <c r="N79" s="153">
+        <f>N78</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="213"/>
+      <c r="C80" s="214"/>
+      <c r="D80" s="256"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="512" t="s">
+        <v>207</v>
+      </c>
+      <c r="K80" s="1"/>
+      <c r="L80" s="97"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B81" s="98"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="256"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="513"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="97"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="1"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82"/>
+      <c r="B82" s="23"/>
+      <c r="I82"/>
+      <c r="J82" s="194"/>
+      <c r="L82" s="23"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83"/>
+      <c r="B83" s="23"/>
+      <c r="I83"/>
+      <c r="J83" s="194"/>
+      <c r="L83" s="23"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84"/>
+      <c r="B84" s="23"/>
+      <c r="I84"/>
+      <c r="J84" s="194"/>
+      <c r="L84" s="23"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85"/>
+      <c r="B85" s="23"/>
+      <c r="F85"/>
+      <c r="I85"/>
+      <c r="J85" s="194"/>
+      <c r="L85" s="23"/>
+      <c r="N85"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86"/>
+      <c r="B86" s="23"/>
+      <c r="F86"/>
+      <c r="I86"/>
+      <c r="J86" s="194"/>
+      <c r="L86" s="23"/>
+      <c r="N86"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87"/>
+      <c r="B87" s="23"/>
+      <c r="F87"/>
+      <c r="I87"/>
+      <c r="J87" s="194"/>
+      <c r="L87" s="23"/>
+      <c r="N87"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88"/>
+      <c r="B88" s="23"/>
+      <c r="F88"/>
+      <c r="I88"/>
+      <c r="J88" s="194"/>
+      <c r="L88" s="23"/>
+      <c r="N88"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89"/>
+      <c r="B89" s="23"/>
+      <c r="F89"/>
+      <c r="I89"/>
+      <c r="J89" s="194"/>
+      <c r="L89" s="23"/>
+      <c r="N89"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90"/>
+      <c r="B90" s="23"/>
+      <c r="F90"/>
+      <c r="I90"/>
+      <c r="J90" s="194"/>
+      <c r="L90" s="23"/>
+      <c r="N90"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91"/>
+      <c r="B91" s="23"/>
+      <c r="F91"/>
+      <c r="I91"/>
+      <c r="J91" s="194"/>
+      <c r="L91" s="23"/>
+      <c r="N91"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92"/>
+      <c r="B92" s="23"/>
+      <c r="F92"/>
+      <c r="I92"/>
+      <c r="J92" s="194"/>
+      <c r="L92" s="23"/>
+      <c r="N92"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93"/>
+      <c r="B93" s="23"/>
+      <c r="F93"/>
+      <c r="I93"/>
+      <c r="J93" s="194"/>
+      <c r="L93" s="23"/>
+      <c r="N93"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94"/>
+      <c r="B94" s="23"/>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="I94"/>
+      <c r="J94" s="194"/>
+      <c r="L94" s="23"/>
+      <c r="M94"/>
+      <c r="N94"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95"/>
+      <c r="B95" s="23"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="I95"/>
+      <c r="J95" s="194"/>
+      <c r="L95" s="23"/>
+      <c r="M95"/>
+      <c r="N95"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96"/>
+      <c r="B96" s="23"/>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="I96"/>
+      <c r="J96" s="194"/>
+      <c r="L96" s="23"/>
+      <c r="M96"/>
+      <c r="N96"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97"/>
+      <c r="B97" s="23"/>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="I97"/>
+      <c r="J97" s="194"/>
+      <c r="L97" s="23"/>
+      <c r="M97"/>
+      <c r="N97"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98"/>
+      <c r="B98" s="23"/>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="I98"/>
+      <c r="J98" s="194"/>
+      <c r="L98" s="23"/>
+      <c r="M98"/>
+      <c r="N98"/>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99"/>
+      <c r="B99" s="23"/>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="I99"/>
+      <c r="J99" s="194"/>
+      <c r="L99" s="23"/>
+      <c r="M99"/>
+      <c r="N99"/>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B100" s="23"/>
+      <c r="E100"/>
+      <c r="J100" s="194"/>
+      <c r="L100" s="23"/>
+      <c r="M100"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B101" s="23"/>
+      <c r="E101"/>
+      <c r="J101" s="194"/>
+      <c r="L101" s="23"/>
+      <c r="M101"/>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B102" s="23"/>
+      <c r="E102"/>
+      <c r="J102" s="194"/>
+      <c r="L102" s="23"/>
+      <c r="M102"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B103" s="23"/>
+      <c r="E103"/>
+      <c r="J103" s="194"/>
+      <c r="L103" s="23"/>
+      <c r="M103"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B104" s="23"/>
+      <c r="E104"/>
+      <c r="J104" s="194"/>
+      <c r="L104" s="23"/>
+      <c r="M104"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B105" s="23"/>
+      <c r="E105"/>
+      <c r="J105" s="194"/>
+      <c r="L105" s="23"/>
+      <c r="M105"/>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B106" s="23"/>
+      <c r="E106"/>
+      <c r="J106" s="194"/>
+      <c r="L106" s="23"/>
+      <c r="M106"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B107" s="23"/>
+      <c r="E107"/>
+      <c r="J107" s="194"/>
+      <c r="L107" s="23"/>
+      <c r="M107"/>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B108" s="23"/>
+      <c r="E108"/>
+      <c r="J108" s="194"/>
+      <c r="L108" s="23"/>
+      <c r="M108"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B109" s="23"/>
+      <c r="J109" s="194"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B110" s="23"/>
+      <c r="J110" s="194"/>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B111" s="23"/>
+      <c r="J111" s="194"/>
+      <c r="L111" s="23"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B112" s="23"/>
+      <c r="J112" s="194"/>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B113" s="23"/>
+      <c r="J113" s="194"/>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B114" s="23"/>
+      <c r="J114" s="194"/>
+    </row>
+    <row r="115" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C115" s="154"/>
+      <c r="K115" s="154"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F80:F81"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -11423,7 +15968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
@@ -14631,23 +19176,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="450"/>
-      <c r="C1" s="452" t="s">
+      <c r="B1" s="474"/>
+      <c r="C1" s="476" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="453"/>
-      <c r="E1" s="453"/>
-      <c r="F1" s="453"/>
-      <c r="G1" s="453"/>
-      <c r="H1" s="453"/>
-      <c r="I1" s="453"/>
-      <c r="J1" s="453"/>
-      <c r="K1" s="453"/>
-      <c r="L1" s="453"/>
-      <c r="M1" s="453"/>
+      <c r="D1" s="477"/>
+      <c r="E1" s="477"/>
+      <c r="F1" s="477"/>
+      <c r="G1" s="477"/>
+      <c r="H1" s="477"/>
+      <c r="I1" s="477"/>
+      <c r="J1" s="477"/>
+      <c r="K1" s="477"/>
+      <c r="L1" s="477"/>
+      <c r="M1" s="477"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="451"/>
+      <c r="B2" s="475"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -14657,21 +19202,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="454" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="455"/>
+      <c r="B3" s="478" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="479"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="456" t="s">
+      <c r="H3" s="480" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="456"/>
+      <c r="I3" s="480"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="493" t="s">
+      <c r="P3" s="504" t="s">
         <v>6</v>
       </c>
     </row>
@@ -14686,14 +19231,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="457" t="s">
+      <c r="E4" s="481" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="458"/>
-      <c r="H4" s="459" t="s">
+      <c r="F4" s="482"/>
+      <c r="H4" s="483" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="460"/>
+      <c r="I4" s="484"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -14703,14 +19248,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="494"/>
+      <c r="P4" s="505"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="503" t="s">
+      <c r="W4" s="487" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="503"/>
+      <c r="X4" s="487"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -14761,8 +19306,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="503"/>
-      <c r="X5" s="503"/>
+      <c r="W5" s="487"/>
+      <c r="X5" s="487"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15533,7 +20078,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="507">
+      <c r="W19" s="491">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -15585,7 +20130,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="508"/>
+      <c r="W20" s="492"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -15634,8 +20179,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="509"/>
-      <c r="X21" s="509"/>
+      <c r="W21" s="493"/>
+      <c r="X21" s="493"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -15736,8 +20281,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="510"/>
-      <c r="X23" s="510"/>
+      <c r="W23" s="494"/>
+      <c r="X23" s="494"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -15791,8 +20336,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="510"/>
-      <c r="X24" s="510"/>
+      <c r="W24" s="494"/>
+      <c r="X24" s="494"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -15838,8 +20383,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="511"/>
-      <c r="X25" s="511"/>
+      <c r="W25" s="495"/>
+      <c r="X25" s="495"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -15890,8 +20435,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="511"/>
-      <c r="X26" s="511"/>
+      <c r="W26" s="495"/>
+      <c r="X26" s="495"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -15939,9 +20484,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="504"/>
-      <c r="X27" s="505"/>
-      <c r="Y27" s="506"/>
+      <c r="W27" s="488"/>
+      <c r="X27" s="489"/>
+      <c r="Y27" s="490"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15991,9 +20536,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="505"/>
-      <c r="X28" s="505"/>
-      <c r="Y28" s="506"/>
+      <c r="W28" s="489"/>
+      <c r="X28" s="489"/>
+      <c r="Y28" s="490"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -16328,11 +20873,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="495">
+      <c r="M36" s="506">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="497">
+      <c r="N36" s="508">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -16340,7 +20885,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="499">
+      <c r="Q36" s="510">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -16375,13 +20920,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="496"/>
-      <c r="N37" s="498"/>
+      <c r="M37" s="507"/>
+      <c r="N37" s="509"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="500"/>
+      <c r="Q37" s="511"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -16671,26 +21216,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="472" t="s">
+      <c r="H52" s="461" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="473"/>
+      <c r="I52" s="462"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="474">
+      <c r="K52" s="463">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="501"/>
+      <c r="L52" s="496"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="478" t="s">
+      <c r="D53" s="467" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="478"/>
+      <c r="E53" s="467"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -16699,29 +21244,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="502" t="s">
+      <c r="D54" s="497" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="502"/>
+      <c r="E54" s="497"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="479" t="s">
+      <c r="I54" s="468" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="480"/>
-      <c r="K54" s="481">
+      <c r="J54" s="469"/>
+      <c r="K54" s="470">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="481"/>
-      <c r="M54" s="487" t="s">
+      <c r="L54" s="470"/>
+      <c r="M54" s="498" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="488"/>
-      <c r="O54" s="488"/>
-      <c r="P54" s="488"/>
-      <c r="Q54" s="489"/>
+      <c r="N54" s="499"/>
+      <c r="O54" s="499"/>
+      <c r="P54" s="499"/>
+      <c r="Q54" s="500"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="314" t="s">
@@ -16735,11 +21280,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="490"/>
-      <c r="N55" s="491"/>
-      <c r="O55" s="491"/>
-      <c r="P55" s="491"/>
-      <c r="Q55" s="492"/>
+      <c r="M55" s="501"/>
+      <c r="N55" s="502"/>
+      <c r="O55" s="502"/>
+      <c r="P55" s="502"/>
+      <c r="Q55" s="503"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -16757,11 +21302,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="483">
+      <c r="K56" s="472">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="484"/>
+      <c r="L56" s="473"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -16778,22 +21323,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="461" t="s">
+      <c r="D58" s="450" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="462"/>
+      <c r="E58" s="451"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="463" t="s">
+      <c r="I58" s="452" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="464"/>
-      <c r="K58" s="465">
+      <c r="J58" s="453"/>
+      <c r="K58" s="454">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="465"/>
+      <c r="L58" s="454"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -16937,14 +21482,17 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -16955,17 +21503,14 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="68" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19708,23 +24253,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="450"/>
-      <c r="C1" s="452" t="s">
+      <c r="B1" s="474"/>
+      <c r="C1" s="476" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="453"/>
-      <c r="E1" s="453"/>
-      <c r="F1" s="453"/>
-      <c r="G1" s="453"/>
-      <c r="H1" s="453"/>
-      <c r="I1" s="453"/>
-      <c r="J1" s="453"/>
-      <c r="K1" s="453"/>
-      <c r="L1" s="453"/>
-      <c r="M1" s="453"/>
+      <c r="D1" s="477"/>
+      <c r="E1" s="477"/>
+      <c r="F1" s="477"/>
+      <c r="G1" s="477"/>
+      <c r="H1" s="477"/>
+      <c r="I1" s="477"/>
+      <c r="J1" s="477"/>
+      <c r="K1" s="477"/>
+      <c r="L1" s="477"/>
+      <c r="M1" s="477"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="451"/>
+      <c r="B2" s="475"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -19734,21 +24279,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="454" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="455"/>
+      <c r="B3" s="478" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="479"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="456" t="s">
+      <c r="H3" s="480" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="456"/>
+      <c r="I3" s="480"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="493" t="s">
+      <c r="P3" s="504" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="514" t="s">
@@ -19766,14 +24311,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="457" t="s">
+      <c r="E4" s="481" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="458"/>
-      <c r="H4" s="459" t="s">
+      <c r="F4" s="482"/>
+      <c r="H4" s="483" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="460"/>
+      <c r="I4" s="484"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -19783,15 +24328,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="494"/>
+      <c r="P4" s="505"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="515"/>
-      <c r="W4" s="503" t="s">
+      <c r="W4" s="487" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="503"/>
+      <c r="X4" s="487"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -19852,8 +24397,8 @@
       <c r="S5" s="325" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="503"/>
-      <c r="X5" s="503"/>
+      <c r="W5" s="487"/>
+      <c r="X5" s="487"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20610,7 +25155,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="507">
+      <c r="W19" s="491">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -20662,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="508"/>
+      <c r="W20" s="492"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -20711,8 +25256,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="509"/>
-      <c r="X21" s="509"/>
+      <c r="W21" s="493"/>
+      <c r="X21" s="493"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -20813,8 +25358,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="510"/>
-      <c r="X23" s="510"/>
+      <c r="W23" s="494"/>
+      <c r="X23" s="494"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -20865,8 +25410,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="510"/>
-      <c r="X24" s="510"/>
+      <c r="W24" s="494"/>
+      <c r="X24" s="494"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -20912,8 +25457,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="511"/>
-      <c r="X25" s="511"/>
+      <c r="W25" s="495"/>
+      <c r="X25" s="495"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -20961,8 +25506,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="511"/>
-      <c r="X26" s="511"/>
+      <c r="W26" s="495"/>
+      <c r="X26" s="495"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -21022,9 +25567,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="504"/>
-      <c r="X27" s="505"/>
-      <c r="Y27" s="506"/>
+      <c r="W27" s="488"/>
+      <c r="X27" s="489"/>
+      <c r="Y27" s="490"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21078,9 +25623,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="505"/>
-      <c r="X28" s="505"/>
-      <c r="Y28" s="506"/>
+      <c r="W28" s="489"/>
+      <c r="X28" s="489"/>
+      <c r="Y28" s="490"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21396,11 +25941,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="495">
+      <c r="M36" s="506">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="497">
+      <c r="N36" s="508">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -21408,7 +25953,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="499">
+      <c r="Q36" s="510">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -21427,13 +25972,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="496"/>
-      <c r="N37" s="498"/>
+      <c r="M37" s="507"/>
+      <c r="N37" s="509"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="500"/>
+      <c r="Q37" s="511"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -21707,26 +26252,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="472" t="s">
+      <c r="H52" s="461" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="473"/>
+      <c r="I52" s="462"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="474">
+      <c r="K52" s="463">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="501"/>
+      <c r="L52" s="496"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="478" t="s">
+      <c r="D53" s="467" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="478"/>
+      <c r="E53" s="467"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -21735,29 +26280,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="502" t="s">
+      <c r="D54" s="497" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="502"/>
+      <c r="E54" s="497"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="479" t="s">
+      <c r="I54" s="468" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="480"/>
-      <c r="K54" s="481">
+      <c r="J54" s="469"/>
+      <c r="K54" s="470">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="481"/>
-      <c r="M54" s="487" t="s">
+      <c r="L54" s="470"/>
+      <c r="M54" s="498" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="488"/>
-      <c r="O54" s="488"/>
-      <c r="P54" s="488"/>
-      <c r="Q54" s="489"/>
+      <c r="N54" s="499"/>
+      <c r="O54" s="499"/>
+      <c r="P54" s="499"/>
+      <c r="Q54" s="500"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="314" t="s">
@@ -21771,11 +26316,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="490"/>
-      <c r="N55" s="491"/>
-      <c r="O55" s="491"/>
-      <c r="P55" s="491"/>
-      <c r="Q55" s="492"/>
+      <c r="M55" s="501"/>
+      <c r="N55" s="502"/>
+      <c r="O55" s="502"/>
+      <c r="P55" s="502"/>
+      <c r="Q55" s="503"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -21793,11 +26338,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="483">
+      <c r="K56" s="472">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="484"/>
+      <c r="L56" s="473"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -21814,22 +26359,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="461" t="s">
+      <c r="D58" s="450" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="462"/>
+      <c r="E58" s="451"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="463" t="s">
+      <c r="I58" s="452" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="464"/>
-      <c r="K58" s="465">
+      <c r="J58" s="453"/>
+      <c r="K58" s="454">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="465"/>
+      <c r="L58" s="454"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -21973,20 +26518,13 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="W4:X5"/>
@@ -21996,13 +26534,20 @@
     <mergeCell ref="W25:X25"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24697,7 +29242,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="450"/>
+      <c r="B1" s="474"/>
       <c r="C1" s="516" t="s">
         <v>323</v>
       </c>
@@ -24713,7 +29258,7 @@
       <c r="M1" s="517"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="451"/>
+      <c r="B2" s="475"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -24723,21 +29268,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="454" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="455"/>
+      <c r="B3" s="478" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="479"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="456" t="s">
+      <c r="H3" s="480" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="456"/>
+      <c r="I3" s="480"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="493" t="s">
+      <c r="P3" s="504" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="514" t="s">
@@ -24755,14 +29300,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="457" t="s">
+      <c r="E4" s="481" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="458"/>
-      <c r="H4" s="459" t="s">
+      <c r="F4" s="482"/>
+      <c r="H4" s="483" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="460"/>
+      <c r="I4" s="484"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -24772,15 +29317,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="494"/>
+      <c r="P4" s="505"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="515"/>
-      <c r="W4" s="503" t="s">
+      <c r="W4" s="487" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="503"/>
+      <c r="X4" s="487"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -24831,8 +29376,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="325"/>
-      <c r="W5" s="503"/>
-      <c r="X5" s="503"/>
+      <c r="W5" s="487"/>
+      <c r="X5" s="487"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -25596,7 +30141,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="507">
+      <c r="W19" s="491">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -25649,7 +30194,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="508"/>
+      <c r="W20" s="492"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -25698,8 +30243,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="509"/>
-      <c r="X21" s="509"/>
+      <c r="W21" s="493"/>
+      <c r="X21" s="493"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -25799,8 +30344,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="510"/>
-      <c r="X23" s="510"/>
+      <c r="W23" s="494"/>
+      <c r="X23" s="494"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -25855,8 +30400,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="510"/>
-      <c r="X24" s="510"/>
+      <c r="W24" s="494"/>
+      <c r="X24" s="494"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -25901,8 +30446,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="511"/>
-      <c r="X25" s="511"/>
+      <c r="W25" s="495"/>
+      <c r="X25" s="495"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -25950,8 +30495,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="511"/>
-      <c r="X26" s="511"/>
+      <c r="W26" s="495"/>
+      <c r="X26" s="495"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -26005,9 +30550,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="504"/>
-      <c r="X27" s="505"/>
-      <c r="Y27" s="506"/>
+      <c r="W27" s="488"/>
+      <c r="X27" s="489"/>
+      <c r="Y27" s="490"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26061,9 +30606,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="505"/>
-      <c r="X28" s="505"/>
-      <c r="Y28" s="506"/>
+      <c r="W28" s="489"/>
+      <c r="X28" s="489"/>
+      <c r="Y28" s="490"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26368,11 +30913,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="495">
+      <c r="M36" s="506">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="497">
+      <c r="N36" s="508">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -26380,7 +30925,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="499">
+      <c r="Q36" s="510">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -26405,13 +30950,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="496"/>
-      <c r="N37" s="498"/>
+      <c r="M37" s="507"/>
+      <c r="N37" s="509"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="500"/>
+      <c r="Q37" s="511"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -26698,26 +31243,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="472" t="s">
+      <c r="H52" s="461" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="473"/>
+      <c r="I52" s="462"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="474">
+      <c r="K52" s="463">
         <f>I50+L50</f>
         <v>144994.20000000001</v>
       </c>
-      <c r="L52" s="501"/>
+      <c r="L52" s="496"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="478" t="s">
+      <c r="D53" s="467" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="478"/>
+      <c r="E53" s="467"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>2135426.1199999996</v>
@@ -26726,22 +31271,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="502" t="s">
+      <c r="D54" s="497" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="502"/>
+      <c r="E54" s="497"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="479" t="s">
+      <c r="I54" s="468" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="480"/>
-      <c r="K54" s="481">
+      <c r="J54" s="469"/>
+      <c r="K54" s="470">
         <f>F56+F57+F58</f>
         <v>1082916.0699999996</v>
       </c>
-      <c r="L54" s="481"/>
+      <c r="L54" s="470"/>
       <c r="M54" s="423"/>
       <c r="N54" s="423"/>
       <c r="O54" s="423"/>
@@ -26782,11 +31327,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="483">
+      <c r="K56" s="472">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="484"/>
+      <c r="L56" s="473"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -26803,22 +31348,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="461" t="s">
+      <c r="D58" s="450" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="462"/>
+      <c r="E58" s="451"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="463" t="s">
+      <c r="I58" s="452" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="464"/>
-      <c r="K58" s="465">
+      <c r="J58" s="453"/>
+      <c r="K58" s="454">
         <f>K54+K56</f>
         <v>328772.83999999962</v>
       </c>
-      <c r="L58" s="465"/>
+      <c r="L58" s="454"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -26962,20 +31507,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -26991,6 +31522,20 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -29745,8 +34290,8 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -29775,7 +34320,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="450"/>
+      <c r="B1" s="474"/>
       <c r="C1" s="516" t="s">
         <v>323</v>
       </c>
@@ -29791,7 +34336,7 @@
       <c r="M1" s="517"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="451"/>
+      <c r="B2" s="475"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -29801,21 +34346,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="454" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="455"/>
+      <c r="B3" s="478" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="479"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="456" t="s">
+      <c r="H3" s="480" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="456"/>
+      <c r="I3" s="480"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="493" t="s">
+      <c r="P3" s="504" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="514" t="s">
@@ -29833,14 +34378,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="457" t="s">
+      <c r="E4" s="481" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="458"/>
-      <c r="H4" s="459" t="s">
+      <c r="F4" s="482"/>
+      <c r="H4" s="483" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="460"/>
+      <c r="I4" s="484"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -29850,15 +34395,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="494"/>
+      <c r="P4" s="505"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="515"/>
-      <c r="W4" s="503" t="s">
+      <c r="W4" s="487" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="503"/>
+      <c r="X4" s="487"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -29909,8 +34454,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="325"/>
-      <c r="W5" s="503"/>
-      <c r="X5" s="503"/>
+      <c r="W5" s="487"/>
+      <c r="X5" s="487"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -30671,7 +35216,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="507">
+      <c r="W19" s="491">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -30723,7 +35268,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="508"/>
+      <c r="W20" s="492"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -30772,8 +35317,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="509"/>
-      <c r="X21" s="509"/>
+      <c r="W21" s="493"/>
+      <c r="X21" s="493"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -30872,8 +35417,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="510"/>
-      <c r="X23" s="510"/>
+      <c r="W23" s="494"/>
+      <c r="X23" s="494"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -30928,8 +35473,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="510"/>
-      <c r="X24" s="510"/>
+      <c r="W24" s="494"/>
+      <c r="X24" s="494"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -30977,8 +35522,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="511"/>
-      <c r="X25" s="511"/>
+      <c r="W25" s="495"/>
+      <c r="X25" s="495"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -31026,8 +35571,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="511"/>
-      <c r="X26" s="511"/>
+      <c r="W26" s="495"/>
+      <c r="X26" s="495"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -31075,9 +35620,9 @@
       <c r="R27" s="320">
         <v>0</v>
       </c>
-      <c r="W27" s="504"/>
-      <c r="X27" s="505"/>
-      <c r="Y27" s="506"/>
+      <c r="W27" s="488"/>
+      <c r="X27" s="489"/>
+      <c r="Y27" s="490"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31125,9 +35670,9 @@
       <c r="R28" s="320">
         <v>0</v>
       </c>
-      <c r="W28" s="505"/>
-      <c r="X28" s="505"/>
-      <c r="Y28" s="506"/>
+      <c r="W28" s="489"/>
+      <c r="X28" s="489"/>
+      <c r="Y28" s="490"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31450,11 +35995,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="495">
+      <c r="M36" s="506">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="497">
+      <c r="N36" s="508">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -31487,8 +36032,8 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="496"/>
-      <c r="N37" s="498"/>
+      <c r="M37" s="507"/>
+      <c r="N37" s="509"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
@@ -31789,26 +36334,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="472" t="s">
+      <c r="H52" s="461" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="473"/>
+      <c r="I52" s="462"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="474">
+      <c r="K52" s="463">
         <f>I50+L50</f>
         <v>180192.62</v>
       </c>
-      <c r="L52" s="501"/>
+      <c r="L52" s="496"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="478" t="s">
+      <c r="D53" s="467" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="478"/>
+      <c r="E53" s="467"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>2717217.48</v>
@@ -31817,22 +36362,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="502" t="s">
+      <c r="D54" s="497" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="502"/>
+      <c r="E54" s="497"/>
       <c r="F54" s="111">
         <v>0</v>
       </c>
-      <c r="I54" s="479" t="s">
+      <c r="I54" s="468" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="480"/>
-      <c r="K54" s="481">
+      <c r="J54" s="469"/>
+      <c r="K54" s="470">
         <f>F56+F57+F58</f>
         <v>3983785.9299999997</v>
       </c>
-      <c r="L54" s="481"/>
+      <c r="L54" s="470"/>
       <c r="M54" s="423"/>
       <c r="N54" s="423"/>
       <c r="O54" s="423"/>
@@ -31873,11 +36418,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="483">
+      <c r="K56" s="472">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="484"/>
+      <c r="L56" s="473"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -31894,22 +36439,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="461" t="s">
+      <c r="D58" s="450" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="462"/>
+      <c r="E58" s="451"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="463" t="s">
+      <c r="I58" s="452" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="464"/>
-      <c r="K58" s="465">
+      <c r="J58" s="453"/>
+      <c r="K58" s="454">
         <f>K54+K56</f>
         <v>2834045.5199999996</v>
       </c>
-      <c r="L58" s="465"/>
+      <c r="L58" s="454"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -32053,6 +36598,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -32069,20 +36628,6 @@
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="M39:N39"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.23" top="0.4" bottom="0.28000000000000003" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/BALANCE    ZAVALETA   MARZO  2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/BALANCE    ZAVALETA   MARZO  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="10" activeTab="10"/>
+    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="9" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -457,7 +457,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="474">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1818,15 +1818,9 @@
     <t>LONGANIZA-QUESOS-SALCHICHONERIA</t>
   </si>
   <si>
-    <t>Odelpa</t>
-  </si>
-  <si>
     <t>CHORIZO-QUESOS-POLLO</t>
   </si>
   <si>
-    <t>Odelpa Y zav</t>
-  </si>
-  <si>
     <t>POLLO-CHISTORRA-QUESOS</t>
   </si>
   <si>
@@ -1840,6 +1834,51 @@
   </si>
   <si>
     <t>BALANCE      ABASTO 4 CARNES    Z A V A L E T A      M A R Z O           2 0 2 2</t>
+  </si>
+  <si>
+    <t>QUESOS-SALCHICHONERIA-JAMONES-POLLO-</t>
+  </si>
+  <si>
+    <t>LONGANIZA-LOMO-QUESOS-POLLO</t>
+  </si>
+  <si>
+    <t>POLLO-QUESO-ROASBEFF-CHISTORRA</t>
+  </si>
+  <si>
+    <t>JAMON-QUESOS-POLLO-SALCHICHONERIA</t>
+  </si>
+  <si>
+    <t>ENCHILADA-JAMON-MIXIOTES-POLLO-QUESOS</t>
+  </si>
+  <si>
+    <t>NOMINA # 10</t>
+  </si>
+  <si>
+    <t>POLLO-QUESO-JAMONES</t>
+  </si>
+  <si>
+    <t>JAMONES</t>
+  </si>
+  <si>
+    <t>CHORIZO-JAMONES-QUESOS-ROASBEEF-POLLO-PAN</t>
+  </si>
+  <si>
+    <t>Odelpa Y zav se repuso</t>
+  </si>
+  <si>
+    <t>se repuso</t>
+  </si>
+  <si>
+    <t>Odelpa Y zav  se repuso 15-3-22</t>
+  </si>
+  <si>
+    <t>LONGANIZA-POLLO-QUESOS</t>
+  </si>
+  <si>
+    <t>JAMONES-QUESOS-POLLO</t>
+  </si>
+  <si>
+    <t>POLLO-SALCHICHONERIA QUESOS</t>
   </si>
 </sst>
 </file>
@@ -4616,6 +4655,8 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="2" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="55" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4943,8 +4984,6 @@
     <xf numFmtId="44" fontId="11" fillId="14" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -4954,8 +4993,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF99CCFF"/>
       <color rgb="FF800000"/>
-      <color rgb="FF99CCFF"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFCCFF66"/>
       <color rgb="FF66FFFF"/>
@@ -7940,23 +7979,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="474"/>
-      <c r="C1" s="476" t="s">
+      <c r="B1" s="476"/>
+      <c r="C1" s="478" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="477"/>
-      <c r="E1" s="477"/>
-      <c r="F1" s="477"/>
-      <c r="G1" s="477"/>
-      <c r="H1" s="477"/>
-      <c r="I1" s="477"/>
-      <c r="J1" s="477"/>
-      <c r="K1" s="477"/>
-      <c r="L1" s="477"/>
-      <c r="M1" s="477"/>
+      <c r="D1" s="479"/>
+      <c r="E1" s="479"/>
+      <c r="F1" s="479"/>
+      <c r="G1" s="479"/>
+      <c r="H1" s="479"/>
+      <c r="I1" s="479"/>
+      <c r="J1" s="479"/>
+      <c r="K1" s="479"/>
+      <c r="L1" s="479"/>
+      <c r="M1" s="479"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="475"/>
+      <c r="B2" s="477"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -7966,17 +8005,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="478" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="479"/>
+      <c r="B3" s="480" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="481"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="480" t="s">
+      <c r="H3" s="482" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="480"/>
+      <c r="I3" s="482"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -7990,14 +8029,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="481" t="s">
+      <c r="E4" s="483" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="482"/>
-      <c r="H4" s="483" t="s">
+      <c r="F4" s="484"/>
+      <c r="H4" s="485" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="484"/>
+      <c r="I4" s="486"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -8007,10 +8046,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="455" t="s">
+      <c r="P4" s="457" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="456"/>
+      <c r="Q4" s="458"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -9451,11 +9490,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="457">
+      <c r="M39" s="459">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="459">
+      <c r="N39" s="461">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -9481,8 +9520,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="458"/>
-      <c r="N40" s="460"/>
+      <c r="M40" s="460"/>
+      <c r="N40" s="462"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -9697,29 +9736,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="461" t="s">
+      <c r="H52" s="463" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="462"/>
+      <c r="I52" s="464"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="463">
+      <c r="K52" s="465">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="464"/>
-      <c r="M52" s="465">
+      <c r="L52" s="466"/>
+      <c r="M52" s="467">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="466"/>
+      <c r="N52" s="468"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="467" t="s">
+      <c r="D53" s="469" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="467"/>
+      <c r="E53" s="469"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -9730,22 +9769,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="467" t="s">
+      <c r="D54" s="469" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="467"/>
+      <c r="E54" s="469"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="468" t="s">
+      <c r="I54" s="470" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="469"/>
-      <c r="K54" s="470">
+      <c r="J54" s="471"/>
+      <c r="K54" s="472">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="471"/>
+      <c r="L54" s="473"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -9778,11 +9817,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="472">
+      <c r="K56" s="474">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="473"/>
+      <c r="L56" s="475"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -9799,22 +9838,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="450" t="s">
+      <c r="D58" s="452" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="451"/>
+      <c r="E58" s="453"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="452" t="s">
+      <c r="I58" s="454" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="453"/>
-      <c r="K58" s="454">
+      <c r="J58" s="455"/>
+      <c r="K58" s="456">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="454"/>
+      <c r="L58" s="456"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -11638,7 +11677,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="512" t="s">
+      <c r="F80" s="514" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -11651,7 +11690,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="513"/>
+      <c r="F81" s="515"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -11933,8 +11972,8 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11963,23 +12002,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="474"/>
-      <c r="C1" s="516" t="s">
-        <v>460</v>
-      </c>
-      <c r="D1" s="517"/>
-      <c r="E1" s="517"/>
-      <c r="F1" s="517"/>
-      <c r="G1" s="517"/>
-      <c r="H1" s="517"/>
-      <c r="I1" s="517"/>
-      <c r="J1" s="517"/>
-      <c r="K1" s="517"/>
-      <c r="L1" s="517"/>
-      <c r="M1" s="517"/>
+      <c r="B1" s="476"/>
+      <c r="C1" s="518" t="s">
+        <v>458</v>
+      </c>
+      <c r="D1" s="519"/>
+      <c r="E1" s="519"/>
+      <c r="F1" s="519"/>
+      <c r="G1" s="519"/>
+      <c r="H1" s="519"/>
+      <c r="I1" s="519"/>
+      <c r="J1" s="519"/>
+      <c r="K1" s="519"/>
+      <c r="L1" s="519"/>
+      <c r="M1" s="519"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="475"/>
+      <c r="B2" s="477"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -11989,24 +12028,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="478" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="479"/>
+      <c r="B3" s="480" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="481"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="480" t="s">
+      <c r="H3" s="482" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="480"/>
+      <c r="I3" s="482"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="504" t="s">
+      <c r="P3" s="506" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="514" t="s">
+      <c r="R3" s="516" t="s">
         <v>216</v>
       </c>
     </row>
@@ -12021,14 +12060,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="481" t="s">
+      <c r="E4" s="483" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="482"/>
-      <c r="H4" s="483" t="s">
+      <c r="F4" s="484"/>
+      <c r="H4" s="485" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="484"/>
+      <c r="I4" s="486"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -12038,15 +12077,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="505"/>
+      <c r="P4" s="507"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="515"/>
-      <c r="W4" s="487" t="s">
+      <c r="R4" s="517"/>
+      <c r="W4" s="489" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="487"/>
+      <c r="X4" s="489"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -12056,30 +12095,38 @@
       <c r="B5" s="24">
         <v>44620</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
+      <c r="C5" s="25">
+        <v>17066</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>459</v>
+      </c>
       <c r="E5" s="27">
         <v>44620</v>
       </c>
-      <c r="F5" s="28"/>
+      <c r="F5" s="28">
+        <v>93289</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="29">
         <v>44620</v>
       </c>
-      <c r="I5" s="30"/>
+      <c r="I5" s="30">
+        <v>1122</v>
+      </c>
       <c r="J5" s="37"/>
       <c r="K5" s="31"/>
       <c r="L5" s="9"/>
       <c r="M5" s="32">
-        <v>0</v>
+        <v>52267</v>
       </c>
       <c r="N5" s="33">
-        <v>0</v>
+        <v>22834</v>
       </c>
       <c r="O5" s="319"/>
       <c r="P5" s="34">
         <f>N5+M5+L5+I5+C5</f>
-        <v>0</v>
+        <v>93289</v>
       </c>
       <c r="Q5" s="326">
         <f>P5-F5</f>
@@ -12089,8 +12136,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="325"/>
-      <c r="W5" s="487"/>
-      <c r="X5" s="487"/>
+      <c r="W5" s="489"/>
+      <c r="X5" s="489"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -12098,32 +12145,41 @@
       <c r="B6" s="24">
         <v>44621</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="35"/>
+      <c r="C6" s="25">
+        <v>18706.5</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>460</v>
+      </c>
       <c r="E6" s="27">
         <v>44621</v>
       </c>
-      <c r="F6" s="28"/>
+      <c r="F6" s="28">
+        <v>86642</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="36">
         <v>44621</v>
       </c>
-      <c r="I6" s="30"/>
+      <c r="I6" s="30">
+        <v>1492</v>
+      </c>
       <c r="J6" s="37"/>
       <c r="K6" s="38"/>
       <c r="L6" s="39"/>
       <c r="M6" s="32">
-        <v>0</v>
+        <v>33586.5</v>
       </c>
       <c r="N6" s="33">
-        <v>0</v>
+        <v>32857</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="39">
         <f>N6+M6+L6+I6+C6</f>
-        <v>0</v>
+        <v>86642</v>
       </c>
       <c r="Q6" s="326">
+        <f>P6-F6</f>
         <v>0</v>
       </c>
       <c r="R6" s="320">
@@ -12143,36 +12199,44 @@
       <c r="B7" s="24">
         <v>44622</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="40"/>
+      <c r="C7" s="25">
+        <v>8793</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>461</v>
+      </c>
       <c r="E7" s="27">
         <v>44622</v>
       </c>
-      <c r="F7" s="28"/>
+      <c r="F7" s="28">
+        <v>74195</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="36">
         <v>44622</v>
       </c>
-      <c r="I7" s="30"/>
+      <c r="I7" s="30">
+        <v>2466</v>
+      </c>
       <c r="J7" s="37"/>
       <c r="K7" s="38"/>
       <c r="L7" s="39"/>
       <c r="M7" s="32">
-        <v>0</v>
+        <v>38157</v>
       </c>
       <c r="N7" s="33">
-        <v>0</v>
+        <v>26092</v>
       </c>
       <c r="O7" s="224"/>
       <c r="P7" s="39">
         <f t="shared" ref="P7:P32" si="0">N7+M7+L7+I7+C7</f>
-        <v>0</v>
+        <v>75508</v>
       </c>
       <c r="Q7" s="326">
         <v>0</v>
       </c>
-      <c r="R7" s="320">
-        <v>0</v>
+      <c r="R7" s="407">
+        <v>1313</v>
       </c>
       <c r="S7" s="147"/>
       <c r="T7" s="128"/>
@@ -12190,32 +12254,42 @@
       <c r="B8" s="24">
         <v>44623</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="42"/>
+      <c r="C8" s="25">
+        <v>27799</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>462</v>
+      </c>
       <c r="E8" s="27">
         <v>44623</v>
       </c>
-      <c r="F8" s="28"/>
+      <c r="F8" s="28">
+        <v>78344</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="36">
         <v>44623</v>
       </c>
-      <c r="I8" s="30"/>
+      <c r="I8" s="30">
+        <v>2278</v>
+      </c>
       <c r="J8" s="43"/>
       <c r="K8" s="38"/>
       <c r="L8" s="39"/>
       <c r="M8" s="32">
-        <v>0</v>
+        <f>31611+1120</f>
+        <v>32731</v>
       </c>
       <c r="N8" s="33">
-        <v>0</v>
+        <v>15536</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>78344</v>
       </c>
       <c r="Q8" s="326">
+        <f t="shared" ref="Q8:Q32" si="1">P8-F8</f>
         <v>0</v>
       </c>
       <c r="R8" s="320">
@@ -12237,36 +12311,44 @@
       <c r="B9" s="24">
         <v>44624</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="42"/>
+      <c r="C9" s="25">
+        <v>21631</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>463</v>
+      </c>
       <c r="E9" s="27">
         <v>44624</v>
       </c>
-      <c r="F9" s="28"/>
+      <c r="F9" s="28">
+        <v>84746</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="36">
         <v>44624</v>
       </c>
-      <c r="I9" s="30"/>
+      <c r="I9" s="30">
+        <v>17409</v>
+      </c>
       <c r="J9" s="37"/>
       <c r="K9" s="223"/>
       <c r="L9" s="39"/>
       <c r="M9" s="32">
-        <v>0</v>
+        <v>57014</v>
       </c>
       <c r="N9" s="33">
-        <v>0</v>
+        <v>29548</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>125602</v>
       </c>
       <c r="Q9" s="326">
         <v>0</v>
       </c>
-      <c r="R9" s="320">
-        <v>0</v>
+      <c r="R9" s="407">
+        <v>40856</v>
       </c>
       <c r="S9" s="147"/>
       <c r="T9" s="128"/>
@@ -12284,33 +12366,48 @@
       <c r="B10" s="24">
         <v>44625</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="40"/>
+      <c r="C10" s="25">
+        <v>9359</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>465</v>
+      </c>
       <c r="E10" s="27">
         <v>44625</v>
       </c>
-      <c r="F10" s="28"/>
+      <c r="F10" s="28">
+        <v>114185</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="36">
         <v>44625</v>
       </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="167"/>
-      <c r="L10" s="45"/>
+      <c r="I10" s="30">
+        <v>4867</v>
+      </c>
+      <c r="J10" s="37">
+        <v>44625</v>
+      </c>
+      <c r="K10" s="167" t="s">
+        <v>464</v>
+      </c>
+      <c r="L10" s="45">
+        <v>12109.41</v>
+      </c>
       <c r="M10" s="32">
-        <v>0</v>
+        <v>38720</v>
       </c>
       <c r="N10" s="33">
-        <v>0</v>
+        <v>49131</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="39">
         <f>N10+M10+L10+I10+C10</f>
-        <v>0</v>
+        <v>114186.41</v>
       </c>
       <c r="Q10" s="326">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.4100000000034925</v>
       </c>
       <c r="R10" s="320">
         <v>0</v>
@@ -12331,32 +12428,41 @@
       <c r="B11" s="24">
         <v>44626</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="35"/>
+      <c r="C11" s="25">
+        <v>11735</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>466</v>
+      </c>
       <c r="E11" s="27">
         <v>44626</v>
       </c>
-      <c r="F11" s="28"/>
+      <c r="F11" s="28">
+        <v>99338</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="36">
         <v>44626</v>
       </c>
-      <c r="I11" s="30"/>
+      <c r="I11" s="30">
+        <v>1687</v>
+      </c>
       <c r="J11" s="43"/>
       <c r="K11" s="168"/>
       <c r="L11" s="39"/>
       <c r="M11" s="32">
-        <v>0</v>
+        <v>62058</v>
       </c>
       <c r="N11" s="33">
-        <v>0</v>
+        <v>23858</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>99338</v>
       </c>
       <c r="Q11" s="326">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R11" s="320">
@@ -12378,32 +12484,41 @@
       <c r="B12" s="24">
         <v>44627</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="35"/>
+      <c r="C12" s="25">
+        <v>29696.5</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>467</v>
+      </c>
       <c r="E12" s="27">
         <v>44627</v>
       </c>
-      <c r="F12" s="28"/>
+      <c r="F12" s="28">
+        <v>78839</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="36">
         <v>44627</v>
       </c>
-      <c r="I12" s="30"/>
+      <c r="I12" s="30">
+        <v>1945</v>
+      </c>
       <c r="J12" s="37"/>
       <c r="K12" s="169"/>
       <c r="L12" s="39"/>
       <c r="M12" s="32">
-        <v>0</v>
+        <v>20493.5</v>
       </c>
       <c r="N12" s="33">
-        <v>0</v>
+        <v>26704</v>
       </c>
       <c r="O12" s="329"/>
       <c r="P12" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>78839</v>
       </c>
       <c r="Q12" s="326">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R12" s="320">
@@ -12426,32 +12541,41 @@
       <c r="B13" s="24">
         <v>44628</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="42"/>
+      <c r="C13" s="25">
+        <v>12586.5</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>471</v>
+      </c>
       <c r="E13" s="27">
         <v>44628</v>
       </c>
-      <c r="F13" s="28"/>
+      <c r="F13" s="28">
+        <v>76318</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="36">
         <v>44628</v>
       </c>
-      <c r="I13" s="30"/>
+      <c r="I13" s="30">
+        <v>2124</v>
+      </c>
       <c r="J13" s="37"/>
       <c r="K13" s="38"/>
       <c r="L13" s="39"/>
       <c r="M13" s="32">
-        <v>0</v>
+        <v>41442.5</v>
       </c>
       <c r="N13" s="33">
-        <v>0</v>
+        <v>20165</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>76318</v>
       </c>
       <c r="Q13" s="326">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R13" s="320">
@@ -12471,33 +12595,43 @@
       <c r="B14" s="24">
         <v>44629</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="40"/>
+      <c r="C14" s="25">
+        <v>8233.5</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>472</v>
+      </c>
       <c r="E14" s="27">
         <v>44629</v>
       </c>
-      <c r="F14" s="28"/>
+      <c r="F14" s="28">
+        <v>116045</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="36">
         <v>44629</v>
       </c>
-      <c r="I14" s="30"/>
+      <c r="I14" s="30">
+        <v>2261</v>
+      </c>
       <c r="J14" s="37"/>
       <c r="K14" s="38"/>
       <c r="L14" s="39"/>
       <c r="M14" s="32">
-        <v>0</v>
+        <f>70135.5+580.16+6869</f>
+        <v>77584.66</v>
       </c>
       <c r="N14" s="33">
-        <v>0</v>
+        <v>27966</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>116045.16</v>
       </c>
       <c r="Q14" s="326">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.16000000000349246</v>
       </c>
       <c r="R14" s="320">
         <v>0</v>
@@ -12514,31 +12648,40 @@
       <c r="B15" s="24">
         <v>44630</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="40"/>
+      <c r="C15" s="25">
+        <v>6182</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>473</v>
+      </c>
       <c r="E15" s="27">
         <v>44630</v>
       </c>
-      <c r="F15" s="28"/>
+      <c r="F15" s="28">
+        <v>72383</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="36">
         <v>44630</v>
       </c>
-      <c r="I15" s="30"/>
+      <c r="I15" s="30">
+        <v>2289</v>
+      </c>
       <c r="J15" s="37"/>
       <c r="K15" s="38"/>
       <c r="L15" s="39"/>
       <c r="M15" s="32">
-        <v>0</v>
+        <v>47170</v>
       </c>
       <c r="N15" s="33">
-        <v>0</v>
+        <v>16742</v>
       </c>
       <c r="P15" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>72383</v>
       </c>
       <c r="Q15" s="326">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R15" s="320">
@@ -12582,6 +12725,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="326">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R16" s="320">
@@ -12624,6 +12768,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="326">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R17" s="320">
@@ -12666,6 +12811,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="326">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R18" s="320">
@@ -12708,13 +12854,14 @@
         <v>0</v>
       </c>
       <c r="Q19" s="326">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R19" s="320">
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="491">
+      <c r="W19" s="493">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -12751,13 +12898,14 @@
         <v>0</v>
       </c>
       <c r="Q20" s="326">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R20" s="320">
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="492"/>
+      <c r="W20" s="494"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -12791,14 +12939,15 @@
         <v>0</v>
       </c>
       <c r="Q21" s="326">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R21" s="320">
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="493"/>
-      <c r="X21" s="493"/>
+      <c r="W21" s="495"/>
+      <c r="X21" s="495"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -12832,6 +12981,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="326">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R22" s="320">
@@ -12873,14 +13023,15 @@
         <v>0</v>
       </c>
       <c r="Q23" s="326">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R23" s="320">
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="494"/>
-      <c r="X23" s="494"/>
+      <c r="W23" s="496"/>
+      <c r="X23" s="496"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -12914,14 +13065,15 @@
         <v>0</v>
       </c>
       <c r="Q24" s="326">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R24" s="320">
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="494"/>
-      <c r="X24" s="494"/>
+      <c r="W24" s="496"/>
+      <c r="X24" s="496"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -12955,13 +13107,14 @@
         <v>0</v>
       </c>
       <c r="Q25" s="326">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="495"/>
-      <c r="X25" s="495"/>
+      <c r="W25" s="497"/>
+      <c r="X25" s="497"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -12996,13 +13149,14 @@
         <v>0</v>
       </c>
       <c r="Q26" s="326">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="495"/>
-      <c r="X26" s="495"/>
+      <c r="W26" s="497"/>
+      <c r="X26" s="497"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -13037,14 +13191,15 @@
         <v>0</v>
       </c>
       <c r="Q27" s="326">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R27" s="320">
         <v>0</v>
       </c>
-      <c r="W27" s="488"/>
-      <c r="X27" s="489"/>
-      <c r="Y27" s="490"/>
+      <c r="W27" s="490"/>
+      <c r="X27" s="491"/>
+      <c r="Y27" s="492"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -13078,14 +13233,15 @@
         <v>0</v>
       </c>
       <c r="Q28" s="326">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R28" s="320">
         <v>0</v>
       </c>
-      <c r="W28" s="489"/>
-      <c r="X28" s="489"/>
-      <c r="Y28" s="490"/>
+      <c r="W28" s="491"/>
+      <c r="X28" s="491"/>
+      <c r="Y28" s="492"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -13113,12 +13269,13 @@
       <c r="N29" s="33">
         <v>0</v>
       </c>
-      <c r="O29" s="559"/>
+      <c r="O29" s="450"/>
       <c r="P29" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q29" s="326">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R29" s="320">
@@ -13158,12 +13315,13 @@
       <c r="N30" s="33">
         <v>0</v>
       </c>
-      <c r="O30" s="560"/>
+      <c r="O30" s="451"/>
       <c r="P30" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q30" s="326">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R30" s="321">
@@ -13200,12 +13358,13 @@
       <c r="N31" s="33">
         <v>0</v>
       </c>
-      <c r="O31" s="559"/>
+      <c r="O31" s="450"/>
       <c r="P31" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q31" s="326">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R31" s="322">
@@ -13246,6 +13405,7 @@
         <v>0</v>
       </c>
       <c r="Q32" s="326">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R32" s="228">
@@ -13285,7 +13445,7 @@
         <v>0</v>
       </c>
       <c r="Q33" s="111">
-        <f t="shared" ref="Q7:Q35" si="1">P33-F33</f>
+        <f t="shared" ref="Q33:Q35" si="2">P33-F33</f>
         <v>0</v>
       </c>
       <c r="R33" s="228"/>
@@ -13324,7 +13484,7 @@
         <v>0</v>
       </c>
       <c r="Q34" s="111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R34" s="228"/>
@@ -13358,7 +13518,7 @@
         <v>0</v>
       </c>
       <c r="Q35" s="444">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R35" s="228"/>
@@ -13382,21 +13542,21 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="506">
+      <c r="M36" s="508">
         <f>SUM(M5:M35)</f>
-        <v>0</v>
-      </c>
-      <c r="N36" s="508">
+        <v>501224.16000000003</v>
+      </c>
+      <c r="N36" s="510">
         <f>SUM(N5:N35)</f>
-        <v>0</v>
+        <v>291433</v>
       </c>
       <c r="O36" s="276"/>
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="533">
+      <c r="Q36" s="535">
         <f>SUM(Q5:Q35)</f>
-        <v>0</v>
+        <v>1.5700000000069849</v>
       </c>
       <c r="R36" s="228"/>
     </row>
@@ -13419,13 +13579,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="507"/>
-      <c r="N37" s="509"/>
+      <c r="M37" s="509"/>
+      <c r="N37" s="511"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="534"/>
+      <c r="Q37" s="536"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -13475,14 +13635,14 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="535">
+      <c r="M39" s="537">
         <f>M36+N36</f>
-        <v>0</v>
-      </c>
-      <c r="N39" s="536"/>
+        <v>792657.16</v>
+      </c>
+      <c r="N39" s="538"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
-        <v>0</v>
+        <v>1016494.5700000001</v>
       </c>
       <c r="Q39" s="275"/>
     </row>
@@ -13514,9 +13674,15 @@
       <c r="G41" s="2"/>
       <c r="H41" s="76"/>
       <c r="I41" s="77"/>
-      <c r="J41" s="60"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="61"/>
+      <c r="J41" s="60">
+        <v>44625</v>
+      </c>
+      <c r="K41" s="41" t="s">
+        <v>464</v>
+      </c>
+      <c r="L41" s="61">
+        <v>15195.26</v>
+      </c>
       <c r="M41" s="269"/>
       <c r="N41" s="269"/>
       <c r="P41" s="34"/>
@@ -13673,7 +13839,7 @@
       </c>
       <c r="C50" s="87">
         <f>SUM(C5:C49)</f>
-        <v>0</v>
+        <v>171788</v>
       </c>
       <c r="D50" s="88"/>
       <c r="E50" s="89" t="s">
@@ -13681,7 +13847,7 @@
       </c>
       <c r="F50" s="90">
         <f>SUM(F5:F49)</f>
-        <v>0</v>
+        <v>974324</v>
       </c>
       <c r="G50" s="88"/>
       <c r="H50" s="91" t="s">
@@ -13689,7 +13855,7 @@
       </c>
       <c r="I50" s="92">
         <f>SUM(I5:I49)</f>
-        <v>0</v>
+        <v>39940</v>
       </c>
       <c r="J50" s="93"/>
       <c r="K50" s="94" t="s">
@@ -13697,7 +13863,7 @@
       </c>
       <c r="L50" s="95">
         <f>SUM(L5:L49)</f>
-        <v>0</v>
+        <v>27304.67</v>
       </c>
       <c r="M50" s="96"/>
       <c r="N50" s="96"/>
@@ -13715,50 +13881,50 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="461" t="s">
+      <c r="H52" s="463" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="462"/>
+      <c r="I52" s="464"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="463">
+      <c r="K52" s="465">
         <f>I50+L50</f>
-        <v>0</v>
-      </c>
-      <c r="L52" s="496"/>
+        <v>67244.67</v>
+      </c>
+      <c r="L52" s="498"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="467" t="s">
+      <c r="D53" s="469" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="467"/>
+      <c r="E53" s="469"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
-        <v>0</v>
+        <v>735291.33</v>
       </c>
       <c r="I53" s="102"/>
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="497" t="s">
+      <c r="D54" s="499" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="497"/>
+      <c r="E54" s="499"/>
       <c r="F54" s="111">
         <v>0</v>
       </c>
-      <c r="I54" s="468" t="s">
+      <c r="I54" s="470" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="469"/>
-      <c r="K54" s="470">
+      <c r="J54" s="471"/>
+      <c r="K54" s="472">
         <f>F56+F57+F58</f>
-        <v>0</v>
-      </c>
-      <c r="L54" s="470"/>
+        <v>735291.33</v>
+      </c>
+      <c r="L54" s="472"/>
       <c r="M54" s="423"/>
       <c r="N54" s="423"/>
       <c r="O54" s="423"/>
@@ -13792,18 +13958,18 @@
       </c>
       <c r="F56" s="96">
         <f>SUM(F53:F55)</f>
-        <v>0</v>
+        <v>735291.33</v>
       </c>
       <c r="H56" s="23"/>
       <c r="I56" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="472">
+      <c r="K56" s="474">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L56" s="473"/>
+      <c r="L56" s="475"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -13820,22 +13986,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="450" t="s">
+      <c r="D58" s="452" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="451"/>
+      <c r="E58" s="453"/>
       <c r="F58" s="113">
         <v>0</v>
       </c>
-      <c r="I58" s="452" t="s">
+      <c r="I58" s="454" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="453"/>
-      <c r="K58" s="454">
+      <c r="J58" s="455"/>
+      <c r="K58" s="456">
         <f>K54+K56</f>
-        <v>-1266568.45</v>
-      </c>
-      <c r="L58" s="454"/>
+        <v>-531277.12</v>
+      </c>
+      <c r="L58" s="456"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -13979,7 +14145,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="K56:L56"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -13989,11 +14154,11 @@
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
-    <mergeCell ref="W27:X28"/>
     <mergeCell ref="Y27:Y28"/>
     <mergeCell ref="M36:M37"/>
     <mergeCell ref="N36:N37"/>
     <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="K56:L56"/>
     <mergeCell ref="M39:N39"/>
     <mergeCell ref="W4:X5"/>
     <mergeCell ref="W19:W20"/>
@@ -14001,12 +14166,13 @@
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
     <mergeCell ref="W26:X26"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="W27:X28"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:M1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
   </mergeCells>
@@ -15669,7 +15835,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="512" t="s">
+      <c r="F80" s="514" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -15682,7 +15848,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="513"/>
+      <c r="F81" s="515"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -15991,11 +16157,11 @@
   <sheetData>
     <row r="1" spans="2:6" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="155"/>
-      <c r="C1" s="543" t="s">
+      <c r="C1" s="545" t="s">
         <v>320</v>
       </c>
-      <c r="D1" s="543"/>
-      <c r="E1" s="544"/>
+      <c r="D1" s="545"/>
+      <c r="E1" s="546"/>
       <c r="F1" s="387"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -16013,12 +16179,12 @@
       <c r="F3" s="394"/>
     </row>
     <row r="4" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="545" t="s">
+      <c r="B4" s="547" t="s">
         <v>316</v>
       </c>
-      <c r="C4" s="546"/>
-      <c r="D4" s="546"/>
-      <c r="E4" s="546"/>
+      <c r="C4" s="548"/>
+      <c r="D4" s="548"/>
+      <c r="E4" s="548"/>
       <c r="F4" s="395">
         <v>499853.16</v>
       </c>
@@ -16033,12 +16199,12 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="547" t="s">
+      <c r="B6" s="549" t="s">
         <v>317</v>
       </c>
-      <c r="C6" s="548"/>
-      <c r="D6" s="548"/>
-      <c r="E6" s="548"/>
+      <c r="C6" s="550"/>
+      <c r="D6" s="550"/>
+      <c r="E6" s="550"/>
       <c r="F6" s="395">
         <v>781251.72</v>
       </c>
@@ -16056,10 +16222,10 @@
       <c r="B8" s="388"/>
       <c r="C8" s="381"/>
       <c r="D8" s="382"/>
-      <c r="E8" s="549" t="s">
+      <c r="E8" s="551" t="s">
         <v>315</v>
       </c>
-      <c r="F8" s="551">
+      <c r="F8" s="553">
         <f>SUM(F4:F7)</f>
         <v>1281104.8799999999</v>
       </c>
@@ -16068,8 +16234,8 @@
       <c r="B9" s="388"/>
       <c r="C9" s="381"/>
       <c r="D9" s="382"/>
-      <c r="E9" s="550"/>
-      <c r="F9" s="552"/>
+      <c r="E9" s="552"/>
+      <c r="F9" s="554"/>
     </row>
     <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="388"/>
@@ -16093,12 +16259,12 @@
       <c r="F12" s="394"/>
     </row>
     <row r="13" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="553" t="s">
+      <c r="B13" s="555" t="s">
         <v>318</v>
       </c>
-      <c r="C13" s="554"/>
-      <c r="D13" s="554"/>
-      <c r="E13" s="554"/>
+      <c r="C13" s="556"/>
+      <c r="D13" s="556"/>
+      <c r="E13" s="556"/>
       <c r="F13" s="395">
         <v>255460.4</v>
       </c>
@@ -16113,12 +16279,12 @@
       </c>
     </row>
     <row r="15" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="553" t="s">
+      <c r="B15" s="555" t="s">
         <v>319</v>
       </c>
-      <c r="C15" s="554"/>
-      <c r="D15" s="554"/>
-      <c r="E15" s="554"/>
+      <c r="C15" s="556"/>
+      <c r="D15" s="556"/>
+      <c r="E15" s="556"/>
       <c r="F15" s="395">
         <v>6037.34</v>
       </c>
@@ -16136,10 +16302,10 @@
       <c r="B17" s="388"/>
       <c r="C17" s="381"/>
       <c r="D17" s="382"/>
-      <c r="E17" s="555" t="s">
+      <c r="E17" s="557" t="s">
         <v>315</v>
       </c>
-      <c r="F17" s="557">
+      <c r="F17" s="559">
         <f>SUM(F13:F16)</f>
         <v>261497.74</v>
       </c>
@@ -16148,8 +16314,8 @@
       <c r="B18" s="388"/>
       <c r="C18" s="381"/>
       <c r="D18" s="382"/>
-      <c r="E18" s="556"/>
-      <c r="F18" s="558"/>
+      <c r="E18" s="558"/>
+      <c r="F18" s="560"/>
     </row>
     <row r="19" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="388"/>
@@ -16173,22 +16339,22 @@
       <c r="F21" s="394"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="537" t="s">
+      <c r="B22" s="539" t="s">
         <v>321</v>
       </c>
-      <c r="C22" s="538"/>
-      <c r="D22" s="538"/>
-      <c r="E22" s="538"/>
-      <c r="F22" s="541">
+      <c r="C22" s="540"/>
+      <c r="D22" s="540"/>
+      <c r="E22" s="540"/>
+      <c r="F22" s="543">
         <v>12020</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="539"/>
-      <c r="C23" s="540"/>
-      <c r="D23" s="540"/>
-      <c r="E23" s="540"/>
-      <c r="F23" s="542"/>
+      <c r="B23" s="541"/>
+      <c r="C23" s="542"/>
+      <c r="D23" s="542"/>
+      <c r="E23" s="542"/>
+      <c r="F23" s="544"/>
     </row>
     <row r="24" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="355"/>
@@ -17548,7 +17714,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="485" t="s">
+      <c r="B41" s="487" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -17580,7 +17746,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="486"/>
+      <c r="B42" s="488"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -19176,23 +19342,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="474"/>
-      <c r="C1" s="476" t="s">
+      <c r="B1" s="476"/>
+      <c r="C1" s="478" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="477"/>
-      <c r="E1" s="477"/>
-      <c r="F1" s="477"/>
-      <c r="G1" s="477"/>
-      <c r="H1" s="477"/>
-      <c r="I1" s="477"/>
-      <c r="J1" s="477"/>
-      <c r="K1" s="477"/>
-      <c r="L1" s="477"/>
-      <c r="M1" s="477"/>
+      <c r="D1" s="479"/>
+      <c r="E1" s="479"/>
+      <c r="F1" s="479"/>
+      <c r="G1" s="479"/>
+      <c r="H1" s="479"/>
+      <c r="I1" s="479"/>
+      <c r="J1" s="479"/>
+      <c r="K1" s="479"/>
+      <c r="L1" s="479"/>
+      <c r="M1" s="479"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="475"/>
+      <c r="B2" s="477"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -19202,21 +19368,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="478" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="479"/>
+      <c r="B3" s="480" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="481"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="480" t="s">
+      <c r="H3" s="482" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="480"/>
+      <c r="I3" s="482"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="504" t="s">
+      <c r="P3" s="506" t="s">
         <v>6</v>
       </c>
     </row>
@@ -19231,14 +19397,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="481" t="s">
+      <c r="E4" s="483" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="482"/>
-      <c r="H4" s="483" t="s">
+      <c r="F4" s="484"/>
+      <c r="H4" s="485" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="484"/>
+      <c r="I4" s="486"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -19248,14 +19414,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="505"/>
+      <c r="P4" s="507"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="487" t="s">
+      <c r="W4" s="489" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="487"/>
+      <c r="X4" s="489"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -19306,8 +19472,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="487"/>
-      <c r="X5" s="487"/>
+      <c r="W5" s="489"/>
+      <c r="X5" s="489"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20078,7 +20244,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="491">
+      <c r="W19" s="493">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -20130,7 +20296,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="492"/>
+      <c r="W20" s="494"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -20179,8 +20345,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="493"/>
-      <c r="X21" s="493"/>
+      <c r="W21" s="495"/>
+      <c r="X21" s="495"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -20281,8 +20447,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="494"/>
-      <c r="X23" s="494"/>
+      <c r="W23" s="496"/>
+      <c r="X23" s="496"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -20336,8 +20502,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="494"/>
-      <c r="X24" s="494"/>
+      <c r="W24" s="496"/>
+      <c r="X24" s="496"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -20383,8 +20549,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="495"/>
-      <c r="X25" s="495"/>
+      <c r="W25" s="497"/>
+      <c r="X25" s="497"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -20435,8 +20601,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="495"/>
-      <c r="X26" s="495"/>
+      <c r="W26" s="497"/>
+      <c r="X26" s="497"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -20484,9 +20650,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="488"/>
-      <c r="X27" s="489"/>
-      <c r="Y27" s="490"/>
+      <c r="W27" s="490"/>
+      <c r="X27" s="491"/>
+      <c r="Y27" s="492"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20536,9 +20702,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="489"/>
-      <c r="X28" s="489"/>
-      <c r="Y28" s="490"/>
+      <c r="W28" s="491"/>
+      <c r="X28" s="491"/>
+      <c r="Y28" s="492"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20873,11 +21039,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="506">
+      <c r="M36" s="508">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="508">
+      <c r="N36" s="510">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -20885,7 +21051,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="510">
+      <c r="Q36" s="512">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -20920,13 +21086,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="507"/>
-      <c r="N37" s="509"/>
+      <c r="M37" s="509"/>
+      <c r="N37" s="511"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="511"/>
+      <c r="Q37" s="513"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -21216,26 +21382,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="461" t="s">
+      <c r="H52" s="463" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="462"/>
+      <c r="I52" s="464"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="463">
+      <c r="K52" s="465">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="496"/>
+      <c r="L52" s="498"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="467" t="s">
+      <c r="D53" s="469" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="467"/>
+      <c r="E53" s="469"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -21244,29 +21410,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="497" t="s">
+      <c r="D54" s="499" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="497"/>
+      <c r="E54" s="499"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="468" t="s">
+      <c r="I54" s="470" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="469"/>
-      <c r="K54" s="470">
+      <c r="J54" s="471"/>
+      <c r="K54" s="472">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="470"/>
-      <c r="M54" s="498" t="s">
+      <c r="L54" s="472"/>
+      <c r="M54" s="500" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="499"/>
-      <c r="O54" s="499"/>
-      <c r="P54" s="499"/>
-      <c r="Q54" s="500"/>
+      <c r="N54" s="501"/>
+      <c r="O54" s="501"/>
+      <c r="P54" s="501"/>
+      <c r="Q54" s="502"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="314" t="s">
@@ -21280,11 +21446,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="501"/>
-      <c r="N55" s="502"/>
-      <c r="O55" s="502"/>
-      <c r="P55" s="502"/>
-      <c r="Q55" s="503"/>
+      <c r="M55" s="503"/>
+      <c r="N55" s="504"/>
+      <c r="O55" s="504"/>
+      <c r="P55" s="504"/>
+      <c r="Q55" s="505"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -21302,11 +21468,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="472">
+      <c r="K56" s="474">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="473"/>
+      <c r="L56" s="475"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -21323,22 +21489,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="450" t="s">
+      <c r="D58" s="452" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="451"/>
+      <c r="E58" s="453"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="452" t="s">
+      <c r="I58" s="454" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="453"/>
-      <c r="K58" s="454">
+      <c r="J58" s="455"/>
+      <c r="K58" s="456">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="454"/>
+      <c r="L58" s="456"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -23928,7 +24094,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="512" t="s">
+      <c r="F87" s="514" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -23941,7 +24107,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="513"/>
+      <c r="F88" s="515"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -24253,23 +24419,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="474"/>
-      <c r="C1" s="476" t="s">
+      <c r="B1" s="476"/>
+      <c r="C1" s="478" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="477"/>
-      <c r="E1" s="477"/>
-      <c r="F1" s="477"/>
-      <c r="G1" s="477"/>
-      <c r="H1" s="477"/>
-      <c r="I1" s="477"/>
-      <c r="J1" s="477"/>
-      <c r="K1" s="477"/>
-      <c r="L1" s="477"/>
-      <c r="M1" s="477"/>
+      <c r="D1" s="479"/>
+      <c r="E1" s="479"/>
+      <c r="F1" s="479"/>
+      <c r="G1" s="479"/>
+      <c r="H1" s="479"/>
+      <c r="I1" s="479"/>
+      <c r="J1" s="479"/>
+      <c r="K1" s="479"/>
+      <c r="L1" s="479"/>
+      <c r="M1" s="479"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="475"/>
+      <c r="B2" s="477"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -24279,24 +24445,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="478" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="479"/>
+      <c r="B3" s="480" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="481"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="480" t="s">
+      <c r="H3" s="482" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="480"/>
+      <c r="I3" s="482"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="504" t="s">
+      <c r="P3" s="506" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="514" t="s">
+      <c r="R3" s="516" t="s">
         <v>216</v>
       </c>
     </row>
@@ -24311,14 +24477,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="481" t="s">
+      <c r="E4" s="483" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="482"/>
-      <c r="H4" s="483" t="s">
+      <c r="F4" s="484"/>
+      <c r="H4" s="485" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="484"/>
+      <c r="I4" s="486"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -24328,15 +24494,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="505"/>
+      <c r="P4" s="507"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="515"/>
-      <c r="W4" s="487" t="s">
+      <c r="R4" s="517"/>
+      <c r="W4" s="489" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="487"/>
+      <c r="X4" s="489"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -24397,8 +24563,8 @@
       <c r="S5" s="325" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="487"/>
-      <c r="X5" s="487"/>
+      <c r="W5" s="489"/>
+      <c r="X5" s="489"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -25155,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="491">
+      <c r="W19" s="493">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -25207,7 +25373,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="492"/>
+      <c r="W20" s="494"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -25256,8 +25422,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="493"/>
-      <c r="X21" s="493"/>
+      <c r="W21" s="495"/>
+      <c r="X21" s="495"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -25358,8 +25524,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="494"/>
-      <c r="X23" s="494"/>
+      <c r="W23" s="496"/>
+      <c r="X23" s="496"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -25410,8 +25576,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="494"/>
-      <c r="X24" s="494"/>
+      <c r="W24" s="496"/>
+      <c r="X24" s="496"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -25457,8 +25623,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="495"/>
-      <c r="X25" s="495"/>
+      <c r="W25" s="497"/>
+      <c r="X25" s="497"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -25506,8 +25672,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="495"/>
-      <c r="X26" s="495"/>
+      <c r="W26" s="497"/>
+      <c r="X26" s="497"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -25567,9 +25733,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="488"/>
-      <c r="X27" s="489"/>
-      <c r="Y27" s="490"/>
+      <c r="W27" s="490"/>
+      <c r="X27" s="491"/>
+      <c r="Y27" s="492"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -25623,9 +25789,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="489"/>
-      <c r="X28" s="489"/>
-      <c r="Y28" s="490"/>
+      <c r="W28" s="491"/>
+      <c r="X28" s="491"/>
+      <c r="Y28" s="492"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -25941,11 +26107,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="506">
+      <c r="M36" s="508">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="508">
+      <c r="N36" s="510">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -25953,7 +26119,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="510">
+      <c r="Q36" s="512">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -25972,13 +26138,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="507"/>
-      <c r="N37" s="509"/>
+      <c r="M37" s="509"/>
+      <c r="N37" s="511"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="511"/>
+      <c r="Q37" s="513"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -26252,26 +26418,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="461" t="s">
+      <c r="H52" s="463" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="462"/>
+      <c r="I52" s="464"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="463">
+      <c r="K52" s="465">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="496"/>
+      <c r="L52" s="498"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="467" t="s">
+      <c r="D53" s="469" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="467"/>
+      <c r="E53" s="469"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -26280,29 +26446,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="497" t="s">
+      <c r="D54" s="499" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="497"/>
+      <c r="E54" s="499"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="468" t="s">
+      <c r="I54" s="470" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="469"/>
-      <c r="K54" s="470">
+      <c r="J54" s="471"/>
+      <c r="K54" s="472">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="470"/>
-      <c r="M54" s="498" t="s">
+      <c r="L54" s="472"/>
+      <c r="M54" s="500" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="499"/>
-      <c r="O54" s="499"/>
-      <c r="P54" s="499"/>
-      <c r="Q54" s="500"/>
+      <c r="N54" s="501"/>
+      <c r="O54" s="501"/>
+      <c r="P54" s="501"/>
+      <c r="Q54" s="502"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="314" t="s">
@@ -26316,11 +26482,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="501"/>
-      <c r="N55" s="502"/>
-      <c r="O55" s="502"/>
-      <c r="P55" s="502"/>
-      <c r="Q55" s="503"/>
+      <c r="M55" s="503"/>
+      <c r="N55" s="504"/>
+      <c r="O55" s="504"/>
+      <c r="P55" s="504"/>
+      <c r="Q55" s="505"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -26338,11 +26504,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="472">
+      <c r="K56" s="474">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="473"/>
+      <c r="L56" s="475"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -26359,22 +26525,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="450" t="s">
+      <c r="D58" s="452" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="451"/>
+      <c r="E58" s="453"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="452" t="s">
+      <c r="I58" s="454" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="453"/>
-      <c r="K58" s="454">
+      <c r="J58" s="455"/>
+      <c r="K58" s="456">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="454"/>
+      <c r="L58" s="456"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -28937,7 +29103,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="512" t="s">
+      <c r="F75" s="514" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -28950,7 +29116,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="513"/>
+      <c r="F76" s="515"/>
       <c r="K76" s="1"/>
       <c r="L76" s="256"/>
       <c r="M76" s="3"/>
@@ -29242,23 +29408,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="474"/>
-      <c r="C1" s="516" t="s">
+      <c r="B1" s="476"/>
+      <c r="C1" s="518" t="s">
         <v>323</v>
       </c>
-      <c r="D1" s="517"/>
-      <c r="E1" s="517"/>
-      <c r="F1" s="517"/>
-      <c r="G1" s="517"/>
-      <c r="H1" s="517"/>
-      <c r="I1" s="517"/>
-      <c r="J1" s="517"/>
-      <c r="K1" s="517"/>
-      <c r="L1" s="517"/>
-      <c r="M1" s="517"/>
+      <c r="D1" s="519"/>
+      <c r="E1" s="519"/>
+      <c r="F1" s="519"/>
+      <c r="G1" s="519"/>
+      <c r="H1" s="519"/>
+      <c r="I1" s="519"/>
+      <c r="J1" s="519"/>
+      <c r="K1" s="519"/>
+      <c r="L1" s="519"/>
+      <c r="M1" s="519"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="475"/>
+      <c r="B2" s="477"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -29268,24 +29434,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="478" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="479"/>
+      <c r="B3" s="480" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="481"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="480" t="s">
+      <c r="H3" s="482" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="480"/>
+      <c r="I3" s="482"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="504" t="s">
+      <c r="P3" s="506" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="514" t="s">
+      <c r="R3" s="516" t="s">
         <v>216</v>
       </c>
     </row>
@@ -29300,14 +29466,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="481" t="s">
+      <c r="E4" s="483" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="482"/>
-      <c r="H4" s="483" t="s">
+      <c r="F4" s="484"/>
+      <c r="H4" s="485" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="484"/>
+      <c r="I4" s="486"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -29317,15 +29483,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="505"/>
+      <c r="P4" s="507"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="515"/>
-      <c r="W4" s="487" t="s">
+      <c r="R4" s="517"/>
+      <c r="W4" s="489" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="487"/>
+      <c r="X4" s="489"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -29376,8 +29542,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="325"/>
-      <c r="W5" s="487"/>
-      <c r="X5" s="487"/>
+      <c r="W5" s="489"/>
+      <c r="X5" s="489"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -30141,7 +30307,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="491">
+      <c r="W19" s="493">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -30194,7 +30360,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="492"/>
+      <c r="W20" s="494"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -30243,8 +30409,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="493"/>
-      <c r="X21" s="493"/>
+      <c r="W21" s="495"/>
+      <c r="X21" s="495"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -30344,8 +30510,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="494"/>
-      <c r="X23" s="494"/>
+      <c r="W23" s="496"/>
+      <c r="X23" s="496"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -30400,8 +30566,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="494"/>
-      <c r="X24" s="494"/>
+      <c r="W24" s="496"/>
+      <c r="X24" s="496"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -30446,8 +30612,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="495"/>
-      <c r="X25" s="495"/>
+      <c r="W25" s="497"/>
+      <c r="X25" s="497"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -30495,8 +30661,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="495"/>
-      <c r="X26" s="495"/>
+      <c r="W26" s="497"/>
+      <c r="X26" s="497"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -30550,9 +30716,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="488"/>
-      <c r="X27" s="489"/>
-      <c r="Y27" s="490"/>
+      <c r="W27" s="490"/>
+      <c r="X27" s="491"/>
+      <c r="Y27" s="492"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -30606,9 +30772,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="489"/>
-      <c r="X28" s="489"/>
-      <c r="Y28" s="490"/>
+      <c r="W28" s="491"/>
+      <c r="X28" s="491"/>
+      <c r="Y28" s="492"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -30913,11 +31079,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="506">
+      <c r="M36" s="508">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="508">
+      <c r="N36" s="510">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -30925,7 +31091,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="510">
+      <c r="Q36" s="512">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -30950,13 +31116,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="507"/>
-      <c r="N37" s="509"/>
+      <c r="M37" s="509"/>
+      <c r="N37" s="511"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="511"/>
+      <c r="Q37" s="513"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -31243,26 +31409,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="461" t="s">
+      <c r="H52" s="463" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="462"/>
+      <c r="I52" s="464"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="463">
+      <c r="K52" s="465">
         <f>I50+L50</f>
         <v>144994.20000000001</v>
       </c>
-      <c r="L52" s="496"/>
+      <c r="L52" s="498"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="467" t="s">
+      <c r="D53" s="469" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="467"/>
+      <c r="E53" s="469"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>2135426.1199999996</v>
@@ -31271,22 +31437,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="497" t="s">
+      <c r="D54" s="499" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="497"/>
+      <c r="E54" s="499"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="468" t="s">
+      <c r="I54" s="470" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="469"/>
-      <c r="K54" s="470">
+      <c r="J54" s="471"/>
+      <c r="K54" s="472">
         <f>F56+F57+F58</f>
         <v>1082916.0699999996</v>
       </c>
-      <c r="L54" s="470"/>
+      <c r="L54" s="472"/>
       <c r="M54" s="423"/>
       <c r="N54" s="423"/>
       <c r="O54" s="423"/>
@@ -31327,11 +31493,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="472">
+      <c r="K56" s="474">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="473"/>
+      <c r="L56" s="475"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -31348,22 +31514,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="450" t="s">
+      <c r="D58" s="452" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="451"/>
+      <c r="E58" s="453"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="452" t="s">
+      <c r="I58" s="454" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="453"/>
-      <c r="K58" s="454">
+      <c r="J58" s="455"/>
+      <c r="K58" s="456">
         <f>K54+K56</f>
         <v>328772.83999999962</v>
       </c>
-      <c r="L58" s="454"/>
+      <c r="L58" s="456"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -33196,12 +33362,12 @@
     </row>
     <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="245"/>
-      <c r="B43" s="518" t="s">
+      <c r="B43" s="520" t="s">
         <v>420</v>
       </c>
-      <c r="C43" s="519"/>
-      <c r="D43" s="519"/>
-      <c r="E43" s="520"/>
+      <c r="C43" s="521"/>
+      <c r="D43" s="521"/>
+      <c r="E43" s="522"/>
       <c r="F43" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -33226,10 +33392,10 @@
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="245"/>
-      <c r="B44" s="521"/>
-      <c r="C44" s="522"/>
-      <c r="D44" s="522"/>
-      <c r="E44" s="523"/>
+      <c r="B44" s="523"/>
+      <c r="C44" s="524"/>
+      <c r="D44" s="524"/>
+      <c r="E44" s="525"/>
       <c r="F44" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -33254,10 +33420,10 @@
     </row>
     <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="245"/>
-      <c r="B45" s="524"/>
-      <c r="C45" s="525"/>
-      <c r="D45" s="525"/>
-      <c r="E45" s="526"/>
+      <c r="B45" s="526"/>
+      <c r="C45" s="527"/>
+      <c r="D45" s="527"/>
+      <c r="E45" s="528"/>
       <c r="F45" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -33341,11 +33507,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="349"/>
-      <c r="J48" s="527" t="s">
+      <c r="J48" s="529" t="s">
         <v>421</v>
       </c>
-      <c r="K48" s="528"/>
-      <c r="L48" s="529"/>
+      <c r="K48" s="530"/>
+      <c r="L48" s="531"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -33363,9 +33529,9 @@
         <v>0</v>
       </c>
       <c r="I49" s="349"/>
-      <c r="J49" s="530"/>
-      <c r="K49" s="531"/>
-      <c r="L49" s="532"/>
+      <c r="J49" s="532"/>
+      <c r="K49" s="533"/>
+      <c r="L49" s="534"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -33992,7 +34158,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="512" t="s">
+      <c r="F80" s="514" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -34005,7 +34171,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="513"/>
+      <c r="F81" s="515"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -34290,8 +34456,8 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="F19" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -34320,23 +34486,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="474"/>
-      <c r="C1" s="516" t="s">
+      <c r="B1" s="476"/>
+      <c r="C1" s="518" t="s">
         <v>323</v>
       </c>
-      <c r="D1" s="517"/>
-      <c r="E1" s="517"/>
-      <c r="F1" s="517"/>
-      <c r="G1" s="517"/>
-      <c r="H1" s="517"/>
-      <c r="I1" s="517"/>
-      <c r="J1" s="517"/>
-      <c r="K1" s="517"/>
-      <c r="L1" s="517"/>
-      <c r="M1" s="517"/>
+      <c r="D1" s="519"/>
+      <c r="E1" s="519"/>
+      <c r="F1" s="519"/>
+      <c r="G1" s="519"/>
+      <c r="H1" s="519"/>
+      <c r="I1" s="519"/>
+      <c r="J1" s="519"/>
+      <c r="K1" s="519"/>
+      <c r="L1" s="519"/>
+      <c r="M1" s="519"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="475"/>
+      <c r="B2" s="477"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -34346,24 +34512,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="478" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="479"/>
+      <c r="B3" s="480" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="481"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="480" t="s">
+      <c r="H3" s="482" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="480"/>
+      <c r="I3" s="482"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="504" t="s">
+      <c r="P3" s="506" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="514" t="s">
+      <c r="R3" s="516" t="s">
         <v>216</v>
       </c>
     </row>
@@ -34378,14 +34544,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="481" t="s">
+      <c r="E4" s="483" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="482"/>
-      <c r="H4" s="483" t="s">
+      <c r="F4" s="484"/>
+      <c r="H4" s="485" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="484"/>
+      <c r="I4" s="486"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -34395,15 +34561,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="505"/>
+      <c r="P4" s="507"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="515"/>
-      <c r="W4" s="487" t="s">
+      <c r="R4" s="517"/>
+      <c r="W4" s="489" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="487"/>
+      <c r="X4" s="489"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -34454,8 +34620,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="325"/>
-      <c r="W5" s="487"/>
-      <c r="X5" s="487"/>
+      <c r="W5" s="489"/>
+      <c r="X5" s="489"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -35216,7 +35382,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="491">
+      <c r="W19" s="493">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -35268,7 +35434,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="492"/>
+      <c r="W20" s="494"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -35317,8 +35483,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="493"/>
-      <c r="X21" s="493"/>
+      <c r="W21" s="495"/>
+      <c r="X21" s="495"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -35417,8 +35583,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="494"/>
-      <c r="X23" s="494"/>
+      <c r="W23" s="496"/>
+      <c r="X23" s="496"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -35473,8 +35639,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="494"/>
-      <c r="X24" s="494"/>
+      <c r="W24" s="496"/>
+      <c r="X24" s="496"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -35522,8 +35688,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="495"/>
-      <c r="X25" s="495"/>
+      <c r="W25" s="497"/>
+      <c r="X25" s="497"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -35571,8 +35737,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="495"/>
-      <c r="X26" s="495"/>
+      <c r="W26" s="497"/>
+      <c r="X26" s="497"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -35620,9 +35786,9 @@
       <c r="R27" s="320">
         <v>0</v>
       </c>
-      <c r="W27" s="488"/>
-      <c r="X27" s="489"/>
-      <c r="Y27" s="490"/>
+      <c r="W27" s="490"/>
+      <c r="X27" s="491"/>
+      <c r="Y27" s="492"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -35670,9 +35836,9 @@
       <c r="R28" s="320">
         <v>0</v>
       </c>
-      <c r="W28" s="489"/>
-      <c r="X28" s="489"/>
-      <c r="Y28" s="490"/>
+      <c r="W28" s="491"/>
+      <c r="X28" s="491"/>
+      <c r="Y28" s="492"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -35711,7 +35877,7 @@
         <v>7902</v>
       </c>
       <c r="O29" s="446" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="P29" s="34">
         <f t="shared" si="0"/>
@@ -35742,7 +35908,7 @@
         <v>10378</v>
       </c>
       <c r="D30" s="58" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E30" s="27">
         <v>44617</v>
@@ -35768,7 +35934,7 @@
         <v>26626</v>
       </c>
       <c r="O30" s="447" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="P30" s="34">
         <f t="shared" si="0"/>
@@ -35795,7 +35961,7 @@
         <v>6319</v>
       </c>
       <c r="D31" s="65" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E31" s="27">
         <v>44618</v>
@@ -35814,7 +35980,7 @@
         <v>44618</v>
       </c>
       <c r="K31" s="41" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="L31" s="63">
         <v>16621.14</v>
@@ -35828,7 +35994,7 @@
         <v>36848</v>
       </c>
       <c r="O31" s="446" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="P31" s="34">
         <f t="shared" si="0"/>
@@ -35854,7 +36020,7 @@
         <v>3900</v>
       </c>
       <c r="D32" s="64" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E32" s="27">
         <v>44619</v>
@@ -35995,11 +36161,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="506">
+      <c r="M36" s="508">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="508">
+      <c r="N36" s="510">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -36007,7 +36173,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="533">
+      <c r="Q36" s="535">
         <f>SUM(Q5:Q35)</f>
         <v>111.43999999999505</v>
       </c>
@@ -36032,13 +36198,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="507"/>
-      <c r="N37" s="509"/>
+      <c r="M37" s="509"/>
+      <c r="N37" s="511"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="534"/>
+      <c r="Q37" s="536"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -36088,11 +36254,11 @@
       <c r="L39" s="61">
         <v>14981.03</v>
       </c>
-      <c r="M39" s="535">
+      <c r="M39" s="537">
         <f>M36+N36</f>
         <v>2934972.49</v>
       </c>
-      <c r="N39" s="536"/>
+      <c r="N39" s="538"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3450079.65</v>
@@ -36113,7 +36279,7 @@
         <v>429</v>
       </c>
       <c r="K40" s="41" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="L40" s="61">
         <v>13372.77</v>
@@ -36334,26 +36500,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="461" t="s">
+      <c r="H52" s="463" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="462"/>
+      <c r="I52" s="464"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="463">
+      <c r="K52" s="465">
         <f>I50+L50</f>
         <v>180192.62</v>
       </c>
-      <c r="L52" s="496"/>
+      <c r="L52" s="498"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="467" t="s">
+      <c r="D53" s="469" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="467"/>
+      <c r="E53" s="469"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>2717217.48</v>
@@ -36362,22 +36528,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="497" t="s">
+      <c r="D54" s="499" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="497"/>
+      <c r="E54" s="499"/>
       <c r="F54" s="111">
         <v>0</v>
       </c>
-      <c r="I54" s="468" t="s">
+      <c r="I54" s="470" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="469"/>
-      <c r="K54" s="470">
+      <c r="J54" s="471"/>
+      <c r="K54" s="472">
         <f>F56+F57+F58</f>
-        <v>3983785.9299999997</v>
-      </c>
-      <c r="L54" s="470"/>
+        <v>4063498.9299999997</v>
+      </c>
+      <c r="L54" s="472"/>
       <c r="M54" s="423"/>
       <c r="N54" s="423"/>
       <c r="O54" s="423"/>
@@ -36418,11 +36584,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="472">
+      <c r="K56" s="474">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="473"/>
+      <c r="L56" s="475"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -36432,29 +36598,29 @@
         <v>17</v>
       </c>
       <c r="F57" s="111">
-        <v>0</v>
+        <v>79713</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="450" t="s">
+      <c r="D58" s="452" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="451"/>
+      <c r="E58" s="453"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="452" t="s">
+      <c r="I58" s="454" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="453"/>
-      <c r="K58" s="454">
+      <c r="J58" s="455"/>
+      <c r="K58" s="456">
         <f>K54+K56</f>
-        <v>2834045.5199999996</v>
-      </c>
-      <c r="L58" s="454"/>
+        <v>2913758.5199999996</v>
+      </c>
+      <c r="L58" s="456"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/BALANCE    ZAVALETA   MARZO  2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/BALANCE    ZAVALETA   MARZO  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="9" activeTab="10"/>
+    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="10" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -457,7 +457,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="542">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1879,6 +1879,210 @@
   </si>
   <si>
     <t>POLLO-SALCHICHONERIA QUESOS</t>
+  </si>
+  <si>
+    <t>EMPANADAS-EMBUTIDOS-LONGANIZA-POLLO-SALSAS</t>
+  </si>
+  <si>
+    <t>JAMON-EMPANADAS-QUESOS</t>
+  </si>
+  <si>
+    <t>NOMINA # 11</t>
+  </si>
+  <si>
+    <t>NOMNA # 11</t>
+  </si>
+  <si>
+    <t>QUESOS-LONGANIZA-ENCHILADA</t>
+  </si>
+  <si>
+    <t>10535 C</t>
+  </si>
+  <si>
+    <t>10643 C</t>
+  </si>
+  <si>
+    <t>10669 C</t>
+  </si>
+  <si>
+    <t>10688 C</t>
+  </si>
+  <si>
+    <t>10695 C</t>
+  </si>
+  <si>
+    <t>10808 C</t>
+  </si>
+  <si>
+    <t>10823 C</t>
+  </si>
+  <si>
+    <t>10911 C</t>
+  </si>
+  <si>
+    <t>10932 C</t>
+  </si>
+  <si>
+    <t>10927 C</t>
+  </si>
+  <si>
+    <t>10949 C</t>
+  </si>
+  <si>
+    <t>11037 C</t>
+  </si>
+  <si>
+    <t>11063 C</t>
+  </si>
+  <si>
+    <t>11091 C</t>
+  </si>
+  <si>
+    <t>11174 C</t>
+  </si>
+  <si>
+    <t>11222 C</t>
+  </si>
+  <si>
+    <t>11339 C</t>
+  </si>
+  <si>
+    <t>11478 C</t>
+  </si>
+  <si>
+    <t>11512 C</t>
+  </si>
+  <si>
+    <t>11628 C</t>
+  </si>
+  <si>
+    <t>11640 C</t>
+  </si>
+  <si>
+    <t>11657 C</t>
+  </si>
+  <si>
+    <t>11761 C</t>
+  </si>
+  <si>
+    <t>11823 C</t>
+  </si>
+  <si>
+    <t>11878 C</t>
+  </si>
+  <si>
+    <t>11987 C</t>
+  </si>
+  <si>
+    <t>11991 C</t>
+  </si>
+  <si>
+    <t>12004 C</t>
+  </si>
+  <si>
+    <t>12053 C</t>
+  </si>
+  <si>
+    <t>12161 C</t>
+  </si>
+  <si>
+    <t>12256 C</t>
+  </si>
+  <si>
+    <t>12293 C</t>
+  </si>
+  <si>
+    <t>12315 C</t>
+  </si>
+  <si>
+    <t>12389 C</t>
+  </si>
+  <si>
+    <t>12400 C</t>
+  </si>
+  <si>
+    <t>12471 C</t>
+  </si>
+  <si>
+    <t>12588 C</t>
+  </si>
+  <si>
+    <t>12682 C</t>
+  </si>
+  <si>
+    <t>12771 C</t>
+  </si>
+  <si>
+    <t>12795 C</t>
+  </si>
+  <si>
+    <t>12899 C</t>
+  </si>
+  <si>
+    <t>12977 C</t>
+  </si>
+  <si>
+    <t>13030 C</t>
+  </si>
+  <si>
+    <t>13138 C</t>
+  </si>
+  <si>
+    <t>13246 C</t>
+  </si>
+  <si>
+    <t>13425 C</t>
+  </si>
+  <si>
+    <t>13429 C</t>
+  </si>
+  <si>
+    <t>13460 C</t>
+  </si>
+  <si>
+    <t>13541 C</t>
+  </si>
+  <si>
+    <t>13652 C</t>
+  </si>
+  <si>
+    <t>13809 C</t>
+  </si>
+  <si>
+    <t>13913 C</t>
+  </si>
+  <si>
+    <t>14009 C</t>
+  </si>
+  <si>
+    <t>14039 C</t>
+  </si>
+  <si>
+    <t>14105 C</t>
+  </si>
+  <si>
+    <t>14255 C</t>
+  </si>
+  <si>
+    <t>14326 C</t>
+  </si>
+  <si>
+    <t>14455 C</t>
+  </si>
+  <si>
+    <t>14471 C</t>
+  </si>
+  <si>
+    <t>14550 C</t>
+  </si>
+  <si>
+    <t>14611 C</t>
+  </si>
+  <si>
+    <t>14681 C</t>
+  </si>
+  <si>
+    <t>14827 C</t>
   </si>
 </sst>
 </file>
@@ -1894,7 +2098,7 @@
     <numFmt numFmtId="167" formatCode="[$$-80A]#,##0.00;\-[$$-80A]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$-C0A]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="56" x14ac:knownFonts="1">
+  <fonts count="59" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2336,6 +2540,32 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="1"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="21">
@@ -3752,7 +3982,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="561">
+  <cellXfs count="589">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -4623,8 +4853,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="89" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4984,6 +5212,72 @@
     <xf numFmtId="44" fontId="11" fillId="14" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="15" fontId="33" fillId="7" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="35" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="35" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="10" fillId="3" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="56" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="57" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="58" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="57" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="58" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="7" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -4993,9 +5287,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FF99CCFF"/>
       <color rgb="FF800000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF66"/>
       <color rgb="FF66FFFF"/>
       <color rgb="FF6600FF"/>
@@ -7979,23 +8273,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="476"/>
-      <c r="C1" s="478" t="s">
+      <c r="B1" s="474"/>
+      <c r="C1" s="476" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="479"/>
-      <c r="E1" s="479"/>
-      <c r="F1" s="479"/>
-      <c r="G1" s="479"/>
-      <c r="H1" s="479"/>
-      <c r="I1" s="479"/>
-      <c r="J1" s="479"/>
-      <c r="K1" s="479"/>
-      <c r="L1" s="479"/>
-      <c r="M1" s="479"/>
+      <c r="D1" s="477"/>
+      <c r="E1" s="477"/>
+      <c r="F1" s="477"/>
+      <c r="G1" s="477"/>
+      <c r="H1" s="477"/>
+      <c r="I1" s="477"/>
+      <c r="J1" s="477"/>
+      <c r="K1" s="477"/>
+      <c r="L1" s="477"/>
+      <c r="M1" s="477"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="477"/>
+      <c r="B2" s="475"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -8005,17 +8299,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="480" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="481"/>
+      <c r="B3" s="478" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="479"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="482" t="s">
+      <c r="H3" s="480" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="482"/>
+      <c r="I3" s="480"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -8029,14 +8323,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="483" t="s">
+      <c r="E4" s="481" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="484"/>
-      <c r="H4" s="485" t="s">
+      <c r="F4" s="482"/>
+      <c r="H4" s="483" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="486"/>
+      <c r="I4" s="484"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -8046,10 +8340,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="457" t="s">
+      <c r="P4" s="455" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="458"/>
+      <c r="Q4" s="456"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -9490,11 +9784,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="459">
+      <c r="M39" s="457">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="461">
+      <c r="N39" s="459">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -9520,8 +9814,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="460"/>
-      <c r="N40" s="462"/>
+      <c r="M40" s="458"/>
+      <c r="N40" s="460"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -9736,29 +10030,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="463" t="s">
+      <c r="H52" s="461" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="464"/>
+      <c r="I52" s="462"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="465">
+      <c r="K52" s="463">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="466"/>
-      <c r="M52" s="467">
+      <c r="L52" s="464"/>
+      <c r="M52" s="465">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="468"/>
+      <c r="N52" s="466"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="469" t="s">
+      <c r="D53" s="467" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="469"/>
+      <c r="E53" s="467"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -9769,22 +10063,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="469" t="s">
+      <c r="D54" s="467" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="469"/>
+      <c r="E54" s="467"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="470" t="s">
+      <c r="I54" s="468" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="471"/>
-      <c r="K54" s="472">
+      <c r="J54" s="469"/>
+      <c r="K54" s="470">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="473"/>
+      <c r="L54" s="471"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -9817,11 +10111,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="474">
+      <c r="K56" s="472">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="475"/>
+      <c r="L56" s="473"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -9838,22 +10132,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="452" t="s">
+      <c r="D58" s="450" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="453"/>
+      <c r="E58" s="451"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="454" t="s">
+      <c r="I58" s="452" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="455"/>
-      <c r="K58" s="456">
+      <c r="J58" s="453"/>
+      <c r="K58" s="454">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="456"/>
+      <c r="L58" s="454"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -10032,17 +10326,17 @@
   </sheetPr>
   <dimension ref="A1:N115"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A32" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="98" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="566" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="162" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" style="257" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" style="98" bestFit="1" customWidth="1"/>
@@ -10054,10 +10348,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="43.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="290" t="s">
+      <c r="A1" s="559" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="291"/>
+      <c r="B1" s="568"/>
       <c r="C1" s="292"/>
       <c r="D1" s="373"/>
       <c r="E1" s="292"/>
@@ -10076,7 +10370,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="297" t="s">
+      <c r="A2" s="560" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="298" t="s">
@@ -10114,33 +10408,53 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="412"/>
-      <c r="B3" s="413"/>
-      <c r="C3" s="411"/>
-      <c r="D3" s="424"/>
-      <c r="E3" s="411"/>
+      <c r="A3" s="561">
+        <v>44592</v>
+      </c>
+      <c r="B3" s="569" t="s">
+        <v>479</v>
+      </c>
+      <c r="C3" s="411">
+        <v>2742.6</v>
+      </c>
+      <c r="D3" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E3" s="411">
+        <v>2742.6</v>
+      </c>
       <c r="F3" s="411">
         <f>C3-E3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="437"/>
-      <c r="J3" s="438"/>
-      <c r="K3" s="432"/>
-      <c r="L3" s="437"/>
-      <c r="M3" s="432"/>
+      <c r="I3" s="435"/>
+      <c r="J3" s="436"/>
+      <c r="K3" s="430"/>
+      <c r="L3" s="435"/>
+      <c r="M3" s="430"/>
       <c r="N3" s="183">
         <f>K3-M3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="412"/>
-      <c r="B4" s="413"/>
-      <c r="C4" s="411"/>
-      <c r="D4" s="424"/>
-      <c r="E4" s="411"/>
+      <c r="A4" s="561">
+        <v>44593</v>
+      </c>
+      <c r="B4" s="569" t="s">
+        <v>480</v>
+      </c>
+      <c r="C4" s="411">
+        <v>139150.76</v>
+      </c>
+      <c r="D4" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E4" s="411">
+        <v>139150.76</v>
+      </c>
       <c r="F4" s="411">
-        <f t="shared" ref="F4:F46" si="0">C4-E4</f>
+        <f t="shared" ref="F4:F47" si="0">C4-E4</f>
         <v>0</v>
       </c>
       <c r="G4" s="138"/>
@@ -10155,11 +10469,21 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="412"/>
-      <c r="B5" s="413"/>
-      <c r="C5" s="411"/>
-      <c r="D5" s="424"/>
-      <c r="E5" s="411"/>
+      <c r="A5" s="561">
+        <v>44593</v>
+      </c>
+      <c r="B5" s="569" t="s">
+        <v>481</v>
+      </c>
+      <c r="C5" s="411">
+        <v>4949</v>
+      </c>
+      <c r="D5" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E5" s="411">
+        <v>4949</v>
+      </c>
       <c r="F5" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10175,11 +10499,21 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="412"/>
-      <c r="B6" s="413"/>
-      <c r="C6" s="411"/>
-      <c r="D6" s="424"/>
-      <c r="E6" s="411"/>
+      <c r="A6" s="561">
+        <v>44593</v>
+      </c>
+      <c r="B6" s="569" t="s">
+        <v>482</v>
+      </c>
+      <c r="C6" s="411">
+        <v>1080</v>
+      </c>
+      <c r="D6" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E6" s="411">
+        <v>1080</v>
+      </c>
       <c r="F6" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10195,11 +10529,21 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="412"/>
-      <c r="B7" s="413"/>
-      <c r="C7" s="411"/>
-      <c r="D7" s="424"/>
-      <c r="E7" s="411"/>
+      <c r="A7" s="561">
+        <v>44593</v>
+      </c>
+      <c r="B7" s="569" t="s">
+        <v>483</v>
+      </c>
+      <c r="C7" s="411">
+        <v>29260.799999999999</v>
+      </c>
+      <c r="D7" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E7" s="411">
+        <v>29260.799999999999</v>
+      </c>
       <c r="F7" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10215,11 +10559,21 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="412"/>
-      <c r="B8" s="413"/>
-      <c r="C8" s="411"/>
-      <c r="D8" s="424"/>
-      <c r="E8" s="411"/>
+      <c r="A8" s="561">
+        <v>44594</v>
+      </c>
+      <c r="B8" s="569" t="s">
+        <v>484</v>
+      </c>
+      <c r="C8" s="411">
+        <v>4790.8</v>
+      </c>
+      <c r="D8" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E8" s="411">
+        <v>4790.8</v>
+      </c>
       <c r="F8" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10235,11 +10589,21 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="412"/>
-      <c r="B9" s="413"/>
-      <c r="C9" s="411"/>
-      <c r="D9" s="424"/>
-      <c r="E9" s="411"/>
+      <c r="A9" s="561">
+        <v>44594</v>
+      </c>
+      <c r="B9" s="569" t="s">
+        <v>485</v>
+      </c>
+      <c r="C9" s="411">
+        <v>31559.200000000001</v>
+      </c>
+      <c r="D9" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E9" s="411">
+        <v>31559.200000000001</v>
+      </c>
       <c r="F9" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10255,11 +10619,21 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="412"/>
-      <c r="B10" s="413"/>
-      <c r="C10" s="411"/>
-      <c r="D10" s="424"/>
-      <c r="E10" s="411"/>
+      <c r="A10" s="561">
+        <v>44595</v>
+      </c>
+      <c r="B10" s="569" t="s">
+        <v>486</v>
+      </c>
+      <c r="C10" s="411">
+        <v>43550.76</v>
+      </c>
+      <c r="D10" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E10" s="411">
+        <v>43550.76</v>
+      </c>
       <c r="F10" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10276,11 +10650,21 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="412"/>
-      <c r="B11" s="413"/>
-      <c r="C11" s="411"/>
-      <c r="D11" s="424"/>
-      <c r="E11" s="411"/>
+      <c r="A11" s="561">
+        <v>44595</v>
+      </c>
+      <c r="B11" s="569" t="s">
+        <v>488</v>
+      </c>
+      <c r="C11" s="411">
+        <v>9720</v>
+      </c>
+      <c r="D11" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E11" s="411">
+        <v>9720</v>
+      </c>
       <c r="F11" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10296,11 +10680,21 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="412"/>
-      <c r="B12" s="413"/>
-      <c r="C12" s="411"/>
-      <c r="D12" s="424"/>
-      <c r="E12" s="411"/>
+      <c r="A12" s="561">
+        <v>44595</v>
+      </c>
+      <c r="B12" s="569" t="s">
+        <v>487</v>
+      </c>
+      <c r="C12" s="411">
+        <v>2646</v>
+      </c>
+      <c r="D12" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E12" s="411">
+        <v>2646</v>
+      </c>
       <c r="F12" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10316,11 +10710,21 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="412"/>
-      <c r="B13" s="413"/>
-      <c r="C13" s="411"/>
-      <c r="D13" s="424"/>
-      <c r="E13" s="411"/>
+      <c r="A13" s="561">
+        <v>44595</v>
+      </c>
+      <c r="B13" s="569" t="s">
+        <v>489</v>
+      </c>
+      <c r="C13" s="411">
+        <v>3166.5</v>
+      </c>
+      <c r="D13" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E13" s="411">
+        <v>3166.5</v>
+      </c>
       <c r="F13" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10336,11 +10740,21 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="412"/>
-      <c r="B14" s="413"/>
-      <c r="C14" s="411"/>
-      <c r="D14" s="424"/>
-      <c r="E14" s="411"/>
+      <c r="A14" s="561">
+        <v>44596</v>
+      </c>
+      <c r="B14" s="569" t="s">
+        <v>490</v>
+      </c>
+      <c r="C14" s="411">
+        <v>47607.24</v>
+      </c>
+      <c r="D14" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E14" s="411">
+        <v>47607.24</v>
+      </c>
       <c r="F14" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10356,11 +10770,21 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="412"/>
-      <c r="B15" s="413"/>
-      <c r="C15" s="411"/>
-      <c r="D15" s="424"/>
-      <c r="E15" s="411"/>
+      <c r="A15" s="561">
+        <v>44596</v>
+      </c>
+      <c r="B15" s="569" t="s">
+        <v>491</v>
+      </c>
+      <c r="C15" s="411">
+        <v>65351.82</v>
+      </c>
+      <c r="D15" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E15" s="411">
+        <v>65351.82</v>
+      </c>
       <c r="F15" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10376,11 +10800,21 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="412"/>
-      <c r="B16" s="413"/>
-      <c r="C16" s="411"/>
-      <c r="D16" s="424"/>
-      <c r="E16" s="411"/>
+      <c r="A16" s="561">
+        <v>44596</v>
+      </c>
+      <c r="B16" s="569" t="s">
+        <v>492</v>
+      </c>
+      <c r="C16" s="411">
+        <v>175.2</v>
+      </c>
+      <c r="D16" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E16" s="411">
+        <v>175.2</v>
+      </c>
       <c r="F16" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10396,11 +10830,21 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="412"/>
-      <c r="B17" s="413"/>
-      <c r="C17" s="411"/>
-      <c r="D17" s="425"/>
-      <c r="E17" s="411"/>
+      <c r="A17" s="561">
+        <v>44597</v>
+      </c>
+      <c r="B17" s="569" t="s">
+        <v>493</v>
+      </c>
+      <c r="C17" s="411">
+        <v>62468.800000000003</v>
+      </c>
+      <c r="D17" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E17" s="411">
+        <v>62468.800000000003</v>
+      </c>
       <c r="F17" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10416,11 +10860,21 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="412"/>
-      <c r="B18" s="413"/>
-      <c r="C18" s="411"/>
-      <c r="D18" s="424"/>
-      <c r="E18" s="411"/>
+      <c r="A18" s="561">
+        <v>44597</v>
+      </c>
+      <c r="B18" s="569" t="s">
+        <v>494</v>
+      </c>
+      <c r="C18" s="411">
+        <v>2476.5</v>
+      </c>
+      <c r="D18" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E18" s="411">
+        <v>2476.5</v>
+      </c>
       <c r="F18" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10436,11 +10890,21 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="412"/>
-      <c r="B19" s="413"/>
-      <c r="C19" s="411"/>
-      <c r="D19" s="424"/>
-      <c r="E19" s="411"/>
+      <c r="A19" s="561">
+        <v>44599</v>
+      </c>
+      <c r="B19" s="569" t="s">
+        <v>495</v>
+      </c>
+      <c r="C19" s="411">
+        <v>3781.6</v>
+      </c>
+      <c r="D19" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E19" s="411">
+        <v>3781.6</v>
+      </c>
       <c r="F19" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10456,11 +10920,21 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="412"/>
-      <c r="B20" s="413"/>
-      <c r="C20" s="411"/>
-      <c r="D20" s="424"/>
-      <c r="E20" s="411"/>
+      <c r="A20" s="561">
+        <v>44600</v>
+      </c>
+      <c r="B20" s="569" t="s">
+        <v>496</v>
+      </c>
+      <c r="C20" s="411">
+        <v>71765.55</v>
+      </c>
+      <c r="D20" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E20" s="411">
+        <v>71765.55</v>
+      </c>
       <c r="F20" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10476,11 +10950,21 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="412"/>
-      <c r="B21" s="413"/>
-      <c r="C21" s="411"/>
-      <c r="D21" s="424"/>
-      <c r="E21" s="411"/>
+      <c r="A21" s="561">
+        <v>44600</v>
+      </c>
+      <c r="B21" s="569" t="s">
+        <v>497</v>
+      </c>
+      <c r="C21" s="411">
+        <v>2798.4</v>
+      </c>
+      <c r="D21" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E21" s="411">
+        <v>2798.4</v>
+      </c>
       <c r="F21" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10496,11 +10980,21 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="412"/>
-      <c r="B22" s="413"/>
-      <c r="C22" s="411"/>
-      <c r="D22" s="424"/>
-      <c r="E22" s="411"/>
+      <c r="A22" s="561">
+        <v>44601</v>
+      </c>
+      <c r="B22" s="569" t="s">
+        <v>498</v>
+      </c>
+      <c r="C22" s="411">
+        <v>8720.9</v>
+      </c>
+      <c r="D22" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E22" s="411">
+        <v>8720.9</v>
+      </c>
       <c r="F22" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10517,11 +11011,21 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="412"/>
-      <c r="B23" s="413"/>
-      <c r="C23" s="411"/>
-      <c r="D23" s="424"/>
-      <c r="E23" s="411"/>
+      <c r="A23" s="561">
+        <v>44601</v>
+      </c>
+      <c r="B23" s="569" t="s">
+        <v>499</v>
+      </c>
+      <c r="C23" s="411">
+        <v>55980</v>
+      </c>
+      <c r="D23" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E23" s="411">
+        <v>55980</v>
+      </c>
       <c r="F23" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10537,11 +11041,21 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="412"/>
-      <c r="B24" s="413"/>
-      <c r="C24" s="411"/>
-      <c r="D24" s="424"/>
-      <c r="E24" s="411"/>
+      <c r="A24" s="561">
+        <v>44601</v>
+      </c>
+      <c r="B24" s="569" t="s">
+        <v>500</v>
+      </c>
+      <c r="C24" s="411">
+        <v>6934.5</v>
+      </c>
+      <c r="D24" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E24" s="411">
+        <v>6934.5</v>
+      </c>
       <c r="F24" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10557,11 +11071,21 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="412"/>
-      <c r="B25" s="413"/>
-      <c r="C25" s="411"/>
-      <c r="D25" s="424"/>
-      <c r="E25" s="411"/>
+      <c r="A25" s="561">
+        <v>44602</v>
+      </c>
+      <c r="B25" s="569" t="s">
+        <v>501</v>
+      </c>
+      <c r="C25" s="411">
+        <v>27574.5</v>
+      </c>
+      <c r="D25" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E25" s="411">
+        <v>27574.5</v>
+      </c>
       <c r="F25" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10577,11 +11101,21 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="412"/>
-      <c r="B26" s="413"/>
-      <c r="C26" s="411"/>
-      <c r="D26" s="424"/>
-      <c r="E26" s="411"/>
+      <c r="A26" s="561">
+        <v>44603</v>
+      </c>
+      <c r="B26" s="569" t="s">
+        <v>502</v>
+      </c>
+      <c r="C26" s="411">
+        <v>32211.8</v>
+      </c>
+      <c r="D26" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E26" s="411">
+        <v>32211.8</v>
+      </c>
       <c r="F26" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10597,11 +11131,21 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="412"/>
-      <c r="B27" s="413"/>
-      <c r="C27" s="411"/>
-      <c r="D27" s="425"/>
-      <c r="E27" s="411"/>
+      <c r="A27" s="561">
+        <v>44603</v>
+      </c>
+      <c r="B27" s="569" t="s">
+        <v>503</v>
+      </c>
+      <c r="C27" s="411">
+        <v>400</v>
+      </c>
+      <c r="D27" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E27" s="411">
+        <v>400</v>
+      </c>
       <c r="F27" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10617,11 +11161,21 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="412"/>
-      <c r="B28" s="413"/>
-      <c r="C28" s="411"/>
-      <c r="D28" s="424"/>
-      <c r="E28" s="411"/>
+      <c r="A28" s="561">
+        <v>44604</v>
+      </c>
+      <c r="B28" s="569" t="s">
+        <v>504</v>
+      </c>
+      <c r="C28" s="411">
+        <v>55111.8</v>
+      </c>
+      <c r="D28" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E28" s="411">
+        <v>55111.8</v>
+      </c>
       <c r="F28" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10637,11 +11191,21 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="412"/>
-      <c r="B29" s="413"/>
-      <c r="C29" s="411"/>
-      <c r="D29" s="424"/>
-      <c r="E29" s="411"/>
+      <c r="A29" s="561">
+        <v>44604</v>
+      </c>
+      <c r="B29" s="569" t="s">
+        <v>505</v>
+      </c>
+      <c r="C29" s="411">
+        <v>149188.5</v>
+      </c>
+      <c r="D29" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E29" s="411">
+        <v>149188.5</v>
+      </c>
       <c r="F29" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10657,11 +11221,21 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="412"/>
-      <c r="B30" s="413"/>
-      <c r="C30" s="411"/>
-      <c r="D30" s="424"/>
-      <c r="E30" s="411"/>
+      <c r="A30" s="561">
+        <v>44604</v>
+      </c>
+      <c r="B30" s="569" t="s">
+        <v>506</v>
+      </c>
+      <c r="C30" s="411">
+        <v>4932</v>
+      </c>
+      <c r="D30" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E30" s="411">
+        <v>4932</v>
+      </c>
       <c r="F30" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10678,11 +11252,21 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="412"/>
-      <c r="B31" s="413"/>
-      <c r="C31" s="411"/>
-      <c r="D31" s="424"/>
-      <c r="E31" s="411"/>
+      <c r="A31" s="561">
+        <v>44604</v>
+      </c>
+      <c r="B31" s="569" t="s">
+        <v>507</v>
+      </c>
+      <c r="C31" s="411">
+        <v>16409.900000000001</v>
+      </c>
+      <c r="D31" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E31" s="411">
+        <v>16409.900000000001</v>
+      </c>
       <c r="F31" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10698,11 +11282,21 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="412"/>
-      <c r="B32" s="413"/>
-      <c r="C32" s="411"/>
-      <c r="D32" s="424"/>
-      <c r="E32" s="411"/>
+      <c r="A32" s="561">
+        <v>44606</v>
+      </c>
+      <c r="B32" s="569" t="s">
+        <v>508</v>
+      </c>
+      <c r="C32" s="411">
+        <v>38081.4</v>
+      </c>
+      <c r="D32" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E32" s="411">
+        <v>38081.4</v>
+      </c>
       <c r="F32" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10718,11 +11312,21 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="412"/>
-      <c r="B33" s="413"/>
-      <c r="C33" s="411"/>
-      <c r="D33" s="424"/>
-      <c r="E33" s="411"/>
+      <c r="A33" s="561">
+        <v>44607</v>
+      </c>
+      <c r="B33" s="569" t="s">
+        <v>509</v>
+      </c>
+      <c r="C33" s="411">
+        <v>42433.4</v>
+      </c>
+      <c r="D33" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E33" s="411">
+        <v>42433.4</v>
+      </c>
       <c r="F33" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10738,11 +11342,21 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="412"/>
-      <c r="B34" s="413"/>
-      <c r="C34" s="411"/>
-      <c r="D34" s="424"/>
-      <c r="E34" s="411"/>
+      <c r="A34" s="561">
+        <v>44607</v>
+      </c>
+      <c r="B34" s="569" t="s">
+        <v>510</v>
+      </c>
+      <c r="C34" s="411">
+        <v>46641.599999999999</v>
+      </c>
+      <c r="D34" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E34" s="411">
+        <v>46641.599999999999</v>
+      </c>
       <c r="F34" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10758,11 +11372,21 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="412"/>
-      <c r="B35" s="413"/>
-      <c r="C35" s="411"/>
-      <c r="D35" s="424"/>
-      <c r="E35" s="411"/>
+      <c r="A35" s="561">
+        <v>44607</v>
+      </c>
+      <c r="B35" s="569" t="s">
+        <v>511</v>
+      </c>
+      <c r="C35" s="411">
+        <v>840</v>
+      </c>
+      <c r="D35" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E35" s="411">
+        <v>840</v>
+      </c>
       <c r="F35" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10778,11 +11402,21 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="412"/>
-      <c r="B36" s="413"/>
-      <c r="C36" s="411"/>
-      <c r="D36" s="424"/>
-      <c r="E36" s="411"/>
+      <c r="A36" s="561">
+        <v>44608</v>
+      </c>
+      <c r="B36" s="569" t="s">
+        <v>512</v>
+      </c>
+      <c r="C36" s="411">
+        <v>34550.68</v>
+      </c>
+      <c r="D36" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E36" s="411">
+        <v>34550.68</v>
+      </c>
       <c r="F36" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10798,11 +11432,21 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="412"/>
-      <c r="B37" s="413"/>
-      <c r="C37" s="411"/>
-      <c r="D37" s="424"/>
-      <c r="E37" s="411"/>
+      <c r="A37" s="561">
+        <v>44608</v>
+      </c>
+      <c r="B37" s="569" t="s">
+        <v>513</v>
+      </c>
+      <c r="C37" s="411">
+        <v>5383.2</v>
+      </c>
+      <c r="D37" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E37" s="411">
+        <v>5383.2</v>
+      </c>
       <c r="F37" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10818,11 +11462,21 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="412"/>
-      <c r="B38" s="431"/>
-      <c r="C38" s="432"/>
-      <c r="D38" s="433"/>
-      <c r="E38" s="432"/>
+      <c r="A38" s="561">
+        <v>44609</v>
+      </c>
+      <c r="B38" s="570" t="s">
+        <v>514</v>
+      </c>
+      <c r="C38" s="430">
+        <v>38249.040000000001</v>
+      </c>
+      <c r="D38" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E38" s="430">
+        <v>38249.040000000001</v>
+      </c>
       <c r="F38" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10838,11 +11492,21 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="412"/>
-      <c r="B39" s="245"/>
-      <c r="C39" s="111"/>
-      <c r="D39" s="434"/>
-      <c r="E39" s="111"/>
+      <c r="A39" s="561">
+        <v>44610</v>
+      </c>
+      <c r="B39" s="246" t="s">
+        <v>515</v>
+      </c>
+      <c r="C39" s="111">
+        <v>74963.399999999994</v>
+      </c>
+      <c r="D39" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E39" s="111">
+        <v>74963.399999999994</v>
+      </c>
       <c r="F39" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10858,11 +11522,21 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="412"/>
-      <c r="B40" s="245"/>
-      <c r="C40" s="111"/>
-      <c r="D40" s="434"/>
-      <c r="E40" s="111"/>
+      <c r="A40" s="561">
+        <v>44610</v>
+      </c>
+      <c r="B40" s="246" t="s">
+        <v>516</v>
+      </c>
+      <c r="C40" s="111">
+        <v>9270</v>
+      </c>
+      <c r="D40" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E40" s="111">
+        <v>9270</v>
+      </c>
       <c r="F40" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10878,11 +11552,21 @@
       </c>
     </row>
     <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="412"/>
-      <c r="B41" s="245"/>
-      <c r="C41" s="111"/>
-      <c r="D41" s="434"/>
-      <c r="E41" s="111"/>
+      <c r="A41" s="561">
+        <v>44611</v>
+      </c>
+      <c r="B41" s="246" t="s">
+        <v>517</v>
+      </c>
+      <c r="C41" s="111">
+        <v>85719.4</v>
+      </c>
+      <c r="D41" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E41" s="111">
+        <v>85719.4</v>
+      </c>
       <c r="F41" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10898,11 +11582,21 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="430"/>
-      <c r="B42" s="246"/>
-      <c r="C42" s="111"/>
-      <c r="D42" s="253"/>
-      <c r="E42" s="69"/>
+      <c r="A42" s="562">
+        <v>44611</v>
+      </c>
+      <c r="B42" s="246" t="s">
+        <v>518</v>
+      </c>
+      <c r="C42" s="111">
+        <v>21012.48</v>
+      </c>
+      <c r="D42" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E42" s="111">
+        <v>21012.48</v>
+      </c>
       <c r="F42" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10918,11 +11612,21 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="430"/>
-      <c r="B43" s="435"/>
-      <c r="C43" s="435"/>
-      <c r="D43" s="435"/>
-      <c r="E43" s="435"/>
+      <c r="A43" s="562">
+        <v>44613</v>
+      </c>
+      <c r="B43" s="571" t="s">
+        <v>519</v>
+      </c>
+      <c r="C43" s="111">
+        <v>16586.599999999999</v>
+      </c>
+      <c r="D43" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E43" s="111">
+        <v>16586.599999999999</v>
+      </c>
       <c r="F43" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10938,11 +11642,21 @@
       </c>
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="430"/>
-      <c r="B44" s="435"/>
-      <c r="C44" s="435"/>
-      <c r="D44" s="435"/>
-      <c r="E44" s="435"/>
+      <c r="A44" s="562">
+        <v>44613</v>
+      </c>
+      <c r="B44" s="571" t="s">
+        <v>520</v>
+      </c>
+      <c r="C44" s="111">
+        <v>16100</v>
+      </c>
+      <c r="D44" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E44" s="111">
+        <v>16100</v>
+      </c>
       <c r="F44" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10958,11 +11672,21 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="430"/>
-      <c r="B45" s="435"/>
-      <c r="C45" s="435"/>
-      <c r="D45" s="435"/>
-      <c r="E45" s="435"/>
+      <c r="A45" s="562">
+        <v>44614</v>
+      </c>
+      <c r="B45" s="571" t="s">
+        <v>521</v>
+      </c>
+      <c r="C45" s="111">
+        <v>86111.8</v>
+      </c>
+      <c r="D45" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E45" s="111">
+        <v>86111.8</v>
+      </c>
       <c r="F45" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10978,11 +11702,21 @@
       </c>
     </row>
     <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="430"/>
-      <c r="B46" s="246"/>
-      <c r="C46" s="111"/>
-      <c r="D46" s="253"/>
-      <c r="E46" s="69"/>
+      <c r="A46" s="562">
+        <v>44615</v>
+      </c>
+      <c r="B46" s="246" t="s">
+        <v>522</v>
+      </c>
+      <c r="C46" s="111">
+        <v>49782.6</v>
+      </c>
+      <c r="D46" s="424">
+        <v>44617</v>
+      </c>
+      <c r="E46" s="111">
+        <v>49782.6</v>
+      </c>
       <c r="F46" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10998,19 +11732,25 @@
       </c>
     </row>
     <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="245"/>
-      <c r="B47" s="246"/>
-      <c r="C47" s="111"/>
+      <c r="A47" s="563">
+        <v>44616</v>
+      </c>
+      <c r="B47" s="246" t="s">
+        <v>523</v>
+      </c>
+      <c r="C47" s="111">
+        <v>61856.639999999999</v>
+      </c>
       <c r="D47" s="253"/>
       <c r="E47" s="69"/>
-      <c r="F47" s="137">
-        <f t="shared" ref="F47:F78" si="2">F46+C47-E47</f>
-        <v>0</v>
+      <c r="F47" s="411">
+        <f t="shared" si="0"/>
+        <v>61856.639999999999</v>
       </c>
       <c r="I47" s="351"/>
-      <c r="J47" s="439"/>
+      <c r="J47" s="437"/>
       <c r="K47" s="34"/>
-      <c r="L47" s="440"/>
+      <c r="L47" s="438"/>
       <c r="M47" s="215"/>
       <c r="N47" s="137">
         <f t="shared" si="1"/>
@@ -11018,19 +11758,25 @@
       </c>
     </row>
     <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="245"/>
-      <c r="B48" s="246"/>
-      <c r="C48" s="111"/>
+      <c r="A48" s="563">
+        <v>44617</v>
+      </c>
+      <c r="B48" s="246" t="s">
+        <v>524</v>
+      </c>
+      <c r="C48" s="111">
+        <v>145889.51999999999</v>
+      </c>
       <c r="D48" s="253"/>
       <c r="E48" s="69"/>
-      <c r="F48" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="F48" s="411">
+        <f t="shared" ref="F5:F68" si="2">F47+C48</f>
+        <v>207746.15999999997</v>
       </c>
       <c r="I48" s="349"/>
-      <c r="J48" s="436"/>
-      <c r="K48" s="436"/>
-      <c r="L48" s="436"/>
+      <c r="J48" s="434"/>
+      <c r="K48" s="434"/>
+      <c r="L48" s="434"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -11038,19 +11784,25 @@
       </c>
     </row>
     <row r="49" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="134"/>
-      <c r="B49" s="139"/>
-      <c r="C49" s="69"/>
+      <c r="A49" s="564">
+        <v>44617</v>
+      </c>
+      <c r="B49" s="577" t="s">
+        <v>525</v>
+      </c>
+      <c r="C49" s="111">
+        <v>200</v>
+      </c>
       <c r="D49" s="253"/>
       <c r="E49" s="69"/>
-      <c r="F49" s="137">
+      <c r="F49" s="411">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>207946.15999999997</v>
       </c>
       <c r="I49" s="349"/>
-      <c r="J49" s="436"/>
-      <c r="K49" s="436"/>
-      <c r="L49" s="436"/>
+      <c r="J49" s="434"/>
+      <c r="K49" s="434"/>
+      <c r="L49" s="434"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -11058,14 +11810,20 @@
       </c>
     </row>
     <row r="50" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="134"/>
-      <c r="B50" s="139"/>
-      <c r="C50" s="69"/>
+      <c r="A50" s="578">
+        <v>44617</v>
+      </c>
+      <c r="B50" s="579" t="s">
+        <v>526</v>
+      </c>
+      <c r="C50" s="111">
+        <v>2373.8000000000002</v>
+      </c>
       <c r="D50" s="253"/>
       <c r="E50" s="69"/>
-      <c r="F50" s="137">
+      <c r="F50" s="411">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>210319.95999999996</v>
       </c>
       <c r="I50" s="134"/>
       <c r="J50" s="428"/>
@@ -11080,14 +11838,14 @@
       </c>
     </row>
     <row r="51" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="134"/>
-      <c r="B51" s="139"/>
-      <c r="C51" s="69"/>
+      <c r="A51" s="578"/>
+      <c r="B51" s="579"/>
+      <c r="C51" s="111"/>
       <c r="D51" s="253"/>
       <c r="E51" s="69"/>
-      <c r="F51" s="137">
+      <c r="F51" s="411">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>210319.95999999996</v>
       </c>
       <c r="I51" s="134"/>
       <c r="J51" s="139"/>
@@ -11100,14 +11858,14 @@
       </c>
     </row>
     <row r="52" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="134"/>
-      <c r="B52" s="139"/>
-      <c r="C52" s="69"/>
+      <c r="A52" s="578"/>
+      <c r="B52" s="579"/>
+      <c r="C52" s="111"/>
       <c r="D52" s="253"/>
       <c r="E52" s="69"/>
-      <c r="F52" s="137">
+      <c r="F52" s="411">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>210319.95999999996</v>
       </c>
       <c r="I52" s="134"/>
       <c r="J52" s="139"/>
@@ -11120,14 +11878,14 @@
       </c>
     </row>
     <row r="53" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="134"/>
-      <c r="B53" s="139"/>
-      <c r="C53" s="69"/>
+      <c r="A53" s="578"/>
+      <c r="B53" s="579"/>
+      <c r="C53" s="111"/>
       <c r="D53" s="253"/>
       <c r="E53" s="69"/>
-      <c r="F53" s="137">
+      <c r="F53" s="411">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>210319.95999999996</v>
       </c>
       <c r="I53" s="134"/>
       <c r="J53" s="139"/>
@@ -11140,14 +11898,14 @@
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="134"/>
-      <c r="B54" s="139"/>
-      <c r="C54" s="69"/>
+      <c r="A54" s="578"/>
+      <c r="B54" s="579"/>
+      <c r="C54" s="111"/>
       <c r="D54" s="253"/>
       <c r="E54" s="69"/>
-      <c r="F54" s="137">
+      <c r="F54" s="411">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>210319.95999999996</v>
       </c>
       <c r="I54" s="134"/>
       <c r="J54" s="139"/>
@@ -11160,14 +11918,14 @@
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="134"/>
-      <c r="B55" s="139"/>
-      <c r="C55" s="69"/>
+      <c r="A55" s="578"/>
+      <c r="B55" s="579"/>
+      <c r="C55" s="111"/>
       <c r="D55" s="253"/>
       <c r="E55" s="69"/>
-      <c r="F55" s="137">
+      <c r="F55" s="411">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>210319.95999999996</v>
       </c>
       <c r="I55" s="134"/>
       <c r="J55" s="139"/>
@@ -11180,14 +11938,14 @@
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="134"/>
-      <c r="B56" s="139"/>
-      <c r="C56" s="69"/>
+      <c r="A56" s="578"/>
+      <c r="B56" s="579"/>
+      <c r="C56" s="111"/>
       <c r="D56" s="253"/>
       <c r="E56" s="69"/>
-      <c r="F56" s="137">
+      <c r="F56" s="411">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>210319.95999999996</v>
       </c>
       <c r="I56" s="134"/>
       <c r="J56" s="139"/>
@@ -11200,14 +11958,14 @@
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="134"/>
-      <c r="B57" s="139"/>
-      <c r="C57" s="69"/>
+      <c r="A57" s="578"/>
+      <c r="B57" s="579"/>
+      <c r="C57" s="111"/>
       <c r="D57" s="253"/>
       <c r="E57" s="69"/>
-      <c r="F57" s="137">
+      <c r="F57" s="411">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>210319.95999999996</v>
       </c>
       <c r="I57" s="134"/>
       <c r="J57" s="139"/>
@@ -11220,14 +11978,14 @@
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="134"/>
-      <c r="B58" s="139"/>
-      <c r="C58" s="69"/>
+      <c r="A58" s="578"/>
+      <c r="B58" s="579"/>
+      <c r="C58" s="111"/>
       <c r="D58" s="253"/>
       <c r="E58" s="69"/>
-      <c r="F58" s="137">
+      <c r="F58" s="411">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>210319.95999999996</v>
       </c>
       <c r="I58" s="134"/>
       <c r="J58" s="139"/>
@@ -11240,14 +11998,14 @@
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="134"/>
-      <c r="B59" s="139"/>
-      <c r="C59" s="69"/>
+      <c r="A59" s="578"/>
+      <c r="B59" s="579"/>
+      <c r="C59" s="111"/>
       <c r="D59" s="253"/>
       <c r="E59" s="69"/>
-      <c r="F59" s="137">
+      <c r="F59" s="411">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>210319.95999999996</v>
       </c>
       <c r="I59" s="134"/>
       <c r="J59" s="139"/>
@@ -11260,14 +12018,14 @@
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="134"/>
-      <c r="B60" s="139"/>
-      <c r="C60" s="69"/>
+      <c r="A60" s="578"/>
+      <c r="B60" s="579"/>
+      <c r="C60" s="111"/>
       <c r="D60" s="253"/>
       <c r="E60" s="69"/>
-      <c r="F60" s="137">
+      <c r="F60" s="411">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>210319.95999999996</v>
       </c>
       <c r="I60" s="134"/>
       <c r="J60" s="139"/>
@@ -11280,14 +12038,14 @@
       </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="134"/>
-      <c r="B61" s="139"/>
-      <c r="C61" s="69"/>
+      <c r="A61" s="578"/>
+      <c r="B61" s="579"/>
+      <c r="C61" s="111"/>
       <c r="D61" s="253"/>
       <c r="E61" s="69"/>
-      <c r="F61" s="137">
+      <c r="F61" s="411">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>210319.95999999996</v>
       </c>
       <c r="I61" s="134"/>
       <c r="J61" s="139"/>
@@ -11300,14 +12058,14 @@
       </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="134"/>
-      <c r="B62" s="139"/>
-      <c r="C62" s="69"/>
+      <c r="A62" s="578"/>
+      <c r="B62" s="579"/>
+      <c r="C62" s="111"/>
       <c r="D62" s="254"/>
       <c r="E62" s="69"/>
-      <c r="F62" s="137">
+      <c r="F62" s="411">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>210319.95999999996</v>
       </c>
       <c r="I62" s="357"/>
       <c r="J62" s="358"/>
@@ -11320,14 +12078,14 @@
       </c>
     </row>
     <row r="63" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="134"/>
-      <c r="B63" s="139"/>
-      <c r="C63" s="69"/>
+      <c r="A63" s="578"/>
+      <c r="B63" s="579"/>
+      <c r="C63" s="111"/>
       <c r="D63" s="254"/>
       <c r="E63" s="69"/>
-      <c r="F63" s="137">
+      <c r="F63" s="411">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>210319.95999999996</v>
       </c>
       <c r="I63" s="357"/>
       <c r="J63" s="358"/>
@@ -11340,14 +12098,14 @@
       </c>
     </row>
     <row r="64" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="134"/>
-      <c r="B64" s="139"/>
-      <c r="C64" s="69"/>
+      <c r="A64" s="578"/>
+      <c r="B64" s="579"/>
+      <c r="C64" s="111"/>
       <c r="D64" s="254"/>
       <c r="E64" s="69"/>
-      <c r="F64" s="137">
+      <c r="F64" s="411">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>210319.95999999996</v>
       </c>
       <c r="I64" s="357"/>
       <c r="J64" s="358"/>
@@ -11360,14 +12118,14 @@
       </c>
     </row>
     <row r="65" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="134"/>
-      <c r="B65" s="139"/>
-      <c r="C65" s="69"/>
+      <c r="A65" s="578"/>
+      <c r="B65" s="579"/>
+      <c r="C65" s="111"/>
       <c r="D65" s="254"/>
       <c r="E65" s="69"/>
-      <c r="F65" s="137">
+      <c r="F65" s="411">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>210319.95999999996</v>
       </c>
       <c r="I65" s="357"/>
       <c r="J65" s="358"/>
@@ -11380,14 +12138,14 @@
       </c>
     </row>
     <row r="66" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="134"/>
-      <c r="B66" s="139"/>
-      <c r="C66" s="69"/>
+      <c r="A66" s="578"/>
+      <c r="B66" s="579"/>
+      <c r="C66" s="111"/>
       <c r="D66" s="254"/>
       <c r="E66" s="69"/>
-      <c r="F66" s="137">
+      <c r="F66" s="411">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>210319.95999999996</v>
       </c>
       <c r="I66" s="357"/>
       <c r="J66" s="358"/>
@@ -11400,14 +12158,14 @@
       </c>
     </row>
     <row r="67" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="357"/>
-      <c r="B67" s="358"/>
-      <c r="C67" s="34"/>
+      <c r="A67" s="580"/>
+      <c r="B67" s="581"/>
+      <c r="C67" s="233"/>
       <c r="D67" s="118"/>
       <c r="E67" s="34"/>
-      <c r="F67" s="137">
+      <c r="F67" s="411">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>210319.95999999996</v>
       </c>
       <c r="I67" s="357"/>
       <c r="J67" s="358"/>
@@ -11420,14 +12178,14 @@
       </c>
     </row>
     <row r="68" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="134"/>
-      <c r="B68" s="139"/>
-      <c r="C68" s="69"/>
+      <c r="A68" s="578"/>
+      <c r="B68" s="579"/>
+      <c r="C68" s="111"/>
       <c r="D68" s="254"/>
       <c r="E68" s="69"/>
-      <c r="F68" s="137">
+      <c r="F68" s="411">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>210319.95999999996</v>
       </c>
       <c r="I68" s="134"/>
       <c r="J68" s="139"/>
@@ -11440,14 +12198,14 @@
       </c>
     </row>
     <row r="69" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="134"/>
-      <c r="B69" s="139"/>
-      <c r="C69" s="69"/>
+      <c r="A69" s="578"/>
+      <c r="B69" s="579"/>
+      <c r="C69" s="111"/>
       <c r="D69" s="254"/>
       <c r="E69" s="69"/>
-      <c r="F69" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="F69" s="411">
+        <f t="shared" ref="F69:F78" si="3">F68+C69</f>
+        <v>210319.95999999996</v>
       </c>
       <c r="I69" s="134"/>
       <c r="J69" s="139"/>
@@ -11455,19 +12213,19 @@
       <c r="L69" s="148"/>
       <c r="M69" s="69"/>
       <c r="N69" s="137">
-        <f t="shared" ref="N69:N78" si="3">N68+K69-M69</f>
+        <f t="shared" ref="N69:N78" si="4">N68+K69-M69</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="134"/>
-      <c r="B70" s="139"/>
-      <c r="C70" s="69"/>
+      <c r="A70" s="578"/>
+      <c r="B70" s="579"/>
+      <c r="C70" s="111"/>
       <c r="D70" s="254"/>
       <c r="E70" s="69"/>
-      <c r="F70" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="F70" s="411">
+        <f t="shared" si="3"/>
+        <v>210319.95999999996</v>
       </c>
       <c r="I70" s="134"/>
       <c r="J70" s="139"/>
@@ -11475,19 +12233,19 @@
       <c r="L70" s="148"/>
       <c r="M70" s="69"/>
       <c r="N70" s="137">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="134"/>
-      <c r="B71" s="139"/>
-      <c r="C71" s="69"/>
+      <c r="A71" s="578"/>
+      <c r="B71" s="579"/>
+      <c r="C71" s="111"/>
       <c r="D71" s="254"/>
       <c r="E71" s="69"/>
-      <c r="F71" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="F71" s="411">
+        <f t="shared" si="3"/>
+        <v>210319.95999999996</v>
       </c>
       <c r="I71" s="134"/>
       <c r="J71" s="139"/>
@@ -11495,19 +12253,19 @@
       <c r="L71" s="148"/>
       <c r="M71" s="69"/>
       <c r="N71" s="137">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="134"/>
-      <c r="B72" s="139"/>
-      <c r="C72" s="69"/>
+      <c r="A72" s="578"/>
+      <c r="B72" s="579"/>
+      <c r="C72" s="111"/>
       <c r="D72" s="254"/>
       <c r="E72" s="69"/>
-      <c r="F72" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="F72" s="411">
+        <f t="shared" si="3"/>
+        <v>210319.95999999996</v>
       </c>
       <c r="I72" s="134"/>
       <c r="J72" s="139"/>
@@ -11515,19 +12273,19 @@
       <c r="L72" s="148"/>
       <c r="M72" s="69"/>
       <c r="N72" s="137">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="134"/>
-      <c r="B73" s="139"/>
-      <c r="C73" s="69"/>
+      <c r="A73" s="578"/>
+      <c r="B73" s="579"/>
+      <c r="C73" s="111"/>
       <c r="D73" s="254"/>
       <c r="E73" s="69"/>
-      <c r="F73" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="F73" s="411">
+        <f t="shared" si="3"/>
+        <v>210319.95999999996</v>
       </c>
       <c r="I73" s="134"/>
       <c r="J73" s="139"/>
@@ -11535,19 +12293,19 @@
       <c r="L73" s="148"/>
       <c r="M73" s="69"/>
       <c r="N73" s="137">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="134"/>
-      <c r="B74" s="139"/>
-      <c r="C74" s="69"/>
+      <c r="A74" s="578"/>
+      <c r="B74" s="579"/>
+      <c r="C74" s="111"/>
       <c r="D74" s="254"/>
       <c r="E74" s="69"/>
-      <c r="F74" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="F74" s="411">
+        <f t="shared" si="3"/>
+        <v>210319.95999999996</v>
       </c>
       <c r="I74" s="134"/>
       <c r="J74" s="139"/>
@@ -11555,19 +12313,25 @@
       <c r="L74" s="148"/>
       <c r="M74" s="69"/>
       <c r="N74" s="137">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="134"/>
-      <c r="B75" s="139"/>
-      <c r="C75" s="69"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="578">
+        <v>44618</v>
+      </c>
+      <c r="B75" s="579" t="s">
+        <v>527</v>
+      </c>
+      <c r="C75" s="111">
+        <v>40377.15</v>
+      </c>
       <c r="D75" s="254"/>
       <c r="E75" s="69"/>
-      <c r="F75" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="F75" s="411">
+        <f t="shared" si="3"/>
+        <v>250697.10999999996</v>
       </c>
       <c r="I75" s="134"/>
       <c r="J75" s="139"/>
@@ -11575,19 +12339,19 @@
       <c r="L75" s="148"/>
       <c r="M75" s="69"/>
       <c r="N75" s="137">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="134"/>
-      <c r="B76" s="139"/>
-      <c r="C76" s="69"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="578"/>
+      <c r="B76" s="579"/>
+      <c r="C76" s="111"/>
       <c r="D76" s="254"/>
       <c r="E76" s="69"/>
-      <c r="F76" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="F76" s="411">
+        <f t="shared" si="3"/>
+        <v>250697.10999999996</v>
       </c>
       <c r="I76" s="134"/>
       <c r="J76" s="139"/>
@@ -11595,19 +12359,19 @@
       <c r="L76" s="148"/>
       <c r="M76" s="69"/>
       <c r="N76" s="137">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="134"/>
-      <c r="B77" s="139"/>
-      <c r="C77" s="69"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="578"/>
+      <c r="B77" s="579"/>
+      <c r="C77" s="111"/>
       <c r="D77" s="254"/>
       <c r="E77" s="69"/>
-      <c r="F77" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="F77" s="411">
+        <f t="shared" si="3"/>
+        <v>250697.10999999996</v>
       </c>
       <c r="I77" s="134"/>
       <c r="J77" s="139"/>
@@ -11615,21 +12379,21 @@
       <c r="L77" s="148"/>
       <c r="M77" s="69"/>
       <c r="N77" s="137">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="149"/>
+      <c r="A78" s="565"/>
       <c r="B78" s="210"/>
       <c r="C78" s="34">
         <v>0</v>
       </c>
       <c r="D78" s="255"/>
       <c r="E78" s="151"/>
-      <c r="F78" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="F78" s="411">
+        <f t="shared" si="3"/>
+        <v>250697.10999999996</v>
       </c>
       <c r="I78" s="149"/>
       <c r="J78" s="150"/>
@@ -11639,24 +12403,24 @@
       <c r="L78" s="152"/>
       <c r="M78" s="151"/>
       <c r="N78" s="137">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="211"/>
+      <c r="B79" s="572"/>
       <c r="C79" s="212">
         <f>SUM(C3:C78)</f>
-        <v>0</v>
+        <v>1702928.1400000001</v>
       </c>
       <c r="D79" s="426"/>
       <c r="E79" s="414">
         <f>SUM(E3:E78)</f>
-        <v>0</v>
-      </c>
-      <c r="F79" s="153">
-        <f>SUM(F3:F78)</f>
-        <v>0</v>
+        <v>1452231.0300000003</v>
+      </c>
+      <c r="F79" s="265">
+        <f>C79-E79</f>
+        <v>250697.10999999987</v>
       </c>
       <c r="K79" s="209">
         <f>SUM(K3:K78)</f>
@@ -11673,11 +12437,11 @@
       </c>
     </row>
     <row r="80" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="213"/>
+      <c r="B80" s="573"/>
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="514" t="s">
+      <c r="F80" s="512" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -11686,40 +12450,40 @@
       <c r="N80" s="1"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B81" s="98"/>
+      <c r="B81" s="163"/>
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="515"/>
+      <c r="F81" s="513"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
       <c r="N81" s="1"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82"/>
-      <c r="B82" s="23"/>
+      <c r="A82" s="567"/>
+      <c r="B82" s="574"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
       <c r="L82" s="23"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83"/>
-      <c r="B83" s="23"/>
+      <c r="A83" s="567"/>
+      <c r="B83" s="574"/>
       <c r="I83"/>
       <c r="J83" s="194"/>
       <c r="L83" s="23"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84"/>
-      <c r="B84" s="23"/>
+      <c r="A84" s="567"/>
+      <c r="B84" s="574"/>
       <c r="I84"/>
       <c r="J84" s="194"/>
       <c r="L84" s="23"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85"/>
-      <c r="B85" s="23"/>
+      <c r="A85" s="567"/>
+      <c r="B85" s="574"/>
       <c r="F85"/>
       <c r="I85"/>
       <c r="J85" s="194"/>
@@ -11727,8 +12491,8 @@
       <c r="N85"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86"/>
-      <c r="B86" s="23"/>
+      <c r="A86" s="567"/>
+      <c r="B86" s="574"/>
       <c r="F86"/>
       <c r="I86"/>
       <c r="J86" s="194"/>
@@ -11736,8 +12500,8 @@
       <c r="N86"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87"/>
-      <c r="B87" s="23"/>
+      <c r="A87" s="567"/>
+      <c r="B87" s="574"/>
       <c r="F87"/>
       <c r="I87"/>
       <c r="J87" s="194"/>
@@ -11745,8 +12509,8 @@
       <c r="N87"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88"/>
-      <c r="B88" s="23"/>
+      <c r="A88" s="567"/>
+      <c r="B88" s="574"/>
       <c r="F88"/>
       <c r="I88"/>
       <c r="J88" s="194"/>
@@ -11754,8 +12518,8 @@
       <c r="N88"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89"/>
-      <c r="B89" s="23"/>
+      <c r="A89" s="567"/>
+      <c r="B89" s="574"/>
       <c r="F89"/>
       <c r="I89"/>
       <c r="J89" s="194"/>
@@ -11763,8 +12527,8 @@
       <c r="N89"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90"/>
-      <c r="B90" s="23"/>
+      <c r="A90" s="567"/>
+      <c r="B90" s="574"/>
       <c r="F90"/>
       <c r="I90"/>
       <c r="J90" s="194"/>
@@ -11772,8 +12536,8 @@
       <c r="N90"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91"/>
-      <c r="B91" s="23"/>
+      <c r="A91" s="567"/>
+      <c r="B91" s="574"/>
       <c r="F91"/>
       <c r="I91"/>
       <c r="J91" s="194"/>
@@ -11781,8 +12545,8 @@
       <c r="N91"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92"/>
-      <c r="B92" s="23"/>
+      <c r="A92" s="567"/>
+      <c r="B92" s="574"/>
       <c r="F92"/>
       <c r="I92"/>
       <c r="J92" s="194"/>
@@ -11790,8 +12554,8 @@
       <c r="N92"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93"/>
-      <c r="B93" s="23"/>
+      <c r="A93" s="567"/>
+      <c r="B93" s="574"/>
       <c r="F93"/>
       <c r="I93"/>
       <c r="J93" s="194"/>
@@ -11799,8 +12563,8 @@
       <c r="N93"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94"/>
-      <c r="B94" s="23"/>
+      <c r="A94" s="567"/>
+      <c r="B94" s="574"/>
       <c r="E94"/>
       <c r="F94"/>
       <c r="I94"/>
@@ -11810,8 +12574,8 @@
       <c r="N94"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95"/>
-      <c r="B95" s="23"/>
+      <c r="A95" s="567"/>
+      <c r="B95" s="574"/>
       <c r="E95"/>
       <c r="F95"/>
       <c r="I95"/>
@@ -11821,8 +12585,8 @@
       <c r="N95"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96"/>
-      <c r="B96" s="23"/>
+      <c r="A96" s="567"/>
+      <c r="B96" s="574"/>
       <c r="E96"/>
       <c r="F96"/>
       <c r="I96"/>
@@ -11832,8 +12596,8 @@
       <c r="N96"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97"/>
-      <c r="B97" s="23"/>
+      <c r="A97" s="567"/>
+      <c r="B97" s="574"/>
       <c r="E97"/>
       <c r="F97"/>
       <c r="I97"/>
@@ -11843,8 +12607,8 @@
       <c r="N97"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98"/>
-      <c r="B98" s="23"/>
+      <c r="A98" s="567"/>
+      <c r="B98" s="574"/>
       <c r="E98"/>
       <c r="F98"/>
       <c r="I98"/>
@@ -11854,8 +12618,8 @@
       <c r="N98"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99"/>
-      <c r="B99" s="23"/>
+      <c r="A99" s="567"/>
+      <c r="B99" s="574"/>
       <c r="E99"/>
       <c r="F99"/>
       <c r="I99"/>
@@ -11865,91 +12629,91 @@
       <c r="N99"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B100" s="23"/>
+      <c r="B100" s="574"/>
       <c r="E100"/>
       <c r="J100" s="194"/>
       <c r="L100" s="23"/>
       <c r="M100"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B101" s="23"/>
+      <c r="B101" s="574"/>
       <c r="E101"/>
       <c r="J101" s="194"/>
       <c r="L101" s="23"/>
       <c r="M101"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B102" s="23"/>
+      <c r="B102" s="574"/>
       <c r="E102"/>
       <c r="J102" s="194"/>
       <c r="L102" s="23"/>
       <c r="M102"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B103" s="23"/>
+      <c r="B103" s="574"/>
       <c r="E103"/>
       <c r="J103" s="194"/>
       <c r="L103" s="23"/>
       <c r="M103"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B104" s="23"/>
+      <c r="B104" s="574"/>
       <c r="E104"/>
       <c r="J104" s="194"/>
       <c r="L104" s="23"/>
       <c r="M104"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B105" s="23"/>
+      <c r="B105" s="574"/>
       <c r="E105"/>
       <c r="J105" s="194"/>
       <c r="L105" s="23"/>
       <c r="M105"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B106" s="23"/>
+      <c r="B106" s="574"/>
       <c r="E106"/>
       <c r="J106" s="194"/>
       <c r="L106" s="23"/>
       <c r="M106"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B107" s="23"/>
+      <c r="B107" s="574"/>
       <c r="E107"/>
       <c r="J107" s="194"/>
       <c r="L107" s="23"/>
       <c r="M107"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B108" s="23"/>
+      <c r="B108" s="574"/>
       <c r="E108"/>
       <c r="J108" s="194"/>
       <c r="L108" s="23"/>
       <c r="M108"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B109" s="23"/>
+      <c r="B109" s="574"/>
       <c r="J109" s="194"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B110" s="23"/>
+      <c r="B110" s="574"/>
       <c r="J110" s="194"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B111" s="23"/>
+      <c r="B111" s="574"/>
       <c r="J111" s="194"/>
       <c r="L111" s="23"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B112" s="23"/>
+      <c r="B112" s="574"/>
       <c r="J112" s="194"/>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B113" s="23"/>
+      <c r="B113" s="574"/>
       <c r="J113" s="194"/>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B114" s="23"/>
+      <c r="B114" s="574"/>
       <c r="J114" s="194"/>
     </row>
     <row r="115" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -11972,8 +12736,8 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView topLeftCell="F10" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12002,23 +12766,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="476"/>
-      <c r="C1" s="518" t="s">
+      <c r="B1" s="474"/>
+      <c r="C1" s="516" t="s">
         <v>458</v>
       </c>
-      <c r="D1" s="519"/>
-      <c r="E1" s="519"/>
-      <c r="F1" s="519"/>
-      <c r="G1" s="519"/>
-      <c r="H1" s="519"/>
-      <c r="I1" s="519"/>
-      <c r="J1" s="519"/>
-      <c r="K1" s="519"/>
-      <c r="L1" s="519"/>
-      <c r="M1" s="519"/>
+      <c r="D1" s="517"/>
+      <c r="E1" s="517"/>
+      <c r="F1" s="517"/>
+      <c r="G1" s="517"/>
+      <c r="H1" s="517"/>
+      <c r="I1" s="517"/>
+      <c r="J1" s="517"/>
+      <c r="K1" s="517"/>
+      <c r="L1" s="517"/>
+      <c r="M1" s="517"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="477"/>
+      <c r="B2" s="475"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -12028,24 +12792,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="480" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="481"/>
+      <c r="B3" s="478" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="479"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="482" t="s">
+      <c r="H3" s="480" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="482"/>
+      <c r="I3" s="480"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="506" t="s">
+      <c r="P3" s="504" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="516" t="s">
+      <c r="R3" s="514" t="s">
         <v>216</v>
       </c>
     </row>
@@ -12060,14 +12824,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="483" t="s">
+      <c r="E4" s="481" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="484"/>
-      <c r="H4" s="485" t="s">
+      <c r="F4" s="482"/>
+      <c r="H4" s="483" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="486"/>
+      <c r="I4" s="484"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -12077,15 +12841,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="507"/>
+      <c r="P4" s="505"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="517"/>
-      <c r="W4" s="489" t="s">
+      <c r="R4" s="515"/>
+      <c r="W4" s="487" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="489"/>
+      <c r="X4" s="487"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -12136,8 +12900,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="325"/>
-      <c r="W5" s="489"/>
-      <c r="X5" s="489"/>
+      <c r="W5" s="487"/>
+      <c r="X5" s="487"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -12699,30 +13463,38 @@
       <c r="B16" s="24">
         <v>44631</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="35"/>
+      <c r="C16" s="25">
+        <v>12113</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>474</v>
+      </c>
       <c r="E16" s="27">
         <v>44631</v>
       </c>
-      <c r="F16" s="28"/>
+      <c r="F16" s="28">
+        <v>100070</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="36">
         <v>44631</v>
       </c>
-      <c r="I16" s="30"/>
+      <c r="I16" s="30">
+        <v>1511.5</v>
+      </c>
       <c r="J16" s="37"/>
       <c r="K16" s="169"/>
       <c r="L16" s="9"/>
       <c r="M16" s="32">
-        <v>0</v>
+        <v>60292.5</v>
       </c>
       <c r="N16" s="33">
-        <v>0</v>
+        <v>26153</v>
       </c>
       <c r="O16" s="331"/>
       <c r="P16" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100070</v>
       </c>
       <c r="Q16" s="326">
         <f t="shared" si="1"/>
@@ -12743,33 +13515,47 @@
       <c r="B17" s="24">
         <v>44632</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="42"/>
+      <c r="C17" s="25">
+        <v>10580</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>475</v>
+      </c>
       <c r="E17" s="27">
         <v>44632</v>
       </c>
-      <c r="F17" s="28"/>
+      <c r="F17" s="28">
+        <v>131625</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="36">
         <v>44632</v>
       </c>
-      <c r="I17" s="30"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="45"/>
+      <c r="I17" s="30">
+        <v>9503</v>
+      </c>
+      <c r="J17" s="37">
+        <v>44632</v>
+      </c>
+      <c r="K17" s="38" t="s">
+        <v>476</v>
+      </c>
+      <c r="L17" s="45">
+        <v>18054.02</v>
+      </c>
       <c r="M17" s="32">
-        <v>0</v>
+        <v>55203</v>
       </c>
       <c r="N17" s="33">
-        <v>0</v>
+        <v>38285</v>
       </c>
       <c r="P17" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>131625.02000000002</v>
       </c>
       <c r="Q17" s="326">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0000000018626451E-2</v>
       </c>
       <c r="R17" s="320">
         <v>0</v>
@@ -12786,29 +13572,37 @@
       <c r="B18" s="24">
         <v>44633</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="35"/>
+      <c r="C18" s="25">
+        <v>8190</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>478</v>
+      </c>
       <c r="E18" s="27">
         <v>44633</v>
       </c>
-      <c r="F18" s="28"/>
+      <c r="F18" s="28">
+        <v>79539</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="36">
         <v>44633</v>
       </c>
-      <c r="I18" s="30"/>
+      <c r="I18" s="30">
+        <v>1711</v>
+      </c>
       <c r="J18" s="37"/>
       <c r="K18" s="170"/>
       <c r="L18" s="39"/>
       <c r="M18" s="32">
-        <v>0</v>
+        <v>47814</v>
       </c>
       <c r="N18" s="33">
-        <v>0</v>
+        <v>21824</v>
       </c>
       <c r="P18" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79539</v>
       </c>
       <c r="Q18" s="326">
         <f t="shared" si="1"/>
@@ -12861,7 +13655,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="493">
+      <c r="W19" s="491">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -12905,7 +13699,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="494"/>
+      <c r="W20" s="492"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -12946,8 +13740,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="495"/>
-      <c r="X21" s="495"/>
+      <c r="W21" s="493"/>
+      <c r="X21" s="493"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -13030,8 +13824,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="496"/>
-      <c r="X23" s="496"/>
+      <c r="W23" s="494"/>
+      <c r="X23" s="494"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -13072,8 +13866,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="496"/>
-      <c r="X24" s="496"/>
+      <c r="W24" s="494"/>
+      <c r="X24" s="494"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -13113,8 +13907,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="497"/>
-      <c r="X25" s="497"/>
+      <c r="W25" s="495"/>
+      <c r="X25" s="495"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -13155,8 +13949,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="497"/>
-      <c r="X26" s="497"/>
+      <c r="W26" s="495"/>
+      <c r="X26" s="495"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -13197,9 +13991,9 @@
       <c r="R27" s="320">
         <v>0</v>
       </c>
-      <c r="W27" s="490"/>
-      <c r="X27" s="491"/>
-      <c r="Y27" s="492"/>
+      <c r="W27" s="488"/>
+      <c r="X27" s="489"/>
+      <c r="Y27" s="490"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -13239,9 +14033,9 @@
       <c r="R28" s="320">
         <v>0</v>
       </c>
-      <c r="W28" s="491"/>
-      <c r="X28" s="491"/>
-      <c r="Y28" s="492"/>
+      <c r="W28" s="489"/>
+      <c r="X28" s="489"/>
+      <c r="Y28" s="490"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -13269,7 +14063,7 @@
       <c r="N29" s="33">
         <v>0</v>
       </c>
-      <c r="O29" s="450"/>
+      <c r="O29" s="448"/>
       <c r="P29" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13281,7 +14075,7 @@
       <c r="R29" s="320">
         <v>0</v>
       </c>
-      <c r="T29" s="448">
+      <c r="T29" s="446">
         <v>7491</v>
       </c>
       <c r="U29" s="337"/>
@@ -13315,7 +14109,7 @@
       <c r="N30" s="33">
         <v>0</v>
       </c>
-      <c r="O30" s="451"/>
+      <c r="O30" s="449"/>
       <c r="P30" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13327,7 +14121,7 @@
       <c r="R30" s="321">
         <v>0</v>
       </c>
-      <c r="T30" s="448">
+      <c r="T30" s="446">
         <v>26626</v>
       </c>
       <c r="X30" s="225"/>
@@ -13358,7 +14152,7 @@
       <c r="N31" s="33">
         <v>0</v>
       </c>
-      <c r="O31" s="450"/>
+      <c r="O31" s="448"/>
       <c r="P31" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13370,7 +14164,7 @@
       <c r="R31" s="322">
         <v>0</v>
       </c>
-      <c r="T31" s="448">
+      <c r="T31" s="446">
         <v>10137</v>
       </c>
     </row>
@@ -13411,7 +14205,7 @@
       <c r="R32" s="228">
         <v>0</v>
       </c>
-      <c r="T32" s="448">
+      <c r="T32" s="446">
         <v>0</v>
       </c>
     </row>
@@ -13449,7 +14243,7 @@
         <v>0</v>
       </c>
       <c r="R33" s="228"/>
-      <c r="T33" s="449">
+      <c r="T33" s="447">
         <f>SUM(T29:T32)</f>
         <v>44254</v>
       </c>
@@ -13517,7 +14311,7 @@
       <c r="P35" s="34">
         <v>0</v>
       </c>
-      <c r="Q35" s="444">
+      <c r="Q35" s="442">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -13542,21 +14336,21 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="508">
+      <c r="M36" s="506">
         <f>SUM(M5:M35)</f>
-        <v>501224.16000000003</v>
-      </c>
-      <c r="N36" s="510">
+        <v>664533.66</v>
+      </c>
+      <c r="N36" s="508">
         <f>SUM(N5:N35)</f>
-        <v>291433</v>
+        <v>377695</v>
       </c>
       <c r="O36" s="276"/>
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="535">
+      <c r="Q36" s="533">
         <f>SUM(Q5:Q35)</f>
-        <v>1.5700000000069849</v>
+        <v>1.5900000000256114</v>
       </c>
       <c r="R36" s="228"/>
     </row>
@@ -13579,13 +14373,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="509"/>
-      <c r="N37" s="511"/>
+      <c r="M37" s="507"/>
+      <c r="N37" s="509"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="536"/>
+      <c r="Q37" s="534"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -13635,14 +14429,14 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="537">
+      <c r="M39" s="535">
         <f>M36+N36</f>
-        <v>792657.16</v>
-      </c>
-      <c r="N39" s="538"/>
+        <v>1042228.66</v>
+      </c>
+      <c r="N39" s="536"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
-        <v>1016494.5700000001</v>
+        <v>1327728.5900000001</v>
       </c>
       <c r="Q39" s="275"/>
     </row>
@@ -13698,9 +14492,15 @@
       <c r="G42" s="2"/>
       <c r="H42" s="76"/>
       <c r="I42" s="77"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="173"/>
-      <c r="L42" s="52"/>
+      <c r="J42" s="51">
+        <v>44632</v>
+      </c>
+      <c r="K42" s="173" t="s">
+        <v>477</v>
+      </c>
+      <c r="L42" s="52">
+        <v>15748.5</v>
+      </c>
       <c r="M42" s="269"/>
       <c r="N42" s="269"/>
       <c r="P42" s="34"/>
@@ -13839,7 +14639,7 @@
       </c>
       <c r="C50" s="87">
         <f>SUM(C5:C49)</f>
-        <v>171788</v>
+        <v>202671</v>
       </c>
       <c r="D50" s="88"/>
       <c r="E50" s="89" t="s">
@@ -13847,7 +14647,7 @@
       </c>
       <c r="F50" s="90">
         <f>SUM(F5:F49)</f>
-        <v>974324</v>
+        <v>1285558</v>
       </c>
       <c r="G50" s="88"/>
       <c r="H50" s="91" t="s">
@@ -13855,7 +14655,7 @@
       </c>
       <c r="I50" s="92">
         <f>SUM(I5:I49)</f>
-        <v>39940</v>
+        <v>52665.5</v>
       </c>
       <c r="J50" s="93"/>
       <c r="K50" s="94" t="s">
@@ -13863,7 +14663,7 @@
       </c>
       <c r="L50" s="95">
         <f>SUM(L5:L49)</f>
-        <v>27304.67</v>
+        <v>61107.19</v>
       </c>
       <c r="M50" s="96"/>
       <c r="N50" s="96"/>
@@ -13881,50 +14681,50 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="463" t="s">
+      <c r="H52" s="461" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="464"/>
+      <c r="I52" s="462"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="465">
+      <c r="K52" s="463">
         <f>I50+L50</f>
-        <v>67244.67</v>
-      </c>
-      <c r="L52" s="498"/>
+        <v>113772.69</v>
+      </c>
+      <c r="L52" s="496"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="469" t="s">
+      <c r="D53" s="467" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="469"/>
+      <c r="E53" s="467"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
-        <v>735291.33</v>
+        <v>969114.31</v>
       </c>
       <c r="I53" s="102"/>
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="499" t="s">
+      <c r="D54" s="497" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="499"/>
+      <c r="E54" s="497"/>
       <c r="F54" s="111">
         <v>0</v>
       </c>
-      <c r="I54" s="470" t="s">
+      <c r="I54" s="468" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="471"/>
-      <c r="K54" s="472">
+      <c r="J54" s="469"/>
+      <c r="K54" s="470">
         <f>F56+F57+F58</f>
-        <v>735291.33</v>
-      </c>
-      <c r="L54" s="472"/>
+        <v>969114.31</v>
+      </c>
+      <c r="L54" s="470"/>
       <c r="M54" s="423"/>
       <c r="N54" s="423"/>
       <c r="O54" s="423"/>
@@ -13958,18 +14758,18 @@
       </c>
       <c r="F56" s="96">
         <f>SUM(F53:F55)</f>
-        <v>735291.33</v>
+        <v>969114.31</v>
       </c>
       <c r="H56" s="23"/>
       <c r="I56" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="474">
+      <c r="K56" s="472">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L56" s="475"/>
+      <c r="L56" s="473"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -13986,22 +14786,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="452" t="s">
+      <c r="D58" s="450" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="453"/>
+      <c r="E58" s="451"/>
       <c r="F58" s="113">
         <v>0</v>
       </c>
-      <c r="I58" s="454" t="s">
+      <c r="I58" s="452" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="455"/>
-      <c r="K58" s="456">
+      <c r="J58" s="453"/>
+      <c r="K58" s="454">
         <f>K54+K56</f>
-        <v>-531277.12</v>
-      </c>
-      <c r="L58" s="456"/>
+        <v>-297454.1399999999</v>
+      </c>
+      <c r="L58" s="454"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -14160,11 +14960,6 @@
     <mergeCell ref="Q36:Q37"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="M39:N39"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -14175,6 +14970,11 @@
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.15748031496062992" top="0.39370078740157483" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14190,14 +14990,14 @@
   </sheetPr>
   <dimension ref="A1:N115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="98" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="587" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="162" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" style="257" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
@@ -14212,10 +15012,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="43.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="290" t="s">
+      <c r="A1" s="582" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="291"/>
+      <c r="B1" s="568"/>
       <c r="C1" s="292"/>
       <c r="D1" s="373"/>
       <c r="E1" s="292"/>
@@ -14234,7 +15034,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="297" t="s">
+      <c r="A2" s="583" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="298" t="s">
@@ -14272,34 +15072,46 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="412"/>
-      <c r="B3" s="413"/>
-      <c r="C3" s="411"/>
+      <c r="A3" s="584">
+        <v>44620</v>
+      </c>
+      <c r="B3" s="569" t="s">
+        <v>528</v>
+      </c>
+      <c r="C3" s="411">
+        <v>2909.4</v>
+      </c>
       <c r="D3" s="424"/>
       <c r="E3" s="411"/>
       <c r="F3" s="411">
         <f>C3-E3</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="437"/>
-      <c r="J3" s="438"/>
-      <c r="K3" s="432"/>
-      <c r="L3" s="437"/>
-      <c r="M3" s="432"/>
+        <v>2909.4</v>
+      </c>
+      <c r="I3" s="435"/>
+      <c r="J3" s="436"/>
+      <c r="K3" s="430"/>
+      <c r="L3" s="435"/>
+      <c r="M3" s="430"/>
       <c r="N3" s="183">
         <f>K3-M3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="412"/>
-      <c r="B4" s="413"/>
-      <c r="C4" s="411"/>
+      <c r="A4" s="584">
+        <v>44621</v>
+      </c>
+      <c r="B4" s="569" t="s">
+        <v>529</v>
+      </c>
+      <c r="C4" s="411">
+        <v>74016.2</v>
+      </c>
       <c r="D4" s="424"/>
       <c r="E4" s="411"/>
       <c r="F4" s="411">
         <f t="shared" ref="F4:F46" si="0">C4-E4</f>
-        <v>0</v>
+        <v>74016.2</v>
       </c>
       <c r="G4" s="138"/>
       <c r="I4" s="288"/>
@@ -14313,14 +15125,20 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="412"/>
-      <c r="B5" s="413"/>
-      <c r="C5" s="411"/>
+      <c r="A5" s="584">
+        <v>44622</v>
+      </c>
+      <c r="B5" s="569" t="s">
+        <v>530</v>
+      </c>
+      <c r="C5" s="411">
+        <v>38036.6</v>
+      </c>
       <c r="D5" s="424"/>
       <c r="E5" s="411"/>
       <c r="F5" s="411">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>38036.6</v>
       </c>
       <c r="I5" s="288"/>
       <c r="J5" s="57"/>
@@ -14333,14 +15151,20 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="412"/>
-      <c r="B6" s="413"/>
-      <c r="C6" s="411"/>
+      <c r="A6" s="584">
+        <v>44623</v>
+      </c>
+      <c r="B6" s="569" t="s">
+        <v>531</v>
+      </c>
+      <c r="C6" s="411">
+        <v>52111.11</v>
+      </c>
       <c r="D6" s="424"/>
       <c r="E6" s="411"/>
       <c r="F6" s="411">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>52111.11</v>
       </c>
       <c r="I6" s="288"/>
       <c r="J6" s="57"/>
@@ -14353,14 +15177,20 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="412"/>
-      <c r="B7" s="413"/>
-      <c r="C7" s="411"/>
+      <c r="A7" s="584">
+        <v>44623</v>
+      </c>
+      <c r="B7" s="569" t="s">
+        <v>532</v>
+      </c>
+      <c r="C7" s="411">
+        <v>394.2</v>
+      </c>
       <c r="D7" s="424"/>
       <c r="E7" s="411"/>
       <c r="F7" s="411">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>394.2</v>
       </c>
       <c r="I7" s="288"/>
       <c r="J7" s="57"/>
@@ -14373,14 +15203,20 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="412"/>
-      <c r="B8" s="413"/>
-      <c r="C8" s="411"/>
+      <c r="A8" s="584">
+        <v>44624</v>
+      </c>
+      <c r="B8" s="569" t="s">
+        <v>533</v>
+      </c>
+      <c r="C8" s="411">
+        <v>52173.7</v>
+      </c>
       <c r="D8" s="424"/>
       <c r="E8" s="411"/>
       <c r="F8" s="411">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>52173.7</v>
       </c>
       <c r="I8" s="288"/>
       <c r="J8" s="57"/>
@@ -14393,14 +15229,20 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="412"/>
-      <c r="B9" s="413"/>
-      <c r="C9" s="411"/>
+      <c r="A9" s="584">
+        <v>44625</v>
+      </c>
+      <c r="B9" s="569" t="s">
+        <v>534</v>
+      </c>
+      <c r="C9" s="411">
+        <v>47563.28</v>
+      </c>
       <c r="D9" s="424"/>
       <c r="E9" s="411"/>
       <c r="F9" s="411">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>47563.28</v>
       </c>
       <c r="I9" s="288"/>
       <c r="J9" s="57"/>
@@ -14413,14 +15255,20 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="412"/>
-      <c r="B10" s="413"/>
-      <c r="C10" s="411"/>
+      <c r="A10" s="584">
+        <v>44625</v>
+      </c>
+      <c r="B10" s="569" t="s">
+        <v>535</v>
+      </c>
+      <c r="C10" s="411">
+        <v>1406</v>
+      </c>
       <c r="D10" s="424"/>
       <c r="E10" s="411"/>
       <c r="F10" s="411">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1406</v>
       </c>
       <c r="G10" s="138"/>
       <c r="I10" s="288"/>
@@ -14434,14 +15282,20 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="412"/>
-      <c r="B11" s="413"/>
-      <c r="C11" s="411"/>
+      <c r="A11" s="584">
+        <v>44627</v>
+      </c>
+      <c r="B11" s="569" t="s">
+        <v>536</v>
+      </c>
+      <c r="C11" s="411">
+        <v>44449.599999999999</v>
+      </c>
       <c r="D11" s="424"/>
       <c r="E11" s="411"/>
       <c r="F11" s="411">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>44449.599999999999</v>
       </c>
       <c r="I11" s="288"/>
       <c r="J11" s="57"/>
@@ -14454,14 +15308,20 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="412"/>
-      <c r="B12" s="413"/>
-      <c r="C12" s="411"/>
+      <c r="A12" s="584">
+        <v>44627</v>
+      </c>
+      <c r="B12" s="569" t="s">
+        <v>537</v>
+      </c>
+      <c r="C12" s="411">
+        <v>848.4</v>
+      </c>
       <c r="D12" s="424"/>
       <c r="E12" s="411"/>
       <c r="F12" s="411">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>848.4</v>
       </c>
       <c r="I12" s="288"/>
       <c r="J12" s="57"/>
@@ -14474,14 +15334,20 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="412"/>
-      <c r="B13" s="413"/>
-      <c r="C13" s="411"/>
+      <c r="A13" s="584">
+        <v>44628</v>
+      </c>
+      <c r="B13" s="569" t="s">
+        <v>538</v>
+      </c>
+      <c r="C13" s="411">
+        <v>71723.600000000006</v>
+      </c>
       <c r="D13" s="424"/>
       <c r="E13" s="411"/>
       <c r="F13" s="411">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>71723.600000000006</v>
       </c>
       <c r="I13" s="288"/>
       <c r="J13" s="57"/>
@@ -14494,14 +15360,20 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="412"/>
-      <c r="B14" s="413"/>
-      <c r="C14" s="411"/>
+      <c r="A14" s="584">
+        <v>44628</v>
+      </c>
+      <c r="B14" s="569" t="s">
+        <v>539</v>
+      </c>
+      <c r="C14" s="411">
+        <v>1776</v>
+      </c>
       <c r="D14" s="424"/>
       <c r="E14" s="411"/>
       <c r="F14" s="411">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1776</v>
       </c>
       <c r="I14" s="288"/>
       <c r="J14" s="57"/>
@@ -14514,14 +15386,20 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="412"/>
-      <c r="B15" s="413"/>
-      <c r="C15" s="411"/>
+      <c r="A15" s="584">
+        <v>44629</v>
+      </c>
+      <c r="B15" s="569" t="s">
+        <v>540</v>
+      </c>
+      <c r="C15" s="411">
+        <v>76124.3</v>
+      </c>
       <c r="D15" s="424"/>
       <c r="E15" s="411"/>
       <c r="F15" s="411">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>76124.3</v>
       </c>
       <c r="I15" s="288"/>
       <c r="J15" s="57"/>
@@ -14534,14 +15412,20 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="412"/>
-      <c r="B16" s="413"/>
-      <c r="C16" s="411"/>
+      <c r="A16" s="584">
+        <v>44630</v>
+      </c>
+      <c r="B16" s="569" t="s">
+        <v>541</v>
+      </c>
+      <c r="C16" s="411">
+        <v>50443.9</v>
+      </c>
       <c r="D16" s="424"/>
       <c r="E16" s="411"/>
       <c r="F16" s="411">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50443.9</v>
       </c>
       <c r="I16" s="288"/>
       <c r="J16" s="57"/>
@@ -14554,8 +15438,8 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="412"/>
-      <c r="B17" s="413"/>
+      <c r="A17" s="584"/>
+      <c r="B17" s="569"/>
       <c r="C17" s="411"/>
       <c r="D17" s="425"/>
       <c r="E17" s="411"/>
@@ -14574,8 +15458,8 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="412"/>
-      <c r="B18" s="413"/>
+      <c r="A18" s="584"/>
+      <c r="B18" s="569"/>
       <c r="C18" s="411"/>
       <c r="D18" s="424"/>
       <c r="E18" s="411"/>
@@ -14594,8 +15478,8 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="412"/>
-      <c r="B19" s="413"/>
+      <c r="A19" s="584"/>
+      <c r="B19" s="569"/>
       <c r="C19" s="411"/>
       <c r="D19" s="424"/>
       <c r="E19" s="411"/>
@@ -14614,8 +15498,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="412"/>
-      <c r="B20" s="413"/>
+      <c r="A20" s="584"/>
+      <c r="B20" s="569"/>
       <c r="C20" s="411"/>
       <c r="D20" s="424"/>
       <c r="E20" s="411"/>
@@ -14634,8 +15518,8 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="412"/>
-      <c r="B21" s="413"/>
+      <c r="A21" s="584"/>
+      <c r="B21" s="569"/>
       <c r="C21" s="411"/>
       <c r="D21" s="424"/>
       <c r="E21" s="411"/>
@@ -14654,8 +15538,8 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="412"/>
-      <c r="B22" s="413"/>
+      <c r="A22" s="584"/>
+      <c r="B22" s="569"/>
       <c r="C22" s="411"/>
       <c r="D22" s="424"/>
       <c r="E22" s="411"/>
@@ -14675,8 +15559,8 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="412"/>
-      <c r="B23" s="413"/>
+      <c r="A23" s="584"/>
+      <c r="B23" s="569"/>
       <c r="C23" s="411"/>
       <c r="D23" s="424"/>
       <c r="E23" s="411"/>
@@ -14695,8 +15579,8 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="412"/>
-      <c r="B24" s="413"/>
+      <c r="A24" s="584"/>
+      <c r="B24" s="569"/>
       <c r="C24" s="411"/>
       <c r="D24" s="424"/>
       <c r="E24" s="411"/>
@@ -14715,8 +15599,8 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="412"/>
-      <c r="B25" s="413"/>
+      <c r="A25" s="584"/>
+      <c r="B25" s="569"/>
       <c r="C25" s="411"/>
       <c r="D25" s="424"/>
       <c r="E25" s="411"/>
@@ -14735,8 +15619,8 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="412"/>
-      <c r="B26" s="413"/>
+      <c r="A26" s="584"/>
+      <c r="B26" s="569"/>
       <c r="C26" s="411"/>
       <c r="D26" s="424"/>
       <c r="E26" s="411"/>
@@ -14755,8 +15639,8 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="412"/>
-      <c r="B27" s="413"/>
+      <c r="A27" s="584"/>
+      <c r="B27" s="569"/>
       <c r="C27" s="411"/>
       <c r="D27" s="425"/>
       <c r="E27" s="411"/>
@@ -14775,8 +15659,8 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="412"/>
-      <c r="B28" s="413"/>
+      <c r="A28" s="584"/>
+      <c r="B28" s="569"/>
       <c r="C28" s="411"/>
       <c r="D28" s="424"/>
       <c r="E28" s="411"/>
@@ -14795,8 +15679,8 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="412"/>
-      <c r="B29" s="413"/>
+      <c r="A29" s="584"/>
+      <c r="B29" s="569"/>
       <c r="C29" s="411"/>
       <c r="D29" s="424"/>
       <c r="E29" s="411"/>
@@ -14815,8 +15699,8 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="412"/>
-      <c r="B30" s="413"/>
+      <c r="A30" s="584"/>
+      <c r="B30" s="569"/>
       <c r="C30" s="411"/>
       <c r="D30" s="424"/>
       <c r="E30" s="411"/>
@@ -14836,8 +15720,8 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="412"/>
-      <c r="B31" s="413"/>
+      <c r="A31" s="584"/>
+      <c r="B31" s="569"/>
       <c r="C31" s="411"/>
       <c r="D31" s="424"/>
       <c r="E31" s="411"/>
@@ -14856,8 +15740,8 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="412"/>
-      <c r="B32" s="413"/>
+      <c r="A32" s="584"/>
+      <c r="B32" s="569"/>
       <c r="C32" s="411"/>
       <c r="D32" s="424"/>
       <c r="E32" s="411"/>
@@ -14876,8 +15760,8 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="412"/>
-      <c r="B33" s="413"/>
+      <c r="A33" s="584"/>
+      <c r="B33" s="569"/>
       <c r="C33" s="411"/>
       <c r="D33" s="424"/>
       <c r="E33" s="411"/>
@@ -14896,8 +15780,8 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="412"/>
-      <c r="B34" s="413"/>
+      <c r="A34" s="584"/>
+      <c r="B34" s="569"/>
       <c r="C34" s="411"/>
       <c r="D34" s="424"/>
       <c r="E34" s="411"/>
@@ -14916,8 +15800,8 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="412"/>
-      <c r="B35" s="413"/>
+      <c r="A35" s="584"/>
+      <c r="B35" s="569"/>
       <c r="C35" s="411"/>
       <c r="D35" s="424"/>
       <c r="E35" s="411"/>
@@ -14936,8 +15820,8 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="412"/>
-      <c r="B36" s="413"/>
+      <c r="A36" s="584"/>
+      <c r="B36" s="569"/>
       <c r="C36" s="411"/>
       <c r="D36" s="424"/>
       <c r="E36" s="411"/>
@@ -14956,8 +15840,8 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="412"/>
-      <c r="B37" s="413"/>
+      <c r="A37" s="584"/>
+      <c r="B37" s="569"/>
       <c r="C37" s="411"/>
       <c r="D37" s="424"/>
       <c r="E37" s="411"/>
@@ -14976,11 +15860,11 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="412"/>
-      <c r="B38" s="431"/>
-      <c r="C38" s="432"/>
-      <c r="D38" s="433"/>
-      <c r="E38" s="432"/>
+      <c r="A38" s="584"/>
+      <c r="B38" s="570"/>
+      <c r="C38" s="430"/>
+      <c r="D38" s="431"/>
+      <c r="E38" s="430"/>
       <c r="F38" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -14996,10 +15880,10 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="412"/>
-      <c r="B39" s="245"/>
+      <c r="A39" s="584"/>
+      <c r="B39" s="246"/>
       <c r="C39" s="111"/>
-      <c r="D39" s="434"/>
+      <c r="D39" s="432"/>
       <c r="E39" s="111"/>
       <c r="F39" s="411">
         <f t="shared" si="0"/>
@@ -15016,10 +15900,10 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="412"/>
-      <c r="B40" s="245"/>
+      <c r="A40" s="584"/>
+      <c r="B40" s="246"/>
       <c r="C40" s="111"/>
-      <c r="D40" s="434"/>
+      <c r="D40" s="432"/>
       <c r="E40" s="111"/>
       <c r="F40" s="411">
         <f t="shared" si="0"/>
@@ -15036,10 +15920,10 @@
       </c>
     </row>
     <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="412"/>
-      <c r="B41" s="245"/>
+      <c r="A41" s="584"/>
+      <c r="B41" s="246"/>
       <c r="C41" s="111"/>
-      <c r="D41" s="434"/>
+      <c r="D41" s="432"/>
       <c r="E41" s="111"/>
       <c r="F41" s="411">
         <f t="shared" si="0"/>
@@ -15056,7 +15940,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="430"/>
+      <c r="A42" s="585"/>
       <c r="B42" s="246"/>
       <c r="C42" s="111"/>
       <c r="D42" s="253"/>
@@ -15076,11 +15960,11 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="430"/>
-      <c r="B43" s="435"/>
-      <c r="C43" s="435"/>
-      <c r="D43" s="435"/>
-      <c r="E43" s="435"/>
+      <c r="A43" s="585"/>
+      <c r="B43" s="571"/>
+      <c r="C43" s="433"/>
+      <c r="D43" s="433"/>
+      <c r="E43" s="433"/>
       <c r="F43" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15096,11 +15980,11 @@
       </c>
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="430"/>
-      <c r="B44" s="435"/>
-      <c r="C44" s="435"/>
-      <c r="D44" s="435"/>
-      <c r="E44" s="435"/>
+      <c r="A44" s="585"/>
+      <c r="B44" s="571"/>
+      <c r="C44" s="433"/>
+      <c r="D44" s="433"/>
+      <c r="E44" s="433"/>
       <c r="F44" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15116,11 +16000,11 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="430"/>
-      <c r="B45" s="435"/>
-      <c r="C45" s="435"/>
-      <c r="D45" s="435"/>
-      <c r="E45" s="435"/>
+      <c r="A45" s="585"/>
+      <c r="B45" s="571"/>
+      <c r="C45" s="433"/>
+      <c r="D45" s="433"/>
+      <c r="E45" s="433"/>
       <c r="F45" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15136,7 +16020,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="430"/>
+      <c r="A46" s="585"/>
       <c r="B46" s="246"/>
       <c r="C46" s="111"/>
       <c r="D46" s="253"/>
@@ -15156,7 +16040,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="245"/>
+      <c r="A47" s="586"/>
       <c r="B47" s="246"/>
       <c r="C47" s="111"/>
       <c r="D47" s="253"/>
@@ -15166,9 +16050,9 @@
         <v>0</v>
       </c>
       <c r="I47" s="351"/>
-      <c r="J47" s="439"/>
+      <c r="J47" s="437"/>
       <c r="K47" s="34"/>
-      <c r="L47" s="440"/>
+      <c r="L47" s="438"/>
       <c r="M47" s="215"/>
       <c r="N47" s="137">
         <f t="shared" si="1"/>
@@ -15176,7 +16060,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="245"/>
+      <c r="A48" s="586"/>
       <c r="B48" s="246"/>
       <c r="C48" s="111"/>
       <c r="D48" s="253"/>
@@ -15186,9 +16070,9 @@
         <v>0</v>
       </c>
       <c r="I48" s="349"/>
-      <c r="J48" s="436"/>
-      <c r="K48" s="436"/>
-      <c r="L48" s="436"/>
+      <c r="J48" s="434"/>
+      <c r="K48" s="434"/>
+      <c r="L48" s="434"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -15206,9 +16090,9 @@
         <v>0</v>
       </c>
       <c r="I49" s="349"/>
-      <c r="J49" s="436"/>
-      <c r="K49" s="436"/>
-      <c r="L49" s="436"/>
+      <c r="J49" s="434"/>
+      <c r="K49" s="434"/>
+      <c r="L49" s="434"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -15802,10 +16686,10 @@
       </c>
     </row>
     <row r="79" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="211"/>
+      <c r="B79" s="572"/>
       <c r="C79" s="212">
         <f>SUM(C3:C78)</f>
-        <v>0</v>
+        <v>513976.29</v>
       </c>
       <c r="D79" s="426"/>
       <c r="E79" s="414">
@@ -15814,7 +16698,7 @@
       </c>
       <c r="F79" s="153">
         <f>SUM(F3:F78)</f>
-        <v>0</v>
+        <v>513976.29</v>
       </c>
       <c r="K79" s="209">
         <f>SUM(K3:K78)</f>
@@ -15831,11 +16715,11 @@
       </c>
     </row>
     <row r="80" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="213"/>
+      <c r="B80" s="573"/>
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="514" t="s">
+      <c r="F80" s="512" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -15844,40 +16728,40 @@
       <c r="N80" s="1"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B81" s="98"/>
+      <c r="B81" s="163"/>
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="515"/>
+      <c r="F81" s="513"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
       <c r="N81" s="1"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82"/>
-      <c r="B82" s="23"/>
+      <c r="A82" s="588"/>
+      <c r="B82" s="574"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
       <c r="L82" s="23"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83"/>
-      <c r="B83" s="23"/>
+      <c r="A83" s="588"/>
+      <c r="B83" s="574"/>
       <c r="I83"/>
       <c r="J83" s="194"/>
       <c r="L83" s="23"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84"/>
-      <c r="B84" s="23"/>
+      <c r="A84" s="588"/>
+      <c r="B84" s="574"/>
       <c r="I84"/>
       <c r="J84" s="194"/>
       <c r="L84" s="23"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85"/>
-      <c r="B85" s="23"/>
+      <c r="A85" s="588"/>
+      <c r="B85" s="574"/>
       <c r="F85"/>
       <c r="I85"/>
       <c r="J85" s="194"/>
@@ -15885,8 +16769,8 @@
       <c r="N85"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86"/>
-      <c r="B86" s="23"/>
+      <c r="A86" s="588"/>
+      <c r="B86" s="574"/>
       <c r="F86"/>
       <c r="I86"/>
       <c r="J86" s="194"/>
@@ -15894,8 +16778,8 @@
       <c r="N86"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87"/>
-      <c r="B87" s="23"/>
+      <c r="A87" s="588"/>
+      <c r="B87" s="574"/>
       <c r="F87"/>
       <c r="I87"/>
       <c r="J87" s="194"/>
@@ -15903,8 +16787,8 @@
       <c r="N87"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88"/>
-      <c r="B88" s="23"/>
+      <c r="A88" s="588"/>
+      <c r="B88" s="574"/>
       <c r="F88"/>
       <c r="I88"/>
       <c r="J88" s="194"/>
@@ -15912,8 +16796,8 @@
       <c r="N88"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89"/>
-      <c r="B89" s="23"/>
+      <c r="A89" s="588"/>
+      <c r="B89" s="574"/>
       <c r="F89"/>
       <c r="I89"/>
       <c r="J89" s="194"/>
@@ -15921,8 +16805,8 @@
       <c r="N89"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90"/>
-      <c r="B90" s="23"/>
+      <c r="A90" s="588"/>
+      <c r="B90" s="574"/>
       <c r="F90"/>
       <c r="I90"/>
       <c r="J90" s="194"/>
@@ -15930,8 +16814,8 @@
       <c r="N90"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91"/>
-      <c r="B91" s="23"/>
+      <c r="A91" s="588"/>
+      <c r="B91" s="574"/>
       <c r="F91"/>
       <c r="I91"/>
       <c r="J91" s="194"/>
@@ -15939,8 +16823,8 @@
       <c r="N91"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92"/>
-      <c r="B92" s="23"/>
+      <c r="A92" s="588"/>
+      <c r="B92" s="574"/>
       <c r="F92"/>
       <c r="I92"/>
       <c r="J92" s="194"/>
@@ -15948,8 +16832,8 @@
       <c r="N92"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93"/>
-      <c r="B93" s="23"/>
+      <c r="A93" s="588"/>
+      <c r="B93" s="574"/>
       <c r="F93"/>
       <c r="I93"/>
       <c r="J93" s="194"/>
@@ -15957,8 +16841,8 @@
       <c r="N93"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94"/>
-      <c r="B94" s="23"/>
+      <c r="A94" s="588"/>
+      <c r="B94" s="574"/>
       <c r="E94"/>
       <c r="F94"/>
       <c r="I94"/>
@@ -15968,8 +16852,8 @@
       <c r="N94"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95"/>
-      <c r="B95" s="23"/>
+      <c r="A95" s="588"/>
+      <c r="B95" s="574"/>
       <c r="E95"/>
       <c r="F95"/>
       <c r="I95"/>
@@ -15979,8 +16863,8 @@
       <c r="N95"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96"/>
-      <c r="B96" s="23"/>
+      <c r="A96" s="588"/>
+      <c r="B96" s="574"/>
       <c r="E96"/>
       <c r="F96"/>
       <c r="I96"/>
@@ -15990,8 +16874,8 @@
       <c r="N96"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97"/>
-      <c r="B97" s="23"/>
+      <c r="A97" s="588"/>
+      <c r="B97" s="574"/>
       <c r="E97"/>
       <c r="F97"/>
       <c r="I97"/>
@@ -16001,8 +16885,8 @@
       <c r="N97"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98"/>
-      <c r="B98" s="23"/>
+      <c r="A98" s="588"/>
+      <c r="B98" s="574"/>
       <c r="E98"/>
       <c r="F98"/>
       <c r="I98"/>
@@ -16012,8 +16896,8 @@
       <c r="N98"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99"/>
-      <c r="B99" s="23"/>
+      <c r="A99" s="588"/>
+      <c r="B99" s="574"/>
       <c r="E99"/>
       <c r="F99"/>
       <c r="I99"/>
@@ -16023,91 +16907,91 @@
       <c r="N99"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B100" s="23"/>
+      <c r="B100" s="574"/>
       <c r="E100"/>
       <c r="J100" s="194"/>
       <c r="L100" s="23"/>
       <c r="M100"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B101" s="23"/>
+      <c r="B101" s="574"/>
       <c r="E101"/>
       <c r="J101" s="194"/>
       <c r="L101" s="23"/>
       <c r="M101"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B102" s="23"/>
+      <c r="B102" s="574"/>
       <c r="E102"/>
       <c r="J102" s="194"/>
       <c r="L102" s="23"/>
       <c r="M102"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B103" s="23"/>
+      <c r="B103" s="574"/>
       <c r="E103"/>
       <c r="J103" s="194"/>
       <c r="L103" s="23"/>
       <c r="M103"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B104" s="23"/>
+      <c r="B104" s="574"/>
       <c r="E104"/>
       <c r="J104" s="194"/>
       <c r="L104" s="23"/>
       <c r="M104"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B105" s="23"/>
+      <c r="B105" s="574"/>
       <c r="E105"/>
       <c r="J105" s="194"/>
       <c r="L105" s="23"/>
       <c r="M105"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B106" s="23"/>
+      <c r="B106" s="574"/>
       <c r="E106"/>
       <c r="J106" s="194"/>
       <c r="L106" s="23"/>
       <c r="M106"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B107" s="23"/>
+      <c r="B107" s="574"/>
       <c r="E107"/>
       <c r="J107" s="194"/>
       <c r="L107" s="23"/>
       <c r="M107"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B108" s="23"/>
+      <c r="B108" s="574"/>
       <c r="E108"/>
       <c r="J108" s="194"/>
       <c r="L108" s="23"/>
       <c r="M108"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B109" s="23"/>
+      <c r="B109" s="574"/>
       <c r="J109" s="194"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B110" s="23"/>
+      <c r="B110" s="574"/>
       <c r="J110" s="194"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B111" s="23"/>
+      <c r="B111" s="574"/>
       <c r="J111" s="194"/>
       <c r="L111" s="23"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B112" s="23"/>
+      <c r="B112" s="574"/>
       <c r="J112" s="194"/>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B113" s="23"/>
+      <c r="B113" s="574"/>
       <c r="J113" s="194"/>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B114" s="23"/>
+      <c r="B114" s="574"/>
       <c r="J114" s="194"/>
     </row>
     <row r="115" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -16157,11 +17041,11 @@
   <sheetData>
     <row r="1" spans="2:6" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="155"/>
-      <c r="C1" s="545" t="s">
+      <c r="C1" s="543" t="s">
         <v>320</v>
       </c>
-      <c r="D1" s="545"/>
-      <c r="E1" s="546"/>
+      <c r="D1" s="543"/>
+      <c r="E1" s="544"/>
       <c r="F1" s="387"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -16179,12 +17063,12 @@
       <c r="F3" s="394"/>
     </row>
     <row r="4" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="547" t="s">
+      <c r="B4" s="545" t="s">
         <v>316</v>
       </c>
-      <c r="C4" s="548"/>
-      <c r="D4" s="548"/>
-      <c r="E4" s="548"/>
+      <c r="C4" s="546"/>
+      <c r="D4" s="546"/>
+      <c r="E4" s="546"/>
       <c r="F4" s="395">
         <v>499853.16</v>
       </c>
@@ -16199,12 +17083,12 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="549" t="s">
+      <c r="B6" s="547" t="s">
         <v>317</v>
       </c>
-      <c r="C6" s="550"/>
-      <c r="D6" s="550"/>
-      <c r="E6" s="550"/>
+      <c r="C6" s="548"/>
+      <c r="D6" s="548"/>
+      <c r="E6" s="548"/>
       <c r="F6" s="395">
         <v>781251.72</v>
       </c>
@@ -16222,10 +17106,10 @@
       <c r="B8" s="388"/>
       <c r="C8" s="381"/>
       <c r="D8" s="382"/>
-      <c r="E8" s="551" t="s">
+      <c r="E8" s="549" t="s">
         <v>315</v>
       </c>
-      <c r="F8" s="553">
+      <c r="F8" s="551">
         <f>SUM(F4:F7)</f>
         <v>1281104.8799999999</v>
       </c>
@@ -16234,8 +17118,8 @@
       <c r="B9" s="388"/>
       <c r="C9" s="381"/>
       <c r="D9" s="382"/>
-      <c r="E9" s="552"/>
-      <c r="F9" s="554"/>
+      <c r="E9" s="550"/>
+      <c r="F9" s="552"/>
     </row>
     <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="388"/>
@@ -16259,12 +17143,12 @@
       <c r="F12" s="394"/>
     </row>
     <row r="13" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="555" t="s">
+      <c r="B13" s="553" t="s">
         <v>318</v>
       </c>
-      <c r="C13" s="556"/>
-      <c r="D13" s="556"/>
-      <c r="E13" s="556"/>
+      <c r="C13" s="554"/>
+      <c r="D13" s="554"/>
+      <c r="E13" s="554"/>
       <c r="F13" s="395">
         <v>255460.4</v>
       </c>
@@ -16279,12 +17163,12 @@
       </c>
     </row>
     <row r="15" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="555" t="s">
+      <c r="B15" s="553" t="s">
         <v>319</v>
       </c>
-      <c r="C15" s="556"/>
-      <c r="D15" s="556"/>
-      <c r="E15" s="556"/>
+      <c r="C15" s="554"/>
+      <c r="D15" s="554"/>
+      <c r="E15" s="554"/>
       <c r="F15" s="395">
         <v>6037.34</v>
       </c>
@@ -16302,10 +17186,10 @@
       <c r="B17" s="388"/>
       <c r="C17" s="381"/>
       <c r="D17" s="382"/>
-      <c r="E17" s="557" t="s">
+      <c r="E17" s="555" t="s">
         <v>315</v>
       </c>
-      <c r="F17" s="559">
+      <c r="F17" s="557">
         <f>SUM(F13:F16)</f>
         <v>261497.74</v>
       </c>
@@ -16314,8 +17198,8 @@
       <c r="B18" s="388"/>
       <c r="C18" s="381"/>
       <c r="D18" s="382"/>
-      <c r="E18" s="558"/>
-      <c r="F18" s="560"/>
+      <c r="E18" s="556"/>
+      <c r="F18" s="558"/>
     </row>
     <row r="19" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="388"/>
@@ -16339,22 +17223,22 @@
       <c r="F21" s="394"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="539" t="s">
+      <c r="B22" s="537" t="s">
         <v>321</v>
       </c>
-      <c r="C22" s="540"/>
-      <c r="D22" s="540"/>
-      <c r="E22" s="540"/>
-      <c r="F22" s="543">
+      <c r="C22" s="538"/>
+      <c r="D22" s="538"/>
+      <c r="E22" s="538"/>
+      <c r="F22" s="541">
         <v>12020</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="541"/>
-      <c r="C23" s="542"/>
-      <c r="D23" s="542"/>
-      <c r="E23" s="542"/>
-      <c r="F23" s="544"/>
+      <c r="B23" s="539"/>
+      <c r="C23" s="540"/>
+      <c r="D23" s="540"/>
+      <c r="E23" s="540"/>
+      <c r="F23" s="542"/>
     </row>
     <row r="24" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="355"/>
@@ -17714,7 +18598,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="487" t="s">
+      <c r="B41" s="485" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -17746,7 +18630,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="488"/>
+      <c r="B42" s="486"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -19342,23 +20226,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="476"/>
-      <c r="C1" s="478" t="s">
+      <c r="B1" s="474"/>
+      <c r="C1" s="476" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="479"/>
-      <c r="E1" s="479"/>
-      <c r="F1" s="479"/>
-      <c r="G1" s="479"/>
-      <c r="H1" s="479"/>
-      <c r="I1" s="479"/>
-      <c r="J1" s="479"/>
-      <c r="K1" s="479"/>
-      <c r="L1" s="479"/>
-      <c r="M1" s="479"/>
+      <c r="D1" s="477"/>
+      <c r="E1" s="477"/>
+      <c r="F1" s="477"/>
+      <c r="G1" s="477"/>
+      <c r="H1" s="477"/>
+      <c r="I1" s="477"/>
+      <c r="J1" s="477"/>
+      <c r="K1" s="477"/>
+      <c r="L1" s="477"/>
+      <c r="M1" s="477"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="477"/>
+      <c r="B2" s="475"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -19368,21 +20252,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="480" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="481"/>
+      <c r="B3" s="478" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="479"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="482" t="s">
+      <c r="H3" s="480" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="482"/>
+      <c r="I3" s="480"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="506" t="s">
+      <c r="P3" s="504" t="s">
         <v>6</v>
       </c>
     </row>
@@ -19397,14 +20281,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="483" t="s">
+      <c r="E4" s="481" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="484"/>
-      <c r="H4" s="485" t="s">
+      <c r="F4" s="482"/>
+      <c r="H4" s="483" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="486"/>
+      <c r="I4" s="484"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -19414,14 +20298,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="507"/>
+      <c r="P4" s="505"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="489" t="s">
+      <c r="W4" s="487" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="489"/>
+      <c r="X4" s="487"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -19472,8 +20356,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="489"/>
-      <c r="X5" s="489"/>
+      <c r="W5" s="487"/>
+      <c r="X5" s="487"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20244,7 +21128,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="493">
+      <c r="W19" s="491">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -20296,7 +21180,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="494"/>
+      <c r="W20" s="492"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -20345,8 +21229,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="495"/>
-      <c r="X21" s="495"/>
+      <c r="W21" s="493"/>
+      <c r="X21" s="493"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -20447,8 +21331,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="496"/>
-      <c r="X23" s="496"/>
+      <c r="W23" s="494"/>
+      <c r="X23" s="494"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -20502,8 +21386,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="496"/>
-      <c r="X24" s="496"/>
+      <c r="W24" s="494"/>
+      <c r="X24" s="494"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -20549,8 +21433,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="497"/>
-      <c r="X25" s="497"/>
+      <c r="W25" s="495"/>
+      <c r="X25" s="495"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -20601,8 +21485,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="497"/>
-      <c r="X26" s="497"/>
+      <c r="W26" s="495"/>
+      <c r="X26" s="495"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -20650,9 +21534,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="490"/>
-      <c r="X27" s="491"/>
-      <c r="Y27" s="492"/>
+      <c r="W27" s="488"/>
+      <c r="X27" s="489"/>
+      <c r="Y27" s="490"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20702,9 +21586,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="491"/>
-      <c r="X28" s="491"/>
-      <c r="Y28" s="492"/>
+      <c r="W28" s="489"/>
+      <c r="X28" s="489"/>
+      <c r="Y28" s="490"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21039,11 +21923,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="508">
+      <c r="M36" s="506">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="510">
+      <c r="N36" s="508">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -21051,7 +21935,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="512">
+      <c r="Q36" s="510">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -21086,13 +21970,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="509"/>
-      <c r="N37" s="511"/>
+      <c r="M37" s="507"/>
+      <c r="N37" s="509"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="513"/>
+      <c r="Q37" s="511"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -21382,26 +22266,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="463" t="s">
+      <c r="H52" s="461" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="464"/>
+      <c r="I52" s="462"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="465">
+      <c r="K52" s="463">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="498"/>
+      <c r="L52" s="496"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="469" t="s">
+      <c r="D53" s="467" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="469"/>
+      <c r="E53" s="467"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -21410,29 +22294,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="499" t="s">
+      <c r="D54" s="497" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="499"/>
+      <c r="E54" s="497"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="470" t="s">
+      <c r="I54" s="468" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="471"/>
-      <c r="K54" s="472">
+      <c r="J54" s="469"/>
+      <c r="K54" s="470">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="472"/>
-      <c r="M54" s="500" t="s">
+      <c r="L54" s="470"/>
+      <c r="M54" s="498" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="501"/>
-      <c r="O54" s="501"/>
-      <c r="P54" s="501"/>
-      <c r="Q54" s="502"/>
+      <c r="N54" s="499"/>
+      <c r="O54" s="499"/>
+      <c r="P54" s="499"/>
+      <c r="Q54" s="500"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="314" t="s">
@@ -21446,11 +22330,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="503"/>
-      <c r="N55" s="504"/>
-      <c r="O55" s="504"/>
-      <c r="P55" s="504"/>
-      <c r="Q55" s="505"/>
+      <c r="M55" s="501"/>
+      <c r="N55" s="502"/>
+      <c r="O55" s="502"/>
+      <c r="P55" s="502"/>
+      <c r="Q55" s="503"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -21468,11 +22352,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="474">
+      <c r="K56" s="472">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="475"/>
+      <c r="L56" s="473"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -21489,22 +22373,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="452" t="s">
+      <c r="D58" s="450" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="453"/>
+      <c r="E58" s="451"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="454" t="s">
+      <c r="I58" s="452" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="455"/>
-      <c r="K58" s="456">
+      <c r="J58" s="453"/>
+      <c r="K58" s="454">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="456"/>
+      <c r="L58" s="454"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -24094,7 +24978,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="514" t="s">
+      <c r="F87" s="512" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -24107,7 +24991,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="515"/>
+      <c r="F88" s="513"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -24419,23 +25303,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="476"/>
-      <c r="C1" s="478" t="s">
+      <c r="B1" s="474"/>
+      <c r="C1" s="476" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="479"/>
-      <c r="E1" s="479"/>
-      <c r="F1" s="479"/>
-      <c r="G1" s="479"/>
-      <c r="H1" s="479"/>
-      <c r="I1" s="479"/>
-      <c r="J1" s="479"/>
-      <c r="K1" s="479"/>
-      <c r="L1" s="479"/>
-      <c r="M1" s="479"/>
+      <c r="D1" s="477"/>
+      <c r="E1" s="477"/>
+      <c r="F1" s="477"/>
+      <c r="G1" s="477"/>
+      <c r="H1" s="477"/>
+      <c r="I1" s="477"/>
+      <c r="J1" s="477"/>
+      <c r="K1" s="477"/>
+      <c r="L1" s="477"/>
+      <c r="M1" s="477"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="477"/>
+      <c r="B2" s="475"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -24445,24 +25329,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="480" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="481"/>
+      <c r="B3" s="478" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="479"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="482" t="s">
+      <c r="H3" s="480" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="482"/>
+      <c r="I3" s="480"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="506" t="s">
+      <c r="P3" s="504" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="516" t="s">
+      <c r="R3" s="514" t="s">
         <v>216</v>
       </c>
     </row>
@@ -24477,14 +25361,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="483" t="s">
+      <c r="E4" s="481" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="484"/>
-      <c r="H4" s="485" t="s">
+      <c r="F4" s="482"/>
+      <c r="H4" s="483" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="486"/>
+      <c r="I4" s="484"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -24494,15 +25378,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="507"/>
+      <c r="P4" s="505"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="517"/>
-      <c r="W4" s="489" t="s">
+      <c r="R4" s="515"/>
+      <c r="W4" s="487" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="489"/>
+      <c r="X4" s="487"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -24563,8 +25447,8 @@
       <c r="S5" s="325" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="489"/>
-      <c r="X5" s="489"/>
+      <c r="W5" s="487"/>
+      <c r="X5" s="487"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -25321,7 +26205,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="493">
+      <c r="W19" s="491">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -25373,7 +26257,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="494"/>
+      <c r="W20" s="492"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -25422,8 +26306,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="495"/>
-      <c r="X21" s="495"/>
+      <c r="W21" s="493"/>
+      <c r="X21" s="493"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -25524,8 +26408,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="496"/>
-      <c r="X23" s="496"/>
+      <c r="W23" s="494"/>
+      <c r="X23" s="494"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -25576,8 +26460,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="496"/>
-      <c r="X24" s="496"/>
+      <c r="W24" s="494"/>
+      <c r="X24" s="494"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -25623,8 +26507,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="497"/>
-      <c r="X25" s="497"/>
+      <c r="W25" s="495"/>
+      <c r="X25" s="495"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -25672,8 +26556,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="497"/>
-      <c r="X26" s="497"/>
+      <c r="W26" s="495"/>
+      <c r="X26" s="495"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -25733,9 +26617,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="490"/>
-      <c r="X27" s="491"/>
-      <c r="Y27" s="492"/>
+      <c r="W27" s="488"/>
+      <c r="X27" s="489"/>
+      <c r="Y27" s="490"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -25789,9 +26673,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="491"/>
-      <c r="X28" s="491"/>
-      <c r="Y28" s="492"/>
+      <c r="W28" s="489"/>
+      <c r="X28" s="489"/>
+      <c r="Y28" s="490"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26107,11 +26991,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="508">
+      <c r="M36" s="506">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="510">
+      <c r="N36" s="508">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -26119,7 +27003,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="512">
+      <c r="Q36" s="510">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -26138,13 +27022,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="509"/>
-      <c r="N37" s="511"/>
+      <c r="M37" s="507"/>
+      <c r="N37" s="509"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="513"/>
+      <c r="Q37" s="511"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -26418,26 +27302,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="463" t="s">
+      <c r="H52" s="461" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="464"/>
+      <c r="I52" s="462"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="465">
+      <c r="K52" s="463">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="498"/>
+      <c r="L52" s="496"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="469" t="s">
+      <c r="D53" s="467" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="469"/>
+      <c r="E53" s="467"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -26446,29 +27330,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="499" t="s">
+      <c r="D54" s="497" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="499"/>
+      <c r="E54" s="497"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="470" t="s">
+      <c r="I54" s="468" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="471"/>
-      <c r="K54" s="472">
+      <c r="J54" s="469"/>
+      <c r="K54" s="470">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="472"/>
-      <c r="M54" s="500" t="s">
+      <c r="L54" s="470"/>
+      <c r="M54" s="498" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="501"/>
-      <c r="O54" s="501"/>
-      <c r="P54" s="501"/>
-      <c r="Q54" s="502"/>
+      <c r="N54" s="499"/>
+      <c r="O54" s="499"/>
+      <c r="P54" s="499"/>
+      <c r="Q54" s="500"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="314" t="s">
@@ -26482,11 +27366,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="503"/>
-      <c r="N55" s="504"/>
-      <c r="O55" s="504"/>
-      <c r="P55" s="504"/>
-      <c r="Q55" s="505"/>
+      <c r="M55" s="501"/>
+      <c r="N55" s="502"/>
+      <c r="O55" s="502"/>
+      <c r="P55" s="502"/>
+      <c r="Q55" s="503"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -26504,11 +27388,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="474">
+      <c r="K56" s="472">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="475"/>
+      <c r="L56" s="473"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -26525,22 +27409,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="452" t="s">
+      <c r="D58" s="450" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="453"/>
+      <c r="E58" s="451"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="454" t="s">
+      <c r="I58" s="452" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="455"/>
-      <c r="K58" s="456">
+      <c r="J58" s="453"/>
+      <c r="K58" s="454">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="456"/>
+      <c r="L58" s="454"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -29103,7 +29987,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="514" t="s">
+      <c r="F75" s="512" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -29116,7 +30000,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="515"/>
+      <c r="F76" s="513"/>
       <c r="K76" s="1"/>
       <c r="L76" s="256"/>
       <c r="M76" s="3"/>
@@ -29408,23 +30292,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="476"/>
-      <c r="C1" s="518" t="s">
+      <c r="B1" s="474"/>
+      <c r="C1" s="516" t="s">
         <v>323</v>
       </c>
-      <c r="D1" s="519"/>
-      <c r="E1" s="519"/>
-      <c r="F1" s="519"/>
-      <c r="G1" s="519"/>
-      <c r="H1" s="519"/>
-      <c r="I1" s="519"/>
-      <c r="J1" s="519"/>
-      <c r="K1" s="519"/>
-      <c r="L1" s="519"/>
-      <c r="M1" s="519"/>
+      <c r="D1" s="517"/>
+      <c r="E1" s="517"/>
+      <c r="F1" s="517"/>
+      <c r="G1" s="517"/>
+      <c r="H1" s="517"/>
+      <c r="I1" s="517"/>
+      <c r="J1" s="517"/>
+      <c r="K1" s="517"/>
+      <c r="L1" s="517"/>
+      <c r="M1" s="517"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="477"/>
+      <c r="B2" s="475"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -29434,24 +30318,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="480" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="481"/>
+      <c r="B3" s="478" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="479"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="482" t="s">
+      <c r="H3" s="480" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="482"/>
+      <c r="I3" s="480"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="506" t="s">
+      <c r="P3" s="504" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="516" t="s">
+      <c r="R3" s="514" t="s">
         <v>216</v>
       </c>
     </row>
@@ -29466,14 +30350,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="483" t="s">
+      <c r="E4" s="481" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="484"/>
-      <c r="H4" s="485" t="s">
+      <c r="F4" s="482"/>
+      <c r="H4" s="483" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="486"/>
+      <c r="I4" s="484"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -29483,15 +30367,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="507"/>
+      <c r="P4" s="505"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="517"/>
-      <c r="W4" s="489" t="s">
+      <c r="R4" s="515"/>
+      <c r="W4" s="487" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="489"/>
+      <c r="X4" s="487"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -29542,8 +30426,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="325"/>
-      <c r="W5" s="489"/>
-      <c r="X5" s="489"/>
+      <c r="W5" s="487"/>
+      <c r="X5" s="487"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -30307,7 +31191,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="493">
+      <c r="W19" s="491">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -30360,7 +31244,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="494"/>
+      <c r="W20" s="492"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -30409,8 +31293,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="495"/>
-      <c r="X21" s="495"/>
+      <c r="W21" s="493"/>
+      <c r="X21" s="493"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -30510,8 +31394,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="496"/>
-      <c r="X23" s="496"/>
+      <c r="W23" s="494"/>
+      <c r="X23" s="494"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -30566,8 +31450,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="496"/>
-      <c r="X24" s="496"/>
+      <c r="W24" s="494"/>
+      <c r="X24" s="494"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -30612,8 +31496,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="497"/>
-      <c r="X25" s="497"/>
+      <c r="W25" s="495"/>
+      <c r="X25" s="495"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -30661,8 +31545,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="497"/>
-      <c r="X26" s="497"/>
+      <c r="W26" s="495"/>
+      <c r="X26" s="495"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -30716,9 +31600,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="490"/>
-      <c r="X27" s="491"/>
-      <c r="Y27" s="492"/>
+      <c r="W27" s="488"/>
+      <c r="X27" s="489"/>
+      <c r="Y27" s="490"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -30772,9 +31656,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="491"/>
-      <c r="X28" s="491"/>
-      <c r="Y28" s="492"/>
+      <c r="W28" s="489"/>
+      <c r="X28" s="489"/>
+      <c r="Y28" s="490"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31079,11 +31963,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="508">
+      <c r="M36" s="506">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="510">
+      <c r="N36" s="508">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -31091,7 +31975,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="512">
+      <c r="Q36" s="510">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -31116,13 +32000,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="509"/>
-      <c r="N37" s="511"/>
+      <c r="M37" s="507"/>
+      <c r="N37" s="509"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="513"/>
+      <c r="Q37" s="511"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -31409,26 +32293,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="463" t="s">
+      <c r="H52" s="461" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="464"/>
+      <c r="I52" s="462"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="465">
+      <c r="K52" s="463">
         <f>I50+L50</f>
         <v>144994.20000000001</v>
       </c>
-      <c r="L52" s="498"/>
+      <c r="L52" s="496"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="469" t="s">
+      <c r="D53" s="467" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="469"/>
+      <c r="E53" s="467"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>2135426.1199999996</v>
@@ -31437,22 +32321,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="499" t="s">
+      <c r="D54" s="497" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="499"/>
+      <c r="E54" s="497"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="470" t="s">
+      <c r="I54" s="468" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="471"/>
-      <c r="K54" s="472">
+      <c r="J54" s="469"/>
+      <c r="K54" s="470">
         <f>F56+F57+F58</f>
         <v>1082916.0699999996</v>
       </c>
-      <c r="L54" s="472"/>
+      <c r="L54" s="470"/>
       <c r="M54" s="423"/>
       <c r="N54" s="423"/>
       <c r="O54" s="423"/>
@@ -31493,11 +32377,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="474">
+      <c r="K56" s="472">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="475"/>
+      <c r="L56" s="473"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -31514,22 +32398,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="452" t="s">
+      <c r="D58" s="450" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="453"/>
+      <c r="E58" s="451"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="454" t="s">
+      <c r="I58" s="452" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="455"/>
-      <c r="K58" s="456">
+      <c r="J58" s="453"/>
+      <c r="K58" s="454">
         <f>K54+K56</f>
         <v>328772.83999999962</v>
       </c>
-      <c r="L58" s="456"/>
+      <c r="L58" s="454"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -31717,8 +32601,8 @@
   </sheetPr>
   <dimension ref="A1:N115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33196,15 +34080,15 @@
       <c r="C38" s="411">
         <v>78773.820000000007</v>
       </c>
-      <c r="D38" s="424" t="s">
-        <v>310</v>
-      </c>
-      <c r="E38" s="411">
-        <v>0</v>
+      <c r="D38" s="575">
+        <v>44617</v>
+      </c>
+      <c r="E38" s="576">
+        <v>78773.820000000007</v>
       </c>
       <c r="F38" s="411">
         <f t="shared" si="0"/>
-        <v>78773.820000000007</v>
+        <v>0</v>
       </c>
       <c r="I38" s="409" t="s">
         <v>376</v>
@@ -33234,15 +34118,15 @@
       <c r="C39" s="411">
         <v>38574.800000000003</v>
       </c>
-      <c r="D39" s="424" t="s">
-        <v>310</v>
-      </c>
-      <c r="E39" s="411">
-        <v>0</v>
+      <c r="D39" s="575">
+        <v>44617</v>
+      </c>
+      <c r="E39" s="576">
+        <v>38574.800000000003</v>
       </c>
       <c r="F39" s="411">
         <f t="shared" si="0"/>
-        <v>38574.800000000003</v>
+        <v>0</v>
       </c>
       <c r="I39" s="409" t="s">
         <v>377</v>
@@ -33272,15 +34156,15 @@
       <c r="C40" s="411">
         <v>53825.279999999999</v>
       </c>
-      <c r="D40" s="424" t="s">
-        <v>310</v>
-      </c>
-      <c r="E40" s="411">
-        <v>0</v>
+      <c r="D40" s="575">
+        <v>44617</v>
+      </c>
+      <c r="E40" s="576">
+        <v>53825.279999999999</v>
       </c>
       <c r="F40" s="411">
         <f t="shared" si="0"/>
-        <v>53825.279999999999</v>
+        <v>0</v>
       </c>
       <c r="I40" s="409" t="s">
         <v>377</v>
@@ -33304,12 +34188,8 @@
       <c r="A41" s="412"/>
       <c r="B41" s="413"/>
       <c r="C41" s="411"/>
-      <c r="D41" s="424" t="s">
-        <v>310</v>
-      </c>
-      <c r="E41" s="411">
-        <v>0</v>
-      </c>
+      <c r="D41" s="575"/>
+      <c r="E41" s="576"/>
       <c r="F41" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -33362,12 +34242,12 @@
     </row>
     <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="245"/>
-      <c r="B43" s="520" t="s">
+      <c r="B43" s="518" t="s">
         <v>420</v>
       </c>
-      <c r="C43" s="521"/>
-      <c r="D43" s="521"/>
-      <c r="E43" s="522"/>
+      <c r="C43" s="519"/>
+      <c r="D43" s="519"/>
+      <c r="E43" s="520"/>
       <c r="F43" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -33392,10 +34272,10 @@
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="245"/>
-      <c r="B44" s="523"/>
-      <c r="C44" s="524"/>
-      <c r="D44" s="524"/>
-      <c r="E44" s="525"/>
+      <c r="B44" s="521"/>
+      <c r="C44" s="522"/>
+      <c r="D44" s="522"/>
+      <c r="E44" s="523"/>
       <c r="F44" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -33420,10 +34300,10 @@
     </row>
     <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="245"/>
-      <c r="B45" s="526"/>
-      <c r="C45" s="527"/>
-      <c r="D45" s="527"/>
-      <c r="E45" s="528"/>
+      <c r="B45" s="524"/>
+      <c r="C45" s="525"/>
+      <c r="D45" s="525"/>
+      <c r="E45" s="526"/>
       <c r="F45" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -33507,11 +34387,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="349"/>
-      <c r="J48" s="529" t="s">
+      <c r="J48" s="527" t="s">
         <v>421</v>
       </c>
-      <c r="K48" s="530"/>
-      <c r="L48" s="531"/>
+      <c r="K48" s="528"/>
+      <c r="L48" s="529"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -33529,9 +34409,9 @@
         <v>0</v>
       </c>
       <c r="I49" s="349"/>
-      <c r="J49" s="532"/>
-      <c r="K49" s="533"/>
-      <c r="L49" s="534"/>
+      <c r="J49" s="530"/>
+      <c r="K49" s="531"/>
+      <c r="L49" s="532"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -34133,11 +35013,11 @@
       <c r="D79" s="426"/>
       <c r="E79" s="414">
         <f>SUM(E3:E78)</f>
-        <v>1277227.3</v>
+        <v>1448401.2000000002</v>
       </c>
       <c r="F79" s="153">
         <f>SUM(F3:F78)</f>
-        <v>171173.90000000002</v>
+        <v>0</v>
       </c>
       <c r="K79" s="209">
         <f>SUM(K3:K78)</f>
@@ -34158,7 +35038,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="514" t="s">
+      <c r="F80" s="512" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -34171,7 +35051,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="515"/>
+      <c r="F81" s="513"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -34486,23 +35366,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="476"/>
-      <c r="C1" s="518" t="s">
+      <c r="B1" s="474"/>
+      <c r="C1" s="516" t="s">
         <v>323</v>
       </c>
-      <c r="D1" s="519"/>
-      <c r="E1" s="519"/>
-      <c r="F1" s="519"/>
-      <c r="G1" s="519"/>
-      <c r="H1" s="519"/>
-      <c r="I1" s="519"/>
-      <c r="J1" s="519"/>
-      <c r="K1" s="519"/>
-      <c r="L1" s="519"/>
-      <c r="M1" s="519"/>
+      <c r="D1" s="517"/>
+      <c r="E1" s="517"/>
+      <c r="F1" s="517"/>
+      <c r="G1" s="517"/>
+      <c r="H1" s="517"/>
+      <c r="I1" s="517"/>
+      <c r="J1" s="517"/>
+      <c r="K1" s="517"/>
+      <c r="L1" s="517"/>
+      <c r="M1" s="517"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="477"/>
+      <c r="B2" s="475"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -34512,24 +35392,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="480" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="481"/>
+      <c r="B3" s="478" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="479"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="482" t="s">
+      <c r="H3" s="480" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="482"/>
+      <c r="I3" s="480"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="506" t="s">
+      <c r="P3" s="504" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="516" t="s">
+      <c r="R3" s="514" t="s">
         <v>216</v>
       </c>
     </row>
@@ -34544,14 +35424,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="483" t="s">
+      <c r="E4" s="481" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="484"/>
-      <c r="H4" s="485" t="s">
+      <c r="F4" s="482"/>
+      <c r="H4" s="483" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="486"/>
+      <c r="I4" s="484"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -34561,15 +35441,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="507"/>
+      <c r="P4" s="505"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="517"/>
-      <c r="W4" s="489" t="s">
+      <c r="R4" s="515"/>
+      <c r="W4" s="487" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="489"/>
+      <c r="X4" s="487"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -34620,8 +35500,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="325"/>
-      <c r="W5" s="489"/>
-      <c r="X5" s="489"/>
+      <c r="W5" s="487"/>
+      <c r="X5" s="487"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -35164,7 +36044,7 @@
         <f t="shared" si="0"/>
         <v>94834</v>
       </c>
-      <c r="Q15" s="442">
+      <c r="Q15" s="440">
         <f t="shared" si="1"/>
         <v>1515</v>
       </c>
@@ -35382,7 +36262,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="493">
+      <c r="W19" s="491">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -35434,7 +36314,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="494"/>
+      <c r="W20" s="492"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -35476,15 +36356,15 @@
         <f t="shared" si="0"/>
         <v>105334</v>
       </c>
-      <c r="Q21" s="441">
+      <c r="Q21" s="439">
         <v>-1515</v>
       </c>
       <c r="R21" s="407">
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="495"/>
-      <c r="X21" s="495"/>
+      <c r="W21" s="493"/>
+      <c r="X21" s="493"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -35583,8 +36463,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="496"/>
-      <c r="X23" s="496"/>
+      <c r="W23" s="494"/>
+      <c r="X23" s="494"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -35639,8 +36519,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="496"/>
-      <c r="X24" s="496"/>
+      <c r="W24" s="494"/>
+      <c r="X24" s="494"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -35688,8 +36568,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="497"/>
-      <c r="X25" s="497"/>
+      <c r="W25" s="495"/>
+      <c r="X25" s="495"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -35737,8 +36617,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="497"/>
-      <c r="X26" s="497"/>
+      <c r="W26" s="495"/>
+      <c r="X26" s="495"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -35786,9 +36666,9 @@
       <c r="R27" s="320">
         <v>0</v>
       </c>
-      <c r="W27" s="490"/>
-      <c r="X27" s="491"/>
-      <c r="Y27" s="492"/>
+      <c r="W27" s="488"/>
+      <c r="X27" s="489"/>
+      <c r="Y27" s="490"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -35836,9 +36716,9 @@
       <c r="R28" s="320">
         <v>0</v>
       </c>
-      <c r="W28" s="491"/>
-      <c r="X28" s="491"/>
-      <c r="Y28" s="492"/>
+      <c r="W28" s="489"/>
+      <c r="X28" s="489"/>
+      <c r="Y28" s="490"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -35872,11 +36752,11 @@
         <f>3507.28+46135</f>
         <v>49642.28</v>
       </c>
-      <c r="N29" s="443">
+      <c r="N29" s="441">
         <f>7491+411</f>
         <v>7902</v>
       </c>
-      <c r="O29" s="446" t="s">
+      <c r="O29" s="444" t="s">
         <v>468</v>
       </c>
       <c r="P29" s="34">
@@ -35890,7 +36770,7 @@
       <c r="R29" s="320">
         <v>0</v>
       </c>
-      <c r="T29" s="448">
+      <c r="T29" s="446">
         <v>7491</v>
       </c>
       <c r="U29" s="337"/>
@@ -35930,10 +36810,10 @@
         <f>680259.73+69394+54204.48</f>
         <v>803858.21</v>
       </c>
-      <c r="N30" s="443">
+      <c r="N30" s="441">
         <v>26626</v>
       </c>
-      <c r="O30" s="447" t="s">
+      <c r="O30" s="445" t="s">
         <v>469</v>
       </c>
       <c r="P30" s="34">
@@ -35943,10 +36823,10 @@
       <c r="Q30" s="326">
         <v>0</v>
       </c>
-      <c r="R30" s="445">
+      <c r="R30" s="443">
         <v>92514</v>
       </c>
-      <c r="T30" s="448">
+      <c r="T30" s="446">
         <v>26626</v>
       </c>
       <c r="X30" s="225"/>
@@ -35989,11 +36869,11 @@
         <f>998+41741</f>
         <v>42739</v>
       </c>
-      <c r="N31" s="443">
+      <c r="N31" s="441">
         <f>10137+26711</f>
         <v>36848</v>
       </c>
-      <c r="O31" s="446" t="s">
+      <c r="O31" s="444" t="s">
         <v>470</v>
       </c>
       <c r="P31" s="34">
@@ -36007,7 +36887,7 @@
       <c r="R31" s="322">
         <v>0</v>
       </c>
-      <c r="T31" s="448">
+      <c r="T31" s="446">
         <v>10137</v>
       </c>
     </row>
@@ -36056,7 +36936,7 @@
       <c r="R32" s="228">
         <v>0</v>
       </c>
-      <c r="T32" s="448">
+      <c r="T32" s="446">
         <v>0</v>
       </c>
     </row>
@@ -36087,7 +36967,7 @@
         <v>0</v>
       </c>
       <c r="R33" s="228"/>
-      <c r="T33" s="449">
+      <c r="T33" s="447">
         <f>SUM(T29:T32)</f>
         <v>44254</v>
       </c>
@@ -36142,7 +37022,7 @@
       <c r="P35" s="34">
         <v>0</v>
       </c>
-      <c r="Q35" s="444">
+      <c r="Q35" s="442">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -36161,11 +37041,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="508">
+      <c r="M36" s="506">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="510">
+      <c r="N36" s="508">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -36173,7 +37053,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="535">
+      <c r="Q36" s="533">
         <f>SUM(Q5:Q35)</f>
         <v>111.43999999999505</v>
       </c>
@@ -36198,13 +37078,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="509"/>
-      <c r="N37" s="511"/>
+      <c r="M37" s="507"/>
+      <c r="N37" s="509"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="536"/>
+      <c r="Q37" s="534"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -36254,11 +37134,11 @@
       <c r="L39" s="61">
         <v>14981.03</v>
       </c>
-      <c r="M39" s="537">
+      <c r="M39" s="535">
         <f>M36+N36</f>
         <v>2934972.49</v>
       </c>
-      <c r="N39" s="538"/>
+      <c r="N39" s="536"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3450079.65</v>
@@ -36500,26 +37380,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="463" t="s">
+      <c r="H52" s="461" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="464"/>
+      <c r="I52" s="462"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="465">
+      <c r="K52" s="463">
         <f>I50+L50</f>
         <v>180192.62</v>
       </c>
-      <c r="L52" s="498"/>
+      <c r="L52" s="496"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="469" t="s">
+      <c r="D53" s="467" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="469"/>
+      <c r="E53" s="467"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>2717217.48</v>
@@ -36528,22 +37408,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="499" t="s">
+      <c r="D54" s="497" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="499"/>
+      <c r="E54" s="497"/>
       <c r="F54" s="111">
         <v>0</v>
       </c>
-      <c r="I54" s="470" t="s">
+      <c r="I54" s="468" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="471"/>
-      <c r="K54" s="472">
+      <c r="J54" s="469"/>
+      <c r="K54" s="470">
         <f>F56+F57+F58</f>
         <v>4063498.9299999997</v>
       </c>
-      <c r="L54" s="472"/>
+      <c r="L54" s="470"/>
       <c r="M54" s="423"/>
       <c r="N54" s="423"/>
       <c r="O54" s="423"/>
@@ -36584,11 +37464,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="474">
+      <c r="K56" s="472">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="475"/>
+      <c r="L56" s="473"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -36605,22 +37485,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="452" t="s">
+      <c r="D58" s="450" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="453"/>
+      <c r="E58" s="451"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="454" t="s">
+      <c r="I58" s="452" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="455"/>
-      <c r="K58" s="456">
+      <c r="J58" s="453"/>
+      <c r="K58" s="454">
         <f>K54+K56</f>
         <v>2913758.5199999996</v>
       </c>
-      <c r="L58" s="456"/>
+      <c r="L58" s="454"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/BALANCE    ZAVALETA   MARZO  2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/BALANCE    ZAVALETA   MARZO  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="10" activeTab="11"/>
+    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="10" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -457,7 +457,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="544">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2083,6 +2083,12 @@
   </si>
   <si>
     <t>14827 C</t>
+  </si>
+  <si>
+    <t>SALCHICHONERIA-QUESOS-JAMON-CHORIZO</t>
+  </si>
+  <si>
+    <t>CHORIZO-POLLO-LONZANIZA-JAMON</t>
   </si>
 </sst>
 </file>
@@ -4885,6 +4891,105 @@
     <xf numFmtId="44" fontId="55" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="33" fillId="7" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="35" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="35" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="10" fillId="3" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="56" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="57" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="58" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="57" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="58" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="7" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4957,76 +5062,10 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5070,6 +5109,39 @@
     </xf>
     <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5212,72 +5284,6 @@
     <xf numFmtId="44" fontId="11" fillId="14" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="33" fillId="7" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="35" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="35" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="10" fillId="3" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="56" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="57" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="58" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="57" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="58" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="7" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -8273,23 +8279,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="474"/>
-      <c r="C1" s="476" t="s">
+      <c r="B1" s="480"/>
+      <c r="C1" s="482" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="477"/>
-      <c r="E1" s="477"/>
-      <c r="F1" s="477"/>
-      <c r="G1" s="477"/>
-      <c r="H1" s="477"/>
-      <c r="I1" s="477"/>
-      <c r="J1" s="477"/>
-      <c r="K1" s="477"/>
-      <c r="L1" s="477"/>
-      <c r="M1" s="477"/>
+      <c r="D1" s="483"/>
+      <c r="E1" s="483"/>
+      <c r="F1" s="483"/>
+      <c r="G1" s="483"/>
+      <c r="H1" s="483"/>
+      <c r="I1" s="483"/>
+      <c r="J1" s="483"/>
+      <c r="K1" s="483"/>
+      <c r="L1" s="483"/>
+      <c r="M1" s="483"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="475"/>
+      <c r="B2" s="481"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -8299,17 +8305,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="478" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="479"/>
+      <c r="B3" s="484" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="485"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="480" t="s">
+      <c r="H3" s="486" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="480"/>
+      <c r="I3" s="486"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -8323,14 +8329,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="481" t="s">
+      <c r="E4" s="487" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="482"/>
-      <c r="H4" s="483" t="s">
+      <c r="F4" s="488"/>
+      <c r="H4" s="489" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="484"/>
+      <c r="I4" s="490"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -8340,10 +8346,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="455" t="s">
+      <c r="P4" s="496" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="456"/>
+      <c r="Q4" s="497"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -9784,11 +9790,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="457">
+      <c r="M39" s="498">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="459">
+      <c r="N39" s="500">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -9814,8 +9820,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="458"/>
-      <c r="N40" s="460"/>
+      <c r="M40" s="499"/>
+      <c r="N40" s="501"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -10030,29 +10036,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="461" t="s">
+      <c r="H52" s="502" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="462"/>
+      <c r="I52" s="503"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="463">
+      <c r="K52" s="504">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="464"/>
-      <c r="M52" s="465">
+      <c r="L52" s="505"/>
+      <c r="M52" s="506">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="466"/>
+      <c r="N52" s="507"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="467" t="s">
+      <c r="D53" s="508" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="467"/>
+      <c r="E53" s="508"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -10063,22 +10069,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="467" t="s">
+      <c r="D54" s="508" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="467"/>
+      <c r="E54" s="508"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="468" t="s">
+      <c r="I54" s="509" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="469"/>
-      <c r="K54" s="470">
+      <c r="J54" s="510"/>
+      <c r="K54" s="511">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="471"/>
+      <c r="L54" s="512"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -10111,11 +10117,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="472">
+      <c r="K56" s="513">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="473"/>
+      <c r="L56" s="514"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -10132,22 +10138,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="450" t="s">
+      <c r="D58" s="491" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="451"/>
+      <c r="E58" s="492"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="452" t="s">
+      <c r="I58" s="493" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="453"/>
-      <c r="K58" s="454">
+      <c r="J58" s="494"/>
+      <c r="K58" s="495">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="454"/>
+      <c r="L58" s="495"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -10291,12 +10297,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -10311,6 +10311,12 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10332,7 +10338,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="566" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="457" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" style="162" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" style="257" bestFit="1" customWidth="1"/>
@@ -10348,10 +10354,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="43.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="559" t="s">
+      <c r="A1" s="450" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="568"/>
+      <c r="B1" s="459"/>
       <c r="C1" s="292"/>
       <c r="D1" s="373"/>
       <c r="E1" s="292"/>
@@ -10370,7 +10376,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="560" t="s">
+      <c r="A2" s="451" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="298" t="s">
@@ -10408,10 +10414,10 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="561">
+      <c r="A3" s="452">
         <v>44592</v>
       </c>
-      <c r="B3" s="569" t="s">
+      <c r="B3" s="460" t="s">
         <v>479</v>
       </c>
       <c r="C3" s="411">
@@ -10438,10 +10444,10 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="561">
+      <c r="A4" s="452">
         <v>44593</v>
       </c>
-      <c r="B4" s="569" t="s">
+      <c r="B4" s="460" t="s">
         <v>480</v>
       </c>
       <c r="C4" s="411">
@@ -10469,10 +10475,10 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="561">
+      <c r="A5" s="452">
         <v>44593</v>
       </c>
-      <c r="B5" s="569" t="s">
+      <c r="B5" s="460" t="s">
         <v>481</v>
       </c>
       <c r="C5" s="411">
@@ -10499,10 +10505,10 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="561">
+      <c r="A6" s="452">
         <v>44593</v>
       </c>
-      <c r="B6" s="569" t="s">
+      <c r="B6" s="460" t="s">
         <v>482</v>
       </c>
       <c r="C6" s="411">
@@ -10529,10 +10535,10 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="561">
+      <c r="A7" s="452">
         <v>44593</v>
       </c>
-      <c r="B7" s="569" t="s">
+      <c r="B7" s="460" t="s">
         <v>483</v>
       </c>
       <c r="C7" s="411">
@@ -10559,10 +10565,10 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="561">
+      <c r="A8" s="452">
         <v>44594</v>
       </c>
-      <c r="B8" s="569" t="s">
+      <c r="B8" s="460" t="s">
         <v>484</v>
       </c>
       <c r="C8" s="411">
@@ -10589,10 +10595,10 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="561">
+      <c r="A9" s="452">
         <v>44594</v>
       </c>
-      <c r="B9" s="569" t="s">
+      <c r="B9" s="460" t="s">
         <v>485</v>
       </c>
       <c r="C9" s="411">
@@ -10619,10 +10625,10 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="561">
+      <c r="A10" s="452">
         <v>44595</v>
       </c>
-      <c r="B10" s="569" t="s">
+      <c r="B10" s="460" t="s">
         <v>486</v>
       </c>
       <c r="C10" s="411">
@@ -10650,10 +10656,10 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="561">
+      <c r="A11" s="452">
         <v>44595</v>
       </c>
-      <c r="B11" s="569" t="s">
+      <c r="B11" s="460" t="s">
         <v>488</v>
       </c>
       <c r="C11" s="411">
@@ -10680,10 +10686,10 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="561">
+      <c r="A12" s="452">
         <v>44595</v>
       </c>
-      <c r="B12" s="569" t="s">
+      <c r="B12" s="460" t="s">
         <v>487</v>
       </c>
       <c r="C12" s="411">
@@ -10710,10 +10716,10 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="561">
+      <c r="A13" s="452">
         <v>44595</v>
       </c>
-      <c r="B13" s="569" t="s">
+      <c r="B13" s="460" t="s">
         <v>489</v>
       </c>
       <c r="C13" s="411">
@@ -10740,10 +10746,10 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="561">
+      <c r="A14" s="452">
         <v>44596</v>
       </c>
-      <c r="B14" s="569" t="s">
+      <c r="B14" s="460" t="s">
         <v>490</v>
       </c>
       <c r="C14" s="411">
@@ -10770,10 +10776,10 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="561">
+      <c r="A15" s="452">
         <v>44596</v>
       </c>
-      <c r="B15" s="569" t="s">
+      <c r="B15" s="460" t="s">
         <v>491</v>
       </c>
       <c r="C15" s="411">
@@ -10800,10 +10806,10 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="561">
+      <c r="A16" s="452">
         <v>44596</v>
       </c>
-      <c r="B16" s="569" t="s">
+      <c r="B16" s="460" t="s">
         <v>492</v>
       </c>
       <c r="C16" s="411">
@@ -10830,10 +10836,10 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="561">
+      <c r="A17" s="452">
         <v>44597</v>
       </c>
-      <c r="B17" s="569" t="s">
+      <c r="B17" s="460" t="s">
         <v>493</v>
       </c>
       <c r="C17" s="411">
@@ -10860,10 +10866,10 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="561">
+      <c r="A18" s="452">
         <v>44597</v>
       </c>
-      <c r="B18" s="569" t="s">
+      <c r="B18" s="460" t="s">
         <v>494</v>
       </c>
       <c r="C18" s="411">
@@ -10890,10 +10896,10 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="561">
+      <c r="A19" s="452">
         <v>44599</v>
       </c>
-      <c r="B19" s="569" t="s">
+      <c r="B19" s="460" t="s">
         <v>495</v>
       </c>
       <c r="C19" s="411">
@@ -10920,10 +10926,10 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="561">
+      <c r="A20" s="452">
         <v>44600</v>
       </c>
-      <c r="B20" s="569" t="s">
+      <c r="B20" s="460" t="s">
         <v>496</v>
       </c>
       <c r="C20" s="411">
@@ -10950,10 +10956,10 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="561">
+      <c r="A21" s="452">
         <v>44600</v>
       </c>
-      <c r="B21" s="569" t="s">
+      <c r="B21" s="460" t="s">
         <v>497</v>
       </c>
       <c r="C21" s="411">
@@ -10980,10 +10986,10 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="561">
+      <c r="A22" s="452">
         <v>44601</v>
       </c>
-      <c r="B22" s="569" t="s">
+      <c r="B22" s="460" t="s">
         <v>498</v>
       </c>
       <c r="C22" s="411">
@@ -11011,10 +11017,10 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="561">
+      <c r="A23" s="452">
         <v>44601</v>
       </c>
-      <c r="B23" s="569" t="s">
+      <c r="B23" s="460" t="s">
         <v>499</v>
       </c>
       <c r="C23" s="411">
@@ -11041,10 +11047,10 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="561">
+      <c r="A24" s="452">
         <v>44601</v>
       </c>
-      <c r="B24" s="569" t="s">
+      <c r="B24" s="460" t="s">
         <v>500</v>
       </c>
       <c r="C24" s="411">
@@ -11071,10 +11077,10 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="561">
+      <c r="A25" s="452">
         <v>44602</v>
       </c>
-      <c r="B25" s="569" t="s">
+      <c r="B25" s="460" t="s">
         <v>501</v>
       </c>
       <c r="C25" s="411">
@@ -11101,10 +11107,10 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="561">
+      <c r="A26" s="452">
         <v>44603</v>
       </c>
-      <c r="B26" s="569" t="s">
+      <c r="B26" s="460" t="s">
         <v>502</v>
       </c>
       <c r="C26" s="411">
@@ -11131,10 +11137,10 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="561">
+      <c r="A27" s="452">
         <v>44603</v>
       </c>
-      <c r="B27" s="569" t="s">
+      <c r="B27" s="460" t="s">
         <v>503</v>
       </c>
       <c r="C27" s="411">
@@ -11161,10 +11167,10 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="561">
+      <c r="A28" s="452">
         <v>44604</v>
       </c>
-      <c r="B28" s="569" t="s">
+      <c r="B28" s="460" t="s">
         <v>504</v>
       </c>
       <c r="C28" s="411">
@@ -11191,10 +11197,10 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="561">
+      <c r="A29" s="452">
         <v>44604</v>
       </c>
-      <c r="B29" s="569" t="s">
+      <c r="B29" s="460" t="s">
         <v>505</v>
       </c>
       <c r="C29" s="411">
@@ -11221,10 +11227,10 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="561">
+      <c r="A30" s="452">
         <v>44604</v>
       </c>
-      <c r="B30" s="569" t="s">
+      <c r="B30" s="460" t="s">
         <v>506</v>
       </c>
       <c r="C30" s="411">
@@ -11252,10 +11258,10 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="561">
+      <c r="A31" s="452">
         <v>44604</v>
       </c>
-      <c r="B31" s="569" t="s">
+      <c r="B31" s="460" t="s">
         <v>507</v>
       </c>
       <c r="C31" s="411">
@@ -11282,10 +11288,10 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="561">
+      <c r="A32" s="452">
         <v>44606</v>
       </c>
-      <c r="B32" s="569" t="s">
+      <c r="B32" s="460" t="s">
         <v>508</v>
       </c>
       <c r="C32" s="411">
@@ -11312,10 +11318,10 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="561">
+      <c r="A33" s="452">
         <v>44607</v>
       </c>
-      <c r="B33" s="569" t="s">
+      <c r="B33" s="460" t="s">
         <v>509</v>
       </c>
       <c r="C33" s="411">
@@ -11342,10 +11348,10 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="561">
+      <c r="A34" s="452">
         <v>44607</v>
       </c>
-      <c r="B34" s="569" t="s">
+      <c r="B34" s="460" t="s">
         <v>510</v>
       </c>
       <c r="C34" s="411">
@@ -11372,10 +11378,10 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="561">
+      <c r="A35" s="452">
         <v>44607</v>
       </c>
-      <c r="B35" s="569" t="s">
+      <c r="B35" s="460" t="s">
         <v>511</v>
       </c>
       <c r="C35" s="411">
@@ -11402,10 +11408,10 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="561">
+      <c r="A36" s="452">
         <v>44608</v>
       </c>
-      <c r="B36" s="569" t="s">
+      <c r="B36" s="460" t="s">
         <v>512</v>
       </c>
       <c r="C36" s="411">
@@ -11432,10 +11438,10 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="561">
+      <c r="A37" s="452">
         <v>44608</v>
       </c>
-      <c r="B37" s="569" t="s">
+      <c r="B37" s="460" t="s">
         <v>513</v>
       </c>
       <c r="C37" s="411">
@@ -11462,10 +11468,10 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="561">
+      <c r="A38" s="452">
         <v>44609</v>
       </c>
-      <c r="B38" s="570" t="s">
+      <c r="B38" s="461" t="s">
         <v>514</v>
       </c>
       <c r="C38" s="430">
@@ -11492,7 +11498,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="561">
+      <c r="A39" s="452">
         <v>44610</v>
       </c>
       <c r="B39" s="246" t="s">
@@ -11522,7 +11528,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="561">
+      <c r="A40" s="452">
         <v>44610</v>
       </c>
       <c r="B40" s="246" t="s">
@@ -11552,7 +11558,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="561">
+      <c r="A41" s="452">
         <v>44611</v>
       </c>
       <c r="B41" s="246" t="s">
@@ -11582,7 +11588,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="562">
+      <c r="A42" s="453">
         <v>44611</v>
       </c>
       <c r="B42" s="246" t="s">
@@ -11612,10 +11618,10 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="562">
+      <c r="A43" s="453">
         <v>44613</v>
       </c>
-      <c r="B43" s="571" t="s">
+      <c r="B43" s="462" t="s">
         <v>519</v>
       </c>
       <c r="C43" s="111">
@@ -11642,10 +11648,10 @@
       </c>
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="562">
+      <c r="A44" s="453">
         <v>44613</v>
       </c>
-      <c r="B44" s="571" t="s">
+      <c r="B44" s="462" t="s">
         <v>520</v>
       </c>
       <c r="C44" s="111">
@@ -11672,10 +11678,10 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="562">
+      <c r="A45" s="453">
         <v>44614</v>
       </c>
-      <c r="B45" s="571" t="s">
+      <c r="B45" s="462" t="s">
         <v>521</v>
       </c>
       <c r="C45" s="111">
@@ -11702,7 +11708,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="562">
+      <c r="A46" s="453">
         <v>44615</v>
       </c>
       <c r="B46" s="246" t="s">
@@ -11732,7 +11738,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="563">
+      <c r="A47" s="454">
         <v>44616</v>
       </c>
       <c r="B47" s="246" t="s">
@@ -11758,7 +11764,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="563">
+      <c r="A48" s="454">
         <v>44617</v>
       </c>
       <c r="B48" s="246" t="s">
@@ -11770,7 +11776,7 @@
       <c r="D48" s="253"/>
       <c r="E48" s="69"/>
       <c r="F48" s="411">
-        <f t="shared" ref="F5:F68" si="2">F47+C48</f>
+        <f t="shared" ref="F48:F68" si="2">F47+C48</f>
         <v>207746.15999999997</v>
       </c>
       <c r="I48" s="349"/>
@@ -11784,10 +11790,10 @@
       </c>
     </row>
     <row r="49" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="564">
+      <c r="A49" s="455">
         <v>44617</v>
       </c>
-      <c r="B49" s="577" t="s">
+      <c r="B49" s="468" t="s">
         <v>525</v>
       </c>
       <c r="C49" s="111">
@@ -11810,10 +11816,10 @@
       </c>
     </row>
     <row r="50" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="578">
+      <c r="A50" s="469">
         <v>44617</v>
       </c>
-      <c r="B50" s="579" t="s">
+      <c r="B50" s="470" t="s">
         <v>526</v>
       </c>
       <c r="C50" s="111">
@@ -11838,8 +11844,8 @@
       </c>
     </row>
     <row r="51" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="578"/>
-      <c r="B51" s="579"/>
+      <c r="A51" s="469"/>
+      <c r="B51" s="470"/>
       <c r="C51" s="111"/>
       <c r="D51" s="253"/>
       <c r="E51" s="69"/>
@@ -11858,8 +11864,8 @@
       </c>
     </row>
     <row r="52" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="578"/>
-      <c r="B52" s="579"/>
+      <c r="A52" s="469"/>
+      <c r="B52" s="470"/>
       <c r="C52" s="111"/>
       <c r="D52" s="253"/>
       <c r="E52" s="69"/>
@@ -11878,8 +11884,8 @@
       </c>
     </row>
     <row r="53" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="578"/>
-      <c r="B53" s="579"/>
+      <c r="A53" s="469"/>
+      <c r="B53" s="470"/>
       <c r="C53" s="111"/>
       <c r="D53" s="253"/>
       <c r="E53" s="69"/>
@@ -11898,8 +11904,8 @@
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="578"/>
-      <c r="B54" s="579"/>
+      <c r="A54" s="469"/>
+      <c r="B54" s="470"/>
       <c r="C54" s="111"/>
       <c r="D54" s="253"/>
       <c r="E54" s="69"/>
@@ -11918,8 +11924,8 @@
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="578"/>
-      <c r="B55" s="579"/>
+      <c r="A55" s="469"/>
+      <c r="B55" s="470"/>
       <c r="C55" s="111"/>
       <c r="D55" s="253"/>
       <c r="E55" s="69"/>
@@ -11938,8 +11944,8 @@
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="578"/>
-      <c r="B56" s="579"/>
+      <c r="A56" s="469"/>
+      <c r="B56" s="470"/>
       <c r="C56" s="111"/>
       <c r="D56" s="253"/>
       <c r="E56" s="69"/>
@@ -11958,8 +11964,8 @@
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="578"/>
-      <c r="B57" s="579"/>
+      <c r="A57" s="469"/>
+      <c r="B57" s="470"/>
       <c r="C57" s="111"/>
       <c r="D57" s="253"/>
       <c r="E57" s="69"/>
@@ -11978,8 +11984,8 @@
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="578"/>
-      <c r="B58" s="579"/>
+      <c r="A58" s="469"/>
+      <c r="B58" s="470"/>
       <c r="C58" s="111"/>
       <c r="D58" s="253"/>
       <c r="E58" s="69"/>
@@ -11998,8 +12004,8 @@
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="578"/>
-      <c r="B59" s="579"/>
+      <c r="A59" s="469"/>
+      <c r="B59" s="470"/>
       <c r="C59" s="111"/>
       <c r="D59" s="253"/>
       <c r="E59" s="69"/>
@@ -12018,8 +12024,8 @@
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="578"/>
-      <c r="B60" s="579"/>
+      <c r="A60" s="469"/>
+      <c r="B60" s="470"/>
       <c r="C60" s="111"/>
       <c r="D60" s="253"/>
       <c r="E60" s="69"/>
@@ -12038,8 +12044,8 @@
       </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="578"/>
-      <c r="B61" s="579"/>
+      <c r="A61" s="469"/>
+      <c r="B61" s="470"/>
       <c r="C61" s="111"/>
       <c r="D61" s="253"/>
       <c r="E61" s="69"/>
@@ -12058,8 +12064,8 @@
       </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="578"/>
-      <c r="B62" s="579"/>
+      <c r="A62" s="469"/>
+      <c r="B62" s="470"/>
       <c r="C62" s="111"/>
       <c r="D62" s="254"/>
       <c r="E62" s="69"/>
@@ -12078,8 +12084,8 @@
       </c>
     </row>
     <row r="63" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="578"/>
-      <c r="B63" s="579"/>
+      <c r="A63" s="469"/>
+      <c r="B63" s="470"/>
       <c r="C63" s="111"/>
       <c r="D63" s="254"/>
       <c r="E63" s="69"/>
@@ -12098,8 +12104,8 @@
       </c>
     </row>
     <row r="64" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="578"/>
-      <c r="B64" s="579"/>
+      <c r="A64" s="469"/>
+      <c r="B64" s="470"/>
       <c r="C64" s="111"/>
       <c r="D64" s="254"/>
       <c r="E64" s="69"/>
@@ -12118,8 +12124,8 @@
       </c>
     </row>
     <row r="65" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="578"/>
-      <c r="B65" s="579"/>
+      <c r="A65" s="469"/>
+      <c r="B65" s="470"/>
       <c r="C65" s="111"/>
       <c r="D65" s="254"/>
       <c r="E65" s="69"/>
@@ -12138,8 +12144,8 @@
       </c>
     </row>
     <row r="66" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="578"/>
-      <c r="B66" s="579"/>
+      <c r="A66" s="469"/>
+      <c r="B66" s="470"/>
       <c r="C66" s="111"/>
       <c r="D66" s="254"/>
       <c r="E66" s="69"/>
@@ -12158,8 +12164,8 @@
       </c>
     </row>
     <row r="67" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="580"/>
-      <c r="B67" s="581"/>
+      <c r="A67" s="471"/>
+      <c r="B67" s="472"/>
       <c r="C67" s="233"/>
       <c r="D67" s="118"/>
       <c r="E67" s="34"/>
@@ -12178,8 +12184,8 @@
       </c>
     </row>
     <row r="68" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="578"/>
-      <c r="B68" s="579"/>
+      <c r="A68" s="469"/>
+      <c r="B68" s="470"/>
       <c r="C68" s="111"/>
       <c r="D68" s="254"/>
       <c r="E68" s="69"/>
@@ -12198,8 +12204,8 @@
       </c>
     </row>
     <row r="69" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="578"/>
-      <c r="B69" s="579"/>
+      <c r="A69" s="469"/>
+      <c r="B69" s="470"/>
       <c r="C69" s="111"/>
       <c r="D69" s="254"/>
       <c r="E69" s="69"/>
@@ -12218,8 +12224,8 @@
       </c>
     </row>
     <row r="70" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="578"/>
-      <c r="B70" s="579"/>
+      <c r="A70" s="469"/>
+      <c r="B70" s="470"/>
       <c r="C70" s="111"/>
       <c r="D70" s="254"/>
       <c r="E70" s="69"/>
@@ -12238,8 +12244,8 @@
       </c>
     </row>
     <row r="71" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="578"/>
-      <c r="B71" s="579"/>
+      <c r="A71" s="469"/>
+      <c r="B71" s="470"/>
       <c r="C71" s="111"/>
       <c r="D71" s="254"/>
       <c r="E71" s="69"/>
@@ -12258,8 +12264,8 @@
       </c>
     </row>
     <row r="72" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="578"/>
-      <c r="B72" s="579"/>
+      <c r="A72" s="469"/>
+      <c r="B72" s="470"/>
       <c r="C72" s="111"/>
       <c r="D72" s="254"/>
       <c r="E72" s="69"/>
@@ -12278,8 +12284,8 @@
       </c>
     </row>
     <row r="73" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="578"/>
-      <c r="B73" s="579"/>
+      <c r="A73" s="469"/>
+      <c r="B73" s="470"/>
       <c r="C73" s="111"/>
       <c r="D73" s="254"/>
       <c r="E73" s="69"/>
@@ -12298,8 +12304,8 @@
       </c>
     </row>
     <row r="74" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="578"/>
-      <c r="B74" s="579"/>
+      <c r="A74" s="469"/>
+      <c r="B74" s="470"/>
       <c r="C74" s="111"/>
       <c r="D74" s="254"/>
       <c r="E74" s="69"/>
@@ -12318,10 +12324,10 @@
       </c>
     </row>
     <row r="75" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="578">
+      <c r="A75" s="469">
         <v>44618</v>
       </c>
-      <c r="B75" s="579" t="s">
+      <c r="B75" s="470" t="s">
         <v>527</v>
       </c>
       <c r="C75" s="111">
@@ -12344,8 +12350,8 @@
       </c>
     </row>
     <row r="76" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="578"/>
-      <c r="B76" s="579"/>
+      <c r="A76" s="469"/>
+      <c r="B76" s="470"/>
       <c r="C76" s="111"/>
       <c r="D76" s="254"/>
       <c r="E76" s="69"/>
@@ -12364,8 +12370,8 @@
       </c>
     </row>
     <row r="77" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="578"/>
-      <c r="B77" s="579"/>
+      <c r="A77" s="469"/>
+      <c r="B77" s="470"/>
       <c r="C77" s="111"/>
       <c r="D77" s="254"/>
       <c r="E77" s="69"/>
@@ -12384,7 +12390,7 @@
       </c>
     </row>
     <row r="78" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="565"/>
+      <c r="A78" s="456"/>
       <c r="B78" s="210"/>
       <c r="C78" s="34">
         <v>0</v>
@@ -12408,7 +12414,7 @@
       </c>
     </row>
     <row r="79" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="572"/>
+      <c r="B79" s="463"/>
       <c r="C79" s="212">
         <f>SUM(C3:C78)</f>
         <v>1702928.1400000001</v>
@@ -12437,11 +12443,11 @@
       </c>
     </row>
     <row r="80" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="573"/>
+      <c r="B80" s="464"/>
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="512" t="s">
+      <c r="F80" s="542" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -12454,36 +12460,36 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="513"/>
+      <c r="F81" s="543"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
       <c r="N81" s="1"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="567"/>
-      <c r="B82" s="574"/>
+      <c r="A82" s="458"/>
+      <c r="B82" s="465"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
       <c r="L82" s="23"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="567"/>
-      <c r="B83" s="574"/>
+      <c r="A83" s="458"/>
+      <c r="B83" s="465"/>
       <c r="I83"/>
       <c r="J83" s="194"/>
       <c r="L83" s="23"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="567"/>
-      <c r="B84" s="574"/>
+      <c r="A84" s="458"/>
+      <c r="B84" s="465"/>
       <c r="I84"/>
       <c r="J84" s="194"/>
       <c r="L84" s="23"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="567"/>
-      <c r="B85" s="574"/>
+      <c r="A85" s="458"/>
+      <c r="B85" s="465"/>
       <c r="F85"/>
       <c r="I85"/>
       <c r="J85" s="194"/>
@@ -12491,8 +12497,8 @@
       <c r="N85"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" s="567"/>
-      <c r="B86" s="574"/>
+      <c r="A86" s="458"/>
+      <c r="B86" s="465"/>
       <c r="F86"/>
       <c r="I86"/>
       <c r="J86" s="194"/>
@@ -12500,8 +12506,8 @@
       <c r="N86"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" s="567"/>
-      <c r="B87" s="574"/>
+      <c r="A87" s="458"/>
+      <c r="B87" s="465"/>
       <c r="F87"/>
       <c r="I87"/>
       <c r="J87" s="194"/>
@@ -12509,8 +12515,8 @@
       <c r="N87"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="567"/>
-      <c r="B88" s="574"/>
+      <c r="A88" s="458"/>
+      <c r="B88" s="465"/>
       <c r="F88"/>
       <c r="I88"/>
       <c r="J88" s="194"/>
@@ -12518,8 +12524,8 @@
       <c r="N88"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="567"/>
-      <c r="B89" s="574"/>
+      <c r="A89" s="458"/>
+      <c r="B89" s="465"/>
       <c r="F89"/>
       <c r="I89"/>
       <c r="J89" s="194"/>
@@ -12527,8 +12533,8 @@
       <c r="N89"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" s="567"/>
-      <c r="B90" s="574"/>
+      <c r="A90" s="458"/>
+      <c r="B90" s="465"/>
       <c r="F90"/>
       <c r="I90"/>
       <c r="J90" s="194"/>
@@ -12536,8 +12542,8 @@
       <c r="N90"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="567"/>
-      <c r="B91" s="574"/>
+      <c r="A91" s="458"/>
+      <c r="B91" s="465"/>
       <c r="F91"/>
       <c r="I91"/>
       <c r="J91" s="194"/>
@@ -12545,8 +12551,8 @@
       <c r="N91"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="567"/>
-      <c r="B92" s="574"/>
+      <c r="A92" s="458"/>
+      <c r="B92" s="465"/>
       <c r="F92"/>
       <c r="I92"/>
       <c r="J92" s="194"/>
@@ -12554,8 +12560,8 @@
       <c r="N92"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="567"/>
-      <c r="B93" s="574"/>
+      <c r="A93" s="458"/>
+      <c r="B93" s="465"/>
       <c r="F93"/>
       <c r="I93"/>
       <c r="J93" s="194"/>
@@ -12563,8 +12569,8 @@
       <c r="N93"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="567"/>
-      <c r="B94" s="574"/>
+      <c r="A94" s="458"/>
+      <c r="B94" s="465"/>
       <c r="E94"/>
       <c r="F94"/>
       <c r="I94"/>
@@ -12574,8 +12580,8 @@
       <c r="N94"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="567"/>
-      <c r="B95" s="574"/>
+      <c r="A95" s="458"/>
+      <c r="B95" s="465"/>
       <c r="E95"/>
       <c r="F95"/>
       <c r="I95"/>
@@ -12585,8 +12591,8 @@
       <c r="N95"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" s="567"/>
-      <c r="B96" s="574"/>
+      <c r="A96" s="458"/>
+      <c r="B96" s="465"/>
       <c r="E96"/>
       <c r="F96"/>
       <c r="I96"/>
@@ -12596,8 +12602,8 @@
       <c r="N96"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97" s="567"/>
-      <c r="B97" s="574"/>
+      <c r="A97" s="458"/>
+      <c r="B97" s="465"/>
       <c r="E97"/>
       <c r="F97"/>
       <c r="I97"/>
@@ -12607,8 +12613,8 @@
       <c r="N97"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98" s="567"/>
-      <c r="B98" s="574"/>
+      <c r="A98" s="458"/>
+      <c r="B98" s="465"/>
       <c r="E98"/>
       <c r="F98"/>
       <c r="I98"/>
@@ -12618,8 +12624,8 @@
       <c r="N98"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99" s="567"/>
-      <c r="B99" s="574"/>
+      <c r="A99" s="458"/>
+      <c r="B99" s="465"/>
       <c r="E99"/>
       <c r="F99"/>
       <c r="I99"/>
@@ -12629,91 +12635,91 @@
       <c r="N99"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B100" s="574"/>
+      <c r="B100" s="465"/>
       <c r="E100"/>
       <c r="J100" s="194"/>
       <c r="L100" s="23"/>
       <c r="M100"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B101" s="574"/>
+      <c r="B101" s="465"/>
       <c r="E101"/>
       <c r="J101" s="194"/>
       <c r="L101" s="23"/>
       <c r="M101"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B102" s="574"/>
+      <c r="B102" s="465"/>
       <c r="E102"/>
       <c r="J102" s="194"/>
       <c r="L102" s="23"/>
       <c r="M102"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B103" s="574"/>
+      <c r="B103" s="465"/>
       <c r="E103"/>
       <c r="J103" s="194"/>
       <c r="L103" s="23"/>
       <c r="M103"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B104" s="574"/>
+      <c r="B104" s="465"/>
       <c r="E104"/>
       <c r="J104" s="194"/>
       <c r="L104" s="23"/>
       <c r="M104"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B105" s="574"/>
+      <c r="B105" s="465"/>
       <c r="E105"/>
       <c r="J105" s="194"/>
       <c r="L105" s="23"/>
       <c r="M105"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B106" s="574"/>
+      <c r="B106" s="465"/>
       <c r="E106"/>
       <c r="J106" s="194"/>
       <c r="L106" s="23"/>
       <c r="M106"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B107" s="574"/>
+      <c r="B107" s="465"/>
       <c r="E107"/>
       <c r="J107" s="194"/>
       <c r="L107" s="23"/>
       <c r="M107"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B108" s="574"/>
+      <c r="B108" s="465"/>
       <c r="E108"/>
       <c r="J108" s="194"/>
       <c r="L108" s="23"/>
       <c r="M108"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B109" s="574"/>
+      <c r="B109" s="465"/>
       <c r="J109" s="194"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B110" s="574"/>
+      <c r="B110" s="465"/>
       <c r="J110" s="194"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B111" s="574"/>
+      <c r="B111" s="465"/>
       <c r="J111" s="194"/>
       <c r="L111" s="23"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B112" s="574"/>
+      <c r="B112" s="465"/>
       <c r="J112" s="194"/>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B113" s="574"/>
+      <c r="B113" s="465"/>
       <c r="J113" s="194"/>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B114" s="574"/>
+      <c r="B114" s="465"/>
       <c r="J114" s="194"/>
     </row>
     <row r="115" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -12736,8 +12742,8 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView topLeftCell="F10" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" topLeftCell="K10" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12766,23 +12772,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="474"/>
-      <c r="C1" s="516" t="s">
+      <c r="B1" s="480"/>
+      <c r="C1" s="546" t="s">
         <v>458</v>
       </c>
-      <c r="D1" s="517"/>
-      <c r="E1" s="517"/>
-      <c r="F1" s="517"/>
-      <c r="G1" s="517"/>
-      <c r="H1" s="517"/>
-      <c r="I1" s="517"/>
-      <c r="J1" s="517"/>
-      <c r="K1" s="517"/>
-      <c r="L1" s="517"/>
-      <c r="M1" s="517"/>
+      <c r="D1" s="547"/>
+      <c r="E1" s="547"/>
+      <c r="F1" s="547"/>
+      <c r="G1" s="547"/>
+      <c r="H1" s="547"/>
+      <c r="I1" s="547"/>
+      <c r="J1" s="547"/>
+      <c r="K1" s="547"/>
+      <c r="L1" s="547"/>
+      <c r="M1" s="547"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="475"/>
+      <c r="B2" s="481"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -12792,24 +12798,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="478" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="479"/>
+      <c r="B3" s="484" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="485"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="480" t="s">
+      <c r="H3" s="486" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="480"/>
+      <c r="I3" s="486"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="504" t="s">
+      <c r="P3" s="523" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="514" t="s">
+      <c r="R3" s="544" t="s">
         <v>216</v>
       </c>
     </row>
@@ -12824,14 +12830,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="481" t="s">
+      <c r="E4" s="487" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="482"/>
-      <c r="H4" s="483" t="s">
+      <c r="F4" s="488"/>
+      <c r="H4" s="489" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="484"/>
+      <c r="I4" s="490"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -12841,15 +12847,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="505"/>
+      <c r="P4" s="524"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="515"/>
-      <c r="W4" s="487" t="s">
+      <c r="R4" s="545"/>
+      <c r="W4" s="533" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="487"/>
+      <c r="X4" s="533"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -12900,8 +12906,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="325"/>
-      <c r="W5" s="487"/>
-      <c r="X5" s="487"/>
+      <c r="W5" s="533"/>
+      <c r="X5" s="533"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -13623,29 +13629,38 @@
       <c r="B19" s="24">
         <v>44634</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="35"/>
+      <c r="C19" s="25">
+        <v>29641</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>542</v>
+      </c>
       <c r="E19" s="27">
         <v>44634</v>
       </c>
-      <c r="F19" s="28"/>
+      <c r="F19" s="28">
+        <v>101000</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="36">
         <v>44634</v>
       </c>
-      <c r="I19" s="30"/>
+      <c r="I19" s="30">
+        <v>3079</v>
+      </c>
       <c r="J19" s="37"/>
       <c r="K19" s="46"/>
       <c r="L19" s="47"/>
       <c r="M19" s="32">
-        <v>0</v>
+        <f>30013+8142</f>
+        <v>38155</v>
       </c>
       <c r="N19" s="33">
-        <v>0</v>
+        <v>30125</v>
       </c>
       <c r="P19" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>101000</v>
       </c>
       <c r="Q19" s="326">
         <f t="shared" si="1"/>
@@ -13655,7 +13670,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="491">
+      <c r="W19" s="537">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -13667,29 +13682,37 @@
       <c r="B20" s="24">
         <v>44635</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="35"/>
+      <c r="C20" s="25">
+        <v>14601</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>543</v>
+      </c>
       <c r="E20" s="27">
         <v>44635</v>
       </c>
-      <c r="F20" s="28"/>
+      <c r="F20" s="28">
+        <v>86083</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="36">
         <v>44635</v>
       </c>
-      <c r="I20" s="30"/>
+      <c r="I20" s="30">
+        <v>2368</v>
+      </c>
       <c r="J20" s="37"/>
       <c r="K20" s="171"/>
       <c r="L20" s="45"/>
       <c r="M20" s="32">
-        <v>0</v>
+        <v>33949</v>
       </c>
       <c r="N20" s="33">
-        <v>0</v>
+        <v>35165</v>
       </c>
       <c r="P20" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>86083</v>
       </c>
       <c r="Q20" s="326">
         <f t="shared" si="1"/>
@@ -13699,7 +13722,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="492"/>
+      <c r="W20" s="538"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -13740,8 +13763,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="493"/>
-      <c r="X21" s="493"/>
+      <c r="W21" s="539"/>
+      <c r="X21" s="539"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -13824,8 +13847,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="494"/>
-      <c r="X23" s="494"/>
+      <c r="W23" s="540"/>
+      <c r="X23" s="540"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -13866,8 +13889,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="494"/>
-      <c r="X24" s="494"/>
+      <c r="W24" s="540"/>
+      <c r="X24" s="540"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -13907,8 +13930,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="495"/>
-      <c r="X25" s="495"/>
+      <c r="W25" s="541"/>
+      <c r="X25" s="541"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -13949,8 +13972,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="495"/>
-      <c r="X26" s="495"/>
+      <c r="W26" s="541"/>
+      <c r="X26" s="541"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -13991,9 +14014,9 @@
       <c r="R27" s="320">
         <v>0</v>
       </c>
-      <c r="W27" s="488"/>
-      <c r="X27" s="489"/>
-      <c r="Y27" s="490"/>
+      <c r="W27" s="534"/>
+      <c r="X27" s="535"/>
+      <c r="Y27" s="536"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -14033,9 +14056,9 @@
       <c r="R28" s="320">
         <v>0</v>
       </c>
-      <c r="W28" s="489"/>
-      <c r="X28" s="489"/>
-      <c r="Y28" s="490"/>
+      <c r="W28" s="535"/>
+      <c r="X28" s="535"/>
+      <c r="Y28" s="536"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -14336,19 +14359,19 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="506">
+      <c r="M36" s="525">
         <f>SUM(M5:M35)</f>
-        <v>664533.66</v>
-      </c>
-      <c r="N36" s="508">
+        <v>736637.66</v>
+      </c>
+      <c r="N36" s="527">
         <f>SUM(N5:N35)</f>
-        <v>377695</v>
+        <v>442985</v>
       </c>
       <c r="O36" s="276"/>
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="533">
+      <c r="Q36" s="563">
         <f>SUM(Q5:Q35)</f>
         <v>1.5900000000256114</v>
       </c>
@@ -14373,13 +14396,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="507"/>
-      <c r="N37" s="509"/>
+      <c r="M37" s="526"/>
+      <c r="N37" s="528"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="534"/>
+      <c r="Q37" s="564"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -14429,14 +14452,14 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="535">
+      <c r="M39" s="565">
         <f>M36+N36</f>
-        <v>1042228.66</v>
-      </c>
-      <c r="N39" s="536"/>
+        <v>1179622.6600000001</v>
+      </c>
+      <c r="N39" s="566"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
-        <v>1327728.5900000001</v>
+        <v>1514811.59</v>
       </c>
       <c r="Q39" s="275"/>
     </row>
@@ -14639,7 +14662,7 @@
       </c>
       <c r="C50" s="87">
         <f>SUM(C5:C49)</f>
-        <v>202671</v>
+        <v>246913</v>
       </c>
       <c r="D50" s="88"/>
       <c r="E50" s="89" t="s">
@@ -14647,7 +14670,7 @@
       </c>
       <c r="F50" s="90">
         <f>SUM(F5:F49)</f>
-        <v>1285558</v>
+        <v>1472641</v>
       </c>
       <c r="G50" s="88"/>
       <c r="H50" s="91" t="s">
@@ -14655,7 +14678,7 @@
       </c>
       <c r="I50" s="92">
         <f>SUM(I5:I49)</f>
-        <v>52665.5</v>
+        <v>58112.5</v>
       </c>
       <c r="J50" s="93"/>
       <c r="K50" s="94" t="s">
@@ -14681,50 +14704,50 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="461" t="s">
+      <c r="H52" s="502" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="462"/>
+      <c r="I52" s="503"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="463">
+      <c r="K52" s="504">
         <f>I50+L50</f>
-        <v>113772.69</v>
-      </c>
-      <c r="L52" s="496"/>
+        <v>119219.69</v>
+      </c>
+      <c r="L52" s="531"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="467" t="s">
+      <c r="D53" s="508" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="467"/>
+      <c r="E53" s="508"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
-        <v>969114.31</v>
+        <v>1106508.31</v>
       </c>
       <c r="I53" s="102"/>
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="497" t="s">
+      <c r="D54" s="532" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="497"/>
+      <c r="E54" s="532"/>
       <c r="F54" s="111">
         <v>0</v>
       </c>
-      <c r="I54" s="468" t="s">
+      <c r="I54" s="509" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="469"/>
-      <c r="K54" s="470">
+      <c r="J54" s="510"/>
+      <c r="K54" s="511">
         <f>F56+F57+F58</f>
-        <v>969114.31</v>
-      </c>
-      <c r="L54" s="470"/>
+        <v>1106508.31</v>
+      </c>
+      <c r="L54" s="511"/>
       <c r="M54" s="423"/>
       <c r="N54" s="423"/>
       <c r="O54" s="423"/>
@@ -14758,18 +14781,18 @@
       </c>
       <c r="F56" s="96">
         <f>SUM(F53:F55)</f>
-        <v>969114.31</v>
+        <v>1106508.31</v>
       </c>
       <c r="H56" s="23"/>
       <c r="I56" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="472">
+      <c r="K56" s="513">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L56" s="473"/>
+      <c r="L56" s="514"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -14786,22 +14809,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="450" t="s">
+      <c r="D58" s="491" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="451"/>
+      <c r="E58" s="492"/>
       <c r="F58" s="113">
         <v>0</v>
       </c>
-      <c r="I58" s="452" t="s">
+      <c r="I58" s="493" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="453"/>
-      <c r="K58" s="454">
+      <c r="J58" s="494"/>
+      <c r="K58" s="495">
         <f>K54+K56</f>
-        <v>-297454.1399999999</v>
-      </c>
-      <c r="L58" s="454"/>
+        <v>-160060.1399999999</v>
+      </c>
+      <c r="L58" s="495"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -14945,21 +14968,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M39:N39"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -14975,6 +14983,21 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.15748031496062992" top="0.39370078740157483" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14990,13 +15013,13 @@
   </sheetPr>
   <dimension ref="A1:N115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="587" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="478" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" style="162" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" style="257" bestFit="1" customWidth="1"/>
@@ -15012,10 +15035,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="43.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="582" t="s">
+      <c r="A1" s="473" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="568"/>
+      <c r="B1" s="459"/>
       <c r="C1" s="292"/>
       <c r="D1" s="373"/>
       <c r="E1" s="292"/>
@@ -15034,7 +15057,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="583" t="s">
+      <c r="A2" s="474" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="298" t="s">
@@ -15072,10 +15095,10 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="584">
+      <c r="A3" s="475">
         <v>44620</v>
       </c>
-      <c r="B3" s="569" t="s">
+      <c r="B3" s="460" t="s">
         <v>528</v>
       </c>
       <c r="C3" s="411">
@@ -15098,10 +15121,10 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="584">
+      <c r="A4" s="475">
         <v>44621</v>
       </c>
-      <c r="B4" s="569" t="s">
+      <c r="B4" s="460" t="s">
         <v>529</v>
       </c>
       <c r="C4" s="411">
@@ -15125,10 +15148,10 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="584">
+      <c r="A5" s="475">
         <v>44622</v>
       </c>
-      <c r="B5" s="569" t="s">
+      <c r="B5" s="460" t="s">
         <v>530</v>
       </c>
       <c r="C5" s="411">
@@ -15151,10 +15174,10 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="584">
+      <c r="A6" s="475">
         <v>44623</v>
       </c>
-      <c r="B6" s="569" t="s">
+      <c r="B6" s="460" t="s">
         <v>531</v>
       </c>
       <c r="C6" s="411">
@@ -15177,10 +15200,10 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="584">
+      <c r="A7" s="475">
         <v>44623</v>
       </c>
-      <c r="B7" s="569" t="s">
+      <c r="B7" s="460" t="s">
         <v>532</v>
       </c>
       <c r="C7" s="411">
@@ -15203,10 +15226,10 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="584">
+      <c r="A8" s="475">
         <v>44624</v>
       </c>
-      <c r="B8" s="569" t="s">
+      <c r="B8" s="460" t="s">
         <v>533</v>
       </c>
       <c r="C8" s="411">
@@ -15229,10 +15252,10 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="584">
+      <c r="A9" s="475">
         <v>44625</v>
       </c>
-      <c r="B9" s="569" t="s">
+      <c r="B9" s="460" t="s">
         <v>534</v>
       </c>
       <c r="C9" s="411">
@@ -15255,10 +15278,10 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="584">
+      <c r="A10" s="475">
         <v>44625</v>
       </c>
-      <c r="B10" s="569" t="s">
+      <c r="B10" s="460" t="s">
         <v>535</v>
       </c>
       <c r="C10" s="411">
@@ -15282,10 +15305,10 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="584">
+      <c r="A11" s="475">
         <v>44627</v>
       </c>
-      <c r="B11" s="569" t="s">
+      <c r="B11" s="460" t="s">
         <v>536</v>
       </c>
       <c r="C11" s="411">
@@ -15308,10 +15331,10 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="584">
+      <c r="A12" s="475">
         <v>44627</v>
       </c>
-      <c r="B12" s="569" t="s">
+      <c r="B12" s="460" t="s">
         <v>537</v>
       </c>
       <c r="C12" s="411">
@@ -15334,10 +15357,10 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="584">
+      <c r="A13" s="475">
         <v>44628</v>
       </c>
-      <c r="B13" s="569" t="s">
+      <c r="B13" s="460" t="s">
         <v>538</v>
       </c>
       <c r="C13" s="411">
@@ -15360,10 +15383,10 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="584">
+      <c r="A14" s="475">
         <v>44628</v>
       </c>
-      <c r="B14" s="569" t="s">
+      <c r="B14" s="460" t="s">
         <v>539</v>
       </c>
       <c r="C14" s="411">
@@ -15386,10 +15409,10 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="584">
+      <c r="A15" s="475">
         <v>44629</v>
       </c>
-      <c r="B15" s="569" t="s">
+      <c r="B15" s="460" t="s">
         <v>540</v>
       </c>
       <c r="C15" s="411">
@@ -15412,10 +15435,10 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="584">
+      <c r="A16" s="475">
         <v>44630</v>
       </c>
-      <c r="B16" s="569" t="s">
+      <c r="B16" s="460" t="s">
         <v>541</v>
       </c>
       <c r="C16" s="411">
@@ -15438,8 +15461,8 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="584"/>
-      <c r="B17" s="569"/>
+      <c r="A17" s="475"/>
+      <c r="B17" s="460"/>
       <c r="C17" s="411"/>
       <c r="D17" s="425"/>
       <c r="E17" s="411"/>
@@ -15458,8 +15481,8 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="584"/>
-      <c r="B18" s="569"/>
+      <c r="A18" s="475"/>
+      <c r="B18" s="460"/>
       <c r="C18" s="411"/>
       <c r="D18" s="424"/>
       <c r="E18" s="411"/>
@@ -15478,8 +15501,8 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="584"/>
-      <c r="B19" s="569"/>
+      <c r="A19" s="475"/>
+      <c r="B19" s="460"/>
       <c r="C19" s="411"/>
       <c r="D19" s="424"/>
       <c r="E19" s="411"/>
@@ -15498,8 +15521,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="584"/>
-      <c r="B20" s="569"/>
+      <c r="A20" s="475"/>
+      <c r="B20" s="460"/>
       <c r="C20" s="411"/>
       <c r="D20" s="424"/>
       <c r="E20" s="411"/>
@@ -15518,8 +15541,8 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="584"/>
-      <c r="B21" s="569"/>
+      <c r="A21" s="475"/>
+      <c r="B21" s="460"/>
       <c r="C21" s="411"/>
       <c r="D21" s="424"/>
       <c r="E21" s="411"/>
@@ -15538,8 +15561,8 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="584"/>
-      <c r="B22" s="569"/>
+      <c r="A22" s="475"/>
+      <c r="B22" s="460"/>
       <c r="C22" s="411"/>
       <c r="D22" s="424"/>
       <c r="E22" s="411"/>
@@ -15559,8 +15582,8 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="584"/>
-      <c r="B23" s="569"/>
+      <c r="A23" s="475"/>
+      <c r="B23" s="460"/>
       <c r="C23" s="411"/>
       <c r="D23" s="424"/>
       <c r="E23" s="411"/>
@@ -15579,8 +15602,8 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="584"/>
-      <c r="B24" s="569"/>
+      <c r="A24" s="475"/>
+      <c r="B24" s="460"/>
       <c r="C24" s="411"/>
       <c r="D24" s="424"/>
       <c r="E24" s="411"/>
@@ -15599,8 +15622,8 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="584"/>
-      <c r="B25" s="569"/>
+      <c r="A25" s="475"/>
+      <c r="B25" s="460"/>
       <c r="C25" s="411"/>
       <c r="D25" s="424"/>
       <c r="E25" s="411"/>
@@ -15619,8 +15642,8 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="584"/>
-      <c r="B26" s="569"/>
+      <c r="A26" s="475"/>
+      <c r="B26" s="460"/>
       <c r="C26" s="411"/>
       <c r="D26" s="424"/>
       <c r="E26" s="411"/>
@@ -15639,8 +15662,8 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="584"/>
-      <c r="B27" s="569"/>
+      <c r="A27" s="475"/>
+      <c r="B27" s="460"/>
       <c r="C27" s="411"/>
       <c r="D27" s="425"/>
       <c r="E27" s="411"/>
@@ -15659,8 +15682,8 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="584"/>
-      <c r="B28" s="569"/>
+      <c r="A28" s="475"/>
+      <c r="B28" s="460"/>
       <c r="C28" s="411"/>
       <c r="D28" s="424"/>
       <c r="E28" s="411"/>
@@ -15679,8 +15702,8 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="584"/>
-      <c r="B29" s="569"/>
+      <c r="A29" s="475"/>
+      <c r="B29" s="460"/>
       <c r="C29" s="411"/>
       <c r="D29" s="424"/>
       <c r="E29" s="411"/>
@@ -15699,8 +15722,8 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="584"/>
-      <c r="B30" s="569"/>
+      <c r="A30" s="475"/>
+      <c r="B30" s="460"/>
       <c r="C30" s="411"/>
       <c r="D30" s="424"/>
       <c r="E30" s="411"/>
@@ -15720,8 +15743,8 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="584"/>
-      <c r="B31" s="569"/>
+      <c r="A31" s="475"/>
+      <c r="B31" s="460"/>
       <c r="C31" s="411"/>
       <c r="D31" s="424"/>
       <c r="E31" s="411"/>
@@ -15740,8 +15763,8 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="584"/>
-      <c r="B32" s="569"/>
+      <c r="A32" s="475"/>
+      <c r="B32" s="460"/>
       <c r="C32" s="411"/>
       <c r="D32" s="424"/>
       <c r="E32" s="411"/>
@@ -15760,8 +15783,8 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="584"/>
-      <c r="B33" s="569"/>
+      <c r="A33" s="475"/>
+      <c r="B33" s="460"/>
       <c r="C33" s="411"/>
       <c r="D33" s="424"/>
       <c r="E33" s="411"/>
@@ -15780,8 +15803,8 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="584"/>
-      <c r="B34" s="569"/>
+      <c r="A34" s="475"/>
+      <c r="B34" s="460"/>
       <c r="C34" s="411"/>
       <c r="D34" s="424"/>
       <c r="E34" s="411"/>
@@ -15800,8 +15823,8 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="584"/>
-      <c r="B35" s="569"/>
+      <c r="A35" s="475"/>
+      <c r="B35" s="460"/>
       <c r="C35" s="411"/>
       <c r="D35" s="424"/>
       <c r="E35" s="411"/>
@@ -15820,8 +15843,8 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="584"/>
-      <c r="B36" s="569"/>
+      <c r="A36" s="475"/>
+      <c r="B36" s="460"/>
       <c r="C36" s="411"/>
       <c r="D36" s="424"/>
       <c r="E36" s="411"/>
@@ -15840,8 +15863,8 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="584"/>
-      <c r="B37" s="569"/>
+      <c r="A37" s="475"/>
+      <c r="B37" s="460"/>
       <c r="C37" s="411"/>
       <c r="D37" s="424"/>
       <c r="E37" s="411"/>
@@ -15860,8 +15883,8 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="584"/>
-      <c r="B38" s="570"/>
+      <c r="A38" s="475"/>
+      <c r="B38" s="461"/>
       <c r="C38" s="430"/>
       <c r="D38" s="431"/>
       <c r="E38" s="430"/>
@@ -15880,7 +15903,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="584"/>
+      <c r="A39" s="475"/>
       <c r="B39" s="246"/>
       <c r="C39" s="111"/>
       <c r="D39" s="432"/>
@@ -15900,7 +15923,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="584"/>
+      <c r="A40" s="475"/>
       <c r="B40" s="246"/>
       <c r="C40" s="111"/>
       <c r="D40" s="432"/>
@@ -15920,7 +15943,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="584"/>
+      <c r="A41" s="475"/>
       <c r="B41" s="246"/>
       <c r="C41" s="111"/>
       <c r="D41" s="432"/>
@@ -15940,7 +15963,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="585"/>
+      <c r="A42" s="476"/>
       <c r="B42" s="246"/>
       <c r="C42" s="111"/>
       <c r="D42" s="253"/>
@@ -15960,8 +15983,8 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="585"/>
-      <c r="B43" s="571"/>
+      <c r="A43" s="476"/>
+      <c r="B43" s="462"/>
       <c r="C43" s="433"/>
       <c r="D43" s="433"/>
       <c r="E43" s="433"/>
@@ -15980,8 +16003,8 @@
       </c>
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="585"/>
-      <c r="B44" s="571"/>
+      <c r="A44" s="476"/>
+      <c r="B44" s="462"/>
       <c r="C44" s="433"/>
       <c r="D44" s="433"/>
       <c r="E44" s="433"/>
@@ -16000,8 +16023,8 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="585"/>
-      <c r="B45" s="571"/>
+      <c r="A45" s="476"/>
+      <c r="B45" s="462"/>
       <c r="C45" s="433"/>
       <c r="D45" s="433"/>
       <c r="E45" s="433"/>
@@ -16020,7 +16043,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="585"/>
+      <c r="A46" s="476"/>
       <c r="B46" s="246"/>
       <c r="C46" s="111"/>
       <c r="D46" s="253"/>
@@ -16040,7 +16063,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="586"/>
+      <c r="A47" s="477"/>
       <c r="B47" s="246"/>
       <c r="C47" s="111"/>
       <c r="D47" s="253"/>
@@ -16060,7 +16083,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="586"/>
+      <c r="A48" s="477"/>
       <c r="B48" s="246"/>
       <c r="C48" s="111"/>
       <c r="D48" s="253"/>
@@ -16686,7 +16709,7 @@
       </c>
     </row>
     <row r="79" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="572"/>
+      <c r="B79" s="463"/>
       <c r="C79" s="212">
         <f>SUM(C3:C78)</f>
         <v>513976.29</v>
@@ -16715,11 +16738,11 @@
       </c>
     </row>
     <row r="80" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="573"/>
+      <c r="B80" s="464"/>
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="512" t="s">
+      <c r="F80" s="542" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -16732,36 +16755,36 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="513"/>
+      <c r="F81" s="543"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
       <c r="N81" s="1"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="588"/>
-      <c r="B82" s="574"/>
+      <c r="A82" s="479"/>
+      <c r="B82" s="465"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
       <c r="L82" s="23"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="588"/>
-      <c r="B83" s="574"/>
+      <c r="A83" s="479"/>
+      <c r="B83" s="465"/>
       <c r="I83"/>
       <c r="J83" s="194"/>
       <c r="L83" s="23"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="588"/>
-      <c r="B84" s="574"/>
+      <c r="A84" s="479"/>
+      <c r="B84" s="465"/>
       <c r="I84"/>
       <c r="J84" s="194"/>
       <c r="L84" s="23"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="588"/>
-      <c r="B85" s="574"/>
+      <c r="A85" s="479"/>
+      <c r="B85" s="465"/>
       <c r="F85"/>
       <c r="I85"/>
       <c r="J85" s="194"/>
@@ -16769,8 +16792,8 @@
       <c r="N85"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" s="588"/>
-      <c r="B86" s="574"/>
+      <c r="A86" s="479"/>
+      <c r="B86" s="465"/>
       <c r="F86"/>
       <c r="I86"/>
       <c r="J86" s="194"/>
@@ -16778,8 +16801,8 @@
       <c r="N86"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" s="588"/>
-      <c r="B87" s="574"/>
+      <c r="A87" s="479"/>
+      <c r="B87" s="465"/>
       <c r="F87"/>
       <c r="I87"/>
       <c r="J87" s="194"/>
@@ -16787,8 +16810,8 @@
       <c r="N87"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="588"/>
-      <c r="B88" s="574"/>
+      <c r="A88" s="479"/>
+      <c r="B88" s="465"/>
       <c r="F88"/>
       <c r="I88"/>
       <c r="J88" s="194"/>
@@ -16796,8 +16819,8 @@
       <c r="N88"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="588"/>
-      <c r="B89" s="574"/>
+      <c r="A89" s="479"/>
+      <c r="B89" s="465"/>
       <c r="F89"/>
       <c r="I89"/>
       <c r="J89" s="194"/>
@@ -16805,8 +16828,8 @@
       <c r="N89"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" s="588"/>
-      <c r="B90" s="574"/>
+      <c r="A90" s="479"/>
+      <c r="B90" s="465"/>
       <c r="F90"/>
       <c r="I90"/>
       <c r="J90" s="194"/>
@@ -16814,8 +16837,8 @@
       <c r="N90"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="588"/>
-      <c r="B91" s="574"/>
+      <c r="A91" s="479"/>
+      <c r="B91" s="465"/>
       <c r="F91"/>
       <c r="I91"/>
       <c r="J91" s="194"/>
@@ -16823,8 +16846,8 @@
       <c r="N91"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="588"/>
-      <c r="B92" s="574"/>
+      <c r="A92" s="479"/>
+      <c r="B92" s="465"/>
       <c r="F92"/>
       <c r="I92"/>
       <c r="J92" s="194"/>
@@ -16832,8 +16855,8 @@
       <c r="N92"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="588"/>
-      <c r="B93" s="574"/>
+      <c r="A93" s="479"/>
+      <c r="B93" s="465"/>
       <c r="F93"/>
       <c r="I93"/>
       <c r="J93" s="194"/>
@@ -16841,8 +16864,8 @@
       <c r="N93"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="588"/>
-      <c r="B94" s="574"/>
+      <c r="A94" s="479"/>
+      <c r="B94" s="465"/>
       <c r="E94"/>
       <c r="F94"/>
       <c r="I94"/>
@@ -16852,8 +16875,8 @@
       <c r="N94"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="588"/>
-      <c r="B95" s="574"/>
+      <c r="A95" s="479"/>
+      <c r="B95" s="465"/>
       <c r="E95"/>
       <c r="F95"/>
       <c r="I95"/>
@@ -16863,8 +16886,8 @@
       <c r="N95"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" s="588"/>
-      <c r="B96" s="574"/>
+      <c r="A96" s="479"/>
+      <c r="B96" s="465"/>
       <c r="E96"/>
       <c r="F96"/>
       <c r="I96"/>
@@ -16874,8 +16897,8 @@
       <c r="N96"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97" s="588"/>
-      <c r="B97" s="574"/>
+      <c r="A97" s="479"/>
+      <c r="B97" s="465"/>
       <c r="E97"/>
       <c r="F97"/>
       <c r="I97"/>
@@ -16885,8 +16908,8 @@
       <c r="N97"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98" s="588"/>
-      <c r="B98" s="574"/>
+      <c r="A98" s="479"/>
+      <c r="B98" s="465"/>
       <c r="E98"/>
       <c r="F98"/>
       <c r="I98"/>
@@ -16896,8 +16919,8 @@
       <c r="N98"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99" s="588"/>
-      <c r="B99" s="574"/>
+      <c r="A99" s="479"/>
+      <c r="B99" s="465"/>
       <c r="E99"/>
       <c r="F99"/>
       <c r="I99"/>
@@ -16907,91 +16930,91 @@
       <c r="N99"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B100" s="574"/>
+      <c r="B100" s="465"/>
       <c r="E100"/>
       <c r="J100" s="194"/>
       <c r="L100" s="23"/>
       <c r="M100"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B101" s="574"/>
+      <c r="B101" s="465"/>
       <c r="E101"/>
       <c r="J101" s="194"/>
       <c r="L101" s="23"/>
       <c r="M101"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B102" s="574"/>
+      <c r="B102" s="465"/>
       <c r="E102"/>
       <c r="J102" s="194"/>
       <c r="L102" s="23"/>
       <c r="M102"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B103" s="574"/>
+      <c r="B103" s="465"/>
       <c r="E103"/>
       <c r="J103" s="194"/>
       <c r="L103" s="23"/>
       <c r="M103"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B104" s="574"/>
+      <c r="B104" s="465"/>
       <c r="E104"/>
       <c r="J104" s="194"/>
       <c r="L104" s="23"/>
       <c r="M104"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B105" s="574"/>
+      <c r="B105" s="465"/>
       <c r="E105"/>
       <c r="J105" s="194"/>
       <c r="L105" s="23"/>
       <c r="M105"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B106" s="574"/>
+      <c r="B106" s="465"/>
       <c r="E106"/>
       <c r="J106" s="194"/>
       <c r="L106" s="23"/>
       <c r="M106"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B107" s="574"/>
+      <c r="B107" s="465"/>
       <c r="E107"/>
       <c r="J107" s="194"/>
       <c r="L107" s="23"/>
       <c r="M107"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B108" s="574"/>
+      <c r="B108" s="465"/>
       <c r="E108"/>
       <c r="J108" s="194"/>
       <c r="L108" s="23"/>
       <c r="M108"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B109" s="574"/>
+      <c r="B109" s="465"/>
       <c r="J109" s="194"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B110" s="574"/>
+      <c r="B110" s="465"/>
       <c r="J110" s="194"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B111" s="574"/>
+      <c r="B111" s="465"/>
       <c r="J111" s="194"/>
       <c r="L111" s="23"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B112" s="574"/>
+      <c r="B112" s="465"/>
       <c r="J112" s="194"/>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B113" s="574"/>
+      <c r="B113" s="465"/>
       <c r="J113" s="194"/>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B114" s="574"/>
+      <c r="B114" s="465"/>
       <c r="J114" s="194"/>
     </row>
     <row r="115" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -17041,11 +17064,11 @@
   <sheetData>
     <row r="1" spans="2:6" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="155"/>
-      <c r="C1" s="543" t="s">
+      <c r="C1" s="573" t="s">
         <v>320</v>
       </c>
-      <c r="D1" s="543"/>
-      <c r="E1" s="544"/>
+      <c r="D1" s="573"/>
+      <c r="E1" s="574"/>
       <c r="F1" s="387"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -17063,12 +17086,12 @@
       <c r="F3" s="394"/>
     </row>
     <row r="4" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="545" t="s">
+      <c r="B4" s="575" t="s">
         <v>316</v>
       </c>
-      <c r="C4" s="546"/>
-      <c r="D4" s="546"/>
-      <c r="E4" s="546"/>
+      <c r="C4" s="576"/>
+      <c r="D4" s="576"/>
+      <c r="E4" s="576"/>
       <c r="F4" s="395">
         <v>499853.16</v>
       </c>
@@ -17083,12 +17106,12 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="547" t="s">
+      <c r="B6" s="577" t="s">
         <v>317</v>
       </c>
-      <c r="C6" s="548"/>
-      <c r="D6" s="548"/>
-      <c r="E6" s="548"/>
+      <c r="C6" s="578"/>
+      <c r="D6" s="578"/>
+      <c r="E6" s="578"/>
       <c r="F6" s="395">
         <v>781251.72</v>
       </c>
@@ -17106,10 +17129,10 @@
       <c r="B8" s="388"/>
       <c r="C8" s="381"/>
       <c r="D8" s="382"/>
-      <c r="E8" s="549" t="s">
+      <c r="E8" s="579" t="s">
         <v>315</v>
       </c>
-      <c r="F8" s="551">
+      <c r="F8" s="581">
         <f>SUM(F4:F7)</f>
         <v>1281104.8799999999</v>
       </c>
@@ -17118,8 +17141,8 @@
       <c r="B9" s="388"/>
       <c r="C9" s="381"/>
       <c r="D9" s="382"/>
-      <c r="E9" s="550"/>
-      <c r="F9" s="552"/>
+      <c r="E9" s="580"/>
+      <c r="F9" s="582"/>
     </row>
     <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="388"/>
@@ -17143,12 +17166,12 @@
       <c r="F12" s="394"/>
     </row>
     <row r="13" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="553" t="s">
+      <c r="B13" s="583" t="s">
         <v>318</v>
       </c>
-      <c r="C13" s="554"/>
-      <c r="D13" s="554"/>
-      <c r="E13" s="554"/>
+      <c r="C13" s="584"/>
+      <c r="D13" s="584"/>
+      <c r="E13" s="584"/>
       <c r="F13" s="395">
         <v>255460.4</v>
       </c>
@@ -17163,12 +17186,12 @@
       </c>
     </row>
     <row r="15" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="553" t="s">
+      <c r="B15" s="583" t="s">
         <v>319</v>
       </c>
-      <c r="C15" s="554"/>
-      <c r="D15" s="554"/>
-      <c r="E15" s="554"/>
+      <c r="C15" s="584"/>
+      <c r="D15" s="584"/>
+      <c r="E15" s="584"/>
       <c r="F15" s="395">
         <v>6037.34</v>
       </c>
@@ -17186,10 +17209,10 @@
       <c r="B17" s="388"/>
       <c r="C17" s="381"/>
       <c r="D17" s="382"/>
-      <c r="E17" s="555" t="s">
+      <c r="E17" s="585" t="s">
         <v>315</v>
       </c>
-      <c r="F17" s="557">
+      <c r="F17" s="587">
         <f>SUM(F13:F16)</f>
         <v>261497.74</v>
       </c>
@@ -17198,8 +17221,8 @@
       <c r="B18" s="388"/>
       <c r="C18" s="381"/>
       <c r="D18" s="382"/>
-      <c r="E18" s="556"/>
-      <c r="F18" s="558"/>
+      <c r="E18" s="586"/>
+      <c r="F18" s="588"/>
     </row>
     <row r="19" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="388"/>
@@ -17223,22 +17246,22 @@
       <c r="F21" s="394"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="537" t="s">
+      <c r="B22" s="567" t="s">
         <v>321</v>
       </c>
-      <c r="C22" s="538"/>
-      <c r="D22" s="538"/>
-      <c r="E22" s="538"/>
-      <c r="F22" s="541">
+      <c r="C22" s="568"/>
+      <c r="D22" s="568"/>
+      <c r="E22" s="568"/>
+      <c r="F22" s="571">
         <v>12020</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="539"/>
-      <c r="C23" s="540"/>
-      <c r="D23" s="540"/>
-      <c r="E23" s="540"/>
-      <c r="F23" s="542"/>
+      <c r="B23" s="569"/>
+      <c r="C23" s="570"/>
+      <c r="D23" s="570"/>
+      <c r="E23" s="570"/>
+      <c r="F23" s="572"/>
     </row>
     <row r="24" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="355"/>
@@ -18598,7 +18621,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="485" t="s">
+      <c r="B41" s="515" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -18630,7 +18653,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="486"/>
+      <c r="B42" s="516"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -20226,23 +20249,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="474"/>
-      <c r="C1" s="476" t="s">
+      <c r="B1" s="480"/>
+      <c r="C1" s="482" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="477"/>
-      <c r="E1" s="477"/>
-      <c r="F1" s="477"/>
-      <c r="G1" s="477"/>
-      <c r="H1" s="477"/>
-      <c r="I1" s="477"/>
-      <c r="J1" s="477"/>
-      <c r="K1" s="477"/>
-      <c r="L1" s="477"/>
-      <c r="M1" s="477"/>
+      <c r="D1" s="483"/>
+      <c r="E1" s="483"/>
+      <c r="F1" s="483"/>
+      <c r="G1" s="483"/>
+      <c r="H1" s="483"/>
+      <c r="I1" s="483"/>
+      <c r="J1" s="483"/>
+      <c r="K1" s="483"/>
+      <c r="L1" s="483"/>
+      <c r="M1" s="483"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="475"/>
+      <c r="B2" s="481"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -20252,21 +20275,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="478" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="479"/>
+      <c r="B3" s="484" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="485"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="480" t="s">
+      <c r="H3" s="486" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="480"/>
+      <c r="I3" s="486"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="504" t="s">
+      <c r="P3" s="523" t="s">
         <v>6</v>
       </c>
     </row>
@@ -20281,14 +20304,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="481" t="s">
+      <c r="E4" s="487" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="482"/>
-      <c r="H4" s="483" t="s">
+      <c r="F4" s="488"/>
+      <c r="H4" s="489" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="484"/>
+      <c r="I4" s="490"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -20298,14 +20321,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="505"/>
+      <c r="P4" s="524"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="487" t="s">
+      <c r="W4" s="533" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="487"/>
+      <c r="X4" s="533"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20356,8 +20379,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="487"/>
-      <c r="X5" s="487"/>
+      <c r="W5" s="533"/>
+      <c r="X5" s="533"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21128,7 +21151,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="491">
+      <c r="W19" s="537">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -21180,7 +21203,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="492"/>
+      <c r="W20" s="538"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -21229,8 +21252,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="493"/>
-      <c r="X21" s="493"/>
+      <c r="W21" s="539"/>
+      <c r="X21" s="539"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -21331,8 +21354,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="494"/>
-      <c r="X23" s="494"/>
+      <c r="W23" s="540"/>
+      <c r="X23" s="540"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -21386,8 +21409,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="494"/>
-      <c r="X24" s="494"/>
+      <c r="W24" s="540"/>
+      <c r="X24" s="540"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -21433,8 +21456,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="495"/>
-      <c r="X25" s="495"/>
+      <c r="W25" s="541"/>
+      <c r="X25" s="541"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -21485,8 +21508,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="495"/>
-      <c r="X26" s="495"/>
+      <c r="W26" s="541"/>
+      <c r="X26" s="541"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -21534,9 +21557,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="488"/>
-      <c r="X27" s="489"/>
-      <c r="Y27" s="490"/>
+      <c r="W27" s="534"/>
+      <c r="X27" s="535"/>
+      <c r="Y27" s="536"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21586,9 +21609,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="489"/>
-      <c r="X28" s="489"/>
-      <c r="Y28" s="490"/>
+      <c r="W28" s="535"/>
+      <c r="X28" s="535"/>
+      <c r="Y28" s="536"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21923,11 +21946,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="506">
+      <c r="M36" s="525">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="508">
+      <c r="N36" s="527">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -21935,7 +21958,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="510">
+      <c r="Q36" s="529">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -21970,13 +21993,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="507"/>
-      <c r="N37" s="509"/>
+      <c r="M37" s="526"/>
+      <c r="N37" s="528"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="511"/>
+      <c r="Q37" s="530"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -22266,26 +22289,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="461" t="s">
+      <c r="H52" s="502" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="462"/>
+      <c r="I52" s="503"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="463">
+      <c r="K52" s="504">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="496"/>
+      <c r="L52" s="531"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="467" t="s">
+      <c r="D53" s="508" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="467"/>
+      <c r="E53" s="508"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -22294,29 +22317,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="497" t="s">
+      <c r="D54" s="532" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="497"/>
+      <c r="E54" s="532"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="468" t="s">
+      <c r="I54" s="509" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="469"/>
-      <c r="K54" s="470">
+      <c r="J54" s="510"/>
+      <c r="K54" s="511">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="470"/>
-      <c r="M54" s="498" t="s">
+      <c r="L54" s="511"/>
+      <c r="M54" s="517" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="499"/>
-      <c r="O54" s="499"/>
-      <c r="P54" s="499"/>
-      <c r="Q54" s="500"/>
+      <c r="N54" s="518"/>
+      <c r="O54" s="518"/>
+      <c r="P54" s="518"/>
+      <c r="Q54" s="519"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="314" t="s">
@@ -22330,11 +22353,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="501"/>
-      <c r="N55" s="502"/>
-      <c r="O55" s="502"/>
-      <c r="P55" s="502"/>
-      <c r="Q55" s="503"/>
+      <c r="M55" s="520"/>
+      <c r="N55" s="521"/>
+      <c r="O55" s="521"/>
+      <c r="P55" s="521"/>
+      <c r="Q55" s="522"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -22352,11 +22375,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="472">
+      <c r="K56" s="513">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="473"/>
+      <c r="L56" s="514"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -22373,22 +22396,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="450" t="s">
+      <c r="D58" s="491" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="451"/>
+      <c r="E58" s="492"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="452" t="s">
+      <c r="I58" s="493" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="453"/>
-      <c r="K58" s="454">
+      <c r="J58" s="494"/>
+      <c r="K58" s="495">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="454"/>
+      <c r="L58" s="495"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -22532,17 +22555,14 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -22553,14 +22573,17 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="68" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24978,7 +25001,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="512" t="s">
+      <c r="F87" s="542" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -24991,7 +25014,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="513"/>
+      <c r="F88" s="543"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -25303,23 +25326,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="474"/>
-      <c r="C1" s="476" t="s">
+      <c r="B1" s="480"/>
+      <c r="C1" s="482" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="477"/>
-      <c r="E1" s="477"/>
-      <c r="F1" s="477"/>
-      <c r="G1" s="477"/>
-      <c r="H1" s="477"/>
-      <c r="I1" s="477"/>
-      <c r="J1" s="477"/>
-      <c r="K1" s="477"/>
-      <c r="L1" s="477"/>
-      <c r="M1" s="477"/>
+      <c r="D1" s="483"/>
+      <c r="E1" s="483"/>
+      <c r="F1" s="483"/>
+      <c r="G1" s="483"/>
+      <c r="H1" s="483"/>
+      <c r="I1" s="483"/>
+      <c r="J1" s="483"/>
+      <c r="K1" s="483"/>
+      <c r="L1" s="483"/>
+      <c r="M1" s="483"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="475"/>
+      <c r="B2" s="481"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -25329,24 +25352,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="478" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="479"/>
+      <c r="B3" s="484" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="485"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="480" t="s">
+      <c r="H3" s="486" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="480"/>
+      <c r="I3" s="486"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="504" t="s">
+      <c r="P3" s="523" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="514" t="s">
+      <c r="R3" s="544" t="s">
         <v>216</v>
       </c>
     </row>
@@ -25361,14 +25384,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="481" t="s">
+      <c r="E4" s="487" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="482"/>
-      <c r="H4" s="483" t="s">
+      <c r="F4" s="488"/>
+      <c r="H4" s="489" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="484"/>
+      <c r="I4" s="490"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -25378,15 +25401,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="505"/>
+      <c r="P4" s="524"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="515"/>
-      <c r="W4" s="487" t="s">
+      <c r="R4" s="545"/>
+      <c r="W4" s="533" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="487"/>
+      <c r="X4" s="533"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -25447,8 +25470,8 @@
       <c r="S5" s="325" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="487"/>
-      <c r="X5" s="487"/>
+      <c r="W5" s="533"/>
+      <c r="X5" s="533"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26205,7 +26228,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="491">
+      <c r="W19" s="537">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -26257,7 +26280,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="492"/>
+      <c r="W20" s="538"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -26306,8 +26329,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="493"/>
-      <c r="X21" s="493"/>
+      <c r="W21" s="539"/>
+      <c r="X21" s="539"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -26408,8 +26431,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="494"/>
-      <c r="X23" s="494"/>
+      <c r="W23" s="540"/>
+      <c r="X23" s="540"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -26460,8 +26483,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="494"/>
-      <c r="X24" s="494"/>
+      <c r="W24" s="540"/>
+      <c r="X24" s="540"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -26507,8 +26530,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="495"/>
-      <c r="X25" s="495"/>
+      <c r="W25" s="541"/>
+      <c r="X25" s="541"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -26556,8 +26579,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="495"/>
-      <c r="X26" s="495"/>
+      <c r="W26" s="541"/>
+      <c r="X26" s="541"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -26617,9 +26640,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="488"/>
-      <c r="X27" s="489"/>
-      <c r="Y27" s="490"/>
+      <c r="W27" s="534"/>
+      <c r="X27" s="535"/>
+      <c r="Y27" s="536"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26673,9 +26696,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="489"/>
-      <c r="X28" s="489"/>
-      <c r="Y28" s="490"/>
+      <c r="W28" s="535"/>
+      <c r="X28" s="535"/>
+      <c r="Y28" s="536"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26991,11 +27014,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="506">
+      <c r="M36" s="525">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="508">
+      <c r="N36" s="527">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -27003,7 +27026,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="510">
+      <c r="Q36" s="529">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -27022,13 +27045,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="507"/>
-      <c r="N37" s="509"/>
+      <c r="M37" s="526"/>
+      <c r="N37" s="528"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="511"/>
+      <c r="Q37" s="530"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -27302,26 +27325,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="461" t="s">
+      <c r="H52" s="502" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="462"/>
+      <c r="I52" s="503"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="463">
+      <c r="K52" s="504">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="496"/>
+      <c r="L52" s="531"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="467" t="s">
+      <c r="D53" s="508" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="467"/>
+      <c r="E53" s="508"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -27330,29 +27353,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="497" t="s">
+      <c r="D54" s="532" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="497"/>
+      <c r="E54" s="532"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="468" t="s">
+      <c r="I54" s="509" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="469"/>
-      <c r="K54" s="470">
+      <c r="J54" s="510"/>
+      <c r="K54" s="511">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="470"/>
-      <c r="M54" s="498" t="s">
+      <c r="L54" s="511"/>
+      <c r="M54" s="517" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="499"/>
-      <c r="O54" s="499"/>
-      <c r="P54" s="499"/>
-      <c r="Q54" s="500"/>
+      <c r="N54" s="518"/>
+      <c r="O54" s="518"/>
+      <c r="P54" s="518"/>
+      <c r="Q54" s="519"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="314" t="s">
@@ -27366,11 +27389,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="501"/>
-      <c r="N55" s="502"/>
-      <c r="O55" s="502"/>
-      <c r="P55" s="502"/>
-      <c r="Q55" s="503"/>
+      <c r="M55" s="520"/>
+      <c r="N55" s="521"/>
+      <c r="O55" s="521"/>
+      <c r="P55" s="521"/>
+      <c r="Q55" s="522"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -27388,11 +27411,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="472">
+      <c r="K56" s="513">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="473"/>
+      <c r="L56" s="514"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -27409,22 +27432,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="450" t="s">
+      <c r="D58" s="491" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="451"/>
+      <c r="E58" s="492"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="452" t="s">
+      <c r="I58" s="493" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="453"/>
-      <c r="K58" s="454">
+      <c r="J58" s="494"/>
+      <c r="K58" s="495">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="454"/>
+      <c r="L58" s="495"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -27568,13 +27591,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="W4:X5"/>
@@ -27584,20 +27614,13 @@
     <mergeCell ref="W25:X25"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -29987,7 +30010,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="512" t="s">
+      <c r="F75" s="542" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -30000,7 +30023,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="513"/>
+      <c r="F76" s="543"/>
       <c r="K76" s="1"/>
       <c r="L76" s="256"/>
       <c r="M76" s="3"/>
@@ -30292,23 +30315,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="474"/>
-      <c r="C1" s="516" t="s">
+      <c r="B1" s="480"/>
+      <c r="C1" s="546" t="s">
         <v>323</v>
       </c>
-      <c r="D1" s="517"/>
-      <c r="E1" s="517"/>
-      <c r="F1" s="517"/>
-      <c r="G1" s="517"/>
-      <c r="H1" s="517"/>
-      <c r="I1" s="517"/>
-      <c r="J1" s="517"/>
-      <c r="K1" s="517"/>
-      <c r="L1" s="517"/>
-      <c r="M1" s="517"/>
+      <c r="D1" s="547"/>
+      <c r="E1" s="547"/>
+      <c r="F1" s="547"/>
+      <c r="G1" s="547"/>
+      <c r="H1" s="547"/>
+      <c r="I1" s="547"/>
+      <c r="J1" s="547"/>
+      <c r="K1" s="547"/>
+      <c r="L1" s="547"/>
+      <c r="M1" s="547"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="475"/>
+      <c r="B2" s="481"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -30318,24 +30341,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="478" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="479"/>
+      <c r="B3" s="484" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="485"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="480" t="s">
+      <c r="H3" s="486" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="480"/>
+      <c r="I3" s="486"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="504" t="s">
+      <c r="P3" s="523" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="514" t="s">
+      <c r="R3" s="544" t="s">
         <v>216</v>
       </c>
     </row>
@@ -30350,14 +30373,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="481" t="s">
+      <c r="E4" s="487" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="482"/>
-      <c r="H4" s="483" t="s">
+      <c r="F4" s="488"/>
+      <c r="H4" s="489" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="484"/>
+      <c r="I4" s="490"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -30367,15 +30390,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="505"/>
+      <c r="P4" s="524"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="515"/>
-      <c r="W4" s="487" t="s">
+      <c r="R4" s="545"/>
+      <c r="W4" s="533" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="487"/>
+      <c r="X4" s="533"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -30426,8 +30449,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="325"/>
-      <c r="W5" s="487"/>
-      <c r="X5" s="487"/>
+      <c r="W5" s="533"/>
+      <c r="X5" s="533"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31191,7 +31214,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="491">
+      <c r="W19" s="537">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -31244,7 +31267,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="492"/>
+      <c r="W20" s="538"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -31293,8 +31316,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="493"/>
-      <c r="X21" s="493"/>
+      <c r="W21" s="539"/>
+      <c r="X21" s="539"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -31394,8 +31417,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="494"/>
-      <c r="X23" s="494"/>
+      <c r="W23" s="540"/>
+      <c r="X23" s="540"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -31450,8 +31473,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="494"/>
-      <c r="X24" s="494"/>
+      <c r="W24" s="540"/>
+      <c r="X24" s="540"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -31496,8 +31519,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="495"/>
-      <c r="X25" s="495"/>
+      <c r="W25" s="541"/>
+      <c r="X25" s="541"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -31545,8 +31568,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="495"/>
-      <c r="X26" s="495"/>
+      <c r="W26" s="541"/>
+      <c r="X26" s="541"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -31600,9 +31623,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="488"/>
-      <c r="X27" s="489"/>
-      <c r="Y27" s="490"/>
+      <c r="W27" s="534"/>
+      <c r="X27" s="535"/>
+      <c r="Y27" s="536"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31656,9 +31679,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="489"/>
-      <c r="X28" s="489"/>
-      <c r="Y28" s="490"/>
+      <c r="W28" s="535"/>
+      <c r="X28" s="535"/>
+      <c r="Y28" s="536"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31963,11 +31986,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="506">
+      <c r="M36" s="525">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="508">
+      <c r="N36" s="527">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -31975,7 +31998,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="510">
+      <c r="Q36" s="529">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -32000,13 +32023,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="507"/>
-      <c r="N37" s="509"/>
+      <c r="M37" s="526"/>
+      <c r="N37" s="528"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="511"/>
+      <c r="Q37" s="530"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -32293,26 +32316,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="461" t="s">
+      <c r="H52" s="502" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="462"/>
+      <c r="I52" s="503"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="463">
+      <c r="K52" s="504">
         <f>I50+L50</f>
         <v>144994.20000000001</v>
       </c>
-      <c r="L52" s="496"/>
+      <c r="L52" s="531"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="467" t="s">
+      <c r="D53" s="508" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="467"/>
+      <c r="E53" s="508"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>2135426.1199999996</v>
@@ -32321,22 +32344,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="497" t="s">
+      <c r="D54" s="532" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="497"/>
+      <c r="E54" s="532"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="468" t="s">
+      <c r="I54" s="509" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="469"/>
-      <c r="K54" s="470">
+      <c r="J54" s="510"/>
+      <c r="K54" s="511">
         <f>F56+F57+F58</f>
         <v>1082916.0699999996</v>
       </c>
-      <c r="L54" s="470"/>
+      <c r="L54" s="511"/>
       <c r="M54" s="423"/>
       <c r="N54" s="423"/>
       <c r="O54" s="423"/>
@@ -32377,11 +32400,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="472">
+      <c r="K56" s="513">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="473"/>
+      <c r="L56" s="514"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -32398,22 +32421,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="450" t="s">
+      <c r="D58" s="491" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="451"/>
+      <c r="E58" s="492"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="452" t="s">
+      <c r="I58" s="493" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="453"/>
-      <c r="K58" s="454">
+      <c r="J58" s="494"/>
+      <c r="K58" s="495">
         <f>K54+K56</f>
         <v>328772.83999999962</v>
       </c>
-      <c r="L58" s="454"/>
+      <c r="L58" s="495"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -32557,6 +32580,20 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -32572,20 +32609,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -34080,10 +34103,10 @@
       <c r="C38" s="411">
         <v>78773.820000000007</v>
       </c>
-      <c r="D38" s="575">
+      <c r="D38" s="466">
         <v>44617</v>
       </c>
-      <c r="E38" s="576">
+      <c r="E38" s="467">
         <v>78773.820000000007</v>
       </c>
       <c r="F38" s="411">
@@ -34118,10 +34141,10 @@
       <c r="C39" s="411">
         <v>38574.800000000003</v>
       </c>
-      <c r="D39" s="575">
+      <c r="D39" s="466">
         <v>44617</v>
       </c>
-      <c r="E39" s="576">
+      <c r="E39" s="467">
         <v>38574.800000000003</v>
       </c>
       <c r="F39" s="411">
@@ -34156,10 +34179,10 @@
       <c r="C40" s="411">
         <v>53825.279999999999</v>
       </c>
-      <c r="D40" s="575">
+      <c r="D40" s="466">
         <v>44617</v>
       </c>
-      <c r="E40" s="576">
+      <c r="E40" s="467">
         <v>53825.279999999999</v>
       </c>
       <c r="F40" s="411">
@@ -34188,8 +34211,8 @@
       <c r="A41" s="412"/>
       <c r="B41" s="413"/>
       <c r="C41" s="411"/>
-      <c r="D41" s="575"/>
-      <c r="E41" s="576"/>
+      <c r="D41" s="466"/>
+      <c r="E41" s="467"/>
       <c r="F41" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -34242,12 +34265,12 @@
     </row>
     <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="245"/>
-      <c r="B43" s="518" t="s">
+      <c r="B43" s="548" t="s">
         <v>420</v>
       </c>
-      <c r="C43" s="519"/>
-      <c r="D43" s="519"/>
-      <c r="E43" s="520"/>
+      <c r="C43" s="549"/>
+      <c r="D43" s="549"/>
+      <c r="E43" s="550"/>
       <c r="F43" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -34272,10 +34295,10 @@
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="245"/>
-      <c r="B44" s="521"/>
-      <c r="C44" s="522"/>
-      <c r="D44" s="522"/>
-      <c r="E44" s="523"/>
+      <c r="B44" s="551"/>
+      <c r="C44" s="552"/>
+      <c r="D44" s="552"/>
+      <c r="E44" s="553"/>
       <c r="F44" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -34300,10 +34323,10 @@
     </row>
     <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="245"/>
-      <c r="B45" s="524"/>
-      <c r="C45" s="525"/>
-      <c r="D45" s="525"/>
-      <c r="E45" s="526"/>
+      <c r="B45" s="554"/>
+      <c r="C45" s="555"/>
+      <c r="D45" s="555"/>
+      <c r="E45" s="556"/>
       <c r="F45" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -34387,11 +34410,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="349"/>
-      <c r="J48" s="527" t="s">
+      <c r="J48" s="557" t="s">
         <v>421</v>
       </c>
-      <c r="K48" s="528"/>
-      <c r="L48" s="529"/>
+      <c r="K48" s="558"/>
+      <c r="L48" s="559"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -34409,9 +34432,9 @@
         <v>0</v>
       </c>
       <c r="I49" s="349"/>
-      <c r="J49" s="530"/>
-      <c r="K49" s="531"/>
-      <c r="L49" s="532"/>
+      <c r="J49" s="560"/>
+      <c r="K49" s="561"/>
+      <c r="L49" s="562"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -35038,7 +35061,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="512" t="s">
+      <c r="F80" s="542" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -35051,7 +35074,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="513"/>
+      <c r="F81" s="543"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -35366,23 +35389,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="474"/>
-      <c r="C1" s="516" t="s">
+      <c r="B1" s="480"/>
+      <c r="C1" s="546" t="s">
         <v>323</v>
       </c>
-      <c r="D1" s="517"/>
-      <c r="E1" s="517"/>
-      <c r="F1" s="517"/>
-      <c r="G1" s="517"/>
-      <c r="H1" s="517"/>
-      <c r="I1" s="517"/>
-      <c r="J1" s="517"/>
-      <c r="K1" s="517"/>
-      <c r="L1" s="517"/>
-      <c r="M1" s="517"/>
+      <c r="D1" s="547"/>
+      <c r="E1" s="547"/>
+      <c r="F1" s="547"/>
+      <c r="G1" s="547"/>
+      <c r="H1" s="547"/>
+      <c r="I1" s="547"/>
+      <c r="J1" s="547"/>
+      <c r="K1" s="547"/>
+      <c r="L1" s="547"/>
+      <c r="M1" s="547"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="475"/>
+      <c r="B2" s="481"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -35392,24 +35415,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="478" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="479"/>
+      <c r="B3" s="484" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="485"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="480" t="s">
+      <c r="H3" s="486" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="480"/>
+      <c r="I3" s="486"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="504" t="s">
+      <c r="P3" s="523" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="514" t="s">
+      <c r="R3" s="544" t="s">
         <v>216</v>
       </c>
     </row>
@@ -35424,14 +35447,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="481" t="s">
+      <c r="E4" s="487" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="482"/>
-      <c r="H4" s="483" t="s">
+      <c r="F4" s="488"/>
+      <c r="H4" s="489" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="484"/>
+      <c r="I4" s="490"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -35441,15 +35464,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="505"/>
+      <c r="P4" s="524"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="515"/>
-      <c r="W4" s="487" t="s">
+      <c r="R4" s="545"/>
+      <c r="W4" s="533" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="487"/>
+      <c r="X4" s="533"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -35500,8 +35523,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="325"/>
-      <c r="W5" s="487"/>
-      <c r="X5" s="487"/>
+      <c r="W5" s="533"/>
+      <c r="X5" s="533"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -36262,7 +36285,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="491">
+      <c r="W19" s="537">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -36314,7 +36337,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="492"/>
+      <c r="W20" s="538"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -36363,8 +36386,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="493"/>
-      <c r="X21" s="493"/>
+      <c r="W21" s="539"/>
+      <c r="X21" s="539"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -36463,8 +36486,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="494"/>
-      <c r="X23" s="494"/>
+      <c r="W23" s="540"/>
+      <c r="X23" s="540"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -36519,8 +36542,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="494"/>
-      <c r="X24" s="494"/>
+      <c r="W24" s="540"/>
+      <c r="X24" s="540"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -36568,8 +36591,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="495"/>
-      <c r="X25" s="495"/>
+      <c r="W25" s="541"/>
+      <c r="X25" s="541"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -36617,8 +36640,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="495"/>
-      <c r="X26" s="495"/>
+      <c r="W26" s="541"/>
+      <c r="X26" s="541"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -36666,9 +36689,9 @@
       <c r="R27" s="320">
         <v>0</v>
       </c>
-      <c r="W27" s="488"/>
-      <c r="X27" s="489"/>
-      <c r="Y27" s="490"/>
+      <c r="W27" s="534"/>
+      <c r="X27" s="535"/>
+      <c r="Y27" s="536"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -36716,9 +36739,9 @@
       <c r="R28" s="320">
         <v>0</v>
       </c>
-      <c r="W28" s="489"/>
-      <c r="X28" s="489"/>
-      <c r="Y28" s="490"/>
+      <c r="W28" s="535"/>
+      <c r="X28" s="535"/>
+      <c r="Y28" s="536"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -37041,11 +37064,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="506">
+      <c r="M36" s="525">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="508">
+      <c r="N36" s="527">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -37053,7 +37076,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="533">
+      <c r="Q36" s="563">
         <f>SUM(Q5:Q35)</f>
         <v>111.43999999999505</v>
       </c>
@@ -37078,13 +37101,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="507"/>
-      <c r="N37" s="509"/>
+      <c r="M37" s="526"/>
+      <c r="N37" s="528"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="534"/>
+      <c r="Q37" s="564"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -37134,11 +37157,11 @@
       <c r="L39" s="61">
         <v>14981.03</v>
       </c>
-      <c r="M39" s="535">
+      <c r="M39" s="565">
         <f>M36+N36</f>
         <v>2934972.49</v>
       </c>
-      <c r="N39" s="536"/>
+      <c r="N39" s="566"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3450079.65</v>
@@ -37380,26 +37403,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="461" t="s">
+      <c r="H52" s="502" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="462"/>
+      <c r="I52" s="503"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="463">
+      <c r="K52" s="504">
         <f>I50+L50</f>
         <v>180192.62</v>
       </c>
-      <c r="L52" s="496"/>
+      <c r="L52" s="531"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="467" t="s">
+      <c r="D53" s="508" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="467"/>
+      <c r="E53" s="508"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>2717217.48</v>
@@ -37408,22 +37431,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="497" t="s">
+      <c r="D54" s="532" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="497"/>
+      <c r="E54" s="532"/>
       <c r="F54" s="111">
         <v>0</v>
       </c>
-      <c r="I54" s="468" t="s">
+      <c r="I54" s="509" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="469"/>
-      <c r="K54" s="470">
+      <c r="J54" s="510"/>
+      <c r="K54" s="511">
         <f>F56+F57+F58</f>
         <v>4063498.9299999997</v>
       </c>
-      <c r="L54" s="470"/>
+      <c r="L54" s="511"/>
       <c r="M54" s="423"/>
       <c r="N54" s="423"/>
       <c r="O54" s="423"/>
@@ -37464,11 +37487,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="472">
+      <c r="K56" s="513">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="473"/>
+      <c r="L56" s="514"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -37485,22 +37508,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="450" t="s">
+      <c r="D58" s="491" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="451"/>
+      <c r="E58" s="492"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="452" t="s">
+      <c r="I58" s="493" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="453"/>
-      <c r="K58" s="454">
+      <c r="J58" s="494"/>
+      <c r="K58" s="495">
         <f>K54+K56</f>
         <v>2913758.5199999996</v>
       </c>
-      <c r="L58" s="454"/>
+      <c r="L58" s="495"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -37644,20 +37667,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -37674,6 +37683,20 @@
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="M39:N39"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.23" top="0.4" bottom="0.28000000000000003" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/BALANCE    ZAVALETA   MARZO  2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/BALANCE    ZAVALETA   MARZO  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="10" activeTab="10"/>
+    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="10" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -457,7 +457,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="554">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2089,6 +2089,36 @@
   </si>
   <si>
     <t>CHORIZO-POLLO-LONZANIZA-JAMON</t>
+  </si>
+  <si>
+    <t>14899 C</t>
+  </si>
+  <si>
+    <t>14957 C</t>
+  </si>
+  <si>
+    <t>15025 C</t>
+  </si>
+  <si>
+    <t>15216 C</t>
+  </si>
+  <si>
+    <t>15218 C</t>
+  </si>
+  <si>
+    <t>15220 C</t>
+  </si>
+  <si>
+    <t>15338 C</t>
+  </si>
+  <si>
+    <t>15487 C</t>
+  </si>
+  <si>
+    <t>15585 C</t>
+  </si>
+  <si>
+    <t>15718 C</t>
   </si>
 </sst>
 </file>
@@ -4957,39 +4987,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5062,10 +5059,76 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5109,39 +5172,6 @@
     </xf>
     <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8279,23 +8309,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="480"/>
-      <c r="C1" s="482" t="s">
+      <c r="B1" s="504"/>
+      <c r="C1" s="506" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="483"/>
-      <c r="E1" s="483"/>
-      <c r="F1" s="483"/>
-      <c r="G1" s="483"/>
-      <c r="H1" s="483"/>
-      <c r="I1" s="483"/>
-      <c r="J1" s="483"/>
-      <c r="K1" s="483"/>
-      <c r="L1" s="483"/>
-      <c r="M1" s="483"/>
+      <c r="D1" s="507"/>
+      <c r="E1" s="507"/>
+      <c r="F1" s="507"/>
+      <c r="G1" s="507"/>
+      <c r="H1" s="507"/>
+      <c r="I1" s="507"/>
+      <c r="J1" s="507"/>
+      <c r="K1" s="507"/>
+      <c r="L1" s="507"/>
+      <c r="M1" s="507"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="481"/>
+      <c r="B2" s="505"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -8305,17 +8335,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="484" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="485"/>
+      <c r="B3" s="508" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="509"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="486" t="s">
+      <c r="H3" s="510" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="486"/>
+      <c r="I3" s="510"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -8329,14 +8359,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="487" t="s">
+      <c r="E4" s="511" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="488"/>
-      <c r="H4" s="489" t="s">
+      <c r="F4" s="512"/>
+      <c r="H4" s="513" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="490"/>
+      <c r="I4" s="514"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -8346,10 +8376,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="496" t="s">
+      <c r="P4" s="485" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="497"/>
+      <c r="Q4" s="486"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -9790,11 +9820,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="498">
+      <c r="M39" s="487">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="500">
+      <c r="N39" s="489">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -9820,8 +9850,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="499"/>
-      <c r="N40" s="501"/>
+      <c r="M40" s="488"/>
+      <c r="N40" s="490"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -10036,29 +10066,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="502" t="s">
+      <c r="H52" s="491" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="503"/>
+      <c r="I52" s="492"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="504">
+      <c r="K52" s="493">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="505"/>
-      <c r="M52" s="506">
+      <c r="L52" s="494"/>
+      <c r="M52" s="495">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="507"/>
+      <c r="N52" s="496"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="508" t="s">
+      <c r="D53" s="497" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="508"/>
+      <c r="E53" s="497"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -10069,22 +10099,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="508" t="s">
+      <c r="D54" s="497" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="508"/>
+      <c r="E54" s="497"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="509" t="s">
+      <c r="I54" s="498" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="510"/>
-      <c r="K54" s="511">
+      <c r="J54" s="499"/>
+      <c r="K54" s="500">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="512"/>
+      <c r="L54" s="501"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -10117,11 +10147,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="513">
+      <c r="K56" s="502">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="514"/>
+      <c r="L56" s="503"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -10138,22 +10168,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="491" t="s">
+      <c r="D58" s="480" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="492"/>
+      <c r="E58" s="481"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="493" t="s">
+      <c r="I58" s="482" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="494"/>
-      <c r="K58" s="495">
+      <c r="J58" s="483"/>
+      <c r="K58" s="484">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="495"/>
+      <c r="L58" s="484"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -10297,6 +10327,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -10311,12 +10347,6 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12742,7 +12772,7 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K10" workbookViewId="0">
+    <sheetView topLeftCell="K10" workbookViewId="0">
       <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
@@ -12772,7 +12802,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="480"/>
+      <c r="B1" s="504"/>
       <c r="C1" s="546" t="s">
         <v>458</v>
       </c>
@@ -12788,7 +12818,7 @@
       <c r="M1" s="547"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="481"/>
+      <c r="B2" s="505"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -12798,21 +12828,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="484" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="485"/>
+      <c r="B3" s="508" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="509"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="486" t="s">
+      <c r="H3" s="510" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="486"/>
+      <c r="I3" s="510"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="523" t="s">
+      <c r="P3" s="534" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="544" t="s">
@@ -12830,14 +12860,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="487" t="s">
+      <c r="E4" s="511" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="488"/>
-      <c r="H4" s="489" t="s">
+      <c r="F4" s="512"/>
+      <c r="H4" s="513" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="490"/>
+      <c r="I4" s="514"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -12847,15 +12877,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="524"/>
+      <c r="P4" s="535"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="545"/>
-      <c r="W4" s="533" t="s">
+      <c r="W4" s="517" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="533"/>
+      <c r="X4" s="517"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -12906,8 +12936,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="325"/>
-      <c r="W5" s="533"/>
-      <c r="X5" s="533"/>
+      <c r="W5" s="517"/>
+      <c r="X5" s="517"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -13670,7 +13700,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="537">
+      <c r="W19" s="521">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -13722,7 +13752,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="538"/>
+      <c r="W20" s="522"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -13763,8 +13793,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="539"/>
-      <c r="X21" s="539"/>
+      <c r="W21" s="523"/>
+      <c r="X21" s="523"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -13847,8 +13877,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="540"/>
-      <c r="X23" s="540"/>
+      <c r="W23" s="524"/>
+      <c r="X23" s="524"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -13889,8 +13919,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="540"/>
-      <c r="X24" s="540"/>
+      <c r="W24" s="524"/>
+      <c r="X24" s="524"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -13930,8 +13960,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="541"/>
-      <c r="X25" s="541"/>
+      <c r="W25" s="525"/>
+      <c r="X25" s="525"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -13972,8 +14002,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="541"/>
-      <c r="X26" s="541"/>
+      <c r="W26" s="525"/>
+      <c r="X26" s="525"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -14014,9 +14044,9 @@
       <c r="R27" s="320">
         <v>0</v>
       </c>
-      <c r="W27" s="534"/>
-      <c r="X27" s="535"/>
-      <c r="Y27" s="536"/>
+      <c r="W27" s="518"/>
+      <c r="X27" s="519"/>
+      <c r="Y27" s="520"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -14056,9 +14086,9 @@
       <c r="R28" s="320">
         <v>0</v>
       </c>
-      <c r="W28" s="535"/>
-      <c r="X28" s="535"/>
-      <c r="Y28" s="536"/>
+      <c r="W28" s="519"/>
+      <c r="X28" s="519"/>
+      <c r="Y28" s="520"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -14359,11 +14389,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="525">
+      <c r="M36" s="536">
         <f>SUM(M5:M35)</f>
         <v>736637.66</v>
       </c>
-      <c r="N36" s="527">
+      <c r="N36" s="538">
         <f>SUM(N5:N35)</f>
         <v>442985</v>
       </c>
@@ -14396,8 +14426,8 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="526"/>
-      <c r="N37" s="528"/>
+      <c r="M37" s="537"/>
+      <c r="N37" s="539"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
@@ -14704,26 +14734,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="502" t="s">
+      <c r="H52" s="491" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="503"/>
+      <c r="I52" s="492"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="504">
+      <c r="K52" s="493">
         <f>I50+L50</f>
         <v>119219.69</v>
       </c>
-      <c r="L52" s="531"/>
+      <c r="L52" s="526"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="508" t="s">
+      <c r="D53" s="497" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="508"/>
+      <c r="E53" s="497"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>1106508.31</v>
@@ -14732,22 +14762,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="532" t="s">
+      <c r="D54" s="527" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="532"/>
+      <c r="E54" s="527"/>
       <c r="F54" s="111">
         <v>0</v>
       </c>
-      <c r="I54" s="509" t="s">
+      <c r="I54" s="498" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="510"/>
-      <c r="K54" s="511">
+      <c r="J54" s="499"/>
+      <c r="K54" s="500">
         <f>F56+F57+F58</f>
         <v>1106508.31</v>
       </c>
-      <c r="L54" s="511"/>
+      <c r="L54" s="500"/>
       <c r="M54" s="423"/>
       <c r="N54" s="423"/>
       <c r="O54" s="423"/>
@@ -14788,11 +14818,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="513">
+      <c r="K56" s="502">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L56" s="514"/>
+      <c r="L56" s="503"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -14809,22 +14839,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="491" t="s">
+      <c r="D58" s="480" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="492"/>
+      <c r="E58" s="481"/>
       <c r="F58" s="113">
         <v>0</v>
       </c>
-      <c r="I58" s="493" t="s">
+      <c r="I58" s="482" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="494"/>
-      <c r="K58" s="495">
+      <c r="J58" s="483"/>
+      <c r="K58" s="484">
         <f>K54+K56</f>
         <v>-160060.1399999999</v>
       </c>
-      <c r="L58" s="495"/>
+      <c r="L58" s="484"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -14968,6 +14998,21 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M39:N39"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -14983,21 +15028,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.15748031496062992" top="0.39370078740157483" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -15013,8 +15043,8 @@
   </sheetPr>
   <dimension ref="A1:N115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15461,14 +15491,20 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="475"/>
-      <c r="B17" s="460"/>
-      <c r="C17" s="411"/>
+      <c r="A17" s="475">
+        <v>44631</v>
+      </c>
+      <c r="B17" s="460" t="s">
+        <v>544</v>
+      </c>
+      <c r="C17" s="411">
+        <v>94092.05</v>
+      </c>
       <c r="D17" s="425"/>
       <c r="E17" s="411"/>
       <c r="F17" s="411">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>94092.05</v>
       </c>
       <c r="I17" s="288"/>
       <c r="J17" s="57"/>
@@ -15481,14 +15517,20 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="475"/>
-      <c r="B18" s="460"/>
-      <c r="C18" s="411"/>
+      <c r="A18" s="475">
+        <v>44631</v>
+      </c>
+      <c r="B18" s="460" t="s">
+        <v>545</v>
+      </c>
+      <c r="C18" s="411">
+        <v>8163.9</v>
+      </c>
       <c r="D18" s="424"/>
       <c r="E18" s="411"/>
       <c r="F18" s="411">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8163.9</v>
       </c>
       <c r="I18" s="288"/>
       <c r="J18" s="57"/>
@@ -15501,14 +15543,20 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="475"/>
-      <c r="B19" s="460"/>
-      <c r="C19" s="411"/>
+      <c r="A19" s="475">
+        <v>44632</v>
+      </c>
+      <c r="B19" s="460" t="s">
+        <v>546</v>
+      </c>
+      <c r="C19" s="411">
+        <v>57174.8</v>
+      </c>
       <c r="D19" s="424"/>
       <c r="E19" s="411"/>
       <c r="F19" s="411">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>57174.8</v>
       </c>
       <c r="I19" s="288"/>
       <c r="J19" s="57"/>
@@ -15521,14 +15569,20 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="475"/>
-      <c r="B20" s="460"/>
-      <c r="C20" s="411"/>
+      <c r="A20" s="475">
+        <v>44634</v>
+      </c>
+      <c r="B20" s="460" t="s">
+        <v>547</v>
+      </c>
+      <c r="C20" s="411">
+        <v>9004.7999999999993</v>
+      </c>
       <c r="D20" s="424"/>
       <c r="E20" s="411"/>
       <c r="F20" s="411">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9004.7999999999993</v>
       </c>
       <c r="I20" s="288"/>
       <c r="J20" s="57"/>
@@ -15541,14 +15595,20 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="475"/>
-      <c r="B21" s="460"/>
-      <c r="C21" s="411"/>
+      <c r="A21" s="475">
+        <v>44634</v>
+      </c>
+      <c r="B21" s="460" t="s">
+        <v>548</v>
+      </c>
+      <c r="C21" s="411">
+        <v>80090.45</v>
+      </c>
       <c r="D21" s="424"/>
       <c r="E21" s="411"/>
       <c r="F21" s="411">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>80090.45</v>
       </c>
       <c r="I21" s="288"/>
       <c r="J21" s="57"/>
@@ -15561,14 +15621,20 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="475"/>
-      <c r="B22" s="460"/>
-      <c r="C22" s="411"/>
+      <c r="A22" s="475">
+        <v>44634</v>
+      </c>
+      <c r="B22" s="460" t="s">
+        <v>549</v>
+      </c>
+      <c r="C22" s="411">
+        <v>7015.6</v>
+      </c>
       <c r="D22" s="424"/>
       <c r="E22" s="411"/>
       <c r="F22" s="411">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7015.6</v>
       </c>
       <c r="G22" s="138"/>
       <c r="I22" s="288"/>
@@ -15582,14 +15648,20 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="475"/>
-      <c r="B23" s="460"/>
-      <c r="C23" s="411"/>
+      <c r="A23" s="475">
+        <v>44635</v>
+      </c>
+      <c r="B23" s="460" t="s">
+        <v>550</v>
+      </c>
+      <c r="C23" s="411">
+        <v>2559.1999999999998</v>
+      </c>
       <c r="D23" s="424"/>
       <c r="E23" s="411"/>
       <c r="F23" s="411">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2559.1999999999998</v>
       </c>
       <c r="I23" s="288"/>
       <c r="J23" s="57"/>
@@ -15602,14 +15674,20 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="475"/>
-      <c r="B24" s="460"/>
-      <c r="C24" s="411"/>
+      <c r="A24" s="475">
+        <v>44636</v>
+      </c>
+      <c r="B24" s="460" t="s">
+        <v>551</v>
+      </c>
+      <c r="C24" s="411">
+        <v>11187.2</v>
+      </c>
       <c r="D24" s="424"/>
       <c r="E24" s="411"/>
       <c r="F24" s="411">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11187.2</v>
       </c>
       <c r="I24" s="288"/>
       <c r="J24" s="57"/>
@@ -15622,14 +15700,20 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="475"/>
-      <c r="B25" s="460"/>
-      <c r="C25" s="411"/>
+      <c r="A25" s="475">
+        <v>44637</v>
+      </c>
+      <c r="B25" s="460" t="s">
+        <v>552</v>
+      </c>
+      <c r="C25" s="411">
+        <v>51776.46</v>
+      </c>
       <c r="D25" s="424"/>
       <c r="E25" s="411"/>
       <c r="F25" s="411">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>51776.46</v>
       </c>
       <c r="I25" s="288"/>
       <c r="J25" s="57"/>
@@ -15642,14 +15726,20 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="475"/>
-      <c r="B26" s="460"/>
-      <c r="C26" s="411"/>
+      <c r="A26" s="475">
+        <v>44638</v>
+      </c>
+      <c r="B26" s="460" t="s">
+        <v>553</v>
+      </c>
+      <c r="C26" s="411">
+        <v>87124.5</v>
+      </c>
       <c r="D26" s="424"/>
       <c r="E26" s="411"/>
       <c r="F26" s="411">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>87124.5</v>
       </c>
       <c r="I26" s="288"/>
       <c r="J26" s="57"/>
@@ -16712,7 +16802,7 @@
       <c r="B79" s="463"/>
       <c r="C79" s="212">
         <f>SUM(C3:C78)</f>
-        <v>513976.29</v>
+        <v>922165.24999999988</v>
       </c>
       <c r="D79" s="426"/>
       <c r="E79" s="414">
@@ -16721,7 +16811,7 @@
       </c>
       <c r="F79" s="153">
         <f>SUM(F3:F78)</f>
-        <v>513976.29</v>
+        <v>922165.24999999988</v>
       </c>
       <c r="K79" s="209">
         <f>SUM(K3:K78)</f>
@@ -20249,23 +20339,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="480"/>
-      <c r="C1" s="482" t="s">
+      <c r="B1" s="504"/>
+      <c r="C1" s="506" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="483"/>
-      <c r="E1" s="483"/>
-      <c r="F1" s="483"/>
-      <c r="G1" s="483"/>
-      <c r="H1" s="483"/>
-      <c r="I1" s="483"/>
-      <c r="J1" s="483"/>
-      <c r="K1" s="483"/>
-      <c r="L1" s="483"/>
-      <c r="M1" s="483"/>
+      <c r="D1" s="507"/>
+      <c r="E1" s="507"/>
+      <c r="F1" s="507"/>
+      <c r="G1" s="507"/>
+      <c r="H1" s="507"/>
+      <c r="I1" s="507"/>
+      <c r="J1" s="507"/>
+      <c r="K1" s="507"/>
+      <c r="L1" s="507"/>
+      <c r="M1" s="507"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="481"/>
+      <c r="B2" s="505"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -20275,21 +20365,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="484" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="485"/>
+      <c r="B3" s="508" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="509"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="486" t="s">
+      <c r="H3" s="510" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="486"/>
+      <c r="I3" s="510"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="523" t="s">
+      <c r="P3" s="534" t="s">
         <v>6</v>
       </c>
     </row>
@@ -20304,14 +20394,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="487" t="s">
+      <c r="E4" s="511" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="488"/>
-      <c r="H4" s="489" t="s">
+      <c r="F4" s="512"/>
+      <c r="H4" s="513" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="490"/>
+      <c r="I4" s="514"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -20321,14 +20411,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="524"/>
+      <c r="P4" s="535"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="533" t="s">
+      <c r="W4" s="517" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="533"/>
+      <c r="X4" s="517"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20379,8 +20469,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="533"/>
-      <c r="X5" s="533"/>
+      <c r="W5" s="517"/>
+      <c r="X5" s="517"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21151,7 +21241,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="537">
+      <c r="W19" s="521">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -21203,7 +21293,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="538"/>
+      <c r="W20" s="522"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -21252,8 +21342,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="539"/>
-      <c r="X21" s="539"/>
+      <c r="W21" s="523"/>
+      <c r="X21" s="523"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -21354,8 +21444,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="540"/>
-      <c r="X23" s="540"/>
+      <c r="W23" s="524"/>
+      <c r="X23" s="524"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -21409,8 +21499,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="540"/>
-      <c r="X24" s="540"/>
+      <c r="W24" s="524"/>
+      <c r="X24" s="524"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -21456,8 +21546,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="541"/>
-      <c r="X25" s="541"/>
+      <c r="W25" s="525"/>
+      <c r="X25" s="525"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -21508,8 +21598,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="541"/>
-      <c r="X26" s="541"/>
+      <c r="W26" s="525"/>
+      <c r="X26" s="525"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -21557,9 +21647,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="534"/>
-      <c r="X27" s="535"/>
-      <c r="Y27" s="536"/>
+      <c r="W27" s="518"/>
+      <c r="X27" s="519"/>
+      <c r="Y27" s="520"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21609,9 +21699,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="535"/>
-      <c r="X28" s="535"/>
-      <c r="Y28" s="536"/>
+      <c r="W28" s="519"/>
+      <c r="X28" s="519"/>
+      <c r="Y28" s="520"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21946,11 +22036,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="525">
+      <c r="M36" s="536">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="527">
+      <c r="N36" s="538">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -21958,7 +22048,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="529">
+      <c r="Q36" s="540">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -21993,13 +22083,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="526"/>
-      <c r="N37" s="528"/>
+      <c r="M37" s="537"/>
+      <c r="N37" s="539"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="530"/>
+      <c r="Q37" s="541"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -22289,26 +22379,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="502" t="s">
+      <c r="H52" s="491" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="503"/>
+      <c r="I52" s="492"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="504">
+      <c r="K52" s="493">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="531"/>
+      <c r="L52" s="526"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="508" t="s">
+      <c r="D53" s="497" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="508"/>
+      <c r="E53" s="497"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -22317,29 +22407,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="532" t="s">
+      <c r="D54" s="527" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="532"/>
+      <c r="E54" s="527"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="509" t="s">
+      <c r="I54" s="498" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="510"/>
-      <c r="K54" s="511">
+      <c r="J54" s="499"/>
+      <c r="K54" s="500">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="511"/>
-      <c r="M54" s="517" t="s">
+      <c r="L54" s="500"/>
+      <c r="M54" s="528" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="518"/>
-      <c r="O54" s="518"/>
-      <c r="P54" s="518"/>
-      <c r="Q54" s="519"/>
+      <c r="N54" s="529"/>
+      <c r="O54" s="529"/>
+      <c r="P54" s="529"/>
+      <c r="Q54" s="530"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="314" t="s">
@@ -22353,11 +22443,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="520"/>
-      <c r="N55" s="521"/>
-      <c r="O55" s="521"/>
-      <c r="P55" s="521"/>
-      <c r="Q55" s="522"/>
+      <c r="M55" s="531"/>
+      <c r="N55" s="532"/>
+      <c r="O55" s="532"/>
+      <c r="P55" s="532"/>
+      <c r="Q55" s="533"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -22375,11 +22465,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="513">
+      <c r="K56" s="502">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="514"/>
+      <c r="L56" s="503"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -22396,22 +22486,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="491" t="s">
+      <c r="D58" s="480" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="492"/>
+      <c r="E58" s="481"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="493" t="s">
+      <c r="I58" s="482" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="494"/>
-      <c r="K58" s="495">
+      <c r="J58" s="483"/>
+      <c r="K58" s="484">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="495"/>
+      <c r="L58" s="484"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -22555,14 +22645,17 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -22573,17 +22666,14 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="68" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -25326,23 +25416,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="480"/>
-      <c r="C1" s="482" t="s">
+      <c r="B1" s="504"/>
+      <c r="C1" s="506" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="483"/>
-      <c r="E1" s="483"/>
-      <c r="F1" s="483"/>
-      <c r="G1" s="483"/>
-      <c r="H1" s="483"/>
-      <c r="I1" s="483"/>
-      <c r="J1" s="483"/>
-      <c r="K1" s="483"/>
-      <c r="L1" s="483"/>
-      <c r="M1" s="483"/>
+      <c r="D1" s="507"/>
+      <c r="E1" s="507"/>
+      <c r="F1" s="507"/>
+      <c r="G1" s="507"/>
+      <c r="H1" s="507"/>
+      <c r="I1" s="507"/>
+      <c r="J1" s="507"/>
+      <c r="K1" s="507"/>
+      <c r="L1" s="507"/>
+      <c r="M1" s="507"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="481"/>
+      <c r="B2" s="505"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -25352,21 +25442,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="484" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="485"/>
+      <c r="B3" s="508" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="509"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="486" t="s">
+      <c r="H3" s="510" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="486"/>
+      <c r="I3" s="510"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="523" t="s">
+      <c r="P3" s="534" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="544" t="s">
@@ -25384,14 +25474,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="487" t="s">
+      <c r="E4" s="511" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="488"/>
-      <c r="H4" s="489" t="s">
+      <c r="F4" s="512"/>
+      <c r="H4" s="513" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="490"/>
+      <c r="I4" s="514"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -25401,15 +25491,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="524"/>
+      <c r="P4" s="535"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="545"/>
-      <c r="W4" s="533" t="s">
+      <c r="W4" s="517" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="533"/>
+      <c r="X4" s="517"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -25470,8 +25560,8 @@
       <c r="S5" s="325" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="533"/>
-      <c r="X5" s="533"/>
+      <c r="W5" s="517"/>
+      <c r="X5" s="517"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26228,7 +26318,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="537">
+      <c r="W19" s="521">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -26280,7 +26370,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="538"/>
+      <c r="W20" s="522"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -26329,8 +26419,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="539"/>
-      <c r="X21" s="539"/>
+      <c r="W21" s="523"/>
+      <c r="X21" s="523"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -26431,8 +26521,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="540"/>
-      <c r="X23" s="540"/>
+      <c r="W23" s="524"/>
+      <c r="X23" s="524"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -26483,8 +26573,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="540"/>
-      <c r="X24" s="540"/>
+      <c r="W24" s="524"/>
+      <c r="X24" s="524"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -26530,8 +26620,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="541"/>
-      <c r="X25" s="541"/>
+      <c r="W25" s="525"/>
+      <c r="X25" s="525"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -26579,8 +26669,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="541"/>
-      <c r="X26" s="541"/>
+      <c r="W26" s="525"/>
+      <c r="X26" s="525"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -26640,9 +26730,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="534"/>
-      <c r="X27" s="535"/>
-      <c r="Y27" s="536"/>
+      <c r="W27" s="518"/>
+      <c r="X27" s="519"/>
+      <c r="Y27" s="520"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26696,9 +26786,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="535"/>
-      <c r="X28" s="535"/>
-      <c r="Y28" s="536"/>
+      <c r="W28" s="519"/>
+      <c r="X28" s="519"/>
+      <c r="Y28" s="520"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -27014,11 +27104,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="525">
+      <c r="M36" s="536">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="527">
+      <c r="N36" s="538">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -27026,7 +27116,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="529">
+      <c r="Q36" s="540">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -27045,13 +27135,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="526"/>
-      <c r="N37" s="528"/>
+      <c r="M37" s="537"/>
+      <c r="N37" s="539"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="530"/>
+      <c r="Q37" s="541"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -27325,26 +27415,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="502" t="s">
+      <c r="H52" s="491" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="503"/>
+      <c r="I52" s="492"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="504">
+      <c r="K52" s="493">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="531"/>
+      <c r="L52" s="526"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="508" t="s">
+      <c r="D53" s="497" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="508"/>
+      <c r="E53" s="497"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -27353,29 +27443,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="532" t="s">
+      <c r="D54" s="527" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="532"/>
+      <c r="E54" s="527"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="509" t="s">
+      <c r="I54" s="498" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="510"/>
-      <c r="K54" s="511">
+      <c r="J54" s="499"/>
+      <c r="K54" s="500">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="511"/>
-      <c r="M54" s="517" t="s">
+      <c r="L54" s="500"/>
+      <c r="M54" s="528" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="518"/>
-      <c r="O54" s="518"/>
-      <c r="P54" s="518"/>
-      <c r="Q54" s="519"/>
+      <c r="N54" s="529"/>
+      <c r="O54" s="529"/>
+      <c r="P54" s="529"/>
+      <c r="Q54" s="530"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="314" t="s">
@@ -27389,11 +27479,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="520"/>
-      <c r="N55" s="521"/>
-      <c r="O55" s="521"/>
-      <c r="P55" s="521"/>
-      <c r="Q55" s="522"/>
+      <c r="M55" s="531"/>
+      <c r="N55" s="532"/>
+      <c r="O55" s="532"/>
+      <c r="P55" s="532"/>
+      <c r="Q55" s="533"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -27411,11 +27501,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="513">
+      <c r="K56" s="502">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="514"/>
+      <c r="L56" s="503"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -27432,22 +27522,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="491" t="s">
+      <c r="D58" s="480" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="492"/>
+      <c r="E58" s="481"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="493" t="s">
+      <c r="I58" s="482" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="494"/>
-      <c r="K58" s="495">
+      <c r="J58" s="483"/>
+      <c r="K58" s="484">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="495"/>
+      <c r="L58" s="484"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -27591,20 +27681,13 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="W4:X5"/>
@@ -27614,13 +27697,20 @@
     <mergeCell ref="W25:X25"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -30315,7 +30405,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="480"/>
+      <c r="B1" s="504"/>
       <c r="C1" s="546" t="s">
         <v>323</v>
       </c>
@@ -30331,7 +30421,7 @@
       <c r="M1" s="547"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="481"/>
+      <c r="B2" s="505"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -30341,21 +30431,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="484" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="485"/>
+      <c r="B3" s="508" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="509"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="486" t="s">
+      <c r="H3" s="510" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="486"/>
+      <c r="I3" s="510"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="523" t="s">
+      <c r="P3" s="534" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="544" t="s">
@@ -30373,14 +30463,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="487" t="s">
+      <c r="E4" s="511" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="488"/>
-      <c r="H4" s="489" t="s">
+      <c r="F4" s="512"/>
+      <c r="H4" s="513" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="490"/>
+      <c r="I4" s="514"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -30390,15 +30480,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="524"/>
+      <c r="P4" s="535"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="545"/>
-      <c r="W4" s="533" t="s">
+      <c r="W4" s="517" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="533"/>
+      <c r="X4" s="517"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -30449,8 +30539,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="325"/>
-      <c r="W5" s="533"/>
-      <c r="X5" s="533"/>
+      <c r="W5" s="517"/>
+      <c r="X5" s="517"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31214,7 +31304,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="537">
+      <c r="W19" s="521">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -31267,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="538"/>
+      <c r="W20" s="522"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -31316,8 +31406,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="539"/>
-      <c r="X21" s="539"/>
+      <c r="W21" s="523"/>
+      <c r="X21" s="523"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -31417,8 +31507,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="540"/>
-      <c r="X23" s="540"/>
+      <c r="W23" s="524"/>
+      <c r="X23" s="524"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -31473,8 +31563,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="540"/>
-      <c r="X24" s="540"/>
+      <c r="W24" s="524"/>
+      <c r="X24" s="524"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -31519,8 +31609,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="541"/>
-      <c r="X25" s="541"/>
+      <c r="W25" s="525"/>
+      <c r="X25" s="525"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -31568,8 +31658,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="541"/>
-      <c r="X26" s="541"/>
+      <c r="W26" s="525"/>
+      <c r="X26" s="525"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -31623,9 +31713,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="534"/>
-      <c r="X27" s="535"/>
-      <c r="Y27" s="536"/>
+      <c r="W27" s="518"/>
+      <c r="X27" s="519"/>
+      <c r="Y27" s="520"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31679,9 +31769,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="535"/>
-      <c r="X28" s="535"/>
-      <c r="Y28" s="536"/>
+      <c r="W28" s="519"/>
+      <c r="X28" s="519"/>
+      <c r="Y28" s="520"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31986,11 +32076,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="525">
+      <c r="M36" s="536">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="527">
+      <c r="N36" s="538">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -31998,7 +32088,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="529">
+      <c r="Q36" s="540">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -32023,13 +32113,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="526"/>
-      <c r="N37" s="528"/>
+      <c r="M37" s="537"/>
+      <c r="N37" s="539"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="530"/>
+      <c r="Q37" s="541"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -32316,26 +32406,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="502" t="s">
+      <c r="H52" s="491" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="503"/>
+      <c r="I52" s="492"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="504">
+      <c r="K52" s="493">
         <f>I50+L50</f>
         <v>144994.20000000001</v>
       </c>
-      <c r="L52" s="531"/>
+      <c r="L52" s="526"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="508" t="s">
+      <c r="D53" s="497" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="508"/>
+      <c r="E53" s="497"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>2135426.1199999996</v>
@@ -32344,22 +32434,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="532" t="s">
+      <c r="D54" s="527" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="532"/>
+      <c r="E54" s="527"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="509" t="s">
+      <c r="I54" s="498" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="510"/>
-      <c r="K54" s="511">
+      <c r="J54" s="499"/>
+      <c r="K54" s="500">
         <f>F56+F57+F58</f>
         <v>1082916.0699999996</v>
       </c>
-      <c r="L54" s="511"/>
+      <c r="L54" s="500"/>
       <c r="M54" s="423"/>
       <c r="N54" s="423"/>
       <c r="O54" s="423"/>
@@ -32400,11 +32490,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="513">
+      <c r="K56" s="502">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="514"/>
+      <c r="L56" s="503"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -32421,22 +32511,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="491" t="s">
+      <c r="D58" s="480" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="492"/>
+      <c r="E58" s="481"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="493" t="s">
+      <c r="I58" s="482" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="494"/>
-      <c r="K58" s="495">
+      <c r="J58" s="483"/>
+      <c r="K58" s="484">
         <f>K54+K56</f>
         <v>328772.83999999962</v>
       </c>
-      <c r="L58" s="495"/>
+      <c r="L58" s="484"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -32580,20 +32670,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -32609,6 +32685,20 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -35389,7 +35479,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="480"/>
+      <c r="B1" s="504"/>
       <c r="C1" s="546" t="s">
         <v>323</v>
       </c>
@@ -35405,7 +35495,7 @@
       <c r="M1" s="547"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="481"/>
+      <c r="B2" s="505"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -35415,21 +35505,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="484" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="485"/>
+      <c r="B3" s="508" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="509"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="486" t="s">
+      <c r="H3" s="510" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="486"/>
+      <c r="I3" s="510"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="523" t="s">
+      <c r="P3" s="534" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="544" t="s">
@@ -35447,14 +35537,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="487" t="s">
+      <c r="E4" s="511" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="488"/>
-      <c r="H4" s="489" t="s">
+      <c r="F4" s="512"/>
+      <c r="H4" s="513" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="490"/>
+      <c r="I4" s="514"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -35464,15 +35554,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="524"/>
+      <c r="P4" s="535"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="545"/>
-      <c r="W4" s="533" t="s">
+      <c r="W4" s="517" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="533"/>
+      <c r="X4" s="517"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -35523,8 +35613,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="325"/>
-      <c r="W5" s="533"/>
-      <c r="X5" s="533"/>
+      <c r="W5" s="517"/>
+      <c r="X5" s="517"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -36285,7 +36375,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="537">
+      <c r="W19" s="521">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -36337,7 +36427,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="538"/>
+      <c r="W20" s="522"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -36386,8 +36476,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="539"/>
-      <c r="X21" s="539"/>
+      <c r="W21" s="523"/>
+      <c r="X21" s="523"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -36486,8 +36576,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="540"/>
-      <c r="X23" s="540"/>
+      <c r="W23" s="524"/>
+      <c r="X23" s="524"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -36542,8 +36632,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="540"/>
-      <c r="X24" s="540"/>
+      <c r="W24" s="524"/>
+      <c r="X24" s="524"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -36591,8 +36681,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="541"/>
-      <c r="X25" s="541"/>
+      <c r="W25" s="525"/>
+      <c r="X25" s="525"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -36640,8 +36730,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="541"/>
-      <c r="X26" s="541"/>
+      <c r="W26" s="525"/>
+      <c r="X26" s="525"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -36689,9 +36779,9 @@
       <c r="R27" s="320">
         <v>0</v>
       </c>
-      <c r="W27" s="534"/>
-      <c r="X27" s="535"/>
-      <c r="Y27" s="536"/>
+      <c r="W27" s="518"/>
+      <c r="X27" s="519"/>
+      <c r="Y27" s="520"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -36739,9 +36829,9 @@
       <c r="R28" s="320">
         <v>0</v>
       </c>
-      <c r="W28" s="535"/>
-      <c r="X28" s="535"/>
-      <c r="Y28" s="536"/>
+      <c r="W28" s="519"/>
+      <c r="X28" s="519"/>
+      <c r="Y28" s="520"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -37064,11 +37154,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="525">
+      <c r="M36" s="536">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="527">
+      <c r="N36" s="538">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -37101,8 +37191,8 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="526"/>
-      <c r="N37" s="528"/>
+      <c r="M37" s="537"/>
+      <c r="N37" s="539"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
@@ -37403,26 +37493,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="502" t="s">
+      <c r="H52" s="491" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="503"/>
+      <c r="I52" s="492"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="504">
+      <c r="K52" s="493">
         <f>I50+L50</f>
         <v>180192.62</v>
       </c>
-      <c r="L52" s="531"/>
+      <c r="L52" s="526"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="508" t="s">
+      <c r="D53" s="497" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="508"/>
+      <c r="E53" s="497"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>2717217.48</v>
@@ -37431,22 +37521,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="532" t="s">
+      <c r="D54" s="527" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="532"/>
+      <c r="E54" s="527"/>
       <c r="F54" s="111">
         <v>0</v>
       </c>
-      <c r="I54" s="509" t="s">
+      <c r="I54" s="498" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="510"/>
-      <c r="K54" s="511">
+      <c r="J54" s="499"/>
+      <c r="K54" s="500">
         <f>F56+F57+F58</f>
         <v>4063498.9299999997</v>
       </c>
-      <c r="L54" s="511"/>
+      <c r="L54" s="500"/>
       <c r="M54" s="423"/>
       <c r="N54" s="423"/>
       <c r="O54" s="423"/>
@@ -37487,11 +37577,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="513">
+      <c r="K56" s="502">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="514"/>
+      <c r="L56" s="503"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -37508,22 +37598,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="491" t="s">
+      <c r="D58" s="480" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="492"/>
+      <c r="E58" s="481"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="493" t="s">
+      <c r="I58" s="482" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="494"/>
-      <c r="K58" s="495">
+      <c r="J58" s="483"/>
+      <c r="K58" s="484">
         <f>K54+K56</f>
         <v>2913758.5199999996</v>
       </c>
-      <c r="L58" s="495"/>
+      <c r="L58" s="484"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -37667,6 +37757,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -37683,20 +37787,6 @@
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="M39:N39"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.23" top="0.4" bottom="0.28000000000000003" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/BALANCE    ZAVALETA   MARZO  2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/BALANCE    ZAVALETA   MARZO  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="9" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -457,7 +457,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="587">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2200,6 +2200,24 @@
   </si>
   <si>
     <t>SALCHICHA</t>
+  </si>
+  <si>
+    <t>Comisiones BANCO</t>
+  </si>
+  <si>
+    <t>FEBRERO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMISION </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANCARAI </t>
+  </si>
+  <si>
+    <t>QUESOS GOUDA</t>
+  </si>
+  <si>
+    <t>POLLO-JAMONES-QUESOS-MIXIOTES-CHISTORRA</t>
   </si>
 </sst>
 </file>
@@ -4099,7 +4117,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="596">
+  <cellXfs count="597">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -5077,6 +5095,9 @@
     <xf numFmtId="44" fontId="3" fillId="6" borderId="89" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8399,23 +8420,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="511"/>
-      <c r="C1" s="513" t="s">
+      <c r="B1" s="512"/>
+      <c r="C1" s="514" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="514"/>
-      <c r="E1" s="514"/>
-      <c r="F1" s="514"/>
-      <c r="G1" s="514"/>
-      <c r="H1" s="514"/>
-      <c r="I1" s="514"/>
-      <c r="J1" s="514"/>
-      <c r="K1" s="514"/>
-      <c r="L1" s="514"/>
-      <c r="M1" s="514"/>
+      <c r="D1" s="515"/>
+      <c r="E1" s="515"/>
+      <c r="F1" s="515"/>
+      <c r="G1" s="515"/>
+      <c r="H1" s="515"/>
+      <c r="I1" s="515"/>
+      <c r="J1" s="515"/>
+      <c r="K1" s="515"/>
+      <c r="L1" s="515"/>
+      <c r="M1" s="515"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="512"/>
+      <c r="B2" s="513"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -8425,17 +8446,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="515" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="516"/>
+      <c r="B3" s="516" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="517"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="517" t="s">
+      <c r="H3" s="518" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="517"/>
+      <c r="I3" s="518"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -8449,14 +8470,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="518" t="s">
+      <c r="E4" s="519" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="519"/>
-      <c r="H4" s="520" t="s">
+      <c r="F4" s="520"/>
+      <c r="H4" s="521" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="521"/>
+      <c r="I4" s="522"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -8466,10 +8487,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="492" t="s">
+      <c r="P4" s="493" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="493"/>
+      <c r="Q4" s="494"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -9910,11 +9931,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="494">
+      <c r="M39" s="495">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="496">
+      <c r="N39" s="497">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -9940,8 +9961,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="495"/>
-      <c r="N40" s="497"/>
+      <c r="M40" s="496"/>
+      <c r="N40" s="498"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -10156,29 +10177,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="498" t="s">
+      <c r="H52" s="499" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="499"/>
+      <c r="I52" s="500"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="500">
+      <c r="K52" s="501">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="501"/>
-      <c r="M52" s="502">
+      <c r="L52" s="502"/>
+      <c r="M52" s="503">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="503"/>
+      <c r="N52" s="504"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="504" t="s">
+      <c r="D53" s="505" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="504"/>
+      <c r="E53" s="505"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -10189,22 +10210,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="504" t="s">
+      <c r="D54" s="505" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="504"/>
+      <c r="E54" s="505"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="505" t="s">
+      <c r="I54" s="506" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="506"/>
-      <c r="K54" s="507">
+      <c r="J54" s="507"/>
+      <c r="K54" s="508">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="508"/>
+      <c r="L54" s="509"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -10237,11 +10258,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="509">
+      <c r="K56" s="510">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="510"/>
+      <c r="L56" s="511"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -10258,22 +10279,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="487" t="s">
+      <c r="D58" s="488" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="488"/>
+      <c r="E58" s="489"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="489" t="s">
+      <c r="I58" s="490" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="490"/>
-      <c r="K58" s="491">
+      <c r="J58" s="491"/>
+      <c r="K58" s="492">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="491"/>
+      <c r="L58" s="492"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -12777,7 +12798,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="549" t="s">
+      <c r="F80" s="550" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -12792,7 +12813,7 @@
       <c r="C81" s="477"/>
       <c r="D81" s="478"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="550"/>
+      <c r="F81" s="551"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -13074,8 +13095,8 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView tabSelected="1" topLeftCell="H10" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13104,23 +13125,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="511"/>
-      <c r="C1" s="553" t="s">
+      <c r="B1" s="512"/>
+      <c r="C1" s="554" t="s">
         <v>458</v>
       </c>
-      <c r="D1" s="554"/>
-      <c r="E1" s="554"/>
-      <c r="F1" s="554"/>
-      <c r="G1" s="554"/>
-      <c r="H1" s="554"/>
-      <c r="I1" s="554"/>
-      <c r="J1" s="554"/>
-      <c r="K1" s="554"/>
-      <c r="L1" s="554"/>
-      <c r="M1" s="554"/>
+      <c r="D1" s="555"/>
+      <c r="E1" s="555"/>
+      <c r="F1" s="555"/>
+      <c r="G1" s="555"/>
+      <c r="H1" s="555"/>
+      <c r="I1" s="555"/>
+      <c r="J1" s="555"/>
+      <c r="K1" s="555"/>
+      <c r="L1" s="555"/>
+      <c r="M1" s="555"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="512"/>
+      <c r="B2" s="513"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -13130,24 +13151,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="515" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="516"/>
+      <c r="B3" s="516" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="517"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="517" t="s">
+      <c r="H3" s="518" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="517"/>
+      <c r="I3" s="518"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="541" t="s">
+      <c r="P3" s="542" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="551" t="s">
+      <c r="R3" s="552" t="s">
         <v>216</v>
       </c>
     </row>
@@ -13162,14 +13183,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="518" t="s">
+      <c r="E4" s="519" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="519"/>
-      <c r="H4" s="520" t="s">
+      <c r="F4" s="520"/>
+      <c r="H4" s="521" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="521"/>
+      <c r="I4" s="522"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -13179,15 +13200,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="542"/>
+      <c r="P4" s="543"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="552"/>
-      <c r="W4" s="524" t="s">
+      <c r="R4" s="553"/>
+      <c r="W4" s="525" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="524"/>
+      <c r="X4" s="525"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -13238,8 +13259,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="325"/>
-      <c r="W5" s="524"/>
-      <c r="X5" s="524"/>
+      <c r="W5" s="525"/>
+      <c r="X5" s="525"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -14002,7 +14023,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="528">
+      <c r="W19" s="529">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -14054,7 +14075,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="529"/>
+      <c r="W20" s="530"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -14063,29 +14084,37 @@
       <c r="B21" s="24">
         <v>44636</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="35"/>
+      <c r="C21" s="25">
+        <v>18610</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>586</v>
+      </c>
       <c r="E21" s="27">
         <v>44636</v>
       </c>
-      <c r="F21" s="28"/>
+      <c r="F21" s="28">
+        <v>116930</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="36">
         <v>44636</v>
       </c>
-      <c r="I21" s="30"/>
+      <c r="I21" s="30">
+        <v>1391</v>
+      </c>
       <c r="J21" s="37"/>
       <c r="K21" s="48"/>
       <c r="L21" s="45"/>
       <c r="M21" s="32">
-        <v>0</v>
+        <v>65434</v>
       </c>
       <c r="N21" s="33">
-        <v>0</v>
+        <v>31495</v>
       </c>
       <c r="P21" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>116930</v>
       </c>
       <c r="Q21" s="326">
         <f t="shared" si="1"/>
@@ -14095,8 +14124,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="530"/>
-      <c r="X21" s="530"/>
+      <c r="W21" s="531"/>
+      <c r="X21" s="531"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -14179,8 +14208,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="531"/>
-      <c r="X23" s="531"/>
+      <c r="W23" s="532"/>
+      <c r="X23" s="532"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -14221,8 +14250,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="531"/>
-      <c r="X24" s="531"/>
+      <c r="W24" s="532"/>
+      <c r="X24" s="532"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -14262,8 +14291,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="532"/>
-      <c r="X25" s="532"/>
+      <c r="W25" s="533"/>
+      <c r="X25" s="533"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -14304,8 +14333,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="532"/>
-      <c r="X26" s="532"/>
+      <c r="W26" s="533"/>
+      <c r="X26" s="533"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -14346,9 +14375,9 @@
       <c r="R27" s="320">
         <v>0</v>
       </c>
-      <c r="W27" s="525"/>
-      <c r="X27" s="526"/>
-      <c r="Y27" s="527"/>
+      <c r="W27" s="526"/>
+      <c r="X27" s="527"/>
+      <c r="Y27" s="528"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -14388,9 +14417,9 @@
       <c r="R28" s="320">
         <v>0</v>
       </c>
-      <c r="W28" s="526"/>
-      <c r="X28" s="526"/>
-      <c r="Y28" s="527"/>
+      <c r="W28" s="527"/>
+      <c r="X28" s="527"/>
+      <c r="Y28" s="528"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -14663,12 +14692,12 @@
       <c r="N35" s="268">
         <v>0</v>
       </c>
-      <c r="P35" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="438">
+      <c r="P35" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q35" s="438" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="R35" s="228"/>
     </row>
@@ -14691,21 +14720,21 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="543">
+      <c r="M36" s="544">
         <f>SUM(M5:M35)</f>
-        <v>736637.66</v>
-      </c>
-      <c r="N36" s="545">
+        <v>802071.66</v>
+      </c>
+      <c r="N36" s="546">
         <f>SUM(N5:N35)</f>
-        <v>442985</v>
+        <v>474480</v>
       </c>
       <c r="O36" s="276"/>
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="570">
+      <c r="Q36" s="571" t="e">
         <f>SUM(Q5:Q35)</f>
-        <v>1.5900000000256114</v>
+        <v>#VALUE!</v>
       </c>
       <c r="R36" s="228"/>
     </row>
@@ -14728,13 +14757,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="544"/>
-      <c r="N37" s="546"/>
+      <c r="M37" s="545"/>
+      <c r="N37" s="547"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="571"/>
+      <c r="Q37" s="572"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -14784,14 +14813,14 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="572">
+      <c r="M39" s="573">
         <f>M36+N36</f>
-        <v>1179622.6600000001</v>
-      </c>
-      <c r="N39" s="573"/>
+        <v>1276551.6600000001</v>
+      </c>
+      <c r="N39" s="574"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
-        <v>1514811.59</v>
+        <v>1631741.59</v>
       </c>
       <c r="Q39" s="275"/>
     </row>
@@ -14994,7 +15023,7 @@
       </c>
       <c r="C50" s="87">
         <f>SUM(C5:C49)</f>
-        <v>246913</v>
+        <v>265523</v>
       </c>
       <c r="D50" s="88"/>
       <c r="E50" s="89" t="s">
@@ -15002,7 +15031,7 @@
       </c>
       <c r="F50" s="90">
         <f>SUM(F5:F49)</f>
-        <v>1472641</v>
+        <v>1589571</v>
       </c>
       <c r="G50" s="88"/>
       <c r="H50" s="91" t="s">
@@ -15010,7 +15039,7 @@
       </c>
       <c r="I50" s="92">
         <f>SUM(I5:I49)</f>
-        <v>58112.5</v>
+        <v>59503.5</v>
       </c>
       <c r="J50" s="93"/>
       <c r="K50" s="94" t="s">
@@ -15036,50 +15065,50 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="498" t="s">
+      <c r="H52" s="499" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="499"/>
+      <c r="I52" s="500"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="500">
+      <c r="K52" s="501">
         <f>I50+L50</f>
-        <v>119219.69</v>
-      </c>
-      <c r="L52" s="533"/>
+        <v>120610.69</v>
+      </c>
+      <c r="L52" s="534"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="504" t="s">
+      <c r="D53" s="505" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="504"/>
+      <c r="E53" s="505"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
-        <v>1106508.31</v>
+        <v>1203437.31</v>
       </c>
       <c r="I53" s="102"/>
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="534" t="s">
+      <c r="D54" s="535" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="534"/>
+      <c r="E54" s="535"/>
       <c r="F54" s="111">
         <v>0</v>
       </c>
-      <c r="I54" s="505" t="s">
+      <c r="I54" s="506" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="506"/>
-      <c r="K54" s="507">
+      <c r="J54" s="507"/>
+      <c r="K54" s="508">
         <f>F56+F57+F58</f>
-        <v>1106508.31</v>
-      </c>
-      <c r="L54" s="507"/>
+        <v>1203437.31</v>
+      </c>
+      <c r="L54" s="508"/>
       <c r="M54" s="422"/>
       <c r="N54" s="422"/>
       <c r="O54" s="422"/>
@@ -15113,18 +15142,18 @@
       </c>
       <c r="F56" s="96">
         <f>SUM(F53:F55)</f>
-        <v>1106508.31</v>
+        <v>1203437.31</v>
       </c>
       <c r="H56" s="23"/>
       <c r="I56" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="509">
+      <c r="K56" s="510">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L56" s="510"/>
+      <c r="L56" s="511"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -15141,22 +15170,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="487" t="s">
+      <c r="D58" s="488" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="488"/>
+      <c r="E58" s="489"/>
       <c r="F58" s="113">
         <v>0</v>
       </c>
-      <c r="I58" s="489" t="s">
+      <c r="I58" s="490" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="490"/>
-      <c r="K58" s="491">
+      <c r="J58" s="491"/>
+      <c r="K58" s="492">
         <f>K54+K56</f>
-        <v>-160060.1399999999</v>
-      </c>
-      <c r="L58" s="491"/>
+        <v>-63131.139999999898</v>
+      </c>
+      <c r="L58" s="492"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -17140,7 +17169,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="549" t="s">
+      <c r="F80" s="550" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -17153,7 +17182,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="550"/>
+      <c r="F81" s="551"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -17462,11 +17491,11 @@
   <sheetData>
     <row r="1" spans="2:6" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="155"/>
-      <c r="C1" s="580" t="s">
+      <c r="C1" s="581" t="s">
         <v>320</v>
       </c>
-      <c r="D1" s="580"/>
-      <c r="E1" s="581"/>
+      <c r="D1" s="581"/>
+      <c r="E1" s="582"/>
       <c r="F1" s="386"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -17484,12 +17513,12 @@
       <c r="F3" s="393"/>
     </row>
     <row r="4" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="582" t="s">
+      <c r="B4" s="583" t="s">
         <v>316</v>
       </c>
-      <c r="C4" s="583"/>
-      <c r="D4" s="583"/>
-      <c r="E4" s="583"/>
+      <c r="C4" s="584"/>
+      <c r="D4" s="584"/>
+      <c r="E4" s="584"/>
       <c r="F4" s="394">
         <v>499853.16</v>
       </c>
@@ -17504,12 +17533,12 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="584" t="s">
+      <c r="B6" s="585" t="s">
         <v>317</v>
       </c>
-      <c r="C6" s="585"/>
-      <c r="D6" s="585"/>
-      <c r="E6" s="585"/>
+      <c r="C6" s="586"/>
+      <c r="D6" s="586"/>
+      <c r="E6" s="586"/>
       <c r="F6" s="394">
         <v>781251.72</v>
       </c>
@@ -17527,10 +17556,10 @@
       <c r="B8" s="387"/>
       <c r="C8" s="380"/>
       <c r="D8" s="381"/>
-      <c r="E8" s="586" t="s">
+      <c r="E8" s="587" t="s">
         <v>315</v>
       </c>
-      <c r="F8" s="588">
+      <c r="F8" s="589">
         <f>SUM(F4:F7)</f>
         <v>1281104.8799999999</v>
       </c>
@@ -17539,8 +17568,8 @@
       <c r="B9" s="387"/>
       <c r="C9" s="380"/>
       <c r="D9" s="381"/>
-      <c r="E9" s="587"/>
-      <c r="F9" s="589"/>
+      <c r="E9" s="588"/>
+      <c r="F9" s="590"/>
     </row>
     <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="387"/>
@@ -17564,12 +17593,12 @@
       <c r="F12" s="393"/>
     </row>
     <row r="13" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="590" t="s">
+      <c r="B13" s="591" t="s">
         <v>318</v>
       </c>
-      <c r="C13" s="591"/>
-      <c r="D13" s="591"/>
-      <c r="E13" s="591"/>
+      <c r="C13" s="592"/>
+      <c r="D13" s="592"/>
+      <c r="E13" s="592"/>
       <c r="F13" s="394">
         <v>255460.4</v>
       </c>
@@ -17584,12 +17613,12 @@
       </c>
     </row>
     <row r="15" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="590" t="s">
+      <c r="B15" s="591" t="s">
         <v>319</v>
       </c>
-      <c r="C15" s="591"/>
-      <c r="D15" s="591"/>
-      <c r="E15" s="591"/>
+      <c r="C15" s="592"/>
+      <c r="D15" s="592"/>
+      <c r="E15" s="592"/>
       <c r="F15" s="394">
         <v>6037.34</v>
       </c>
@@ -17607,10 +17636,10 @@
       <c r="B17" s="387"/>
       <c r="C17" s="380"/>
       <c r="D17" s="381"/>
-      <c r="E17" s="592" t="s">
+      <c r="E17" s="593" t="s">
         <v>315</v>
       </c>
-      <c r="F17" s="594">
+      <c r="F17" s="595">
         <f>SUM(F13:F16)</f>
         <v>261497.74</v>
       </c>
@@ -17619,8 +17648,8 @@
       <c r="B18" s="387"/>
       <c r="C18" s="380"/>
       <c r="D18" s="381"/>
-      <c r="E18" s="593"/>
-      <c r="F18" s="595"/>
+      <c r="E18" s="594"/>
+      <c r="F18" s="596"/>
     </row>
     <row r="19" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="387"/>
@@ -17644,22 +17673,22 @@
       <c r="F21" s="393"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="574" t="s">
+      <c r="B22" s="575" t="s">
         <v>321</v>
       </c>
-      <c r="C22" s="575"/>
-      <c r="D22" s="575"/>
-      <c r="E22" s="575"/>
-      <c r="F22" s="578">
+      <c r="C22" s="576"/>
+      <c r="D22" s="576"/>
+      <c r="E22" s="576"/>
+      <c r="F22" s="579">
         <v>12020</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="576"/>
-      <c r="C23" s="577"/>
-      <c r="D23" s="577"/>
-      <c r="E23" s="577"/>
-      <c r="F23" s="579"/>
+      <c r="B23" s="577"/>
+      <c r="C23" s="578"/>
+      <c r="D23" s="578"/>
+      <c r="E23" s="578"/>
+      <c r="F23" s="580"/>
     </row>
     <row r="24" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="355"/>
@@ -19019,7 +19048,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="522" t="s">
+      <c r="B41" s="523" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -19051,7 +19080,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="523"/>
+      <c r="B42" s="524"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -20647,23 +20676,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="511"/>
-      <c r="C1" s="513" t="s">
+      <c r="B1" s="512"/>
+      <c r="C1" s="514" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="514"/>
-      <c r="E1" s="514"/>
-      <c r="F1" s="514"/>
-      <c r="G1" s="514"/>
-      <c r="H1" s="514"/>
-      <c r="I1" s="514"/>
-      <c r="J1" s="514"/>
-      <c r="K1" s="514"/>
-      <c r="L1" s="514"/>
-      <c r="M1" s="514"/>
+      <c r="D1" s="515"/>
+      <c r="E1" s="515"/>
+      <c r="F1" s="515"/>
+      <c r="G1" s="515"/>
+      <c r="H1" s="515"/>
+      <c r="I1" s="515"/>
+      <c r="J1" s="515"/>
+      <c r="K1" s="515"/>
+      <c r="L1" s="515"/>
+      <c r="M1" s="515"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="512"/>
+      <c r="B2" s="513"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -20673,21 +20702,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="515" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="516"/>
+      <c r="B3" s="516" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="517"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="517" t="s">
+      <c r="H3" s="518" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="517"/>
+      <c r="I3" s="518"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="541" t="s">
+      <c r="P3" s="542" t="s">
         <v>6</v>
       </c>
     </row>
@@ -20702,14 +20731,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="518" t="s">
+      <c r="E4" s="519" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="519"/>
-      <c r="H4" s="520" t="s">
+      <c r="F4" s="520"/>
+      <c r="H4" s="521" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="521"/>
+      <c r="I4" s="522"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -20719,14 +20748,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="542"/>
+      <c r="P4" s="543"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="524" t="s">
+      <c r="W4" s="525" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="524"/>
+      <c r="X4" s="525"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20777,8 +20806,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="524"/>
-      <c r="X5" s="524"/>
+      <c r="W5" s="525"/>
+      <c r="X5" s="525"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21549,7 +21578,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="528">
+      <c r="W19" s="529">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -21601,7 +21630,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="529"/>
+      <c r="W20" s="530"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -21650,8 +21679,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="530"/>
-      <c r="X21" s="530"/>
+      <c r="W21" s="531"/>
+      <c r="X21" s="531"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -21752,8 +21781,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="531"/>
-      <c r="X23" s="531"/>
+      <c r="W23" s="532"/>
+      <c r="X23" s="532"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -21807,8 +21836,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="531"/>
-      <c r="X24" s="531"/>
+      <c r="W24" s="532"/>
+      <c r="X24" s="532"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -21854,8 +21883,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="532"/>
-      <c r="X25" s="532"/>
+      <c r="W25" s="533"/>
+      <c r="X25" s="533"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -21906,8 +21935,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="532"/>
-      <c r="X26" s="532"/>
+      <c r="W26" s="533"/>
+      <c r="X26" s="533"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -21955,9 +21984,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="525"/>
-      <c r="X27" s="526"/>
-      <c r="Y27" s="527"/>
+      <c r="W27" s="526"/>
+      <c r="X27" s="527"/>
+      <c r="Y27" s="528"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22007,9 +22036,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="526"/>
-      <c r="X28" s="526"/>
-      <c r="Y28" s="527"/>
+      <c r="W28" s="527"/>
+      <c r="X28" s="527"/>
+      <c r="Y28" s="528"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22344,11 +22373,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="543">
+      <c r="M36" s="544">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="545">
+      <c r="N36" s="546">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -22356,7 +22385,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="547">
+      <c r="Q36" s="548">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -22391,13 +22420,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="544"/>
-      <c r="N37" s="546"/>
+      <c r="M37" s="545"/>
+      <c r="N37" s="547"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="548"/>
+      <c r="Q37" s="549"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -22687,26 +22716,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="498" t="s">
+      <c r="H52" s="499" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="499"/>
+      <c r="I52" s="500"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="500">
+      <c r="K52" s="501">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="533"/>
+      <c r="L52" s="534"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="504" t="s">
+      <c r="D53" s="505" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="504"/>
+      <c r="E53" s="505"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -22715,29 +22744,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="534" t="s">
+      <c r="D54" s="535" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="534"/>
+      <c r="E54" s="535"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="505" t="s">
+      <c r="I54" s="506" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="506"/>
-      <c r="K54" s="507">
+      <c r="J54" s="507"/>
+      <c r="K54" s="508">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="507"/>
-      <c r="M54" s="535" t="s">
+      <c r="L54" s="508"/>
+      <c r="M54" s="536" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="536"/>
-      <c r="O54" s="536"/>
-      <c r="P54" s="536"/>
-      <c r="Q54" s="537"/>
+      <c r="N54" s="537"/>
+      <c r="O54" s="537"/>
+      <c r="P54" s="537"/>
+      <c r="Q54" s="538"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="314" t="s">
@@ -22751,11 +22780,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="538"/>
-      <c r="N55" s="539"/>
-      <c r="O55" s="539"/>
-      <c r="P55" s="539"/>
-      <c r="Q55" s="540"/>
+      <c r="M55" s="539"/>
+      <c r="N55" s="540"/>
+      <c r="O55" s="540"/>
+      <c r="P55" s="540"/>
+      <c r="Q55" s="541"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -22773,11 +22802,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="509">
+      <c r="K56" s="510">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="510"/>
+      <c r="L56" s="511"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -22794,22 +22823,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="487" t="s">
+      <c r="D58" s="488" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="488"/>
+      <c r="E58" s="489"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="489" t="s">
+      <c r="I58" s="490" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="490"/>
-      <c r="K58" s="491">
+      <c r="J58" s="491"/>
+      <c r="K58" s="492">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="491"/>
+      <c r="L58" s="492"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -25399,7 +25428,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="549" t="s">
+      <c r="F87" s="550" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -25412,7 +25441,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="550"/>
+      <c r="F88" s="551"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -25694,8 +25723,8 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -25724,23 +25753,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="511"/>
-      <c r="C1" s="513" t="s">
+      <c r="B1" s="512"/>
+      <c r="C1" s="514" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="514"/>
-      <c r="E1" s="514"/>
-      <c r="F1" s="514"/>
-      <c r="G1" s="514"/>
-      <c r="H1" s="514"/>
-      <c r="I1" s="514"/>
-      <c r="J1" s="514"/>
-      <c r="K1" s="514"/>
-      <c r="L1" s="514"/>
-      <c r="M1" s="514"/>
+      <c r="D1" s="515"/>
+      <c r="E1" s="515"/>
+      <c r="F1" s="515"/>
+      <c r="G1" s="515"/>
+      <c r="H1" s="515"/>
+      <c r="I1" s="515"/>
+      <c r="J1" s="515"/>
+      <c r="K1" s="515"/>
+      <c r="L1" s="515"/>
+      <c r="M1" s="515"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="512"/>
+      <c r="B2" s="513"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -25750,24 +25779,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="515" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="516"/>
+      <c r="B3" s="516" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="517"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="517" t="s">
+      <c r="H3" s="518" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="517"/>
+      <c r="I3" s="518"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="541" t="s">
+      <c r="P3" s="542" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="551" t="s">
+      <c r="R3" s="552" t="s">
         <v>216</v>
       </c>
     </row>
@@ -25782,14 +25811,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="518" t="s">
+      <c r="E4" s="519" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="519"/>
-      <c r="H4" s="520" t="s">
+      <c r="F4" s="520"/>
+      <c r="H4" s="521" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="521"/>
+      <c r="I4" s="522"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -25799,15 +25828,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="542"/>
+      <c r="P4" s="543"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="552"/>
-      <c r="W4" s="524" t="s">
+      <c r="R4" s="553"/>
+      <c r="W4" s="525" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="524"/>
+      <c r="X4" s="525"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -25868,8 +25897,8 @@
       <c r="S5" s="325" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="524"/>
-      <c r="X5" s="524"/>
+      <c r="W5" s="525"/>
+      <c r="X5" s="525"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26626,7 +26655,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="528">
+      <c r="W19" s="529">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -26678,7 +26707,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="529"/>
+      <c r="W20" s="530"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -26727,8 +26756,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="530"/>
-      <c r="X21" s="530"/>
+      <c r="W21" s="531"/>
+      <c r="X21" s="531"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -26829,8 +26858,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="531"/>
-      <c r="X23" s="531"/>
+      <c r="W23" s="532"/>
+      <c r="X23" s="532"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -26881,8 +26910,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="531"/>
-      <c r="X24" s="531"/>
+      <c r="W24" s="532"/>
+      <c r="X24" s="532"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -26928,8 +26957,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="532"/>
-      <c r="X25" s="532"/>
+      <c r="W25" s="533"/>
+      <c r="X25" s="533"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -26977,8 +27006,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="532"/>
-      <c r="X26" s="532"/>
+      <c r="W26" s="533"/>
+      <c r="X26" s="533"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -27038,9 +27067,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="525"/>
-      <c r="X27" s="526"/>
-      <c r="Y27" s="527"/>
+      <c r="W27" s="526"/>
+      <c r="X27" s="527"/>
+      <c r="Y27" s="528"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -27094,9 +27123,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="526"/>
-      <c r="X28" s="526"/>
-      <c r="Y28" s="527"/>
+      <c r="W28" s="527"/>
+      <c r="X28" s="527"/>
+      <c r="Y28" s="528"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -27412,11 +27441,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="543">
+      <c r="M36" s="544">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="545">
+      <c r="N36" s="546">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -27424,7 +27453,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="547">
+      <c r="Q36" s="548">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -27443,13 +27472,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="544"/>
-      <c r="N37" s="546"/>
+      <c r="M37" s="545"/>
+      <c r="N37" s="547"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="548"/>
+      <c r="Q37" s="549"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -27723,26 +27752,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="498" t="s">
+      <c r="H52" s="499" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="499"/>
+      <c r="I52" s="500"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="500">
+      <c r="K52" s="501">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="533"/>
+      <c r="L52" s="534"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="504" t="s">
+      <c r="D53" s="505" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="504"/>
+      <c r="E53" s="505"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -27751,29 +27780,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="534" t="s">
+      <c r="D54" s="535" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="534"/>
+      <c r="E54" s="535"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="505" t="s">
+      <c r="I54" s="506" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="506"/>
-      <c r="K54" s="507">
+      <c r="J54" s="507"/>
+      <c r="K54" s="508">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="507"/>
-      <c r="M54" s="535" t="s">
+      <c r="L54" s="508"/>
+      <c r="M54" s="536" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="536"/>
-      <c r="O54" s="536"/>
-      <c r="P54" s="536"/>
-      <c r="Q54" s="537"/>
+      <c r="N54" s="537"/>
+      <c r="O54" s="537"/>
+      <c r="P54" s="537"/>
+      <c r="Q54" s="538"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="314" t="s">
@@ -27787,11 +27816,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="538"/>
-      <c r="N55" s="539"/>
-      <c r="O55" s="539"/>
-      <c r="P55" s="539"/>
-      <c r="Q55" s="540"/>
+      <c r="M55" s="539"/>
+      <c r="N55" s="540"/>
+      <c r="O55" s="540"/>
+      <c r="P55" s="540"/>
+      <c r="Q55" s="541"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -27809,11 +27838,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="509">
+      <c r="K56" s="510">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="510"/>
+      <c r="L56" s="511"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -27830,22 +27859,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="487" t="s">
+      <c r="D58" s="488" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="488"/>
+      <c r="E58" s="489"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="489" t="s">
+      <c r="I58" s="490" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="490"/>
-      <c r="K58" s="491">
+      <c r="J58" s="491"/>
+      <c r="K58" s="492">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="491"/>
+      <c r="L58" s="492"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -30408,7 +30437,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="549" t="s">
+      <c r="F75" s="550" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -30421,7 +30450,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="550"/>
+      <c r="F76" s="551"/>
       <c r="K76" s="1"/>
       <c r="L76" s="256"/>
       <c r="M76" s="3"/>
@@ -30683,8 +30712,8 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -30713,23 +30742,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="511"/>
-      <c r="C1" s="553" t="s">
+      <c r="B1" s="512"/>
+      <c r="C1" s="554" t="s">
         <v>323</v>
       </c>
-      <c r="D1" s="554"/>
-      <c r="E1" s="554"/>
-      <c r="F1" s="554"/>
-      <c r="G1" s="554"/>
-      <c r="H1" s="554"/>
-      <c r="I1" s="554"/>
-      <c r="J1" s="554"/>
-      <c r="K1" s="554"/>
-      <c r="L1" s="554"/>
-      <c r="M1" s="554"/>
+      <c r="D1" s="555"/>
+      <c r="E1" s="555"/>
+      <c r="F1" s="555"/>
+      <c r="G1" s="555"/>
+      <c r="H1" s="555"/>
+      <c r="I1" s="555"/>
+      <c r="J1" s="555"/>
+      <c r="K1" s="555"/>
+      <c r="L1" s="555"/>
+      <c r="M1" s="555"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="512"/>
+      <c r="B2" s="513"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -30739,24 +30768,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="515" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="516"/>
+      <c r="B3" s="516" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="517"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="517" t="s">
+      <c r="H3" s="518" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="517"/>
+      <c r="I3" s="518"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="541" t="s">
+      <c r="P3" s="542" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="551" t="s">
+      <c r="R3" s="552" t="s">
         <v>216</v>
       </c>
     </row>
@@ -30771,14 +30800,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="518" t="s">
+      <c r="E4" s="519" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="519"/>
-      <c r="H4" s="520" t="s">
+      <c r="F4" s="520"/>
+      <c r="H4" s="521" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="521"/>
+      <c r="I4" s="522"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -30788,15 +30817,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="542"/>
+      <c r="P4" s="543"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="552"/>
-      <c r="W4" s="524" t="s">
+      <c r="R4" s="553"/>
+      <c r="W4" s="525" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="524"/>
+      <c r="X4" s="525"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -30847,8 +30876,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="325"/>
-      <c r="W5" s="524"/>
-      <c r="X5" s="524"/>
+      <c r="W5" s="525"/>
+      <c r="X5" s="525"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31612,7 +31641,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="528">
+      <c r="W19" s="529">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -31665,7 +31694,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="529"/>
+      <c r="W20" s="530"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -31714,8 +31743,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="530"/>
-      <c r="X21" s="530"/>
+      <c r="W21" s="531"/>
+      <c r="X21" s="531"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -31815,8 +31844,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="531"/>
-      <c r="X23" s="531"/>
+      <c r="W23" s="532"/>
+      <c r="X23" s="532"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -31871,8 +31900,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="531"/>
-      <c r="X24" s="531"/>
+      <c r="W24" s="532"/>
+      <c r="X24" s="532"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -31917,8 +31946,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="532"/>
-      <c r="X25" s="532"/>
+      <c r="W25" s="533"/>
+      <c r="X25" s="533"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -31966,8 +31995,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="532"/>
-      <c r="X26" s="532"/>
+      <c r="W26" s="533"/>
+      <c r="X26" s="533"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -32021,9 +32050,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="525"/>
-      <c r="X27" s="526"/>
-      <c r="Y27" s="527"/>
+      <c r="W27" s="526"/>
+      <c r="X27" s="527"/>
+      <c r="Y27" s="528"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32077,9 +32106,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="526"/>
-      <c r="X28" s="526"/>
-      <c r="Y28" s="527"/>
+      <c r="W28" s="527"/>
+      <c r="X28" s="527"/>
+      <c r="Y28" s="528"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32311,9 +32340,15 @@
     </row>
     <row r="34" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="23"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="64"/>
+      <c r="B34" s="24">
+        <v>44591</v>
+      </c>
+      <c r="C34" s="25">
+        <v>43151.45</v>
+      </c>
+      <c r="D34" s="64" t="s">
+        <v>585</v>
+      </c>
       <c r="E34" s="27"/>
       <c r="F34" s="28"/>
       <c r="G34" s="2"/>
@@ -32384,11 +32419,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="543">
+      <c r="M36" s="544">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="545">
+      <c r="N36" s="546">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -32396,7 +32431,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="547">
+      <c r="Q36" s="548">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -32421,13 +32456,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="544"/>
-      <c r="N37" s="546"/>
+      <c r="M37" s="545"/>
+      <c r="N37" s="547"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="548"/>
+      <c r="Q37" s="549"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -32462,9 +32497,15 @@
       <c r="G39" s="2"/>
       <c r="H39" s="36"/>
       <c r="I39" s="71"/>
-      <c r="J39" s="60"/>
-      <c r="K39" s="177"/>
-      <c r="L39" s="61"/>
+      <c r="J39" s="60" t="s">
+        <v>583</v>
+      </c>
+      <c r="K39" s="177" t="s">
+        <v>584</v>
+      </c>
+      <c r="L39" s="61">
+        <v>13803.92</v>
+      </c>
       <c r="M39" s="278"/>
       <c r="N39" s="278"/>
       <c r="P39" s="34">
@@ -32672,7 +32713,7 @@
       </c>
       <c r="C50" s="87">
         <f>SUM(C5:C49)</f>
-        <v>312737.68</v>
+        <v>355889.13</v>
       </c>
       <c r="D50" s="88"/>
       <c r="E50" s="89" t="s">
@@ -32696,7 +32737,7 @@
       </c>
       <c r="L50" s="95">
         <f>SUM(L5:L49)</f>
-        <v>93894.3</v>
+        <v>107698.22</v>
       </c>
       <c r="M50" s="96"/>
       <c r="N50" s="96"/>
@@ -32714,50 +32755,50 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="498" t="s">
+      <c r="H52" s="499" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="499"/>
+      <c r="I52" s="500"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="500">
+      <c r="K52" s="501">
         <f>I50+L50</f>
-        <v>144994.20000000001</v>
-      </c>
-      <c r="L52" s="533"/>
+        <v>158798.12</v>
+      </c>
+      <c r="L52" s="534"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="504" t="s">
+      <c r="D53" s="505" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="504"/>
+      <c r="E53" s="505"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
-        <v>2135426.1199999996</v>
+        <v>2078470.75</v>
       </c>
       <c r="I53" s="102"/>
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="534" t="s">
+      <c r="D54" s="535" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="534"/>
+      <c r="E54" s="535"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="505" t="s">
+      <c r="I54" s="506" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="506"/>
-      <c r="K54" s="507">
+      <c r="J54" s="507"/>
+      <c r="K54" s="508">
         <f>F56+F57+F58</f>
-        <v>1082916.0699999996</v>
-      </c>
-      <c r="L54" s="507"/>
+        <v>1025960.7</v>
+      </c>
+      <c r="L54" s="508"/>
       <c r="M54" s="422"/>
       <c r="N54" s="422"/>
       <c r="O54" s="422"/>
@@ -32791,18 +32832,18 @@
       </c>
       <c r="F56" s="96">
         <f>SUM(F53:F55)</f>
-        <v>-221976.34000000032</v>
+        <v>-278931.70999999996</v>
       </c>
       <c r="H56" s="23"/>
       <c r="I56" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="509">
+      <c r="K56" s="510">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="510"/>
+      <c r="L56" s="511"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -32819,22 +32860,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="487" t="s">
+      <c r="D58" s="488" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="488"/>
+      <c r="E58" s="489"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="489" t="s">
+      <c r="I58" s="490" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="490"/>
-      <c r="K58" s="491">
+      <c r="J58" s="491"/>
+      <c r="K58" s="492">
         <f>K54+K56</f>
-        <v>328772.83999999962</v>
-      </c>
-      <c r="L58" s="491"/>
+        <v>271817.46999999997</v>
+      </c>
+      <c r="L58" s="492"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -34677,12 +34718,12 @@
     </row>
     <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="245"/>
-      <c r="B43" s="555" t="s">
+      <c r="B43" s="556" t="s">
         <v>420</v>
       </c>
-      <c r="C43" s="556"/>
-      <c r="D43" s="556"/>
-      <c r="E43" s="557"/>
+      <c r="C43" s="557"/>
+      <c r="D43" s="557"/>
+      <c r="E43" s="558"/>
       <c r="F43" s="410">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -34708,10 +34749,10 @@
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="245"/>
-      <c r="B44" s="558"/>
-      <c r="C44" s="559"/>
-      <c r="D44" s="559"/>
-      <c r="E44" s="560"/>
+      <c r="B44" s="559"/>
+      <c r="C44" s="560"/>
+      <c r="D44" s="560"/>
+      <c r="E44" s="561"/>
       <c r="F44" s="410">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -34737,10 +34778,10 @@
     </row>
     <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="245"/>
-      <c r="B45" s="561"/>
-      <c r="C45" s="562"/>
-      <c r="D45" s="562"/>
-      <c r="E45" s="563"/>
+      <c r="B45" s="562"/>
+      <c r="C45" s="563"/>
+      <c r="D45" s="563"/>
+      <c r="E45" s="564"/>
       <c r="F45" s="410">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -34815,11 +34856,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="349"/>
-      <c r="J48" s="564" t="s">
+      <c r="J48" s="565" t="s">
         <v>421</v>
       </c>
-      <c r="K48" s="565"/>
-      <c r="L48" s="566"/>
+      <c r="K48" s="566"/>
+      <c r="L48" s="567"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -34837,9 +34878,9 @@
         <v>0</v>
       </c>
       <c r="I49" s="349"/>
-      <c r="J49" s="567"/>
-      <c r="K49" s="568"/>
-      <c r="L49" s="569"/>
+      <c r="J49" s="568"/>
+      <c r="K49" s="569"/>
+      <c r="L49" s="570"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -35466,7 +35507,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="549" t="s">
+      <c r="F80" s="550" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -35479,7 +35520,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="550"/>
+      <c r="F81" s="551"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -35764,8 +35805,8 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -35794,23 +35835,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="511"/>
-      <c r="C1" s="553" t="s">
+      <c r="B1" s="512"/>
+      <c r="C1" s="554" t="s">
         <v>323</v>
       </c>
-      <c r="D1" s="554"/>
-      <c r="E1" s="554"/>
-      <c r="F1" s="554"/>
-      <c r="G1" s="554"/>
-      <c r="H1" s="554"/>
-      <c r="I1" s="554"/>
-      <c r="J1" s="554"/>
-      <c r="K1" s="554"/>
-      <c r="L1" s="554"/>
-      <c r="M1" s="554"/>
+      <c r="D1" s="555"/>
+      <c r="E1" s="555"/>
+      <c r="F1" s="555"/>
+      <c r="G1" s="555"/>
+      <c r="H1" s="555"/>
+      <c r="I1" s="555"/>
+      <c r="J1" s="555"/>
+      <c r="K1" s="555"/>
+      <c r="L1" s="555"/>
+      <c r="M1" s="555"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="512"/>
+      <c r="B2" s="513"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -35820,24 +35861,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="515" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="516"/>
+      <c r="B3" s="516" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="517"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="517" t="s">
+      <c r="H3" s="518" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="517"/>
+      <c r="I3" s="518"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="541" t="s">
+      <c r="P3" s="542" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="551" t="s">
+      <c r="R3" s="552" t="s">
         <v>216</v>
       </c>
     </row>
@@ -35852,14 +35893,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="518" t="s">
+      <c r="E4" s="519" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="519"/>
-      <c r="H4" s="520" t="s">
+      <c r="F4" s="520"/>
+      <c r="H4" s="521" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="521"/>
+      <c r="I4" s="522"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -35869,15 +35910,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="542"/>
+      <c r="P4" s="543"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="552"/>
-      <c r="W4" s="524" t="s">
+      <c r="R4" s="553"/>
+      <c r="W4" s="525" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="524"/>
+      <c r="X4" s="525"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -35928,8 +35969,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="325"/>
-      <c r="W5" s="524"/>
-      <c r="X5" s="524"/>
+      <c r="W5" s="525"/>
+      <c r="X5" s="525"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -36690,7 +36731,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="528">
+      <c r="W19" s="529">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -36742,7 +36783,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="529"/>
+      <c r="W20" s="530"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -36791,8 +36832,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="530"/>
-      <c r="X21" s="530"/>
+      <c r="W21" s="531"/>
+      <c r="X21" s="531"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -36891,8 +36932,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="531"/>
-      <c r="X23" s="531"/>
+      <c r="W23" s="532"/>
+      <c r="X23" s="532"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -36947,8 +36988,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="531"/>
-      <c r="X24" s="531"/>
+      <c r="W24" s="532"/>
+      <c r="X24" s="532"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -36996,8 +37037,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="532"/>
-      <c r="X25" s="532"/>
+      <c r="W25" s="533"/>
+      <c r="X25" s="533"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -37045,8 +37086,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="532"/>
-      <c r="X26" s="532"/>
+      <c r="W26" s="533"/>
+      <c r="X26" s="533"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -37094,9 +37135,9 @@
       <c r="R27" s="320">
         <v>0</v>
       </c>
-      <c r="W27" s="525"/>
-      <c r="X27" s="526"/>
-      <c r="Y27" s="527"/>
+      <c r="W27" s="526"/>
+      <c r="X27" s="527"/>
+      <c r="Y27" s="528"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -37144,9 +37185,9 @@
       <c r="R28" s="320">
         <v>0</v>
       </c>
-      <c r="W28" s="526"/>
-      <c r="X28" s="526"/>
-      <c r="Y28" s="527"/>
+      <c r="W28" s="527"/>
+      <c r="X28" s="527"/>
+      <c r="Y28" s="528"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -37487,11 +37528,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="543">
+      <c r="M36" s="544">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="545">
+      <c r="N36" s="546">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -37499,7 +37540,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="570">
+      <c r="Q36" s="571">
         <f>SUM(Q5:Q35)</f>
         <v>111.43999999999505</v>
       </c>
@@ -37524,13 +37565,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="544"/>
-      <c r="N37" s="546"/>
+      <c r="M37" s="545"/>
+      <c r="N37" s="547"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="571"/>
+      <c r="Q37" s="572"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -37580,11 +37621,11 @@
       <c r="L39" s="61">
         <v>14981.03</v>
       </c>
-      <c r="M39" s="572">
+      <c r="M39" s="573">
         <f>M36+N36</f>
         <v>2934972.49</v>
       </c>
-      <c r="N39" s="573"/>
+      <c r="N39" s="574"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3450079.65</v>
@@ -37770,9 +37811,15 @@
       <c r="F49" s="72"/>
       <c r="H49" s="83"/>
       <c r="I49" s="77"/>
-      <c r="J49" s="84"/>
-      <c r="K49" s="164"/>
-      <c r="L49" s="9"/>
+      <c r="J49" s="487" t="s">
+        <v>581</v>
+      </c>
+      <c r="K49" s="164" t="s">
+        <v>582</v>
+      </c>
+      <c r="L49" s="9">
+        <v>17279.18</v>
+      </c>
       <c r="M49" s="34"/>
       <c r="N49" s="34"/>
       <c r="P49" s="34"/>
@@ -37808,7 +37855,7 @@
       </c>
       <c r="L50" s="95">
         <f>SUM(L5:L49)</f>
-        <v>114509.62</v>
+        <v>131788.79999999999</v>
       </c>
       <c r="M50" s="96"/>
       <c r="N50" s="96"/>
@@ -37826,50 +37873,50 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="498" t="s">
+      <c r="H52" s="499" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="499"/>
+      <c r="I52" s="500"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="500">
+      <c r="K52" s="501">
         <f>I50+L50</f>
-        <v>180192.62</v>
-      </c>
-      <c r="L52" s="533"/>
+        <v>197471.8</v>
+      </c>
+      <c r="L52" s="534"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="504" t="s">
+      <c r="D53" s="505" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="504"/>
+      <c r="E53" s="505"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
-        <v>2075065.2899999998</v>
+        <v>2057786.11</v>
       </c>
       <c r="I53" s="102"/>
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="534" t="s">
+      <c r="D54" s="535" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="534"/>
+      <c r="E54" s="535"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="505" t="s">
+      <c r="I54" s="506" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="506"/>
-      <c r="K54" s="507">
+      <c r="J54" s="507"/>
+      <c r="K54" s="508">
         <f>F56+F57+F58</f>
-        <v>1165244.52</v>
-      </c>
-      <c r="L54" s="507"/>
+        <v>1147965.3400000003</v>
+      </c>
+      <c r="L54" s="508"/>
       <c r="M54" s="422"/>
       <c r="N54" s="422"/>
       <c r="O54" s="422"/>
@@ -37903,18 +37950,18 @@
       </c>
       <c r="F56" s="96">
         <f>SUM(F53:F55)</f>
-        <v>-181036.93000000005</v>
+        <v>-198316.10999999975</v>
       </c>
       <c r="H56" s="23"/>
       <c r="I56" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="509">
+      <c r="K56" s="510">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="510"/>
+      <c r="L56" s="511"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -37931,22 +37978,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="487" t="s">
+      <c r="D58" s="488" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="488"/>
+      <c r="E58" s="489"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="489" t="s">
-        <v>198</v>
-      </c>
-      <c r="J58" s="490"/>
-      <c r="K58" s="491">
+      <c r="I58" s="490" t="s">
+        <v>97</v>
+      </c>
+      <c r="J58" s="491"/>
+      <c r="K58" s="492">
         <f>K54+K56</f>
-        <v>15504.110000000102</v>
-      </c>
-      <c r="L58" s="491"/>
+        <v>-1775.0699999995995</v>
+      </c>
+      <c r="L58" s="492"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/BALANCE    ZAVALETA   MARZO  2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/BALANCE    ZAVALETA   MARZO  2022.xlsx
@@ -457,7 +457,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="589">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2218,6 +2218,12 @@
   </si>
   <si>
     <t>POLLO-JAMONES-QUESOS-MIXIOTES-CHISTORRA</t>
+  </si>
+  <si>
+    <t>POLLO-PATA-CHULETA-SALCHICHONERIA-ENCHILADA</t>
+  </si>
+  <si>
+    <t>QUESOS-JAMONES-POLLO</t>
   </si>
 </sst>
 </file>
@@ -4117,7 +4123,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="597">
+  <cellXfs count="598">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -5098,6 +5104,39 @@
     <xf numFmtId="165" fontId="18" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5170,76 +5209,10 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5283,6 +5256,39 @@
     </xf>
     <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5425,6 +5431,7 @@
     <xf numFmtId="44" fontId="11" fillId="14" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="3" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -8420,23 +8427,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="512"/>
-      <c r="C1" s="514" t="s">
+      <c r="B1" s="488"/>
+      <c r="C1" s="490" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="515"/>
-      <c r="E1" s="515"/>
-      <c r="F1" s="515"/>
-      <c r="G1" s="515"/>
-      <c r="H1" s="515"/>
-      <c r="I1" s="515"/>
-      <c r="J1" s="515"/>
-      <c r="K1" s="515"/>
-      <c r="L1" s="515"/>
-      <c r="M1" s="515"/>
+      <c r="D1" s="491"/>
+      <c r="E1" s="491"/>
+      <c r="F1" s="491"/>
+      <c r="G1" s="491"/>
+      <c r="H1" s="491"/>
+      <c r="I1" s="491"/>
+      <c r="J1" s="491"/>
+      <c r="K1" s="491"/>
+      <c r="L1" s="491"/>
+      <c r="M1" s="491"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="513"/>
+      <c r="B2" s="489"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -8446,17 +8453,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="516" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="517"/>
+      <c r="B3" s="492" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="493"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="518" t="s">
+      <c r="H3" s="494" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="518"/>
+      <c r="I3" s="494"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -8470,14 +8477,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="519" t="s">
+      <c r="E4" s="495" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="520"/>
-      <c r="H4" s="521" t="s">
+      <c r="F4" s="496"/>
+      <c r="H4" s="497" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="522"/>
+      <c r="I4" s="498"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -8487,10 +8494,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="493" t="s">
+      <c r="P4" s="504" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="494"/>
+      <c r="Q4" s="505"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -9931,11 +9938,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="495">
+      <c r="M39" s="506">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="497">
+      <c r="N39" s="508">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -9961,8 +9968,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="496"/>
-      <c r="N40" s="498"/>
+      <c r="M40" s="507"/>
+      <c r="N40" s="509"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -10177,29 +10184,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="499" t="s">
+      <c r="H52" s="510" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="500"/>
+      <c r="I52" s="511"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="501">
+      <c r="K52" s="512">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="502"/>
-      <c r="M52" s="503">
+      <c r="L52" s="513"/>
+      <c r="M52" s="514">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="504"/>
+      <c r="N52" s="515"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="505" t="s">
+      <c r="D53" s="516" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="505"/>
+      <c r="E53" s="516"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -10210,22 +10217,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="505" t="s">
+      <c r="D54" s="516" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="505"/>
+      <c r="E54" s="516"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="506" t="s">
+      <c r="I54" s="517" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="507"/>
-      <c r="K54" s="508">
+      <c r="J54" s="518"/>
+      <c r="K54" s="519">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="509"/>
+      <c r="L54" s="520"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -10258,11 +10265,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="510">
+      <c r="K56" s="521">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="511"/>
+      <c r="L56" s="522"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -10279,22 +10286,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="488" t="s">
+      <c r="D58" s="499" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="489"/>
+      <c r="E58" s="500"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="490" t="s">
+      <c r="I58" s="501" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="491"/>
-      <c r="K58" s="492">
+      <c r="J58" s="502"/>
+      <c r="K58" s="503">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="492"/>
+      <c r="L58" s="503"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -10438,12 +10445,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -10458,6 +10459,12 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13095,8 +13102,8 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H10" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13125,7 +13132,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="512"/>
+      <c r="B1" s="488"/>
       <c r="C1" s="554" t="s">
         <v>458</v>
       </c>
@@ -13141,7 +13148,7 @@
       <c r="M1" s="555"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="513"/>
+      <c r="B2" s="489"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -13151,21 +13158,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="516" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="517"/>
+      <c r="B3" s="492" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="493"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="518" t="s">
+      <c r="H3" s="494" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="518"/>
+      <c r="I3" s="494"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="542" t="s">
+      <c r="P3" s="531" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="552" t="s">
@@ -13183,14 +13190,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="519" t="s">
+      <c r="E4" s="495" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="520"/>
-      <c r="H4" s="521" t="s">
+      <c r="F4" s="496"/>
+      <c r="H4" s="497" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="522"/>
+      <c r="I4" s="498"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -13200,15 +13207,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="543"/>
+      <c r="P4" s="532"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="553"/>
-      <c r="W4" s="525" t="s">
+      <c r="W4" s="541" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="525"/>
+      <c r="X4" s="541"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -13259,8 +13266,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="325"/>
-      <c r="W5" s="525"/>
-      <c r="X5" s="525"/>
+      <c r="W5" s="541"/>
+      <c r="X5" s="541"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -14023,7 +14030,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="529">
+      <c r="W19" s="545">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -14075,7 +14082,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="530"/>
+      <c r="W20" s="546"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -14124,8 +14131,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="531"/>
-      <c r="X21" s="531"/>
+      <c r="W21" s="547"/>
+      <c r="X21" s="547"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -14134,33 +14141,42 @@
       <c r="B22" s="24">
         <v>44637</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="35"/>
+      <c r="C22" s="25">
+        <v>22003</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>587</v>
+      </c>
       <c r="E22" s="27">
         <v>44637</v>
       </c>
-      <c r="F22" s="28"/>
+      <c r="F22" s="28">
+        <v>111279</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="36">
         <v>44637</v>
       </c>
-      <c r="I22" s="30"/>
+      <c r="I22" s="30">
+        <v>2399</v>
+      </c>
       <c r="J22" s="37"/>
       <c r="K22" s="31"/>
       <c r="L22" s="49"/>
-      <c r="M22" s="32">
-        <v>0</v>
+      <c r="M22" s="182">
+        <f>642</f>
+        <v>642</v>
       </c>
       <c r="N22" s="33">
-        <v>0</v>
+        <v>23356</v>
       </c>
       <c r="P22" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="326">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>48400</v>
+      </c>
+      <c r="Q22" s="597">
+        <f t="shared" si="1"/>
+        <v>-62879</v>
       </c>
       <c r="R22" s="320">
         <v>0</v>
@@ -14176,40 +14192,48 @@
       <c r="B23" s="24">
         <v>44638</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="35"/>
+      <c r="C23" s="25">
+        <v>9219</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>588</v>
+      </c>
       <c r="E23" s="27">
         <v>44638</v>
       </c>
-      <c r="F23" s="28"/>
+      <c r="F23" s="28">
+        <v>95289</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="36">
         <v>44638</v>
       </c>
-      <c r="I23" s="30"/>
+      <c r="I23" s="30">
+        <v>6115</v>
+      </c>
       <c r="J23" s="50"/>
       <c r="K23" s="172"/>
       <c r="L23" s="45"/>
-      <c r="M23" s="32">
+      <c r="M23" s="182">
         <v>0</v>
       </c>
       <c r="N23" s="33">
-        <v>0</v>
+        <v>26005</v>
       </c>
       <c r="P23" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41339</v>
       </c>
       <c r="Q23" s="326">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-53950</v>
       </c>
       <c r="R23" s="320">
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="532"/>
-      <c r="X23" s="532"/>
+      <c r="W23" s="548"/>
+      <c r="X23" s="548"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -14250,8 +14274,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="532"/>
-      <c r="X24" s="532"/>
+      <c r="W24" s="548"/>
+      <c r="X24" s="548"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -14291,8 +14315,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="533"/>
-      <c r="X25" s="533"/>
+      <c r="W25" s="549"/>
+      <c r="X25" s="549"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -14333,8 +14357,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="533"/>
-      <c r="X26" s="533"/>
+      <c r="W26" s="549"/>
+      <c r="X26" s="549"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -14375,9 +14399,9 @@
       <c r="R27" s="320">
         <v>0</v>
       </c>
-      <c r="W27" s="526"/>
-      <c r="X27" s="527"/>
-      <c r="Y27" s="528"/>
+      <c r="W27" s="542"/>
+      <c r="X27" s="543"/>
+      <c r="Y27" s="544"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -14417,9 +14441,9 @@
       <c r="R28" s="320">
         <v>0</v>
       </c>
-      <c r="W28" s="527"/>
-      <c r="X28" s="527"/>
-      <c r="Y28" s="528"/>
+      <c r="W28" s="543"/>
+      <c r="X28" s="543"/>
+      <c r="Y28" s="544"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -14720,13 +14744,13 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="544">
+      <c r="M36" s="533">
         <f>SUM(M5:M35)</f>
-        <v>802071.66</v>
-      </c>
-      <c r="N36" s="546">
+        <v>802713.66</v>
+      </c>
+      <c r="N36" s="535">
         <f>SUM(N5:N35)</f>
-        <v>474480</v>
+        <v>523841</v>
       </c>
       <c r="O36" s="276"/>
       <c r="P36" s="277">
@@ -14757,8 +14781,8 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="545"/>
-      <c r="N37" s="547"/>
+      <c r="M37" s="534"/>
+      <c r="N37" s="536"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
@@ -14815,12 +14839,12 @@
       <c r="L39" s="61"/>
       <c r="M39" s="573">
         <f>M36+N36</f>
-        <v>1276551.6600000001</v>
+        <v>1326554.6600000001</v>
       </c>
       <c r="N39" s="574"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
-        <v>1631741.59</v>
+        <v>1721480.59</v>
       </c>
       <c r="Q39" s="275"/>
     </row>
@@ -15023,7 +15047,7 @@
       </c>
       <c r="C50" s="87">
         <f>SUM(C5:C49)</f>
-        <v>265523</v>
+        <v>296745</v>
       </c>
       <c r="D50" s="88"/>
       <c r="E50" s="89" t="s">
@@ -15031,7 +15055,7 @@
       </c>
       <c r="F50" s="90">
         <f>SUM(F5:F49)</f>
-        <v>1589571</v>
+        <v>1796139</v>
       </c>
       <c r="G50" s="88"/>
       <c r="H50" s="91" t="s">
@@ -15039,7 +15063,7 @@
       </c>
       <c r="I50" s="92">
         <f>SUM(I5:I49)</f>
-        <v>59503.5</v>
+        <v>68017.5</v>
       </c>
       <c r="J50" s="93"/>
       <c r="K50" s="94" t="s">
@@ -15065,50 +15089,50 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="499" t="s">
+      <c r="H52" s="510" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="500"/>
+      <c r="I52" s="511"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="501">
+      <c r="K52" s="512">
         <f>I50+L50</f>
-        <v>120610.69</v>
-      </c>
-      <c r="L52" s="534"/>
+        <v>129124.69</v>
+      </c>
+      <c r="L52" s="539"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="505" t="s">
+      <c r="D53" s="516" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="505"/>
+      <c r="E53" s="516"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
-        <v>1203437.31</v>
+        <v>1370269.31</v>
       </c>
       <c r="I53" s="102"/>
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="535" t="s">
+      <c r="D54" s="540" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="535"/>
+      <c r="E54" s="540"/>
       <c r="F54" s="111">
         <v>0</v>
       </c>
-      <c r="I54" s="506" t="s">
+      <c r="I54" s="517" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="507"/>
-      <c r="K54" s="508">
+      <c r="J54" s="518"/>
+      <c r="K54" s="519">
         <f>F56+F57+F58</f>
-        <v>1203437.31</v>
-      </c>
-      <c r="L54" s="508"/>
+        <v>1370269.31</v>
+      </c>
+      <c r="L54" s="519"/>
       <c r="M54" s="422"/>
       <c r="N54" s="422"/>
       <c r="O54" s="422"/>
@@ -15142,18 +15166,18 @@
       </c>
       <c r="F56" s="96">
         <f>SUM(F53:F55)</f>
-        <v>1203437.31</v>
+        <v>1370269.31</v>
       </c>
       <c r="H56" s="23"/>
       <c r="I56" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="510">
+      <c r="K56" s="521">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L56" s="511"/>
+      <c r="L56" s="522"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -15170,22 +15194,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="488" t="s">
+      <c r="D58" s="499" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="489"/>
+      <c r="E58" s="500"/>
       <c r="F58" s="113">
         <v>0</v>
       </c>
-      <c r="I58" s="490" t="s">
+      <c r="I58" s="501" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="491"/>
-      <c r="K58" s="492">
+      <c r="J58" s="502"/>
+      <c r="K58" s="503">
         <f>K54+K56</f>
-        <v>-63131.139999999898</v>
-      </c>
-      <c r="L58" s="492"/>
+        <v>103700.8600000001</v>
+      </c>
+      <c r="L58" s="503"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -15329,21 +15353,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M39:N39"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -15359,6 +15368,21 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.15748031496062992" top="0.39370078740157483" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -20676,23 +20700,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="512"/>
-      <c r="C1" s="514" t="s">
+      <c r="B1" s="488"/>
+      <c r="C1" s="490" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="515"/>
-      <c r="E1" s="515"/>
-      <c r="F1" s="515"/>
-      <c r="G1" s="515"/>
-      <c r="H1" s="515"/>
-      <c r="I1" s="515"/>
-      <c r="J1" s="515"/>
-      <c r="K1" s="515"/>
-      <c r="L1" s="515"/>
-      <c r="M1" s="515"/>
+      <c r="D1" s="491"/>
+      <c r="E1" s="491"/>
+      <c r="F1" s="491"/>
+      <c r="G1" s="491"/>
+      <c r="H1" s="491"/>
+      <c r="I1" s="491"/>
+      <c r="J1" s="491"/>
+      <c r="K1" s="491"/>
+      <c r="L1" s="491"/>
+      <c r="M1" s="491"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="513"/>
+      <c r="B2" s="489"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -20702,21 +20726,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="516" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="517"/>
+      <c r="B3" s="492" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="493"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="518" t="s">
+      <c r="H3" s="494" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="518"/>
+      <c r="I3" s="494"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="542" t="s">
+      <c r="P3" s="531" t="s">
         <v>6</v>
       </c>
     </row>
@@ -20731,14 +20755,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="519" t="s">
+      <c r="E4" s="495" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="520"/>
-      <c r="H4" s="521" t="s">
+      <c r="F4" s="496"/>
+      <c r="H4" s="497" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="522"/>
+      <c r="I4" s="498"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -20748,14 +20772,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="543"/>
+      <c r="P4" s="532"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="525" t="s">
+      <c r="W4" s="541" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="525"/>
+      <c r="X4" s="541"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20806,8 +20830,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="525"/>
-      <c r="X5" s="525"/>
+      <c r="W5" s="541"/>
+      <c r="X5" s="541"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21578,7 +21602,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="529">
+      <c r="W19" s="545">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -21630,7 +21654,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="530"/>
+      <c r="W20" s="546"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -21679,8 +21703,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="531"/>
-      <c r="X21" s="531"/>
+      <c r="W21" s="547"/>
+      <c r="X21" s="547"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -21781,8 +21805,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="532"/>
-      <c r="X23" s="532"/>
+      <c r="W23" s="548"/>
+      <c r="X23" s="548"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -21836,8 +21860,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="532"/>
-      <c r="X24" s="532"/>
+      <c r="W24" s="548"/>
+      <c r="X24" s="548"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -21883,8 +21907,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="533"/>
-      <c r="X25" s="533"/>
+      <c r="W25" s="549"/>
+      <c r="X25" s="549"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -21935,8 +21959,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="533"/>
-      <c r="X26" s="533"/>
+      <c r="W26" s="549"/>
+      <c r="X26" s="549"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -21984,9 +22008,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="526"/>
-      <c r="X27" s="527"/>
-      <c r="Y27" s="528"/>
+      <c r="W27" s="542"/>
+      <c r="X27" s="543"/>
+      <c r="Y27" s="544"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22036,9 +22060,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="527"/>
-      <c r="X28" s="527"/>
-      <c r="Y28" s="528"/>
+      <c r="W28" s="543"/>
+      <c r="X28" s="543"/>
+      <c r="Y28" s="544"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22373,11 +22397,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="544">
+      <c r="M36" s="533">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="546">
+      <c r="N36" s="535">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -22385,7 +22409,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="548">
+      <c r="Q36" s="537">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -22420,13 +22444,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="545"/>
-      <c r="N37" s="547"/>
+      <c r="M37" s="534"/>
+      <c r="N37" s="536"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="549"/>
+      <c r="Q37" s="538"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -22716,26 +22740,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="499" t="s">
+      <c r="H52" s="510" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="500"/>
+      <c r="I52" s="511"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="501">
+      <c r="K52" s="512">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="534"/>
+      <c r="L52" s="539"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="505" t="s">
+      <c r="D53" s="516" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="505"/>
+      <c r="E53" s="516"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -22744,29 +22768,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="535" t="s">
+      <c r="D54" s="540" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="535"/>
+      <c r="E54" s="540"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="506" t="s">
+      <c r="I54" s="517" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="507"/>
-      <c r="K54" s="508">
+      <c r="J54" s="518"/>
+      <c r="K54" s="519">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="508"/>
-      <c r="M54" s="536" t="s">
+      <c r="L54" s="519"/>
+      <c r="M54" s="525" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="537"/>
-      <c r="O54" s="537"/>
-      <c r="P54" s="537"/>
-      <c r="Q54" s="538"/>
+      <c r="N54" s="526"/>
+      <c r="O54" s="526"/>
+      <c r="P54" s="526"/>
+      <c r="Q54" s="527"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="314" t="s">
@@ -22780,11 +22804,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="539"/>
-      <c r="N55" s="540"/>
-      <c r="O55" s="540"/>
-      <c r="P55" s="540"/>
-      <c r="Q55" s="541"/>
+      <c r="M55" s="528"/>
+      <c r="N55" s="529"/>
+      <c r="O55" s="529"/>
+      <c r="P55" s="529"/>
+      <c r="Q55" s="530"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -22802,11 +22826,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="510">
+      <c r="K56" s="521">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="511"/>
+      <c r="L56" s="522"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -22823,22 +22847,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="488" t="s">
+      <c r="D58" s="499" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="489"/>
+      <c r="E58" s="500"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="490" t="s">
+      <c r="I58" s="501" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="491"/>
-      <c r="K58" s="492">
+      <c r="J58" s="502"/>
+      <c r="K58" s="503">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="492"/>
+      <c r="L58" s="503"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -22982,17 +23006,14 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -23003,14 +23024,17 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="68" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -25753,23 +25777,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="512"/>
-      <c r="C1" s="514" t="s">
+      <c r="B1" s="488"/>
+      <c r="C1" s="490" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="515"/>
-      <c r="E1" s="515"/>
-      <c r="F1" s="515"/>
-      <c r="G1" s="515"/>
-      <c r="H1" s="515"/>
-      <c r="I1" s="515"/>
-      <c r="J1" s="515"/>
-      <c r="K1" s="515"/>
-      <c r="L1" s="515"/>
-      <c r="M1" s="515"/>
+      <c r="D1" s="491"/>
+      <c r="E1" s="491"/>
+      <c r="F1" s="491"/>
+      <c r="G1" s="491"/>
+      <c r="H1" s="491"/>
+      <c r="I1" s="491"/>
+      <c r="J1" s="491"/>
+      <c r="K1" s="491"/>
+      <c r="L1" s="491"/>
+      <c r="M1" s="491"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="513"/>
+      <c r="B2" s="489"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -25779,21 +25803,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="516" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="517"/>
+      <c r="B3" s="492" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="493"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="518" t="s">
+      <c r="H3" s="494" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="518"/>
+      <c r="I3" s="494"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="542" t="s">
+      <c r="P3" s="531" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="552" t="s">
@@ -25811,14 +25835,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="519" t="s">
+      <c r="E4" s="495" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="520"/>
-      <c r="H4" s="521" t="s">
+      <c r="F4" s="496"/>
+      <c r="H4" s="497" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="522"/>
+      <c r="I4" s="498"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -25828,15 +25852,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="543"/>
+      <c r="P4" s="532"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="553"/>
-      <c r="W4" s="525" t="s">
+      <c r="W4" s="541" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="525"/>
+      <c r="X4" s="541"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -25897,8 +25921,8 @@
       <c r="S5" s="325" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="525"/>
-      <c r="X5" s="525"/>
+      <c r="W5" s="541"/>
+      <c r="X5" s="541"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26655,7 +26679,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="529">
+      <c r="W19" s="545">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -26707,7 +26731,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="530"/>
+      <c r="W20" s="546"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -26756,8 +26780,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="531"/>
-      <c r="X21" s="531"/>
+      <c r="W21" s="547"/>
+      <c r="X21" s="547"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -26858,8 +26882,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="532"/>
-      <c r="X23" s="532"/>
+      <c r="W23" s="548"/>
+      <c r="X23" s="548"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -26910,8 +26934,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="532"/>
-      <c r="X24" s="532"/>
+      <c r="W24" s="548"/>
+      <c r="X24" s="548"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -26957,8 +26981,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="533"/>
-      <c r="X25" s="533"/>
+      <c r="W25" s="549"/>
+      <c r="X25" s="549"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -27006,8 +27030,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="533"/>
-      <c r="X26" s="533"/>
+      <c r="W26" s="549"/>
+      <c r="X26" s="549"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -27067,9 +27091,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="526"/>
-      <c r="X27" s="527"/>
-      <c r="Y27" s="528"/>
+      <c r="W27" s="542"/>
+      <c r="X27" s="543"/>
+      <c r="Y27" s="544"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -27123,9 +27147,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="527"/>
-      <c r="X28" s="527"/>
-      <c r="Y28" s="528"/>
+      <c r="W28" s="543"/>
+      <c r="X28" s="543"/>
+      <c r="Y28" s="544"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -27441,11 +27465,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="544">
+      <c r="M36" s="533">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="546">
+      <c r="N36" s="535">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -27453,7 +27477,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="548">
+      <c r="Q36" s="537">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -27472,13 +27496,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="545"/>
-      <c r="N37" s="547"/>
+      <c r="M37" s="534"/>
+      <c r="N37" s="536"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="549"/>
+      <c r="Q37" s="538"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -27752,26 +27776,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="499" t="s">
+      <c r="H52" s="510" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="500"/>
+      <c r="I52" s="511"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="501">
+      <c r="K52" s="512">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="534"/>
+      <c r="L52" s="539"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="505" t="s">
+      <c r="D53" s="516" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="505"/>
+      <c r="E53" s="516"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -27780,29 +27804,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="535" t="s">
+      <c r="D54" s="540" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="535"/>
+      <c r="E54" s="540"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="506" t="s">
+      <c r="I54" s="517" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="507"/>
-      <c r="K54" s="508">
+      <c r="J54" s="518"/>
+      <c r="K54" s="519">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="508"/>
-      <c r="M54" s="536" t="s">
+      <c r="L54" s="519"/>
+      <c r="M54" s="525" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="537"/>
-      <c r="O54" s="537"/>
-      <c r="P54" s="537"/>
-      <c r="Q54" s="538"/>
+      <c r="N54" s="526"/>
+      <c r="O54" s="526"/>
+      <c r="P54" s="526"/>
+      <c r="Q54" s="527"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="314" t="s">
@@ -27816,11 +27840,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="539"/>
-      <c r="N55" s="540"/>
-      <c r="O55" s="540"/>
-      <c r="P55" s="540"/>
-      <c r="Q55" s="541"/>
+      <c r="M55" s="528"/>
+      <c r="N55" s="529"/>
+      <c r="O55" s="529"/>
+      <c r="P55" s="529"/>
+      <c r="Q55" s="530"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -27838,11 +27862,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="510">
+      <c r="K56" s="521">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="511"/>
+      <c r="L56" s="522"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -27859,22 +27883,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="488" t="s">
+      <c r="D58" s="499" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="489"/>
+      <c r="E58" s="500"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="490" t="s">
+      <c r="I58" s="501" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="491"/>
-      <c r="K58" s="492">
+      <c r="J58" s="502"/>
+      <c r="K58" s="503">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="492"/>
+      <c r="L58" s="503"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -28018,13 +28042,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="W4:X5"/>
@@ -28034,20 +28065,13 @@
     <mergeCell ref="W25:X25"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -30742,7 +30766,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="512"/>
+      <c r="B1" s="488"/>
       <c r="C1" s="554" t="s">
         <v>323</v>
       </c>
@@ -30758,7 +30782,7 @@
       <c r="M1" s="555"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="513"/>
+      <c r="B2" s="489"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -30768,21 +30792,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="516" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="517"/>
+      <c r="B3" s="492" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="493"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="518" t="s">
+      <c r="H3" s="494" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="518"/>
+      <c r="I3" s="494"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="542" t="s">
+      <c r="P3" s="531" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="552" t="s">
@@ -30800,14 +30824,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="519" t="s">
+      <c r="E4" s="495" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="520"/>
-      <c r="H4" s="521" t="s">
+      <c r="F4" s="496"/>
+      <c r="H4" s="497" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="522"/>
+      <c r="I4" s="498"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -30817,15 +30841,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="543"/>
+      <c r="P4" s="532"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="553"/>
-      <c r="W4" s="525" t="s">
+      <c r="W4" s="541" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="525"/>
+      <c r="X4" s="541"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -30876,8 +30900,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="325"/>
-      <c r="W5" s="525"/>
-      <c r="X5" s="525"/>
+      <c r="W5" s="541"/>
+      <c r="X5" s="541"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31641,7 +31665,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="529">
+      <c r="W19" s="545">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -31694,7 +31718,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="530"/>
+      <c r="W20" s="546"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -31743,8 +31767,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="531"/>
-      <c r="X21" s="531"/>
+      <c r="W21" s="547"/>
+      <c r="X21" s="547"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -31844,8 +31868,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="532"/>
-      <c r="X23" s="532"/>
+      <c r="W23" s="548"/>
+      <c r="X23" s="548"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -31900,8 +31924,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="532"/>
-      <c r="X24" s="532"/>
+      <c r="W24" s="548"/>
+      <c r="X24" s="548"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -31946,8 +31970,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="533"/>
-      <c r="X25" s="533"/>
+      <c r="W25" s="549"/>
+      <c r="X25" s="549"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -31995,8 +32019,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="533"/>
-      <c r="X26" s="533"/>
+      <c r="W26" s="549"/>
+      <c r="X26" s="549"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -32050,9 +32074,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="526"/>
-      <c r="X27" s="527"/>
-      <c r="Y27" s="528"/>
+      <c r="W27" s="542"/>
+      <c r="X27" s="543"/>
+      <c r="Y27" s="544"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32106,9 +32130,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="527"/>
-      <c r="X28" s="527"/>
-      <c r="Y28" s="528"/>
+      <c r="W28" s="543"/>
+      <c r="X28" s="543"/>
+      <c r="Y28" s="544"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32419,11 +32443,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="544">
+      <c r="M36" s="533">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="546">
+      <c r="N36" s="535">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -32431,7 +32455,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="548">
+      <c r="Q36" s="537">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -32456,13 +32480,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="545"/>
-      <c r="N37" s="547"/>
+      <c r="M37" s="534"/>
+      <c r="N37" s="536"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="549"/>
+      <c r="Q37" s="538"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -32755,26 +32779,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="499" t="s">
+      <c r="H52" s="510" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="500"/>
+      <c r="I52" s="511"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="501">
+      <c r="K52" s="512">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="534"/>
+      <c r="L52" s="539"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="505" t="s">
+      <c r="D53" s="516" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="505"/>
+      <c r="E53" s="516"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -32783,22 +32807,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="535" t="s">
+      <c r="D54" s="540" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="535"/>
+      <c r="E54" s="540"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="506" t="s">
+      <c r="I54" s="517" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="507"/>
-      <c r="K54" s="508">
+      <c r="J54" s="518"/>
+      <c r="K54" s="519">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="508"/>
+      <c r="L54" s="519"/>
       <c r="M54" s="422"/>
       <c r="N54" s="422"/>
       <c r="O54" s="422"/>
@@ -32839,11 +32863,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="510">
+      <c r="K56" s="521">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="511"/>
+      <c r="L56" s="522"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -32860,22 +32884,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="488" t="s">
+      <c r="D58" s="499" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="489"/>
+      <c r="E58" s="500"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="490" t="s">
+      <c r="I58" s="501" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="491"/>
-      <c r="K58" s="492">
+      <c r="J58" s="502"/>
+      <c r="K58" s="503">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="492"/>
+      <c r="L58" s="503"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -33019,6 +33043,20 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -33034,20 +33072,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -35835,7 +35859,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="512"/>
+      <c r="B1" s="488"/>
       <c r="C1" s="554" t="s">
         <v>323</v>
       </c>
@@ -35851,7 +35875,7 @@
       <c r="M1" s="555"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="513"/>
+      <c r="B2" s="489"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -35861,21 +35885,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="516" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="517"/>
+      <c r="B3" s="492" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="493"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="518" t="s">
+      <c r="H3" s="494" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="518"/>
+      <c r="I3" s="494"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="542" t="s">
+      <c r="P3" s="531" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="552" t="s">
@@ -35893,14 +35917,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="519" t="s">
+      <c r="E4" s="495" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="520"/>
-      <c r="H4" s="521" t="s">
+      <c r="F4" s="496"/>
+      <c r="H4" s="497" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="522"/>
+      <c r="I4" s="498"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -35910,15 +35934,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="543"/>
+      <c r="P4" s="532"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="553"/>
-      <c r="W4" s="525" t="s">
+      <c r="W4" s="541" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="525"/>
+      <c r="X4" s="541"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -35969,8 +35993,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="325"/>
-      <c r="W5" s="525"/>
-      <c r="X5" s="525"/>
+      <c r="W5" s="541"/>
+      <c r="X5" s="541"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -36731,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="529">
+      <c r="W19" s="545">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -36783,7 +36807,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="530"/>
+      <c r="W20" s="546"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -36832,8 +36856,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="531"/>
-      <c r="X21" s="531"/>
+      <c r="W21" s="547"/>
+      <c r="X21" s="547"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -36932,8 +36956,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="532"/>
-      <c r="X23" s="532"/>
+      <c r="W23" s="548"/>
+      <c r="X23" s="548"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -36988,8 +37012,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="532"/>
-      <c r="X24" s="532"/>
+      <c r="W24" s="548"/>
+      <c r="X24" s="548"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -37037,8 +37061,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="533"/>
-      <c r="X25" s="533"/>
+      <c r="W25" s="549"/>
+      <c r="X25" s="549"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -37086,8 +37110,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="533"/>
-      <c r="X26" s="533"/>
+      <c r="W26" s="549"/>
+      <c r="X26" s="549"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -37135,9 +37159,9 @@
       <c r="R27" s="320">
         <v>0</v>
       </c>
-      <c r="W27" s="526"/>
-      <c r="X27" s="527"/>
-      <c r="Y27" s="528"/>
+      <c r="W27" s="542"/>
+      <c r="X27" s="543"/>
+      <c r="Y27" s="544"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -37185,9 +37209,9 @@
       <c r="R28" s="320">
         <v>0</v>
       </c>
-      <c r="W28" s="527"/>
-      <c r="X28" s="527"/>
-      <c r="Y28" s="528"/>
+      <c r="W28" s="543"/>
+      <c r="X28" s="543"/>
+      <c r="Y28" s="544"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -37528,11 +37552,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="544">
+      <c r="M36" s="533">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="546">
+      <c r="N36" s="535">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -37565,8 +37589,8 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="545"/>
-      <c r="N37" s="547"/>
+      <c r="M37" s="534"/>
+      <c r="N37" s="536"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
@@ -37873,26 +37897,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="499" t="s">
+      <c r="H52" s="510" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="500"/>
+      <c r="I52" s="511"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="501">
+      <c r="K52" s="512">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="534"/>
+      <c r="L52" s="539"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="505" t="s">
+      <c r="D53" s="516" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="505"/>
+      <c r="E53" s="516"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -37901,22 +37925,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="535" t="s">
+      <c r="D54" s="540" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="535"/>
+      <c r="E54" s="540"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="506" t="s">
+      <c r="I54" s="517" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="507"/>
-      <c r="K54" s="508">
+      <c r="J54" s="518"/>
+      <c r="K54" s="519">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="508"/>
+      <c r="L54" s="519"/>
       <c r="M54" s="422"/>
       <c r="N54" s="422"/>
       <c r="O54" s="422"/>
@@ -37957,11 +37981,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="510">
+      <c r="K56" s="521">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="511"/>
+      <c r="L56" s="522"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -37978,22 +38002,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="488" t="s">
+      <c r="D58" s="499" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="489"/>
+      <c r="E58" s="500"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="490" t="s">
+      <c r="I58" s="501" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="491"/>
-      <c r="K58" s="492">
+      <c r="J58" s="502"/>
+      <c r="K58" s="503">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="492"/>
+      <c r="L58" s="503"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -38137,20 +38161,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -38167,6 +38177,20 @@
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="M39:N39"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.23" top="0.4" bottom="0.28000000000000003" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/BALANCE    ZAVALETA   MARZO  2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/BALANCE    ZAVALETA   MARZO  2022.xlsx
@@ -457,7 +457,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="594">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2224,6 +2224,21 @@
   </si>
   <si>
     <t>QUESOS-JAMONES-POLLO</t>
+  </si>
+  <si>
+    <t>SALCHICHAS JAMON ENCHILADA-POLLO</t>
+  </si>
+  <si>
+    <t>NOMINA # 12</t>
+  </si>
+  <si>
+    <t>SALCHICHONERIA -JAMON-QUESO</t>
+  </si>
+  <si>
+    <t>CHORIZO-LONGANIZA-QUESO</t>
+  </si>
+  <si>
+    <t>CHORIZO-POLLO-MIXIOTES-NUGETS-BONELES-PAPAS</t>
   </si>
 </sst>
 </file>
@@ -4123,7 +4138,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="598">
+  <cellXfs count="597">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -5431,7 +5446,6 @@
     <xf numFmtId="44" fontId="11" fillId="14" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -13102,8 +13116,8 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="J6" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13123,7 +13137,7 @@
     <col min="14" max="14" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.85546875" customWidth="1"/>
-    <col min="17" max="17" width="18.140625" style="225" customWidth="1"/>
+    <col min="17" max="17" width="21.28515625" style="225" customWidth="1"/>
     <col min="18" max="18" width="15.28515625" style="227" customWidth="1"/>
     <col min="19" max="20" width="11.42578125" customWidth="1"/>
     <col min="21" max="21" width="15.85546875" style="1" customWidth="1"/>
@@ -14163,20 +14177,20 @@
       <c r="J22" s="37"/>
       <c r="K22" s="31"/>
       <c r="L22" s="49"/>
-      <c r="M22" s="182">
-        <f>642</f>
-        <v>642</v>
+      <c r="M22" s="32">
+        <f>642+62879</f>
+        <v>63521</v>
       </c>
       <c r="N22" s="33">
         <v>23356</v>
       </c>
       <c r="P22" s="39">
         <f t="shared" si="0"/>
-        <v>48400</v>
-      </c>
-      <c r="Q22" s="597">
-        <f t="shared" si="1"/>
-        <v>-62879</v>
+        <v>111279</v>
+      </c>
+      <c r="Q22" s="326">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="R22" s="320">
         <v>0</v>
@@ -14214,19 +14228,19 @@
       <c r="J23" s="50"/>
       <c r="K23" s="172"/>
       <c r="L23" s="45"/>
-      <c r="M23" s="182">
-        <v>0</v>
+      <c r="M23" s="32">
+        <v>53950</v>
       </c>
       <c r="N23" s="33">
         <v>26005</v>
       </c>
       <c r="P23" s="39">
         <f t="shared" si="0"/>
-        <v>41339</v>
+        <v>95289</v>
       </c>
       <c r="Q23" s="326">
         <f t="shared" si="1"/>
-        <v>-53950</v>
+        <v>0</v>
       </c>
       <c r="R23" s="320">
         <v>0</v>
@@ -14242,33 +14256,47 @@
       <c r="B24" s="24">
         <v>44639</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="42"/>
+      <c r="C24" s="25">
+        <v>10938</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>589</v>
+      </c>
       <c r="E24" s="27">
         <v>44639</v>
       </c>
-      <c r="F24" s="28"/>
+      <c r="F24" s="28">
+        <v>117091</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="36">
         <v>44639</v>
       </c>
-      <c r="I24" s="30"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="173"/>
-      <c r="L24" s="52"/>
+      <c r="I24" s="30">
+        <v>2386</v>
+      </c>
+      <c r="J24" s="51">
+        <v>44639</v>
+      </c>
+      <c r="K24" s="173" t="s">
+        <v>590</v>
+      </c>
+      <c r="L24" s="52">
+        <v>20799.990000000002</v>
+      </c>
       <c r="M24" s="32">
-        <v>0</v>
+        <v>28076</v>
       </c>
       <c r="N24" s="33">
-        <v>0</v>
+        <v>54891</v>
       </c>
       <c r="P24" s="39">
         <f>N24+M24+L24+I24+C24</f>
-        <v>0</v>
+        <v>117090.99</v>
       </c>
       <c r="Q24" s="326">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-9.9999999947613105E-3</v>
       </c>
       <c r="R24" s="320">
         <v>0</v>
@@ -14284,29 +14312,37 @@
       <c r="B25" s="24">
         <v>44640</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="35"/>
+      <c r="C25" s="25">
+        <v>8565</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>591</v>
+      </c>
       <c r="E25" s="27">
         <v>44640</v>
       </c>
-      <c r="F25" s="28"/>
+      <c r="F25" s="28">
+        <v>78608</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="36">
         <v>44640</v>
       </c>
-      <c r="I25" s="30"/>
+      <c r="I25" s="30">
+        <v>1272.5</v>
+      </c>
       <c r="J25" s="50"/>
       <c r="K25" s="38"/>
       <c r="L25" s="54"/>
       <c r="M25" s="32">
-        <v>0</v>
+        <v>47560.5</v>
       </c>
       <c r="N25" s="33">
-        <v>0</v>
+        <v>21210</v>
       </c>
       <c r="P25" s="283">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>78608</v>
       </c>
       <c r="Q25" s="326">
         <f t="shared" si="1"/>
@@ -14325,30 +14361,38 @@
       <c r="B26" s="24">
         <v>44641</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="35"/>
+      <c r="C26" s="25">
+        <v>16233</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>592</v>
+      </c>
       <c r="E26" s="27">
         <v>44641</v>
       </c>
-      <c r="F26" s="28"/>
+      <c r="F26" s="28">
+        <v>95964</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="36">
         <v>44641</v>
       </c>
-      <c r="I26" s="30"/>
+      <c r="I26" s="30">
+        <v>843</v>
+      </c>
       <c r="J26" s="37"/>
       <c r="K26" s="173"/>
       <c r="L26" s="45"/>
       <c r="M26" s="32">
-        <v>0</v>
+        <v>36536</v>
       </c>
       <c r="N26" s="33">
-        <v>0</v>
+        <v>42352</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="284">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>95964</v>
       </c>
       <c r="Q26" s="326">
         <f t="shared" si="1"/>
@@ -14367,37 +14411,44 @@
       <c r="B27" s="24">
         <v>44642</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="42"/>
+      <c r="C27" s="25">
+        <v>14717</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>593</v>
+      </c>
       <c r="E27" s="27">
         <v>44642</v>
       </c>
-      <c r="F27" s="28"/>
+      <c r="F27" s="28">
+        <v>92410</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="36">
         <v>44642</v>
       </c>
-      <c r="I27" s="30"/>
+      <c r="I27" s="30">
+        <v>563.5</v>
+      </c>
       <c r="J27" s="55"/>
       <c r="K27" s="174"/>
       <c r="L27" s="54"/>
       <c r="M27" s="32">
-        <v>0</v>
+        <v>42310.5</v>
       </c>
       <c r="N27" s="33">
-        <v>0</v>
+        <v>34989</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>92580</v>
       </c>
       <c r="Q27" s="326">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R27" s="320">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R27" s="406">
+        <v>170</v>
       </c>
       <c r="W27" s="542"/>
       <c r="X27" s="543"/>
@@ -14716,12 +14767,10 @@
       <c r="N35" s="268">
         <v>0</v>
       </c>
-      <c r="P35" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q35" s="438" t="e">
+      <c r="P35" s="34"/>
+      <c r="Q35" s="111">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="R35" s="228"/>
     </row>
@@ -14746,19 +14795,19 @@
       <c r="L36" s="44"/>
       <c r="M36" s="533">
         <f>SUM(M5:M35)</f>
-        <v>802713.66</v>
+        <v>1074025.6600000001</v>
       </c>
       <c r="N36" s="535">
         <f>SUM(N5:N35)</f>
-        <v>523841</v>
+        <v>677283</v>
       </c>
       <c r="O36" s="276"/>
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="571" t="e">
+      <c r="Q36" s="571">
         <f>SUM(Q5:Q35)</f>
-        <v>#VALUE!</v>
+        <v>1.5800000000308501</v>
       </c>
       <c r="R36" s="228"/>
     </row>
@@ -14839,12 +14888,12 @@
       <c r="L39" s="61"/>
       <c r="M39" s="573">
         <f>M36+N36</f>
-        <v>1326554.6600000001</v>
+        <v>1751308.6600000001</v>
       </c>
       <c r="N39" s="574"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
-        <v>1721480.59</v>
+        <v>2222552.58</v>
       </c>
       <c r="Q39" s="275"/>
     </row>
@@ -14924,9 +14973,15 @@
       <c r="G43" s="2"/>
       <c r="H43" s="76"/>
       <c r="I43" s="77"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="54"/>
+      <c r="J43" s="50">
+        <v>44639</v>
+      </c>
+      <c r="K43" s="38" t="s">
+        <v>590</v>
+      </c>
+      <c r="L43" s="54">
+        <v>14398.5</v>
+      </c>
       <c r="M43" s="269"/>
       <c r="N43" s="269"/>
       <c r="P43" s="34"/>
@@ -15047,7 +15102,7 @@
       </c>
       <c r="C50" s="87">
         <f>SUM(C5:C49)</f>
-        <v>296745</v>
+        <v>347198</v>
       </c>
       <c r="D50" s="88"/>
       <c r="E50" s="89" t="s">
@@ -15055,7 +15110,7 @@
       </c>
       <c r="F50" s="90">
         <f>SUM(F5:F49)</f>
-        <v>1796139</v>
+        <v>2180212</v>
       </c>
       <c r="G50" s="88"/>
       <c r="H50" s="91" t="s">
@@ -15063,7 +15118,7 @@
       </c>
       <c r="I50" s="92">
         <f>SUM(I5:I49)</f>
-        <v>68017.5</v>
+        <v>73082.5</v>
       </c>
       <c r="J50" s="93"/>
       <c r="K50" s="94" t="s">
@@ -15071,7 +15126,7 @@
       </c>
       <c r="L50" s="95">
         <f>SUM(L5:L49)</f>
-        <v>61107.19</v>
+        <v>96305.68</v>
       </c>
       <c r="M50" s="96"/>
       <c r="N50" s="96"/>
@@ -15096,7 +15151,7 @@
       <c r="J52" s="100"/>
       <c r="K52" s="512">
         <f>I50+L50</f>
-        <v>129124.69</v>
+        <v>169388.18</v>
       </c>
       <c r="L52" s="539"/>
       <c r="M52" s="272"/>
@@ -15111,7 +15166,7 @@
       <c r="E53" s="516"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
-        <v>1370269.31</v>
+        <v>1663625.82</v>
       </c>
       <c r="I53" s="102"/>
       <c r="J53" s="103"/>
@@ -15130,7 +15185,7 @@
       <c r="J54" s="518"/>
       <c r="K54" s="519">
         <f>F56+F57+F58</f>
-        <v>1370269.31</v>
+        <v>1663625.82</v>
       </c>
       <c r="L54" s="519"/>
       <c r="M54" s="422"/>
@@ -15166,7 +15221,7 @@
       </c>
       <c r="F56" s="96">
         <f>SUM(F53:F55)</f>
-        <v>1370269.31</v>
+        <v>1663625.82</v>
       </c>
       <c r="H56" s="23"/>
       <c r="I56" s="108" t="s">
@@ -15207,7 +15262,7 @@
       <c r="J58" s="502"/>
       <c r="K58" s="503">
         <f>K54+K56</f>
-        <v>103700.8600000001</v>
+        <v>397057.37000000011</v>
       </c>
       <c r="L58" s="503"/>
     </row>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/BALANCE    ZAVALETA   MARZO  2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/BALANCE    ZAVALETA   MARZO  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="9" activeTab="10"/>
+    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="10" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -457,7 +457,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="601">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2239,6 +2239,27 @@
   </si>
   <si>
     <t>CHORIZO-POLLO-MIXIOTES-NUGETS-BONELES-PAPAS</t>
+  </si>
+  <si>
+    <t>QUESOS-JA,MON-POLLO-CHISTORRA</t>
+  </si>
+  <si>
+    <t>QUESOS-POLLO-SALCHICHONERIA-LONGANIZA</t>
+  </si>
+  <si>
+    <t>POLLO-QUESOS-ENCHILADA</t>
+  </si>
+  <si>
+    <t>JAMON-POLLO-QUESO-LONGANIZA</t>
+  </si>
+  <si>
+    <t>NOMINQ # 13</t>
+  </si>
+  <si>
+    <t>NOMINA # 13</t>
+  </si>
+  <si>
+    <t>TOCINETA-JAMONES-CHISTORRA</t>
   </si>
 </sst>
 </file>
@@ -4138,7 +4159,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="597">
+  <cellXfs count="600">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -5119,39 +5140,6 @@
     <xf numFmtId="165" fontId="18" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5224,10 +5212,76 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5271,39 +5325,6 @@
     </xf>
     <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5446,6 +5467,13 @@
     <xf numFmtId="44" fontId="11" fillId="14" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -8441,23 +8469,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="488"/>
-      <c r="C1" s="490" t="s">
+      <c r="B1" s="512"/>
+      <c r="C1" s="514" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="491"/>
-      <c r="E1" s="491"/>
-      <c r="F1" s="491"/>
-      <c r="G1" s="491"/>
-      <c r="H1" s="491"/>
-      <c r="I1" s="491"/>
-      <c r="J1" s="491"/>
-      <c r="K1" s="491"/>
-      <c r="L1" s="491"/>
-      <c r="M1" s="491"/>
+      <c r="D1" s="515"/>
+      <c r="E1" s="515"/>
+      <c r="F1" s="515"/>
+      <c r="G1" s="515"/>
+      <c r="H1" s="515"/>
+      <c r="I1" s="515"/>
+      <c r="J1" s="515"/>
+      <c r="K1" s="515"/>
+      <c r="L1" s="515"/>
+      <c r="M1" s="515"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="489"/>
+      <c r="B2" s="513"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -8467,17 +8495,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="492" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="493"/>
+      <c r="B3" s="516" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="517"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="494" t="s">
+      <c r="H3" s="518" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="494"/>
+      <c r="I3" s="518"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -8491,14 +8519,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="495" t="s">
+      <c r="E4" s="519" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="496"/>
-      <c r="H4" s="497" t="s">
+      <c r="F4" s="520"/>
+      <c r="H4" s="521" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="498"/>
+      <c r="I4" s="522"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -8508,10 +8536,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="504" t="s">
+      <c r="P4" s="493" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="505"/>
+      <c r="Q4" s="494"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -9952,11 +9980,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="506">
+      <c r="M39" s="495">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="508">
+      <c r="N39" s="497">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -9982,8 +10010,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="507"/>
-      <c r="N40" s="509"/>
+      <c r="M40" s="496"/>
+      <c r="N40" s="498"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -10198,29 +10226,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="510" t="s">
+      <c r="H52" s="499" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="511"/>
+      <c r="I52" s="500"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="512">
+      <c r="K52" s="501">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="513"/>
-      <c r="M52" s="514">
+      <c r="L52" s="502"/>
+      <c r="M52" s="503">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="515"/>
+      <c r="N52" s="504"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="516" t="s">
+      <c r="D53" s="505" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="516"/>
+      <c r="E53" s="505"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -10231,22 +10259,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="516" t="s">
+      <c r="D54" s="505" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="516"/>
+      <c r="E54" s="505"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="517" t="s">
+      <c r="I54" s="506" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="518"/>
-      <c r="K54" s="519">
+      <c r="J54" s="507"/>
+      <c r="K54" s="508">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="520"/>
+      <c r="L54" s="509"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -10279,11 +10307,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="521">
+      <c r="K56" s="510">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="522"/>
+      <c r="L56" s="511"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -10300,22 +10328,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="499" t="s">
+      <c r="D58" s="488" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="500"/>
+      <c r="E58" s="489"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="501" t="s">
+      <c r="I58" s="490" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="502"/>
-      <c r="K58" s="503">
+      <c r="J58" s="491"/>
+      <c r="K58" s="492">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="503"/>
+      <c r="L58" s="492"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -10459,6 +10487,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -10473,12 +10507,6 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13116,8 +13144,8 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J6" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13146,7 +13174,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="488"/>
+      <c r="B1" s="512"/>
       <c r="C1" s="554" t="s">
         <v>458</v>
       </c>
@@ -13162,7 +13190,7 @@
       <c r="M1" s="555"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="489"/>
+      <c r="B2" s="513"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -13172,21 +13200,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="492" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="493"/>
+      <c r="B3" s="516" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="517"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="494" t="s">
+      <c r="H3" s="518" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="494"/>
+      <c r="I3" s="518"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="531" t="s">
+      <c r="P3" s="542" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="552" t="s">
@@ -13204,14 +13232,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="495" t="s">
+      <c r="E4" s="519" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="496"/>
-      <c r="H4" s="497" t="s">
+      <c r="F4" s="520"/>
+      <c r="H4" s="521" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="498"/>
+      <c r="I4" s="522"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -13221,15 +13249,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="532"/>
+      <c r="P4" s="543"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="553"/>
-      <c r="W4" s="541" t="s">
+      <c r="W4" s="525" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="541"/>
+      <c r="X4" s="525"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -13280,8 +13308,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="325"/>
-      <c r="W5" s="541"/>
-      <c r="X5" s="541"/>
+      <c r="W5" s="525"/>
+      <c r="X5" s="525"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -14044,7 +14072,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="545">
+      <c r="W19" s="529">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -14096,7 +14124,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="546"/>
+      <c r="W20" s="530"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -14145,8 +14173,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="547"/>
-      <c r="X21" s="547"/>
+      <c r="W21" s="531"/>
+      <c r="X21" s="531"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -14246,8 +14274,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="548"/>
-      <c r="X23" s="548"/>
+      <c r="W23" s="532"/>
+      <c r="X23" s="532"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -14302,8 +14330,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="548"/>
-      <c r="X24" s="548"/>
+      <c r="W24" s="532"/>
+      <c r="X24" s="532"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -14351,8 +14379,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="549"/>
-      <c r="X25" s="549"/>
+      <c r="W25" s="533"/>
+      <c r="X25" s="533"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -14401,8 +14429,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="549"/>
-      <c r="X26" s="549"/>
+      <c r="W26" s="533"/>
+      <c r="X26" s="533"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -14450,9 +14478,9 @@
       <c r="R27" s="406">
         <v>170</v>
       </c>
-      <c r="W27" s="542"/>
-      <c r="X27" s="543"/>
-      <c r="Y27" s="544"/>
+      <c r="W27" s="526"/>
+      <c r="X27" s="527"/>
+      <c r="Y27" s="528"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -14460,41 +14488,49 @@
       <c r="B28" s="24">
         <v>44643</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="42"/>
+      <c r="C28" s="25">
+        <v>11509</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>594</v>
+      </c>
       <c r="E28" s="27">
         <v>44643</v>
       </c>
-      <c r="F28" s="28"/>
+      <c r="F28" s="28">
+        <v>957254</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="36">
         <v>44643</v>
       </c>
-      <c r="I28" s="30"/>
+      <c r="I28" s="30">
+        <v>1991</v>
+      </c>
       <c r="J28" s="56"/>
       <c r="K28" s="57"/>
       <c r="L28" s="54"/>
       <c r="M28" s="32">
-        <v>0</v>
+        <f>49352+673725.34+200000+33828.02</f>
+        <v>956905.36</v>
       </c>
       <c r="N28" s="33">
-        <v>0</v>
+        <v>24223</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>994628.36</v>
       </c>
       <c r="Q28" s="326">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R28" s="320">
-        <v>0</v>
-      </c>
-      <c r="W28" s="543"/>
-      <c r="X28" s="543"/>
-      <c r="Y28" s="544"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="406">
+        <v>37374.36</v>
+      </c>
+      <c r="W28" s="527"/>
+      <c r="X28" s="527"/>
+      <c r="Y28" s="528"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -14502,30 +14538,39 @@
       <c r="B29" s="24">
         <v>44644</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="58"/>
+      <c r="C29" s="25">
+        <v>15935</v>
+      </c>
+      <c r="D29" s="58" t="s">
+        <v>595</v>
+      </c>
       <c r="E29" s="27">
         <v>44644</v>
       </c>
-      <c r="F29" s="28"/>
+      <c r="F29" s="28">
+        <v>128995</v>
+      </c>
       <c r="G29" s="2"/>
       <c r="H29" s="36">
         <v>44644</v>
       </c>
-      <c r="I29" s="30"/>
+      <c r="I29" s="30">
+        <v>1688</v>
+      </c>
       <c r="J29" s="59"/>
       <c r="K29" s="175"/>
       <c r="L29" s="54"/>
       <c r="M29" s="32">
-        <v>0</v>
+        <f>642+79978</f>
+        <v>80620</v>
       </c>
       <c r="N29" s="33">
-        <v>0</v>
+        <v>30752</v>
       </c>
       <c r="O29" s="444"/>
       <c r="P29" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>128995</v>
       </c>
       <c r="Q29" s="326">
         <f t="shared" si="1"/>
@@ -14548,34 +14593,42 @@
       <c r="B30" s="24">
         <v>44645</v>
       </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="58"/>
+      <c r="C30" s="25">
+        <v>11160</v>
+      </c>
+      <c r="D30" s="58" t="s">
+        <v>596</v>
+      </c>
       <c r="E30" s="27">
         <v>44645</v>
       </c>
-      <c r="F30" s="28"/>
+      <c r="F30" s="28">
+        <v>93781</v>
+      </c>
       <c r="G30" s="2"/>
       <c r="H30" s="36">
         <v>44645</v>
       </c>
-      <c r="I30" s="30"/>
+      <c r="I30" s="30">
+        <v>1846</v>
+      </c>
       <c r="J30" s="60"/>
       <c r="K30" s="41"/>
       <c r="L30" s="61"/>
       <c r="M30" s="32">
-        <v>0</v>
+        <v>48450</v>
       </c>
       <c r="N30" s="33">
-        <v>0</v>
+        <v>32332</v>
       </c>
       <c r="O30" s="445"/>
       <c r="P30" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>93788</v>
       </c>
       <c r="Q30" s="326">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R30" s="321">
         <v>0</v>
@@ -14591,34 +14644,48 @@
       <c r="B31" s="24">
         <v>44646</v>
       </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="65"/>
+      <c r="C31" s="25">
+        <v>16631</v>
+      </c>
+      <c r="D31" s="65" t="s">
+        <v>597</v>
+      </c>
       <c r="E31" s="27">
         <v>44646</v>
       </c>
-      <c r="F31" s="28"/>
+      <c r="F31" s="28">
+        <v>111426</v>
+      </c>
       <c r="G31" s="2"/>
       <c r="H31" s="36">
         <v>44646</v>
       </c>
-      <c r="I31" s="30"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="63"/>
+      <c r="I31" s="30">
+        <v>5154</v>
+      </c>
+      <c r="J31" s="60">
+        <v>44649</v>
+      </c>
+      <c r="K31" s="597" t="s">
+        <v>598</v>
+      </c>
+      <c r="L31" s="598">
+        <v>19492.72</v>
+      </c>
       <c r="M31" s="32">
-        <v>0</v>
+        <v>28431</v>
       </c>
       <c r="N31" s="33">
-        <v>0</v>
+        <v>41717</v>
       </c>
       <c r="O31" s="444"/>
       <c r="P31" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>111425.72</v>
       </c>
       <c r="Q31" s="326">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-0.27999999999883585</v>
       </c>
       <c r="R31" s="322">
         <v>0</v>
@@ -14632,30 +14699,38 @@
       <c r="B32" s="24">
         <v>44647</v>
       </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="64"/>
+      <c r="C32" s="25">
+        <v>16761</v>
+      </c>
+      <c r="D32" s="64" t="s">
+        <v>600</v>
+      </c>
       <c r="E32" s="27">
         <v>44647</v>
       </c>
-      <c r="F32" s="28"/>
+      <c r="F32" s="28">
+        <v>76600</v>
+      </c>
       <c r="G32" s="2"/>
       <c r="H32" s="36">
         <v>44647</v>
       </c>
-      <c r="I32" s="30"/>
+      <c r="I32" s="30">
+        <v>101</v>
+      </c>
       <c r="J32" s="60"/>
       <c r="K32" s="41"/>
       <c r="L32" s="61"/>
       <c r="M32" s="32">
-        <v>0</v>
+        <v>32180</v>
       </c>
       <c r="N32" s="33">
-        <v>0</v>
+        <v>27558</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>76600</v>
       </c>
       <c r="Q32" s="326">
         <f t="shared" si="1"/>
@@ -14670,19 +14745,13 @@
     </row>
     <row r="33" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="23"/>
-      <c r="B33" s="24">
-        <v>44648</v>
-      </c>
+      <c r="B33" s="24"/>
       <c r="C33" s="25"/>
       <c r="D33" s="65"/>
-      <c r="E33" s="27">
-        <v>44648</v>
-      </c>
+      <c r="E33" s="27"/>
       <c r="F33" s="28"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="36">
-        <v>44648</v>
-      </c>
+      <c r="H33" s="36"/>
       <c r="I33" s="30"/>
       <c r="J33" s="60"/>
       <c r="K33" s="247"/>
@@ -14709,19 +14778,13 @@
     </row>
     <row r="34" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="23"/>
-      <c r="B34" s="24">
-        <v>44649</v>
-      </c>
+      <c r="B34" s="24"/>
       <c r="C34" s="25"/>
       <c r="D34" s="64"/>
-      <c r="E34" s="27">
-        <v>44649</v>
-      </c>
+      <c r="E34" s="27"/>
       <c r="F34" s="28"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="36">
-        <v>44649</v>
-      </c>
+      <c r="H34" s="36"/>
       <c r="I34" s="30"/>
       <c r="J34" s="266"/>
       <c r="K34" s="248"/>
@@ -14744,19 +14807,13 @@
     </row>
     <row r="35" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="23"/>
-      <c r="B35" s="24">
-        <v>44650</v>
-      </c>
+      <c r="B35" s="24"/>
       <c r="C35" s="25"/>
       <c r="D35" s="65"/>
-      <c r="E35" s="27">
-        <v>44650</v>
-      </c>
+      <c r="E35" s="27"/>
       <c r="F35" s="28"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="36">
-        <v>44650</v>
-      </c>
+      <c r="H35" s="36"/>
       <c r="I35" s="30"/>
       <c r="J35" s="266"/>
       <c r="K35" s="249"/>
@@ -14776,30 +14833,24 @@
     </row>
     <row r="36" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="23"/>
-      <c r="B36" s="24">
-        <v>44651</v>
-      </c>
+      <c r="B36" s="24"/>
       <c r="C36" s="25"/>
       <c r="D36" s="62"/>
-      <c r="E36" s="27">
-        <v>44651</v>
-      </c>
+      <c r="E36" s="27"/>
       <c r="F36" s="28"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="36">
-        <v>44651</v>
-      </c>
+      <c r="H36" s="36"/>
       <c r="I36" s="30"/>
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="533">
+      <c r="M36" s="544">
         <f>SUM(M5:M35)</f>
-        <v>1074025.6600000001</v>
-      </c>
-      <c r="N36" s="535">
+        <v>2220612.02</v>
+      </c>
+      <c r="N36" s="546">
         <f>SUM(N5:N35)</f>
-        <v>677283</v>
+        <v>833865</v>
       </c>
       <c r="O36" s="276"/>
       <c r="P36" s="277">
@@ -14807,31 +14858,25 @@
       </c>
       <c r="Q36" s="571">
         <f>SUM(Q5:Q35)</f>
-        <v>1.5800000000308501</v>
+        <v>8.3000000000320142</v>
       </c>
       <c r="R36" s="228"/>
     </row>
     <row r="37" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="23"/>
-      <c r="B37" s="24">
-        <v>44652</v>
-      </c>
+      <c r="B37" s="24"/>
       <c r="C37" s="25"/>
       <c r="D37" s="65"/>
-      <c r="E37" s="27">
-        <v>44652</v>
-      </c>
+      <c r="E37" s="27"/>
       <c r="F37" s="28"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="36">
-        <v>44652</v>
-      </c>
+      <c r="H37" s="36"/>
       <c r="I37" s="30"/>
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="534"/>
-      <c r="N37" s="536"/>
+      <c r="M37" s="545"/>
+      <c r="N37" s="547"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
@@ -14843,19 +14888,13 @@
     </row>
     <row r="38" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
-      <c r="B38" s="24">
-        <v>44653</v>
-      </c>
+      <c r="B38" s="24"/>
       <c r="C38" s="25"/>
       <c r="D38" s="65"/>
-      <c r="E38" s="27">
-        <v>44653</v>
-      </c>
+      <c r="E38" s="27"/>
       <c r="F38" s="28"/>
       <c r="G38" s="2"/>
-      <c r="H38" s="36">
-        <v>44653</v>
-      </c>
+      <c r="H38" s="36"/>
       <c r="I38" s="30"/>
       <c r="J38" s="60"/>
       <c r="K38" s="177"/>
@@ -14869,31 +14908,25 @@
     </row>
     <row r="39" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="23"/>
-      <c r="B39" s="24">
-        <v>44654</v>
-      </c>
+      <c r="B39" s="24"/>
       <c r="C39" s="69"/>
       <c r="D39" s="62"/>
-      <c r="E39" s="27">
-        <v>44654</v>
-      </c>
+      <c r="E39" s="27"/>
       <c r="F39" s="70"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="36">
-        <v>44654</v>
-      </c>
+      <c r="H39" s="36"/>
       <c r="I39" s="71"/>
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
       <c r="M39" s="573">
         <f>M36+N36</f>
-        <v>1751308.6600000001</v>
+        <v>3054477.02</v>
       </c>
       <c r="N39" s="574"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
-        <v>2222552.58</v>
+        <v>3627989.66</v>
       </c>
       <c r="Q39" s="275"/>
     </row>
@@ -14997,9 +15030,13 @@
       <c r="G44" s="2"/>
       <c r="H44" s="76"/>
       <c r="I44" s="77"/>
-      <c r="J44" s="60"/>
-      <c r="K44" s="41"/>
-      <c r="L44" s="61"/>
+      <c r="J44" s="60">
+        <v>44646</v>
+      </c>
+      <c r="K44" s="597" t="s">
+        <v>599</v>
+      </c>
+      <c r="L44" s="599"/>
       <c r="M44" s="269"/>
       <c r="N44" s="269"/>
       <c r="P44" s="34"/>
@@ -15102,7 +15139,7 @@
       </c>
       <c r="C50" s="87">
         <f>SUM(C5:C49)</f>
-        <v>347198</v>
+        <v>419194</v>
       </c>
       <c r="D50" s="88"/>
       <c r="E50" s="89" t="s">
@@ -15110,7 +15147,7 @@
       </c>
       <c r="F50" s="90">
         <f>SUM(F5:F49)</f>
-        <v>2180212</v>
+        <v>3548268</v>
       </c>
       <c r="G50" s="88"/>
       <c r="H50" s="91" t="s">
@@ -15118,7 +15155,7 @@
       </c>
       <c r="I50" s="92">
         <f>SUM(I5:I49)</f>
-        <v>73082.5</v>
+        <v>83862.5</v>
       </c>
       <c r="J50" s="93"/>
       <c r="K50" s="94" t="s">
@@ -15126,7 +15163,7 @@
       </c>
       <c r="L50" s="95">
         <f>SUM(L5:L49)</f>
-        <v>96305.68</v>
+        <v>115798.39999999999</v>
       </c>
       <c r="M50" s="96"/>
       <c r="N50" s="96"/>
@@ -15144,50 +15181,50 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="510" t="s">
+      <c r="H52" s="499" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="511"/>
+      <c r="I52" s="500"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="512">
+      <c r="K52" s="501">
         <f>I50+L50</f>
-        <v>169388.18</v>
-      </c>
-      <c r="L52" s="539"/>
+        <v>199660.9</v>
+      </c>
+      <c r="L52" s="534"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="516" t="s">
+      <c r="D53" s="505" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="516"/>
+      <c r="E53" s="505"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
-        <v>1663625.82</v>
+        <v>2929413.1</v>
       </c>
       <c r="I53" s="102"/>
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="540" t="s">
+      <c r="D54" s="535" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="540"/>
+      <c r="E54" s="535"/>
       <c r="F54" s="111">
         <v>0</v>
       </c>
-      <c r="I54" s="517" t="s">
+      <c r="I54" s="506" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="518"/>
-      <c r="K54" s="519">
+      <c r="J54" s="507"/>
+      <c r="K54" s="508">
         <f>F56+F57+F58</f>
-        <v>1663625.82</v>
-      </c>
-      <c r="L54" s="519"/>
+        <v>4722230.78</v>
+      </c>
+      <c r="L54" s="508"/>
       <c r="M54" s="422"/>
       <c r="N54" s="422"/>
       <c r="O54" s="422"/>
@@ -15221,18 +15258,18 @@
       </c>
       <c r="F56" s="96">
         <f>SUM(F53:F55)</f>
-        <v>1663625.82</v>
+        <v>2929413.1</v>
       </c>
       <c r="H56" s="23"/>
       <c r="I56" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="521">
+      <c r="K56" s="510">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L56" s="522"/>
+      <c r="L56" s="511"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -15247,24 +15284,24 @@
     </row>
     <row r="58" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C58" s="112">
-        <v>44619</v>
-      </c>
-      <c r="D58" s="499" t="s">
+        <v>44647</v>
+      </c>
+      <c r="D58" s="488" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="500"/>
+      <c r="E58" s="489"/>
       <c r="F58" s="113">
-        <v>0</v>
-      </c>
-      <c r="I58" s="501" t="s">
+        <v>1792817.68</v>
+      </c>
+      <c r="I58" s="490" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="502"/>
-      <c r="K58" s="503">
+      <c r="J58" s="491"/>
+      <c r="K58" s="492">
         <f>K54+K56</f>
-        <v>397057.37000000011</v>
-      </c>
-      <c r="L58" s="503"/>
+        <v>3455662.33</v>
+      </c>
+      <c r="L58" s="492"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -15408,6 +15445,21 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M39:N39"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -15423,21 +15475,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.15748031496062992" top="0.39370078740157483" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -15453,8 +15490,8 @@
   </sheetPr>
   <dimension ref="A1:N115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20755,23 +20792,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="488"/>
-      <c r="C1" s="490" t="s">
+      <c r="B1" s="512"/>
+      <c r="C1" s="514" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="491"/>
-      <c r="E1" s="491"/>
-      <c r="F1" s="491"/>
-      <c r="G1" s="491"/>
-      <c r="H1" s="491"/>
-      <c r="I1" s="491"/>
-      <c r="J1" s="491"/>
-      <c r="K1" s="491"/>
-      <c r="L1" s="491"/>
-      <c r="M1" s="491"/>
+      <c r="D1" s="515"/>
+      <c r="E1" s="515"/>
+      <c r="F1" s="515"/>
+      <c r="G1" s="515"/>
+      <c r="H1" s="515"/>
+      <c r="I1" s="515"/>
+      <c r="J1" s="515"/>
+      <c r="K1" s="515"/>
+      <c r="L1" s="515"/>
+      <c r="M1" s="515"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="489"/>
+      <c r="B2" s="513"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -20781,21 +20818,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="492" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="493"/>
+      <c r="B3" s="516" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="517"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="494" t="s">
+      <c r="H3" s="518" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="494"/>
+      <c r="I3" s="518"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="531" t="s">
+      <c r="P3" s="542" t="s">
         <v>6</v>
       </c>
     </row>
@@ -20810,14 +20847,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="495" t="s">
+      <c r="E4" s="519" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="496"/>
-      <c r="H4" s="497" t="s">
+      <c r="F4" s="520"/>
+      <c r="H4" s="521" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="498"/>
+      <c r="I4" s="522"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -20827,14 +20864,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="532"/>
+      <c r="P4" s="543"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="541" t="s">
+      <c r="W4" s="525" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="541"/>
+      <c r="X4" s="525"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20885,8 +20922,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="541"/>
-      <c r="X5" s="541"/>
+      <c r="W5" s="525"/>
+      <c r="X5" s="525"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21657,7 +21694,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="545">
+      <c r="W19" s="529">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -21709,7 +21746,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="546"/>
+      <c r="W20" s="530"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -21758,8 +21795,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="547"/>
-      <c r="X21" s="547"/>
+      <c r="W21" s="531"/>
+      <c r="X21" s="531"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -21860,8 +21897,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="548"/>
-      <c r="X23" s="548"/>
+      <c r="W23" s="532"/>
+      <c r="X23" s="532"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -21915,8 +21952,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="548"/>
-      <c r="X24" s="548"/>
+      <c r="W24" s="532"/>
+      <c r="X24" s="532"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -21962,8 +21999,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="549"/>
-      <c r="X25" s="549"/>
+      <c r="W25" s="533"/>
+      <c r="X25" s="533"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -22014,8 +22051,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="549"/>
-      <c r="X26" s="549"/>
+      <c r="W26" s="533"/>
+      <c r="X26" s="533"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -22063,9 +22100,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="542"/>
-      <c r="X27" s="543"/>
-      <c r="Y27" s="544"/>
+      <c r="W27" s="526"/>
+      <c r="X27" s="527"/>
+      <c r="Y27" s="528"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22115,9 +22152,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="543"/>
-      <c r="X28" s="543"/>
-      <c r="Y28" s="544"/>
+      <c r="W28" s="527"/>
+      <c r="X28" s="527"/>
+      <c r="Y28" s="528"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22452,11 +22489,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="533">
+      <c r="M36" s="544">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="535">
+      <c r="N36" s="546">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -22464,7 +22501,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="537">
+      <c r="Q36" s="548">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -22499,13 +22536,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="534"/>
-      <c r="N37" s="536"/>
+      <c r="M37" s="545"/>
+      <c r="N37" s="547"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="538"/>
+      <c r="Q37" s="549"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -22795,26 +22832,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="510" t="s">
+      <c r="H52" s="499" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="511"/>
+      <c r="I52" s="500"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="512">
+      <c r="K52" s="501">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="539"/>
+      <c r="L52" s="534"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="516" t="s">
+      <c r="D53" s="505" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="516"/>
+      <c r="E53" s="505"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -22823,29 +22860,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="540" t="s">
+      <c r="D54" s="535" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="540"/>
+      <c r="E54" s="535"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="517" t="s">
+      <c r="I54" s="506" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="518"/>
-      <c r="K54" s="519">
+      <c r="J54" s="507"/>
+      <c r="K54" s="508">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="519"/>
-      <c r="M54" s="525" t="s">
+      <c r="L54" s="508"/>
+      <c r="M54" s="536" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="526"/>
-      <c r="O54" s="526"/>
-      <c r="P54" s="526"/>
-      <c r="Q54" s="527"/>
+      <c r="N54" s="537"/>
+      <c r="O54" s="537"/>
+      <c r="P54" s="537"/>
+      <c r="Q54" s="538"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="314" t="s">
@@ -22859,11 +22896,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="528"/>
-      <c r="N55" s="529"/>
-      <c r="O55" s="529"/>
-      <c r="P55" s="529"/>
-      <c r="Q55" s="530"/>
+      <c r="M55" s="539"/>
+      <c r="N55" s="540"/>
+      <c r="O55" s="540"/>
+      <c r="P55" s="540"/>
+      <c r="Q55" s="541"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -22881,11 +22918,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="521">
+      <c r="K56" s="510">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="522"/>
+      <c r="L56" s="511"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -22902,22 +22939,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="499" t="s">
+      <c r="D58" s="488" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="500"/>
+      <c r="E58" s="489"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="501" t="s">
+      <c r="I58" s="490" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="502"/>
-      <c r="K58" s="503">
+      <c r="J58" s="491"/>
+      <c r="K58" s="492">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="503"/>
+      <c r="L58" s="492"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -23061,14 +23098,17 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -23079,17 +23119,14 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="68" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -25832,23 +25869,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="488"/>
-      <c r="C1" s="490" t="s">
+      <c r="B1" s="512"/>
+      <c r="C1" s="514" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="491"/>
-      <c r="E1" s="491"/>
-      <c r="F1" s="491"/>
-      <c r="G1" s="491"/>
-      <c r="H1" s="491"/>
-      <c r="I1" s="491"/>
-      <c r="J1" s="491"/>
-      <c r="K1" s="491"/>
-      <c r="L1" s="491"/>
-      <c r="M1" s="491"/>
+      <c r="D1" s="515"/>
+      <c r="E1" s="515"/>
+      <c r="F1" s="515"/>
+      <c r="G1" s="515"/>
+      <c r="H1" s="515"/>
+      <c r="I1" s="515"/>
+      <c r="J1" s="515"/>
+      <c r="K1" s="515"/>
+      <c r="L1" s="515"/>
+      <c r="M1" s="515"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="489"/>
+      <c r="B2" s="513"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -25858,21 +25895,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="492" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="493"/>
+      <c r="B3" s="516" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="517"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="494" t="s">
+      <c r="H3" s="518" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="494"/>
+      <c r="I3" s="518"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="531" t="s">
+      <c r="P3" s="542" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="552" t="s">
@@ -25890,14 +25927,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="495" t="s">
+      <c r="E4" s="519" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="496"/>
-      <c r="H4" s="497" t="s">
+      <c r="F4" s="520"/>
+      <c r="H4" s="521" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="498"/>
+      <c r="I4" s="522"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -25907,15 +25944,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="532"/>
+      <c r="P4" s="543"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="553"/>
-      <c r="W4" s="541" t="s">
+      <c r="W4" s="525" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="541"/>
+      <c r="X4" s="525"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -25976,8 +26013,8 @@
       <c r="S5" s="325" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="541"/>
-      <c r="X5" s="541"/>
+      <c r="W5" s="525"/>
+      <c r="X5" s="525"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26734,7 +26771,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="545">
+      <c r="W19" s="529">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -26786,7 +26823,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="546"/>
+      <c r="W20" s="530"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -26835,8 +26872,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="547"/>
-      <c r="X21" s="547"/>
+      <c r="W21" s="531"/>
+      <c r="X21" s="531"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -26937,8 +26974,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="548"/>
-      <c r="X23" s="548"/>
+      <c r="W23" s="532"/>
+      <c r="X23" s="532"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -26989,8 +27026,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="548"/>
-      <c r="X24" s="548"/>
+      <c r="W24" s="532"/>
+      <c r="X24" s="532"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -27036,8 +27073,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="549"/>
-      <c r="X25" s="549"/>
+      <c r="W25" s="533"/>
+      <c r="X25" s="533"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -27085,8 +27122,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="549"/>
-      <c r="X26" s="549"/>
+      <c r="W26" s="533"/>
+      <c r="X26" s="533"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -27146,9 +27183,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="542"/>
-      <c r="X27" s="543"/>
-      <c r="Y27" s="544"/>
+      <c r="W27" s="526"/>
+      <c r="X27" s="527"/>
+      <c r="Y27" s="528"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -27202,9 +27239,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="543"/>
-      <c r="X28" s="543"/>
-      <c r="Y28" s="544"/>
+      <c r="W28" s="527"/>
+      <c r="X28" s="527"/>
+      <c r="Y28" s="528"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -27520,11 +27557,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="533">
+      <c r="M36" s="544">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="535">
+      <c r="N36" s="546">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -27532,7 +27569,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="537">
+      <c r="Q36" s="548">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -27551,13 +27588,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="534"/>
-      <c r="N37" s="536"/>
+      <c r="M37" s="545"/>
+      <c r="N37" s="547"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="538"/>
+      <c r="Q37" s="549"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -27831,26 +27868,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="510" t="s">
+      <c r="H52" s="499" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="511"/>
+      <c r="I52" s="500"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="512">
+      <c r="K52" s="501">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="539"/>
+      <c r="L52" s="534"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="516" t="s">
+      <c r="D53" s="505" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="516"/>
+      <c r="E53" s="505"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -27859,29 +27896,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="540" t="s">
+      <c r="D54" s="535" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="540"/>
+      <c r="E54" s="535"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="517" t="s">
+      <c r="I54" s="506" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="518"/>
-      <c r="K54" s="519">
+      <c r="J54" s="507"/>
+      <c r="K54" s="508">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="519"/>
-      <c r="M54" s="525" t="s">
+      <c r="L54" s="508"/>
+      <c r="M54" s="536" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="526"/>
-      <c r="O54" s="526"/>
-      <c r="P54" s="526"/>
-      <c r="Q54" s="527"/>
+      <c r="N54" s="537"/>
+      <c r="O54" s="537"/>
+      <c r="P54" s="537"/>
+      <c r="Q54" s="538"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="314" t="s">
@@ -27895,11 +27932,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="528"/>
-      <c r="N55" s="529"/>
-      <c r="O55" s="529"/>
-      <c r="P55" s="529"/>
-      <c r="Q55" s="530"/>
+      <c r="M55" s="539"/>
+      <c r="N55" s="540"/>
+      <c r="O55" s="540"/>
+      <c r="P55" s="540"/>
+      <c r="Q55" s="541"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -27917,11 +27954,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="521">
+      <c r="K56" s="510">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="522"/>
+      <c r="L56" s="511"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -27938,22 +27975,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="499" t="s">
+      <c r="D58" s="488" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="500"/>
+      <c r="E58" s="489"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="501" t="s">
+      <c r="I58" s="490" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="502"/>
-      <c r="K58" s="503">
+      <c r="J58" s="491"/>
+      <c r="K58" s="492">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="503"/>
+      <c r="L58" s="492"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -28097,20 +28134,13 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="W4:X5"/>
@@ -28120,13 +28150,20 @@
     <mergeCell ref="W25:X25"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -30821,7 +30858,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="488"/>
+      <c r="B1" s="512"/>
       <c r="C1" s="554" t="s">
         <v>323</v>
       </c>
@@ -30837,7 +30874,7 @@
       <c r="M1" s="555"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="489"/>
+      <c r="B2" s="513"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -30847,21 +30884,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="492" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="493"/>
+      <c r="B3" s="516" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="517"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="494" t="s">
+      <c r="H3" s="518" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="494"/>
+      <c r="I3" s="518"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="531" t="s">
+      <c r="P3" s="542" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="552" t="s">
@@ -30879,14 +30916,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="495" t="s">
+      <c r="E4" s="519" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="496"/>
-      <c r="H4" s="497" t="s">
+      <c r="F4" s="520"/>
+      <c r="H4" s="521" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="498"/>
+      <c r="I4" s="522"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -30896,15 +30933,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="532"/>
+      <c r="P4" s="543"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="553"/>
-      <c r="W4" s="541" t="s">
+      <c r="W4" s="525" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="541"/>
+      <c r="X4" s="525"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -30955,8 +30992,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="325"/>
-      <c r="W5" s="541"/>
-      <c r="X5" s="541"/>
+      <c r="W5" s="525"/>
+      <c r="X5" s="525"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31720,7 +31757,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="545">
+      <c r="W19" s="529">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -31773,7 +31810,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="546"/>
+      <c r="W20" s="530"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -31822,8 +31859,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="547"/>
-      <c r="X21" s="547"/>
+      <c r="W21" s="531"/>
+      <c r="X21" s="531"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -31923,8 +31960,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="548"/>
-      <c r="X23" s="548"/>
+      <c r="W23" s="532"/>
+      <c r="X23" s="532"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -31979,8 +32016,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="548"/>
-      <c r="X24" s="548"/>
+      <c r="W24" s="532"/>
+      <c r="X24" s="532"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -32025,8 +32062,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="549"/>
-      <c r="X25" s="549"/>
+      <c r="W25" s="533"/>
+      <c r="X25" s="533"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -32074,8 +32111,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="549"/>
-      <c r="X26" s="549"/>
+      <c r="W26" s="533"/>
+      <c r="X26" s="533"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -32129,9 +32166,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="542"/>
-      <c r="X27" s="543"/>
-      <c r="Y27" s="544"/>
+      <c r="W27" s="526"/>
+      <c r="X27" s="527"/>
+      <c r="Y27" s="528"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32185,9 +32222,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="543"/>
-      <c r="X28" s="543"/>
-      <c r="Y28" s="544"/>
+      <c r="W28" s="527"/>
+      <c r="X28" s="527"/>
+      <c r="Y28" s="528"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32498,11 +32535,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="533">
+      <c r="M36" s="544">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="535">
+      <c r="N36" s="546">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -32510,7 +32547,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="537">
+      <c r="Q36" s="548">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -32535,13 +32572,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="534"/>
-      <c r="N37" s="536"/>
+      <c r="M37" s="545"/>
+      <c r="N37" s="547"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="538"/>
+      <c r="Q37" s="549"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -32834,26 +32871,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="510" t="s">
+      <c r="H52" s="499" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="511"/>
+      <c r="I52" s="500"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="512">
+      <c r="K52" s="501">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="539"/>
+      <c r="L52" s="534"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="516" t="s">
+      <c r="D53" s="505" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="516"/>
+      <c r="E53" s="505"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -32862,22 +32899,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="540" t="s">
+      <c r="D54" s="535" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="540"/>
+      <c r="E54" s="535"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="517" t="s">
+      <c r="I54" s="506" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="518"/>
-      <c r="K54" s="519">
+      <c r="J54" s="507"/>
+      <c r="K54" s="508">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="519"/>
+      <c r="L54" s="508"/>
       <c r="M54" s="422"/>
       <c r="N54" s="422"/>
       <c r="O54" s="422"/>
@@ -32918,11 +32955,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="521">
+      <c r="K56" s="510">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="522"/>
+      <c r="L56" s="511"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -32939,22 +32976,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="499" t="s">
+      <c r="D58" s="488" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="500"/>
+      <c r="E58" s="489"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="501" t="s">
+      <c r="I58" s="490" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="502"/>
-      <c r="K58" s="503">
+      <c r="J58" s="491"/>
+      <c r="K58" s="492">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="503"/>
+      <c r="L58" s="492"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -33098,20 +33135,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -33127,6 +33150,20 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -35885,7 +35922,7 @@
   <dimension ref="A1:Z80"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -35914,7 +35951,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="488"/>
+      <c r="B1" s="512"/>
       <c r="C1" s="554" t="s">
         <v>323</v>
       </c>
@@ -35930,7 +35967,7 @@
       <c r="M1" s="555"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="489"/>
+      <c r="B2" s="513"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -35940,21 +35977,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="492" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="493"/>
+      <c r="B3" s="516" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="517"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="494" t="s">
+      <c r="H3" s="518" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="494"/>
+      <c r="I3" s="518"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="531" t="s">
+      <c r="P3" s="542" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="552" t="s">
@@ -35972,14 +36009,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="495" t="s">
+      <c r="E4" s="519" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="496"/>
-      <c r="H4" s="497" t="s">
+      <c r="F4" s="520"/>
+      <c r="H4" s="521" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="498"/>
+      <c r="I4" s="522"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -35989,15 +36026,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="532"/>
+      <c r="P4" s="543"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="553"/>
-      <c r="W4" s="541" t="s">
+      <c r="W4" s="525" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="541"/>
+      <c r="X4" s="525"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -36048,8 +36085,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="325"/>
-      <c r="W5" s="541"/>
-      <c r="X5" s="541"/>
+      <c r="W5" s="525"/>
+      <c r="X5" s="525"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -36810,7 +36847,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="545">
+      <c r="W19" s="529">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -36862,7 +36899,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="546"/>
+      <c r="W20" s="530"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -36911,8 +36948,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="547"/>
-      <c r="X21" s="547"/>
+      <c r="W21" s="531"/>
+      <c r="X21" s="531"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -37011,8 +37048,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="548"/>
-      <c r="X23" s="548"/>
+      <c r="W23" s="532"/>
+      <c r="X23" s="532"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -37067,8 +37104,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="548"/>
-      <c r="X24" s="548"/>
+      <c r="W24" s="532"/>
+      <c r="X24" s="532"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -37116,8 +37153,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="549"/>
-      <c r="X25" s="549"/>
+      <c r="W25" s="533"/>
+      <c r="X25" s="533"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -37165,8 +37202,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="549"/>
-      <c r="X26" s="549"/>
+      <c r="W26" s="533"/>
+      <c r="X26" s="533"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -37214,9 +37251,9 @@
       <c r="R27" s="320">
         <v>0</v>
       </c>
-      <c r="W27" s="542"/>
-      <c r="X27" s="543"/>
-      <c r="Y27" s="544"/>
+      <c r="W27" s="526"/>
+      <c r="X27" s="527"/>
+      <c r="Y27" s="528"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -37264,9 +37301,9 @@
       <c r="R28" s="320">
         <v>0</v>
       </c>
-      <c r="W28" s="543"/>
-      <c r="X28" s="543"/>
-      <c r="Y28" s="544"/>
+      <c r="W28" s="527"/>
+      <c r="X28" s="527"/>
+      <c r="Y28" s="528"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -37607,11 +37644,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="533">
+      <c r="M36" s="544">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="535">
+      <c r="N36" s="546">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -37644,8 +37681,8 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="534"/>
-      <c r="N37" s="536"/>
+      <c r="M37" s="545"/>
+      <c r="N37" s="547"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
@@ -37952,26 +37989,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="510" t="s">
+      <c r="H52" s="499" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="511"/>
+      <c r="I52" s="500"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="512">
+      <c r="K52" s="501">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="539"/>
+      <c r="L52" s="534"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="516" t="s">
+      <c r="D53" s="505" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="516"/>
+      <c r="E53" s="505"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -37980,22 +38017,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="540" t="s">
+      <c r="D54" s="535" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="540"/>
+      <c r="E54" s="535"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="517" t="s">
+      <c r="I54" s="506" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="518"/>
-      <c r="K54" s="519">
+      <c r="J54" s="507"/>
+      <c r="K54" s="508">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="519"/>
+      <c r="L54" s="508"/>
       <c r="M54" s="422"/>
       <c r="N54" s="422"/>
       <c r="O54" s="422"/>
@@ -38036,11 +38073,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="521">
+      <c r="K56" s="510">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="522"/>
+      <c r="L56" s="511"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -38057,22 +38094,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="499" t="s">
+      <c r="D58" s="488" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="500"/>
+      <c r="E58" s="489"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="501" t="s">
+      <c r="I58" s="490" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="502"/>
-      <c r="K58" s="503">
+      <c r="J58" s="491"/>
+      <c r="K58" s="492">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="503"/>
+      <c r="L58" s="492"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -38216,6 +38253,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -38232,20 +38283,6 @@
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="M39:N39"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.23" top="0.4" bottom="0.28000000000000003" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/BALANCE    ZAVALETA   MARZO  2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/BALANCE    ZAVALETA   MARZO  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="10" activeTab="11"/>
+    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="10" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -5227,39 +5227,72 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="44" fontId="19" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="77" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="6" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="77" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="6" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="21" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="19" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="1" fillId="15" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="21" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="21" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="21" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="21" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="21" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="2" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="21" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="21" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="21" borderId="89" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="21" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="21" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5332,10 +5365,76 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5379,39 +5478,6 @@
     </xf>
     <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5476,6 +5542,30 @@
     <xf numFmtId="0" fontId="19" fillId="20" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="59" fillId="3" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="3" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="3" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="60" fillId="15" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="60" fillId="15" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="60" fillId="15" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="60" fillId="15" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="11" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5486,6 +5576,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="7" fontId="13" fillId="6" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="60" fillId="15" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="60" fillId="15" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="60" fillId="15" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="60" fillId="15" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="9" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5554,123 +5671,6 @@
     <xf numFmtId="44" fontId="11" fillId="14" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="59" fillId="3" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="3" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="3" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="77" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="6" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="77" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="6" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="21" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="19" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="1" fillId="15" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="60" fillId="15" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="60" fillId="15" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="60" fillId="15" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="60" fillId="15" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="60" fillId="15" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="60" fillId="15" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="60" fillId="15" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="60" fillId="15" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="21" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="21" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="21" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="21" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="21" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="2" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="21" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="21" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="21" borderId="89" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="21" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="21" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -8668,23 +8668,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="479"/>
-      <c r="C1" s="481" t="s">
+      <c r="B1" s="539"/>
+      <c r="C1" s="541" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="482"/>
-      <c r="E1" s="482"/>
-      <c r="F1" s="482"/>
-      <c r="G1" s="482"/>
-      <c r="H1" s="482"/>
-      <c r="I1" s="482"/>
-      <c r="J1" s="482"/>
-      <c r="K1" s="482"/>
-      <c r="L1" s="482"/>
-      <c r="M1" s="482"/>
+      <c r="D1" s="542"/>
+      <c r="E1" s="542"/>
+      <c r="F1" s="542"/>
+      <c r="G1" s="542"/>
+      <c r="H1" s="542"/>
+      <c r="I1" s="542"/>
+      <c r="J1" s="542"/>
+      <c r="K1" s="542"/>
+      <c r="L1" s="542"/>
+      <c r="M1" s="542"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="480"/>
+      <c r="B2" s="540"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -8694,17 +8694,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="483" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="484"/>
+      <c r="B3" s="543" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="544"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="485" t="s">
+      <c r="H3" s="545" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="485"/>
+      <c r="I3" s="545"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -8718,14 +8718,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="486" t="s">
+      <c r="E4" s="546" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="487"/>
-      <c r="H4" s="488" t="s">
+      <c r="F4" s="547"/>
+      <c r="H4" s="548" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="489"/>
+      <c r="I4" s="549"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -8735,10 +8735,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="495" t="s">
+      <c r="P4" s="520" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="496"/>
+      <c r="Q4" s="521"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -10179,11 +10179,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="497">
+      <c r="M39" s="522">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="499">
+      <c r="N39" s="524">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -10209,8 +10209,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="498"/>
-      <c r="N40" s="500"/>
+      <c r="M40" s="523"/>
+      <c r="N40" s="525"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -10425,29 +10425,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="501" t="s">
+      <c r="H52" s="526" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="502"/>
+      <c r="I52" s="527"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="503">
+      <c r="K52" s="528">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="504"/>
-      <c r="M52" s="505">
+      <c r="L52" s="529"/>
+      <c r="M52" s="530">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="506"/>
+      <c r="N52" s="531"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="507" t="s">
+      <c r="D53" s="532" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="507"/>
+      <c r="E53" s="532"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -10458,22 +10458,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="507" t="s">
+      <c r="D54" s="532" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="507"/>
+      <c r="E54" s="532"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="508" t="s">
+      <c r="I54" s="533" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="509"/>
-      <c r="K54" s="510">
+      <c r="J54" s="534"/>
+      <c r="K54" s="535">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="511"/>
+      <c r="L54" s="536"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -10506,11 +10506,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="512">
+      <c r="K56" s="537">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="513"/>
+      <c r="L56" s="538"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -10527,22 +10527,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="490" t="s">
+      <c r="D58" s="515" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="491"/>
+      <c r="E58" s="516"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="492" t="s">
+      <c r="I58" s="517" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="493"/>
-      <c r="K58" s="494">
+      <c r="J58" s="518"/>
+      <c r="K58" s="519">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="494"/>
+      <c r="L58" s="519"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -10686,6 +10686,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -10700,12 +10706,6 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10721,8 +10721,8 @@
   </sheetPr>
   <dimension ref="A1:N115"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10758,7 +10758,7 @@
       </c>
       <c r="J1" s="302"/>
       <c r="K1" s="303"/>
-      <c r="L1" s="603"/>
+      <c r="L1" s="489"/>
       <c r="M1" s="303"/>
       <c r="N1" s="377" t="s">
         <v>314</v>
@@ -10792,7 +10792,7 @@
       <c r="K2" s="299" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="604" t="s">
+      <c r="L2" s="490" t="s">
         <v>22</v>
       </c>
       <c r="M2" s="299" t="s">
@@ -10831,7 +10831,7 @@
       <c r="K3" s="409">
         <v>1315</v>
       </c>
-      <c r="L3" s="605">
+      <c r="L3" s="491">
         <v>44643</v>
       </c>
       <c r="M3" s="409">
@@ -10872,7 +10872,7 @@
       <c r="K4" s="409">
         <v>272.8</v>
       </c>
-      <c r="L4" s="606">
+      <c r="L4" s="492">
         <v>44643</v>
       </c>
       <c r="M4" s="409">
@@ -10912,7 +10912,7 @@
       <c r="K5" s="409">
         <v>84434.880000000005</v>
       </c>
-      <c r="L5" s="606">
+      <c r="L5" s="492">
         <v>44643</v>
       </c>
       <c r="M5" s="409">
@@ -10952,7 +10952,7 @@
       <c r="K6" s="409">
         <v>10050.200000000001</v>
       </c>
-      <c r="L6" s="606">
+      <c r="L6" s="492">
         <v>44643</v>
       </c>
       <c r="M6" s="409">
@@ -10992,7 +10992,7 @@
       <c r="K7" s="409">
         <v>1412.2</v>
       </c>
-      <c r="L7" s="606">
+      <c r="L7" s="492">
         <v>44643</v>
       </c>
       <c r="M7" s="409">
@@ -11032,7 +11032,7 @@
       <c r="K8" s="409">
         <v>12456.4</v>
       </c>
-      <c r="L8" s="606">
+      <c r="L8" s="492">
         <v>44643</v>
       </c>
       <c r="M8" s="409">
@@ -11072,7 +11072,7 @@
       <c r="K9" s="409">
         <v>69960</v>
       </c>
-      <c r="L9" s="606">
+      <c r="L9" s="492">
         <v>44643</v>
       </c>
       <c r="M9" s="409">
@@ -11113,7 +11113,7 @@
       <c r="K10" s="409">
         <v>2609.4</v>
       </c>
-      <c r="L10" s="606">
+      <c r="L10" s="492">
         <v>44643</v>
       </c>
       <c r="M10" s="409">
@@ -11153,7 +11153,7 @@
       <c r="K11" s="409">
         <v>26863.200000000001</v>
       </c>
-      <c r="L11" s="606">
+      <c r="L11" s="492">
         <v>44643</v>
       </c>
       <c r="M11" s="409">
@@ -11193,7 +11193,7 @@
       <c r="K12" s="409">
         <v>1443.2</v>
       </c>
-      <c r="L12" s="606">
+      <c r="L12" s="492">
         <v>44643</v>
       </c>
       <c r="M12" s="409">
@@ -11233,7 +11233,7 @@
       <c r="K13" s="409">
         <v>1760.2</v>
       </c>
-      <c r="L13" s="606">
+      <c r="L13" s="492">
         <v>44643</v>
       </c>
       <c r="M13" s="409">
@@ -11273,7 +11273,7 @@
       <c r="K14" s="409">
         <v>103232.8</v>
       </c>
-      <c r="L14" s="606">
+      <c r="L14" s="492">
         <v>44643</v>
       </c>
       <c r="M14" s="409">
@@ -11313,7 +11313,7 @@
       <c r="K15" s="409">
         <v>16973.599999999999</v>
       </c>
-      <c r="L15" s="606">
+      <c r="L15" s="492">
         <v>44643</v>
       </c>
       <c r="M15" s="409">
@@ -11353,7 +11353,7 @@
       <c r="K16" s="409">
         <v>31269.200000000001</v>
       </c>
-      <c r="L16" s="606">
+      <c r="L16" s="492">
         <v>44643</v>
       </c>
       <c r="M16" s="409">
@@ -11393,7 +11393,7 @@
       <c r="K17" s="409">
         <v>940</v>
       </c>
-      <c r="L17" s="606">
+      <c r="L17" s="492">
         <v>44643</v>
       </c>
       <c r="M17" s="409">
@@ -11433,7 +11433,7 @@
       <c r="K18" s="409">
         <v>123992.8</v>
       </c>
-      <c r="L18" s="606">
+      <c r="L18" s="492">
         <v>44643</v>
       </c>
       <c r="M18" s="409">
@@ -11473,7 +11473,7 @@
       <c r="K19" s="409">
         <v>15453.4</v>
       </c>
-      <c r="L19" s="606">
+      <c r="L19" s="492">
         <v>44643</v>
       </c>
       <c r="M19" s="409">
@@ -11513,7 +11513,7 @@
       <c r="K20" s="409">
         <v>0</v>
       </c>
-      <c r="L20" s="606">
+      <c r="L20" s="492">
         <v>44643</v>
       </c>
       <c r="M20" s="409">
@@ -11553,7 +11553,7 @@
       <c r="K21" s="409">
         <v>1596.8</v>
       </c>
-      <c r="L21" s="606">
+      <c r="L21" s="492">
         <v>44643</v>
       </c>
       <c r="M21" s="409">
@@ -11594,7 +11594,7 @@
       <c r="K22" s="409">
         <v>7233.2</v>
       </c>
-      <c r="L22" s="606">
+      <c r="L22" s="492">
         <v>44643</v>
       </c>
       <c r="M22" s="409">
@@ -11634,7 +11634,7 @@
       <c r="K23" s="409">
         <v>7654.4</v>
       </c>
-      <c r="L23" s="606">
+      <c r="L23" s="492">
         <v>44643</v>
       </c>
       <c r="M23" s="409">
@@ -11674,7 +11674,7 @@
       <c r="K24" s="409">
         <v>270</v>
       </c>
-      <c r="L24" s="606">
+      <c r="L24" s="492">
         <v>44643</v>
       </c>
       <c r="M24" s="409">
@@ -11714,7 +11714,7 @@
       <c r="K25" s="409">
         <v>583.20000000000005</v>
       </c>
-      <c r="L25" s="606">
+      <c r="L25" s="492">
         <v>44643</v>
       </c>
       <c r="M25" s="409">
@@ -11754,7 +11754,7 @@
       <c r="K26" s="409">
         <v>2462.8000000000002</v>
       </c>
-      <c r="L26" s="606">
+      <c r="L26" s="492">
         <v>44643</v>
       </c>
       <c r="M26" s="409">
@@ -11794,7 +11794,7 @@
       <c r="K27" s="409">
         <v>3085.4</v>
       </c>
-      <c r="L27" s="606">
+      <c r="L27" s="492">
         <v>44643</v>
       </c>
       <c r="M27" s="409">
@@ -11834,7 +11834,7 @@
       <c r="K28" s="409">
         <v>2662.4</v>
       </c>
-      <c r="L28" s="606">
+      <c r="L28" s="492">
         <v>44643</v>
       </c>
       <c r="M28" s="409">
@@ -11874,7 +11874,7 @@
       <c r="K29" s="409">
         <v>2100</v>
       </c>
-      <c r="L29" s="606">
+      <c r="L29" s="492">
         <v>44643</v>
       </c>
       <c r="M29" s="409">
@@ -11915,7 +11915,7 @@
       <c r="K30" s="409">
         <v>8324.6</v>
       </c>
-      <c r="L30" s="606">
+      <c r="L30" s="492">
         <v>44643</v>
       </c>
       <c r="M30" s="409">
@@ -11955,7 +11955,7 @@
       <c r="K31" s="409">
         <v>730.4</v>
       </c>
-      <c r="L31" s="606">
+      <c r="L31" s="492">
         <v>44643</v>
       </c>
       <c r="M31" s="409">
@@ -11995,7 +11995,7 @@
       <c r="K32" s="409">
         <v>2296</v>
       </c>
-      <c r="L32" s="606">
+      <c r="L32" s="492">
         <v>44643</v>
       </c>
       <c r="M32" s="409">
@@ -12035,7 +12035,7 @@
       <c r="K33" s="409">
         <v>4034.6</v>
       </c>
-      <c r="L33" s="606">
+      <c r="L33" s="492">
         <v>44643</v>
       </c>
       <c r="M33" s="409">
@@ -12075,7 +12075,7 @@
       <c r="K34" s="409">
         <v>360</v>
       </c>
-      <c r="L34" s="606">
+      <c r="L34" s="492">
         <v>44643</v>
       </c>
       <c r="M34" s="409">
@@ -12115,7 +12115,7 @@
       <c r="K35" s="409">
         <v>2121</v>
       </c>
-      <c r="L35" s="606">
+      <c r="L35" s="492">
         <v>44643</v>
       </c>
       <c r="M35" s="409">
@@ -12155,7 +12155,7 @@
       <c r="K36" s="409">
         <v>2600</v>
       </c>
-      <c r="L36" s="606">
+      <c r="L36" s="492">
         <v>44643</v>
       </c>
       <c r="M36" s="409">
@@ -12195,7 +12195,7 @@
       <c r="K37" s="409">
         <v>620</v>
       </c>
-      <c r="L37" s="606">
+      <c r="L37" s="492">
         <v>44643</v>
       </c>
       <c r="M37" s="409">
@@ -12229,7 +12229,7 @@
       <c r="I38" s="411"/>
       <c r="J38" s="408"/>
       <c r="K38" s="409"/>
-      <c r="L38" s="606"/>
+      <c r="L38" s="492"/>
       <c r="M38" s="143"/>
       <c r="N38" s="137">
         <f t="shared" si="1"/>
@@ -12259,7 +12259,7 @@
       <c r="I39" s="288"/>
       <c r="J39" s="57"/>
       <c r="K39" s="111"/>
-      <c r="L39" s="607"/>
+      <c r="L39" s="493"/>
       <c r="M39" s="69"/>
       <c r="N39" s="137">
         <f t="shared" si="1"/>
@@ -12289,7 +12289,7 @@
       <c r="I40" s="288"/>
       <c r="J40" s="57"/>
       <c r="K40" s="111"/>
-      <c r="L40" s="607"/>
+      <c r="L40" s="493"/>
       <c r="M40" s="69"/>
       <c r="N40" s="137">
         <f t="shared" si="1"/>
@@ -12319,7 +12319,7 @@
       <c r="I41" s="288"/>
       <c r="J41" s="57"/>
       <c r="K41" s="111"/>
-      <c r="L41" s="607"/>
+      <c r="L41" s="493"/>
       <c r="M41" s="69"/>
       <c r="N41" s="137">
         <f t="shared" si="1"/>
@@ -12349,7 +12349,7 @@
       <c r="I42" s="288"/>
       <c r="J42" s="57"/>
       <c r="K42" s="111"/>
-      <c r="L42" s="607"/>
+      <c r="L42" s="493"/>
       <c r="M42" s="69"/>
       <c r="N42" s="137">
         <f t="shared" si="1"/>
@@ -12379,7 +12379,7 @@
       <c r="I43" s="288"/>
       <c r="J43" s="57"/>
       <c r="K43" s="111"/>
-      <c r="L43" s="607"/>
+      <c r="L43" s="493"/>
       <c r="M43" s="69"/>
       <c r="N43" s="137">
         <f t="shared" si="1"/>
@@ -12409,7 +12409,7 @@
       <c r="I44" s="288"/>
       <c r="J44" s="57"/>
       <c r="K44" s="111"/>
-      <c r="L44" s="607"/>
+      <c r="L44" s="493"/>
       <c r="M44" s="69"/>
       <c r="N44" s="137">
         <f t="shared" si="1"/>
@@ -12439,7 +12439,7 @@
       <c r="I45" s="288"/>
       <c r="J45" s="57"/>
       <c r="K45" s="111"/>
-      <c r="L45" s="607"/>
+      <c r="L45" s="493"/>
       <c r="M45" s="69"/>
       <c r="N45" s="137">
         <f t="shared" si="1"/>
@@ -12469,7 +12469,7 @@
       <c r="I46" s="288"/>
       <c r="J46" s="57"/>
       <c r="K46" s="111"/>
-      <c r="L46" s="607"/>
+      <c r="L46" s="493"/>
       <c r="M46" s="69"/>
       <c r="N46" s="137">
         <f t="shared" si="1"/>
@@ -12486,10 +12486,10 @@
       <c r="C47" s="111">
         <v>61856.639999999999</v>
       </c>
-      <c r="D47" s="631">
+      <c r="D47" s="505">
         <v>44643</v>
       </c>
-      <c r="E47" s="632">
+      <c r="E47" s="506">
         <v>61856.639999999999</v>
       </c>
       <c r="F47" s="409">
@@ -12516,10 +12516,10 @@
       <c r="C48" s="111">
         <v>145889.51999999999</v>
       </c>
-      <c r="D48" s="631">
+      <c r="D48" s="505">
         <v>44643</v>
       </c>
-      <c r="E48" s="632">
+      <c r="E48" s="506">
         <v>145889.51999999999</v>
       </c>
       <c r="F48" s="409">
@@ -12529,7 +12529,7 @@
       <c r="I48" s="348"/>
       <c r="J48" s="431"/>
       <c r="K48" s="431"/>
-      <c r="L48" s="608"/>
+      <c r="L48" s="494"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -12546,10 +12546,10 @@
       <c r="C49" s="111">
         <v>200</v>
       </c>
-      <c r="D49" s="631">
+      <c r="D49" s="505">
         <v>44643</v>
       </c>
-      <c r="E49" s="632">
+      <c r="E49" s="506">
         <v>200</v>
       </c>
       <c r="F49" s="409">
@@ -12559,7 +12559,7 @@
       <c r="I49" s="348"/>
       <c r="J49" s="431"/>
       <c r="K49" s="431"/>
-      <c r="L49" s="608"/>
+      <c r="L49" s="494"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -12576,10 +12576,10 @@
       <c r="C50" s="111">
         <v>2373.8000000000002</v>
       </c>
-      <c r="D50" s="631">
+      <c r="D50" s="505">
         <v>44643</v>
       </c>
-      <c r="E50" s="632">
+      <c r="E50" s="506">
         <v>2373.8000000000002</v>
       </c>
       <c r="F50" s="409">
@@ -12602,10 +12602,10 @@
       <c r="A51" s="463"/>
       <c r="B51" s="464"/>
       <c r="C51" s="111"/>
-      <c r="D51" s="631">
+      <c r="D51" s="505">
         <v>44643</v>
       </c>
-      <c r="E51" s="632"/>
+      <c r="E51" s="506"/>
       <c r="F51" s="409">
         <f t="shared" si="2"/>
         <v>148463.31999999998</v>
@@ -12624,10 +12624,10 @@
       <c r="A52" s="463"/>
       <c r="B52" s="464"/>
       <c r="C52" s="111"/>
-      <c r="D52" s="631">
+      <c r="D52" s="505">
         <v>44643</v>
       </c>
-      <c r="E52" s="632"/>
+      <c r="E52" s="506"/>
       <c r="F52" s="409">
         <f t="shared" si="2"/>
         <v>148463.31999999998</v>
@@ -12646,10 +12646,10 @@
       <c r="A53" s="463"/>
       <c r="B53" s="464"/>
       <c r="C53" s="111"/>
-      <c r="D53" s="631">
+      <c r="D53" s="505">
         <v>44643</v>
       </c>
-      <c r="E53" s="632"/>
+      <c r="E53" s="506"/>
       <c r="F53" s="409">
         <f t="shared" si="2"/>
         <v>148463.31999999998</v>
@@ -12668,10 +12668,10 @@
       <c r="A54" s="463"/>
       <c r="B54" s="464"/>
       <c r="C54" s="111"/>
-      <c r="D54" s="631">
+      <c r="D54" s="505">
         <v>44643</v>
       </c>
-      <c r="E54" s="632"/>
+      <c r="E54" s="506"/>
       <c r="F54" s="409">
         <f t="shared" si="2"/>
         <v>148463.31999999998</v>
@@ -12690,10 +12690,10 @@
       <c r="A55" s="463"/>
       <c r="B55" s="464"/>
       <c r="C55" s="111"/>
-      <c r="D55" s="631">
+      <c r="D55" s="505">
         <v>44643</v>
       </c>
-      <c r="E55" s="632"/>
+      <c r="E55" s="506"/>
       <c r="F55" s="409">
         <f t="shared" si="2"/>
         <v>148463.31999999998</v>
@@ -12712,10 +12712,10 @@
       <c r="A56" s="463"/>
       <c r="B56" s="464"/>
       <c r="C56" s="111"/>
-      <c r="D56" s="631">
+      <c r="D56" s="505">
         <v>44643</v>
       </c>
-      <c r="E56" s="632"/>
+      <c r="E56" s="506"/>
       <c r="F56" s="409">
         <f t="shared" si="2"/>
         <v>148463.31999999998</v>
@@ -12734,10 +12734,10 @@
       <c r="A57" s="463"/>
       <c r="B57" s="464"/>
       <c r="C57" s="111"/>
-      <c r="D57" s="631">
+      <c r="D57" s="505">
         <v>44643</v>
       </c>
-      <c r="E57" s="632"/>
+      <c r="E57" s="506"/>
       <c r="F57" s="409">
         <f t="shared" si="2"/>
         <v>148463.31999999998</v>
@@ -12756,10 +12756,10 @@
       <c r="A58" s="463"/>
       <c r="B58" s="464"/>
       <c r="C58" s="111"/>
-      <c r="D58" s="631">
+      <c r="D58" s="505">
         <v>44643</v>
       </c>
-      <c r="E58" s="632"/>
+      <c r="E58" s="506"/>
       <c r="F58" s="409">
         <f t="shared" si="2"/>
         <v>148463.31999999998</v>
@@ -12778,10 +12778,10 @@
       <c r="A59" s="463"/>
       <c r="B59" s="464"/>
       <c r="C59" s="111"/>
-      <c r="D59" s="631">
+      <c r="D59" s="505">
         <v>44643</v>
       </c>
-      <c r="E59" s="632"/>
+      <c r="E59" s="506"/>
       <c r="F59" s="409">
         <f t="shared" si="2"/>
         <v>148463.31999999998</v>
@@ -12800,10 +12800,10 @@
       <c r="A60" s="463"/>
       <c r="B60" s="464"/>
       <c r="C60" s="111"/>
-      <c r="D60" s="631">
+      <c r="D60" s="505">
         <v>44643</v>
       </c>
-      <c r="E60" s="632"/>
+      <c r="E60" s="506"/>
       <c r="F60" s="409">
         <f t="shared" si="2"/>
         <v>148463.31999999998</v>
@@ -12822,10 +12822,10 @@
       <c r="A61" s="463"/>
       <c r="B61" s="464"/>
       <c r="C61" s="111"/>
-      <c r="D61" s="631">
+      <c r="D61" s="505">
         <v>44643</v>
       </c>
-      <c r="E61" s="632"/>
+      <c r="E61" s="506"/>
       <c r="F61" s="409">
         <f t="shared" si="2"/>
         <v>148463.31999999998</v>
@@ -12844,10 +12844,10 @@
       <c r="A62" s="463"/>
       <c r="B62" s="464"/>
       <c r="C62" s="111"/>
-      <c r="D62" s="631">
+      <c r="D62" s="505">
         <v>44643</v>
       </c>
-      <c r="E62" s="632"/>
+      <c r="E62" s="506"/>
       <c r="F62" s="409">
         <f t="shared" si="2"/>
         <v>148463.31999999998</v>
@@ -12866,10 +12866,10 @@
       <c r="A63" s="463"/>
       <c r="B63" s="464"/>
       <c r="C63" s="111"/>
-      <c r="D63" s="631">
+      <c r="D63" s="505">
         <v>44643</v>
       </c>
-      <c r="E63" s="632"/>
+      <c r="E63" s="506"/>
       <c r="F63" s="409">
         <f t="shared" si="2"/>
         <v>148463.31999999998</v>
@@ -12888,10 +12888,10 @@
       <c r="A64" s="463"/>
       <c r="B64" s="464"/>
       <c r="C64" s="111"/>
-      <c r="D64" s="631">
+      <c r="D64" s="505">
         <v>44643</v>
       </c>
-      <c r="E64" s="632"/>
+      <c r="E64" s="506"/>
       <c r="F64" s="409">
         <f t="shared" si="2"/>
         <v>148463.31999999998</v>
@@ -12910,10 +12910,10 @@
       <c r="A65" s="463"/>
       <c r="B65" s="464"/>
       <c r="C65" s="111"/>
-      <c r="D65" s="631">
+      <c r="D65" s="505">
         <v>44643</v>
       </c>
-      <c r="E65" s="632"/>
+      <c r="E65" s="506"/>
       <c r="F65" s="409">
         <f t="shared" si="2"/>
         <v>148463.31999999998</v>
@@ -12932,10 +12932,10 @@
       <c r="A66" s="463"/>
       <c r="B66" s="464"/>
       <c r="C66" s="111"/>
-      <c r="D66" s="631">
+      <c r="D66" s="505">
         <v>44643</v>
       </c>
-      <c r="E66" s="632"/>
+      <c r="E66" s="506"/>
       <c r="F66" s="409">
         <f t="shared" si="2"/>
         <v>148463.31999999998</v>
@@ -12954,10 +12954,10 @@
       <c r="A67" s="465"/>
       <c r="B67" s="466"/>
       <c r="C67" s="233"/>
-      <c r="D67" s="631">
+      <c r="D67" s="505">
         <v>44643</v>
       </c>
-      <c r="E67" s="633"/>
+      <c r="E67" s="507"/>
       <c r="F67" s="409">
         <f t="shared" si="2"/>
         <v>148463.31999999998</v>
@@ -12976,10 +12976,10 @@
       <c r="A68" s="463"/>
       <c r="B68" s="464"/>
       <c r="C68" s="111"/>
-      <c r="D68" s="631">
+      <c r="D68" s="505">
         <v>44643</v>
       </c>
-      <c r="E68" s="632"/>
+      <c r="E68" s="506"/>
       <c r="F68" s="409">
         <f t="shared" si="2"/>
         <v>148463.31999999998</v>
@@ -12998,10 +12998,10 @@
       <c r="A69" s="463"/>
       <c r="B69" s="464"/>
       <c r="C69" s="111"/>
-      <c r="D69" s="631">
+      <c r="D69" s="505">
         <v>44643</v>
       </c>
-      <c r="E69" s="632"/>
+      <c r="E69" s="506"/>
       <c r="F69" s="409">
         <f t="shared" ref="F69:F78" si="3">F68+C69</f>
         <v>148463.31999999998</v>
@@ -13020,10 +13020,10 @@
       <c r="A70" s="463"/>
       <c r="B70" s="464"/>
       <c r="C70" s="111"/>
-      <c r="D70" s="631">
+      <c r="D70" s="505">
         <v>44643</v>
       </c>
-      <c r="E70" s="632"/>
+      <c r="E70" s="506"/>
       <c r="F70" s="409">
         <f t="shared" si="3"/>
         <v>148463.31999999998</v>
@@ -13042,10 +13042,10 @@
       <c r="A71" s="463"/>
       <c r="B71" s="464"/>
       <c r="C71" s="111"/>
-      <c r="D71" s="631">
+      <c r="D71" s="505">
         <v>44643</v>
       </c>
-      <c r="E71" s="632"/>
+      <c r="E71" s="506"/>
       <c r="F71" s="409">
         <f t="shared" si="3"/>
         <v>148463.31999999998</v>
@@ -13064,10 +13064,10 @@
       <c r="A72" s="463"/>
       <c r="B72" s="464"/>
       <c r="C72" s="111"/>
-      <c r="D72" s="631">
+      <c r="D72" s="505">
         <v>44643</v>
       </c>
-      <c r="E72" s="632"/>
+      <c r="E72" s="506"/>
       <c r="F72" s="409">
         <f t="shared" si="3"/>
         <v>148463.31999999998</v>
@@ -13086,10 +13086,10 @@
       <c r="A73" s="463"/>
       <c r="B73" s="464"/>
       <c r="C73" s="111"/>
-      <c r="D73" s="631">
+      <c r="D73" s="505">
         <v>44643</v>
       </c>
-      <c r="E73" s="632"/>
+      <c r="E73" s="506"/>
       <c r="F73" s="409">
         <f t="shared" si="3"/>
         <v>148463.31999999998</v>
@@ -13108,10 +13108,10 @@
       <c r="A74" s="463"/>
       <c r="B74" s="464"/>
       <c r="C74" s="111"/>
-      <c r="D74" s="631">
+      <c r="D74" s="505">
         <v>44643</v>
       </c>
-      <c r="E74" s="632"/>
+      <c r="E74" s="506"/>
       <c r="F74" s="409">
         <f t="shared" si="3"/>
         <v>148463.31999999998</v>
@@ -13136,10 +13136,10 @@
       <c r="C75" s="111">
         <v>40377.15</v>
       </c>
-      <c r="D75" s="631">
+      <c r="D75" s="505">
         <v>44643</v>
       </c>
-      <c r="E75" s="632">
+      <c r="E75" s="506">
         <v>40377.15</v>
       </c>
       <c r="F75" s="409">
@@ -13166,10 +13166,10 @@
         <f t="shared" si="3"/>
         <v>188840.46999999997</v>
       </c>
-      <c r="I76" s="621" t="s">
+      <c r="I76" s="611" t="s">
         <v>604</v>
       </c>
-      <c r="J76" s="622"/>
+      <c r="J76" s="612"/>
       <c r="K76" s="69"/>
       <c r="L76" s="148"/>
       <c r="M76" s="69"/>
@@ -13188,8 +13188,8 @@
         <f t="shared" si="3"/>
         <v>188840.46999999997</v>
       </c>
-      <c r="I77" s="623"/>
-      <c r="J77" s="624"/>
+      <c r="I77" s="613"/>
+      <c r="J77" s="614"/>
       <c r="K77" s="69"/>
       <c r="L77" s="148"/>
       <c r="M77" s="69"/>
@@ -13241,7 +13241,7 @@
         <f>SUM(K3:K78)</f>
         <v>553174.08000000007</v>
       </c>
-      <c r="L79" s="609"/>
+      <c r="L79" s="495"/>
       <c r="M79" s="209">
         <f>SUM(M3:M78)</f>
         <v>553174.08000000007</v>
@@ -13256,7 +13256,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="541" t="s">
+      <c r="F80" s="577" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -13265,13 +13265,13 @@
       <c r="N80" s="1"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B81" s="592" t="s">
+      <c r="B81" s="479" t="s">
         <v>554</v>
       </c>
-      <c r="C81" s="593"/>
-      <c r="D81" s="594"/>
+      <c r="C81" s="480"/>
+      <c r="D81" s="481"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="542"/>
+      <c r="F81" s="578"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -13279,10 +13279,10 @@
     </row>
     <row r="82" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="452"/>
-      <c r="B82" s="595" t="s">
+      <c r="B82" s="610" t="s">
         <v>602</v>
       </c>
-      <c r="C82" s="595"/>
+      <c r="C82" s="610"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
     </row>
@@ -13294,11 +13294,11 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="452"/>
-      <c r="B84" s="634" t="s">
+      <c r="B84" s="508" t="s">
         <v>605</v>
       </c>
-      <c r="C84" s="616"/>
-      <c r="D84" s="635"/>
+      <c r="C84" s="498"/>
+      <c r="D84" s="509"/>
       <c r="I84"/>
       <c r="J84" s="194"/>
     </row>
@@ -13534,8 +13534,8 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13564,23 +13564,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="479"/>
-      <c r="C1" s="545" t="s">
+      <c r="B1" s="539"/>
+      <c r="C1" s="581" t="s">
         <v>458</v>
       </c>
-      <c r="D1" s="546"/>
-      <c r="E1" s="546"/>
-      <c r="F1" s="546"/>
-      <c r="G1" s="546"/>
-      <c r="H1" s="546"/>
-      <c r="I1" s="546"/>
-      <c r="J1" s="546"/>
-      <c r="K1" s="546"/>
-      <c r="L1" s="546"/>
-      <c r="M1" s="546"/>
+      <c r="D1" s="582"/>
+      <c r="E1" s="582"/>
+      <c r="F1" s="582"/>
+      <c r="G1" s="582"/>
+      <c r="H1" s="582"/>
+      <c r="I1" s="582"/>
+      <c r="J1" s="582"/>
+      <c r="K1" s="582"/>
+      <c r="L1" s="582"/>
+      <c r="M1" s="582"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="480"/>
+      <c r="B2" s="540"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -13590,24 +13590,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="483" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="484"/>
+      <c r="B3" s="543" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="544"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="485" t="s">
+      <c r="H3" s="545" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="485"/>
+      <c r="I3" s="545"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="522" t="s">
+      <c r="P3" s="569" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="543" t="s">
+      <c r="R3" s="579" t="s">
         <v>216</v>
       </c>
     </row>
@@ -13622,14 +13622,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="486" t="s">
+      <c r="E4" s="546" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="487"/>
-      <c r="H4" s="488" t="s">
+      <c r="F4" s="547"/>
+      <c r="H4" s="548" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="489"/>
+      <c r="I4" s="549"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -13639,15 +13639,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="523"/>
+      <c r="P4" s="570"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="544"/>
-      <c r="W4" s="532" t="s">
+      <c r="R4" s="580"/>
+      <c r="W4" s="552" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="532"/>
+      <c r="X4" s="552"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -13698,8 +13698,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="532"/>
-      <c r="X5" s="532"/>
+      <c r="W5" s="552"/>
+      <c r="X5" s="552"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -14462,7 +14462,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="536">
+      <c r="W19" s="556">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -14514,7 +14514,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="537"/>
+      <c r="W20" s="557"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -14563,8 +14563,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="538"/>
-      <c r="X21" s="538"/>
+      <c r="W21" s="558"/>
+      <c r="X21" s="558"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -14664,8 +14664,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="539"/>
-      <c r="X23" s="539"/>
+      <c r="W23" s="559"/>
+      <c r="X23" s="559"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -14720,8 +14720,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="539"/>
-      <c r="X24" s="539"/>
+      <c r="W24" s="559"/>
+      <c r="X24" s="559"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -14769,8 +14769,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="540"/>
-      <c r="X25" s="540"/>
+      <c r="W25" s="560"/>
+      <c r="X25" s="560"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -14819,8 +14819,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="540"/>
-      <c r="X26" s="540"/>
+      <c r="W26" s="560"/>
+      <c r="X26" s="560"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -14868,9 +14868,9 @@
       <c r="R27" s="405">
         <v>170</v>
       </c>
-      <c r="W27" s="533"/>
-      <c r="X27" s="534"/>
-      <c r="Y27" s="535"/>
+      <c r="W27" s="553"/>
+      <c r="X27" s="554"/>
+      <c r="Y27" s="555"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -14918,9 +14918,9 @@
       <c r="R28" s="405">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="534"/>
-      <c r="X28" s="534"/>
-      <c r="Y28" s="535"/>
+      <c r="W28" s="554"/>
+      <c r="X28" s="554"/>
+      <c r="Y28" s="555"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15234,11 +15234,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="524">
+      <c r="M36" s="571">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="526">
+      <c r="N36" s="573">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -15246,7 +15246,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="562">
+      <c r="Q36" s="606">
         <f>SUM(Q5:Q35)</f>
         <v>8.3000000000320142</v>
       </c>
@@ -15265,13 +15265,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="525"/>
-      <c r="N37" s="527"/>
+      <c r="M37" s="572"/>
+      <c r="N37" s="574"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="563"/>
+      <c r="Q37" s="607"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -15309,11 +15309,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="564">
+      <c r="M39" s="608">
         <f>M36+N36</f>
         <v>3054477.02</v>
       </c>
-      <c r="N39" s="565"/>
+      <c r="N39" s="609"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3627989.66</v>
@@ -15426,7 +15426,9 @@
       <c r="K44" s="476" t="s">
         <v>598</v>
       </c>
-      <c r="L44" s="478"/>
+      <c r="L44" s="478">
+        <v>17498.5</v>
+      </c>
       <c r="M44" s="269"/>
       <c r="N44" s="269"/>
       <c r="P44" s="34"/>
@@ -15553,7 +15555,7 @@
       </c>
       <c r="L50" s="95">
         <f>SUM(L5:L49)</f>
-        <v>115798.39999999999</v>
+        <v>133296.9</v>
       </c>
       <c r="M50" s="96"/>
       <c r="N50" s="96"/>
@@ -15571,50 +15573,50 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="501" t="s">
+      <c r="H52" s="526" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="502"/>
+      <c r="I52" s="527"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="503">
+      <c r="K52" s="528">
         <f>I50+L50</f>
-        <v>199660.9</v>
-      </c>
-      <c r="L52" s="530"/>
+        <v>217159.4</v>
+      </c>
+      <c r="L52" s="561"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="507" t="s">
+      <c r="D53" s="532" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="507"/>
+      <c r="E53" s="532"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
-        <v>2929413.1</v>
+        <v>2911914.6</v>
       </c>
       <c r="I53" s="102"/>
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="531" t="s">
+      <c r="D54" s="562" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="531"/>
+      <c r="E54" s="562"/>
       <c r="F54" s="111">
         <v>0</v>
       </c>
-      <c r="I54" s="508" t="s">
+      <c r="I54" s="533" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="509"/>
-      <c r="K54" s="510">
+      <c r="J54" s="534"/>
+      <c r="K54" s="535">
         <f>F56+F57+F58</f>
-        <v>4722230.78</v>
-      </c>
-      <c r="L54" s="510"/>
+        <v>4704732.28</v>
+      </c>
+      <c r="L54" s="535"/>
       <c r="M54" s="421"/>
       <c r="N54" s="421"/>
       <c r="O54" s="421"/>
@@ -15648,18 +15650,18 @@
       </c>
       <c r="F56" s="96">
         <f>SUM(F53:F55)</f>
-        <v>2929413.1</v>
+        <v>2911914.6</v>
       </c>
       <c r="H56" s="23"/>
       <c r="I56" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="512">
+      <c r="K56" s="537">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L56" s="513"/>
+      <c r="L56" s="538"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -15676,22 +15678,22 @@
       <c r="C58" s="112">
         <v>44647</v>
       </c>
-      <c r="D58" s="490" t="s">
+      <c r="D58" s="515" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="491"/>
+      <c r="E58" s="516"/>
       <c r="F58" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I58" s="492" t="s">
+      <c r="I58" s="517" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="493"/>
-      <c r="K58" s="494">
+      <c r="J58" s="518"/>
+      <c r="K58" s="519">
         <f>K54+K56</f>
-        <v>3455662.33</v>
-      </c>
-      <c r="L58" s="494"/>
+        <v>3438163.83</v>
+      </c>
+      <c r="L58" s="519"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -15835,6 +15837,21 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M39:N39"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -15850,21 +15867,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.15748031496062992" top="0.39370078740157483" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -15880,8 +15882,8 @@
   </sheetPr>
   <dimension ref="A1:N115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15917,7 +15919,7 @@
       </c>
       <c r="J1" s="302"/>
       <c r="K1" s="303"/>
-      <c r="L1" s="603"/>
+      <c r="L1" s="489"/>
       <c r="M1" s="303"/>
       <c r="N1" s="377" t="s">
         <v>314</v>
@@ -15951,7 +15953,7 @@
       <c r="K2" s="299" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="604" t="s">
+      <c r="L2" s="490" t="s">
         <v>22</v>
       </c>
       <c r="M2" s="299" t="s">
@@ -15971,10 +15973,10 @@
       <c r="C3" s="409">
         <v>2909.4</v>
       </c>
-      <c r="D3" s="629">
+      <c r="D3" s="503">
         <v>44643</v>
       </c>
-      <c r="E3" s="630">
+      <c r="E3" s="504">
         <v>2909.4</v>
       </c>
       <c r="F3" s="409">
@@ -15990,10 +15992,10 @@
       <c r="K3" s="409">
         <v>858.6</v>
       </c>
-      <c r="L3" s="610">
+      <c r="L3" s="496">
         <v>44643</v>
       </c>
-      <c r="M3" s="611">
+      <c r="M3" s="497">
         <v>858.6</v>
       </c>
       <c r="N3" s="183">
@@ -16011,10 +16013,10 @@
       <c r="C4" s="409">
         <v>74016.2</v>
       </c>
-      <c r="D4" s="629">
+      <c r="D4" s="503">
         <v>44643</v>
       </c>
-      <c r="E4" s="630">
+      <c r="E4" s="504">
         <v>74016.2</v>
       </c>
       <c r="F4" s="409">
@@ -16031,7 +16033,7 @@
       <c r="K4" s="111">
         <v>240</v>
       </c>
-      <c r="L4" s="607">
+      <c r="L4" s="493">
         <v>44643</v>
       </c>
       <c r="M4" s="261">
@@ -16052,10 +16054,10 @@
       <c r="C5" s="409">
         <v>38036.6</v>
       </c>
-      <c r="D5" s="629">
+      <c r="D5" s="503">
         <v>44643</v>
       </c>
-      <c r="E5" s="630">
+      <c r="E5" s="504">
         <v>38036.6</v>
       </c>
       <c r="F5" s="409">
@@ -16071,7 +16073,7 @@
       <c r="K5" s="111">
         <v>1010</v>
       </c>
-      <c r="L5" s="607">
+      <c r="L5" s="493">
         <v>44643</v>
       </c>
       <c r="M5" s="261">
@@ -16092,10 +16094,10 @@
       <c r="C6" s="409">
         <v>52111.11</v>
       </c>
-      <c r="D6" s="629">
+      <c r="D6" s="503">
         <v>44643</v>
       </c>
-      <c r="E6" s="630">
+      <c r="E6" s="504">
         <v>52111.11</v>
       </c>
       <c r="F6" s="409">
@@ -16111,7 +16113,7 @@
       <c r="K6" s="111">
         <v>2004</v>
       </c>
-      <c r="L6" s="607">
+      <c r="L6" s="493">
         <v>44643</v>
       </c>
       <c r="M6" s="261">
@@ -16132,10 +16134,10 @@
       <c r="C7" s="409">
         <v>394.2</v>
       </c>
-      <c r="D7" s="629">
+      <c r="D7" s="503">
         <v>44643</v>
       </c>
-      <c r="E7" s="630">
+      <c r="E7" s="504">
         <v>394.2</v>
       </c>
       <c r="F7" s="409">
@@ -16151,7 +16153,7 @@
       <c r="K7" s="111">
         <v>13002.8</v>
       </c>
-      <c r="L7" s="607">
+      <c r="L7" s="493">
         <v>44643</v>
       </c>
       <c r="M7" s="261">
@@ -16172,10 +16174,10 @@
       <c r="C8" s="409">
         <v>52173.7</v>
       </c>
-      <c r="D8" s="629">
+      <c r="D8" s="503">
         <v>44643</v>
       </c>
-      <c r="E8" s="630">
+      <c r="E8" s="504">
         <v>52173.7</v>
       </c>
       <c r="F8" s="409">
@@ -16191,7 +16193,7 @@
       <c r="K8" s="111">
         <v>3911</v>
       </c>
-      <c r="L8" s="607">
+      <c r="L8" s="493">
         <v>44643</v>
       </c>
       <c r="M8" s="261">
@@ -16212,10 +16214,10 @@
       <c r="C9" s="409">
         <v>47563.28</v>
       </c>
-      <c r="D9" s="629">
+      <c r="D9" s="503">
         <v>44643</v>
       </c>
-      <c r="E9" s="630">
+      <c r="E9" s="504">
         <v>47563.28</v>
       </c>
       <c r="F9" s="409">
@@ -16231,7 +16233,7 @@
       <c r="K9" s="111">
         <v>3530</v>
       </c>
-      <c r="L9" s="607">
+      <c r="L9" s="493">
         <v>44643</v>
       </c>
       <c r="M9" s="261">
@@ -16252,10 +16254,10 @@
       <c r="C10" s="409">
         <v>1406</v>
       </c>
-      <c r="D10" s="629">
+      <c r="D10" s="503">
         <v>44643</v>
       </c>
-      <c r="E10" s="630">
+      <c r="E10" s="504">
         <v>1406</v>
       </c>
       <c r="F10" s="409">
@@ -16272,7 +16274,7 @@
       <c r="K10" s="111">
         <v>1554</v>
       </c>
-      <c r="L10" s="607">
+      <c r="L10" s="493">
         <v>44643</v>
       </c>
       <c r="M10" s="261">
@@ -16293,10 +16295,10 @@
       <c r="C11" s="409">
         <v>44449.599999999999</v>
       </c>
-      <c r="D11" s="629">
+      <c r="D11" s="503">
         <v>44643</v>
       </c>
-      <c r="E11" s="630">
+      <c r="E11" s="504">
         <v>44449.599999999999</v>
       </c>
       <c r="F11" s="409">
@@ -16312,7 +16314,7 @@
       <c r="K11" s="111">
         <v>2734</v>
       </c>
-      <c r="L11" s="607">
+      <c r="L11" s="493">
         <v>44643</v>
       </c>
       <c r="M11" s="261">
@@ -16333,10 +16335,10 @@
       <c r="C12" s="409">
         <v>848.4</v>
       </c>
-      <c r="D12" s="629">
+      <c r="D12" s="503">
         <v>44643</v>
       </c>
-      <c r="E12" s="630">
+      <c r="E12" s="504">
         <v>848.4</v>
       </c>
       <c r="F12" s="409">
@@ -16352,7 +16354,7 @@
       <c r="K12" s="111">
         <v>13641</v>
       </c>
-      <c r="L12" s="607">
+      <c r="L12" s="493">
         <v>44643</v>
       </c>
       <c r="M12" s="261">
@@ -16373,10 +16375,10 @@
       <c r="C13" s="409">
         <v>71723.600000000006</v>
       </c>
-      <c r="D13" s="629">
+      <c r="D13" s="503">
         <v>44643</v>
       </c>
-      <c r="E13" s="630">
+      <c r="E13" s="504">
         <v>71723.600000000006</v>
       </c>
       <c r="F13" s="409">
@@ -16392,7 +16394,7 @@
       <c r="K13" s="111">
         <v>18173</v>
       </c>
-      <c r="L13" s="607">
+      <c r="L13" s="493">
         <v>44643</v>
       </c>
       <c r="M13" s="261">
@@ -16413,10 +16415,10 @@
       <c r="C14" s="409">
         <v>1776</v>
       </c>
-      <c r="D14" s="629">
+      <c r="D14" s="503">
         <v>44643</v>
       </c>
-      <c r="E14" s="630">
+      <c r="E14" s="504">
         <v>1776</v>
       </c>
       <c r="F14" s="409">
@@ -16432,7 +16434,7 @@
       <c r="K14" s="111">
         <v>6720</v>
       </c>
-      <c r="L14" s="607">
+      <c r="L14" s="493">
         <v>44643</v>
       </c>
       <c r="M14" s="261">
@@ -16453,10 +16455,10 @@
       <c r="C15" s="409">
         <v>76124.3</v>
       </c>
-      <c r="D15" s="629">
+      <c r="D15" s="503">
         <v>44643</v>
       </c>
-      <c r="E15" s="630">
+      <c r="E15" s="504">
         <v>61979.8</v>
       </c>
       <c r="F15" s="409">
@@ -16472,7 +16474,7 @@
       <c r="K15" s="111">
         <v>360</v>
       </c>
-      <c r="L15" s="607">
+      <c r="L15" s="493">
         <v>44643</v>
       </c>
       <c r="M15" s="261">
@@ -16508,7 +16510,7 @@
       <c r="K16" s="111">
         <v>450</v>
       </c>
-      <c r="L16" s="607">
+      <c r="L16" s="493">
         <v>44643</v>
       </c>
       <c r="M16" s="261">
@@ -16544,7 +16546,7 @@
       <c r="K17" s="111">
         <v>2120</v>
       </c>
-      <c r="L17" s="607">
+      <c r="L17" s="493">
         <v>44643</v>
       </c>
       <c r="M17" s="261">
@@ -16580,7 +16582,7 @@
       <c r="K18" s="111">
         <v>4670</v>
       </c>
-      <c r="L18" s="607">
+      <c r="L18" s="493">
         <v>44643</v>
       </c>
       <c r="M18" s="261">
@@ -16616,7 +16618,7 @@
       <c r="K19" s="111">
         <v>3785</v>
       </c>
-      <c r="L19" s="607">
+      <c r="L19" s="493">
         <v>44643</v>
       </c>
       <c r="M19" s="261">
@@ -16652,7 +16654,7 @@
       <c r="K20" s="111">
         <v>10063</v>
       </c>
-      <c r="L20" s="607">
+      <c r="L20" s="493">
         <v>44643</v>
       </c>
       <c r="M20" s="261">
@@ -16688,7 +16690,7 @@
       <c r="K21" s="111">
         <v>1988</v>
       </c>
-      <c r="L21" s="607">
+      <c r="L21" s="493">
         <v>44643</v>
       </c>
       <c r="M21" s="261">
@@ -16725,7 +16727,7 @@
       <c r="K22" s="111">
         <v>270</v>
       </c>
-      <c r="L22" s="607">
+      <c r="L22" s="493">
         <v>44643</v>
       </c>
       <c r="M22" s="261">
@@ -16761,7 +16763,7 @@
       <c r="K23" s="111">
         <v>1553</v>
       </c>
-      <c r="L23" s="607">
+      <c r="L23" s="493">
         <v>44643</v>
       </c>
       <c r="M23" s="261">
@@ -16797,7 +16799,7 @@
       <c r="K24" s="111">
         <v>1450</v>
       </c>
-      <c r="L24" s="607">
+      <c r="L24" s="493">
         <v>44643</v>
       </c>
       <c r="M24" s="261">
@@ -16827,7 +16829,7 @@
       <c r="I25" s="370"/>
       <c r="J25" s="57"/>
       <c r="K25" s="111"/>
-      <c r="L25" s="607"/>
+      <c r="L25" s="493"/>
       <c r="M25" s="111"/>
       <c r="N25" s="137">
         <f t="shared" si="1"/>
@@ -16853,7 +16855,7 @@
       <c r="I26" s="370"/>
       <c r="J26" s="57"/>
       <c r="K26" s="111"/>
-      <c r="L26" s="607"/>
+      <c r="L26" s="493"/>
       <c r="M26" s="111"/>
       <c r="N26" s="137">
         <f t="shared" si="1"/>
@@ -16879,7 +16881,7 @@
       <c r="I27" s="370"/>
       <c r="J27" s="57"/>
       <c r="K27" s="111"/>
-      <c r="L27" s="607"/>
+      <c r="L27" s="493"/>
       <c r="M27" s="111"/>
       <c r="N27" s="137">
         <f t="shared" si="1"/>
@@ -16905,7 +16907,7 @@
       <c r="I28" s="370"/>
       <c r="J28" s="57"/>
       <c r="K28" s="111"/>
-      <c r="L28" s="607"/>
+      <c r="L28" s="493"/>
       <c r="M28" s="111"/>
       <c r="N28" s="137">
         <f t="shared" si="1"/>
@@ -16931,7 +16933,7 @@
       <c r="I29" s="370"/>
       <c r="J29" s="57"/>
       <c r="K29" s="111"/>
-      <c r="L29" s="607"/>
+      <c r="L29" s="493"/>
       <c r="M29" s="111"/>
       <c r="N29" s="137">
         <f t="shared" si="1"/>
@@ -16958,7 +16960,7 @@
       <c r="I30" s="370"/>
       <c r="J30" s="57"/>
       <c r="K30" s="111"/>
-      <c r="L30" s="607"/>
+      <c r="L30" s="493"/>
       <c r="M30" s="69"/>
       <c r="N30" s="137">
         <f t="shared" si="1"/>
@@ -16984,7 +16986,7 @@
       <c r="I31" s="370"/>
       <c r="J31" s="57"/>
       <c r="K31" s="111"/>
-      <c r="L31" s="607"/>
+      <c r="L31" s="493"/>
       <c r="M31" s="69"/>
       <c r="N31" s="137">
         <f t="shared" si="1"/>
@@ -17010,7 +17012,7 @@
       <c r="I32" s="370"/>
       <c r="J32" s="57"/>
       <c r="K32" s="111"/>
-      <c r="L32" s="607"/>
+      <c r="L32" s="493"/>
       <c r="M32" s="69"/>
       <c r="N32" s="137">
         <f t="shared" si="1"/>
@@ -17036,7 +17038,7 @@
       <c r="I33" s="370"/>
       <c r="J33" s="57"/>
       <c r="K33" s="111"/>
-      <c r="L33" s="607"/>
+      <c r="L33" s="493"/>
       <c r="M33" s="69"/>
       <c r="N33" s="137">
         <f t="shared" si="1"/>
@@ -17062,7 +17064,7 @@
       <c r="I34" s="370"/>
       <c r="J34" s="57"/>
       <c r="K34" s="111"/>
-      <c r="L34" s="607"/>
+      <c r="L34" s="493"/>
       <c r="M34" s="69"/>
       <c r="N34" s="137">
         <f t="shared" si="1"/>
@@ -17088,7 +17090,7 @@
       <c r="I35" s="370"/>
       <c r="J35" s="57"/>
       <c r="K35" s="111"/>
-      <c r="L35" s="607"/>
+      <c r="L35" s="493"/>
       <c r="M35" s="69"/>
       <c r="N35" s="137">
         <f t="shared" si="1"/>
@@ -17114,7 +17116,7 @@
       <c r="I36" s="370"/>
       <c r="J36" s="57"/>
       <c r="K36" s="111"/>
-      <c r="L36" s="607"/>
+      <c r="L36" s="493"/>
       <c r="M36" s="69"/>
       <c r="N36" s="137">
         <f t="shared" si="1"/>
@@ -17140,7 +17142,7 @@
       <c r="I37" s="370"/>
       <c r="J37" s="57"/>
       <c r="K37" s="111"/>
-      <c r="L37" s="607"/>
+      <c r="L37" s="493"/>
       <c r="M37" s="69"/>
       <c r="N37" s="137">
         <f t="shared" si="1"/>
@@ -17148,25 +17150,19 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="636">
-        <v>44648</v>
-      </c>
-      <c r="B38" s="637" t="s">
-        <v>617</v>
-      </c>
-      <c r="C38" s="638">
-        <v>10026.200000000001</v>
-      </c>
+      <c r="A38" s="469"/>
+      <c r="B38" s="455"/>
+      <c r="C38" s="427"/>
       <c r="D38" s="428"/>
       <c r="E38" s="427"/>
       <c r="F38" s="409">
         <f t="shared" si="0"/>
-        <v>10026.200000000001</v>
+        <v>0</v>
       </c>
       <c r="I38" s="288"/>
       <c r="J38" s="57"/>
       <c r="K38" s="111"/>
-      <c r="L38" s="607"/>
+      <c r="L38" s="493"/>
       <c r="M38" s="69"/>
       <c r="N38" s="137">
         <f t="shared" si="1"/>
@@ -17174,25 +17170,19 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="636">
-        <v>44649</v>
-      </c>
-      <c r="B39" s="639" t="s">
-        <v>618</v>
-      </c>
-      <c r="C39" s="632">
-        <v>94987.44</v>
-      </c>
+      <c r="A39" s="469"/>
+      <c r="B39" s="246"/>
+      <c r="C39" s="111"/>
       <c r="D39" s="429"/>
       <c r="E39" s="111"/>
       <c r="F39" s="409">
         <f t="shared" si="0"/>
-        <v>94987.44</v>
+        <v>0</v>
       </c>
       <c r="I39" s="288"/>
       <c r="J39" s="57"/>
       <c r="K39" s="111"/>
-      <c r="L39" s="607"/>
+      <c r="L39" s="493"/>
       <c r="M39" s="69"/>
       <c r="N39" s="137">
         <f t="shared" si="1"/>
@@ -17200,25 +17190,19 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="636">
-        <v>44650</v>
-      </c>
-      <c r="B40" s="639" t="s">
-        <v>619</v>
-      </c>
-      <c r="C40" s="632">
-        <v>8900.25</v>
-      </c>
+      <c r="A40" s="469"/>
+      <c r="B40" s="246"/>
+      <c r="C40" s="111"/>
       <c r="D40" s="429"/>
       <c r="E40" s="111"/>
       <c r="F40" s="409">
         <f t="shared" si="0"/>
-        <v>8900.25</v>
+        <v>0</v>
       </c>
       <c r="I40" s="288"/>
       <c r="J40" s="57"/>
       <c r="K40" s="111"/>
-      <c r="L40" s="607"/>
+      <c r="L40" s="493"/>
       <c r="M40" s="69"/>
       <c r="N40" s="137">
         <f t="shared" si="1"/>
@@ -17226,25 +17210,19 @@
       </c>
     </row>
     <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="636">
-        <v>44650</v>
-      </c>
-      <c r="B41" s="639" t="s">
-        <v>620</v>
-      </c>
-      <c r="C41" s="632">
-        <v>8045.4</v>
-      </c>
+      <c r="A41" s="469"/>
+      <c r="B41" s="246"/>
+      <c r="C41" s="111"/>
       <c r="D41" s="429"/>
       <c r="E41" s="111"/>
       <c r="F41" s="409">
         <f t="shared" si="0"/>
-        <v>8045.4</v>
+        <v>0</v>
       </c>
       <c r="I41" s="288"/>
       <c r="J41" s="57"/>
       <c r="K41" s="111"/>
-      <c r="L41" s="607"/>
+      <c r="L41" s="493"/>
       <c r="M41" s="69"/>
       <c r="N41" s="137">
         <f t="shared" si="1"/>
@@ -17252,25 +17230,19 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="640">
-        <v>44651</v>
-      </c>
-      <c r="B42" s="639" t="s">
-        <v>621</v>
-      </c>
-      <c r="C42" s="632">
-        <v>41855.9</v>
-      </c>
+      <c r="A42" s="470"/>
+      <c r="B42" s="246"/>
+      <c r="C42" s="111"/>
       <c r="D42" s="253"/>
       <c r="E42" s="69"/>
       <c r="F42" s="409">
         <f t="shared" si="0"/>
-        <v>41855.9</v>
+        <v>0</v>
       </c>
       <c r="I42" s="288"/>
       <c r="J42" s="57"/>
       <c r="K42" s="111"/>
-      <c r="L42" s="607"/>
+      <c r="L42" s="493"/>
       <c r="M42" s="69"/>
       <c r="N42" s="137">
         <f t="shared" si="1"/>
@@ -17290,7 +17262,7 @@
       <c r="I43" s="288"/>
       <c r="J43" s="57"/>
       <c r="K43" s="111"/>
-      <c r="L43" s="607"/>
+      <c r="L43" s="493"/>
       <c r="M43" s="69"/>
       <c r="N43" s="137">
         <f t="shared" si="1"/>
@@ -17310,7 +17282,7 @@
       <c r="I44" s="288"/>
       <c r="J44" s="57"/>
       <c r="K44" s="111"/>
-      <c r="L44" s="607"/>
+      <c r="L44" s="493"/>
       <c r="M44" s="69"/>
       <c r="N44" s="137">
         <f t="shared" si="1"/>
@@ -17330,7 +17302,7 @@
       <c r="I45" s="288"/>
       <c r="J45" s="57"/>
       <c r="K45" s="111"/>
-      <c r="L45" s="607"/>
+      <c r="L45" s="493"/>
       <c r="M45" s="69"/>
       <c r="N45" s="137">
         <f t="shared" si="1"/>
@@ -17350,7 +17322,7 @@
       <c r="I46" s="288"/>
       <c r="J46" s="57"/>
       <c r="K46" s="111"/>
-      <c r="L46" s="607"/>
+      <c r="L46" s="493"/>
       <c r="M46" s="69"/>
       <c r="N46" s="137">
         <f t="shared" si="1"/>
@@ -17390,7 +17362,7 @@
       <c r="I48" s="348"/>
       <c r="J48" s="431"/>
       <c r="K48" s="431"/>
-      <c r="L48" s="608"/>
+      <c r="L48" s="494"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -17410,7 +17382,7 @@
       <c r="I49" s="348"/>
       <c r="J49" s="431"/>
       <c r="K49" s="431"/>
-      <c r="L49" s="608"/>
+      <c r="L49" s="494"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -18007,7 +17979,7 @@
       <c r="B79" s="457"/>
       <c r="C79" s="212">
         <f>SUM(C3:C78)</f>
-        <v>1524075.5099999995</v>
+        <v>1360260.3199999998</v>
       </c>
       <c r="D79" s="424"/>
       <c r="E79" s="412">
@@ -18016,13 +17988,13 @@
       </c>
       <c r="F79" s="153">
         <f>SUM(F3:F78)</f>
-        <v>1074687.6200000003</v>
+        <v>910872.43000000028</v>
       </c>
       <c r="K79" s="209">
         <f>SUM(K3:K78)</f>
         <v>94087.4</v>
       </c>
-      <c r="L79" s="609"/>
+      <c r="L79" s="495"/>
       <c r="M79" s="209">
         <f>SUM(M3:M78)</f>
         <v>94087.4</v>
@@ -18037,7 +18009,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="541" t="s">
+      <c r="F80" s="577" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -18050,7 +18022,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="542"/>
+      <c r="F81" s="578"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -18059,27 +18031,27 @@
     <row r="82" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="473"/>
       <c r="B82" s="459"/>
-      <c r="I82" s="617" t="s">
+      <c r="I82" s="499" t="s">
         <v>603</v>
       </c>
-      <c r="J82" s="618"/>
-      <c r="K82" s="619"/>
-      <c r="L82" s="620"/>
-      <c r="M82" s="619"/>
+      <c r="J82" s="500"/>
+      <c r="K82" s="501"/>
+      <c r="L82" s="502"/>
+      <c r="M82" s="501"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="473"/>
       <c r="B83" s="459"/>
-      <c r="I83" s="612" t="s">
+      <c r="I83" s="615" t="s">
         <v>601</v>
       </c>
-      <c r="J83" s="613"/>
+      <c r="J83" s="616"/>
     </row>
     <row r="84" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="473"/>
       <c r="B84" s="459"/>
-      <c r="I84" s="614"/>
-      <c r="J84" s="615"/>
+      <c r="I84" s="617"/>
+      <c r="J84" s="618"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="473"/>
@@ -18113,41 +18085,76 @@
       <c r="J88" s="194"/>
       <c r="N88"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="473"/>
-      <c r="B89" s="459"/>
+    <row r="89" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="510">
+        <v>44648</v>
+      </c>
+      <c r="B89" s="511" t="s">
+        <v>617</v>
+      </c>
+      <c r="C89" s="512">
+        <v>10026.200000000001</v>
+      </c>
       <c r="F89"/>
       <c r="I89"/>
       <c r="J89" s="194"/>
       <c r="N89"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" s="473"/>
-      <c r="B90" s="459"/>
+    <row r="90" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="510">
+        <v>44649</v>
+      </c>
+      <c r="B90" s="513" t="s">
+        <v>618</v>
+      </c>
+      <c r="C90" s="506">
+        <v>94987.44</v>
+      </c>
       <c r="F90"/>
       <c r="I90"/>
       <c r="J90" s="194"/>
       <c r="N90"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="473"/>
-      <c r="B91" s="459"/>
+    <row r="91" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="510">
+        <v>44650</v>
+      </c>
+      <c r="B91" s="513" t="s">
+        <v>619</v>
+      </c>
+      <c r="C91" s="506">
+        <v>8900.25</v>
+      </c>
       <c r="F91"/>
       <c r="I91"/>
       <c r="J91" s="194"/>
       <c r="N91"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="473"/>
-      <c r="B92" s="459"/>
+    <row r="92" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="510">
+        <v>44650</v>
+      </c>
+      <c r="B92" s="513" t="s">
+        <v>620</v>
+      </c>
+      <c r="C92" s="506">
+        <v>8045.4</v>
+      </c>
       <c r="F92"/>
       <c r="I92"/>
       <c r="J92" s="194"/>
       <c r="N92"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="473"/>
-      <c r="B93" s="459"/>
+    <row r="93" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="514">
+        <v>44651</v>
+      </c>
+      <c r="B93" s="513" t="s">
+        <v>621</v>
+      </c>
+      <c r="C93" s="506">
+        <v>41855.9</v>
+      </c>
       <c r="F93"/>
       <c r="I93"/>
       <c r="J93" s="194"/>
@@ -18339,11 +18346,11 @@
   <sheetData>
     <row r="1" spans="2:6" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="155"/>
-      <c r="C1" s="572" t="s">
+      <c r="C1" s="625" t="s">
         <v>320</v>
       </c>
-      <c r="D1" s="572"/>
-      <c r="E1" s="573"/>
+      <c r="D1" s="625"/>
+      <c r="E1" s="626"/>
       <c r="F1" s="385"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -18361,12 +18368,12 @@
       <c r="F3" s="392"/>
     </row>
     <row r="4" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="574" t="s">
+      <c r="B4" s="627" t="s">
         <v>316</v>
       </c>
-      <c r="C4" s="575"/>
-      <c r="D4" s="575"/>
-      <c r="E4" s="575"/>
+      <c r="C4" s="628"/>
+      <c r="D4" s="628"/>
+      <c r="E4" s="628"/>
       <c r="F4" s="393">
         <v>499853.16</v>
       </c>
@@ -18381,12 +18388,12 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="576" t="s">
+      <c r="B6" s="629" t="s">
         <v>317</v>
       </c>
-      <c r="C6" s="577"/>
-      <c r="D6" s="577"/>
-      <c r="E6" s="577"/>
+      <c r="C6" s="630"/>
+      <c r="D6" s="630"/>
+      <c r="E6" s="630"/>
       <c r="F6" s="393">
         <v>781251.72</v>
       </c>
@@ -18404,10 +18411,10 @@
       <c r="B8" s="386"/>
       <c r="C8" s="379"/>
       <c r="D8" s="380"/>
-      <c r="E8" s="578" t="s">
+      <c r="E8" s="631" t="s">
         <v>315</v>
       </c>
-      <c r="F8" s="580">
+      <c r="F8" s="633">
         <f>SUM(F4:F7)</f>
         <v>1281104.8799999999</v>
       </c>
@@ -18416,8 +18423,8 @@
       <c r="B9" s="386"/>
       <c r="C9" s="379"/>
       <c r="D9" s="380"/>
-      <c r="E9" s="579"/>
-      <c r="F9" s="581"/>
+      <c r="E9" s="632"/>
+      <c r="F9" s="634"/>
     </row>
     <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="386"/>
@@ -18441,12 +18448,12 @@
       <c r="F12" s="392"/>
     </row>
     <row r="13" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="582" t="s">
+      <c r="B13" s="635" t="s">
         <v>318</v>
       </c>
-      <c r="C13" s="583"/>
-      <c r="D13" s="583"/>
-      <c r="E13" s="583"/>
+      <c r="C13" s="636"/>
+      <c r="D13" s="636"/>
+      <c r="E13" s="636"/>
       <c r="F13" s="393">
         <v>255460.4</v>
       </c>
@@ -18461,12 +18468,12 @@
       </c>
     </row>
     <row r="15" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="582" t="s">
+      <c r="B15" s="635" t="s">
         <v>319</v>
       </c>
-      <c r="C15" s="583"/>
-      <c r="D15" s="583"/>
-      <c r="E15" s="583"/>
+      <c r="C15" s="636"/>
+      <c r="D15" s="636"/>
+      <c r="E15" s="636"/>
       <c r="F15" s="393">
         <v>6037.34</v>
       </c>
@@ -18484,10 +18491,10 @@
       <c r="B17" s="386"/>
       <c r="C17" s="379"/>
       <c r="D17" s="380"/>
-      <c r="E17" s="584" t="s">
+      <c r="E17" s="637" t="s">
         <v>315</v>
       </c>
-      <c r="F17" s="586">
+      <c r="F17" s="639">
         <f>SUM(F13:F16)</f>
         <v>261497.74</v>
       </c>
@@ -18496,8 +18503,8 @@
       <c r="B18" s="386"/>
       <c r="C18" s="379"/>
       <c r="D18" s="380"/>
-      <c r="E18" s="585"/>
-      <c r="F18" s="587"/>
+      <c r="E18" s="638"/>
+      <c r="F18" s="640"/>
     </row>
     <row r="19" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="386"/>
@@ -18521,22 +18528,22 @@
       <c r="F21" s="392"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="566" t="s">
+      <c r="B22" s="619" t="s">
         <v>321</v>
       </c>
-      <c r="C22" s="567"/>
-      <c r="D22" s="567"/>
-      <c r="E22" s="567"/>
-      <c r="F22" s="570">
+      <c r="C22" s="620"/>
+      <c r="D22" s="620"/>
+      <c r="E22" s="620"/>
+      <c r="F22" s="623">
         <v>12020</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="568"/>
-      <c r="C23" s="569"/>
-      <c r="D23" s="569"/>
-      <c r="E23" s="569"/>
-      <c r="F23" s="571"/>
+      <c r="B23" s="621"/>
+      <c r="C23" s="622"/>
+      <c r="D23" s="622"/>
+      <c r="E23" s="622"/>
+      <c r="F23" s="624"/>
     </row>
     <row r="24" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="354"/>
@@ -19896,7 +19903,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="514" t="s">
+      <c r="B41" s="550" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -19928,7 +19935,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="515"/>
+      <c r="B42" s="551"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -21524,23 +21531,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="479"/>
-      <c r="C1" s="481" t="s">
+      <c r="B1" s="539"/>
+      <c r="C1" s="541" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="482"/>
-      <c r="E1" s="482"/>
-      <c r="F1" s="482"/>
-      <c r="G1" s="482"/>
-      <c r="H1" s="482"/>
-      <c r="I1" s="482"/>
-      <c r="J1" s="482"/>
-      <c r="K1" s="482"/>
-      <c r="L1" s="482"/>
-      <c r="M1" s="482"/>
+      <c r="D1" s="542"/>
+      <c r="E1" s="542"/>
+      <c r="F1" s="542"/>
+      <c r="G1" s="542"/>
+      <c r="H1" s="542"/>
+      <c r="I1" s="542"/>
+      <c r="J1" s="542"/>
+      <c r="K1" s="542"/>
+      <c r="L1" s="542"/>
+      <c r="M1" s="542"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="480"/>
+      <c r="B2" s="540"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -21550,21 +21557,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="483" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="484"/>
+      <c r="B3" s="543" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="544"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="485" t="s">
+      <c r="H3" s="545" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="485"/>
+      <c r="I3" s="545"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="522" t="s">
+      <c r="P3" s="569" t="s">
         <v>6</v>
       </c>
     </row>
@@ -21579,14 +21586,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="486" t="s">
+      <c r="E4" s="546" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="487"/>
-      <c r="H4" s="488" t="s">
+      <c r="F4" s="547"/>
+      <c r="H4" s="548" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="489"/>
+      <c r="I4" s="549"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -21596,14 +21603,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="523"/>
+      <c r="P4" s="570"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="532" t="s">
+      <c r="W4" s="552" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="532"/>
+      <c r="X4" s="552"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21654,8 +21661,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="532"/>
-      <c r="X5" s="532"/>
+      <c r="W5" s="552"/>
+      <c r="X5" s="552"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22426,7 +22433,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="536">
+      <c r="W19" s="556">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -22478,7 +22485,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="537"/>
+      <c r="W20" s="557"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -22527,8 +22534,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="538"/>
-      <c r="X21" s="538"/>
+      <c r="W21" s="558"/>
+      <c r="X21" s="558"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -22629,8 +22636,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="539"/>
-      <c r="X23" s="539"/>
+      <c r="W23" s="559"/>
+      <c r="X23" s="559"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -22684,8 +22691,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="539"/>
-      <c r="X24" s="539"/>
+      <c r="W24" s="559"/>
+      <c r="X24" s="559"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -22731,8 +22738,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="540"/>
-      <c r="X25" s="540"/>
+      <c r="W25" s="560"/>
+      <c r="X25" s="560"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -22783,8 +22790,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="540"/>
-      <c r="X26" s="540"/>
+      <c r="W26" s="560"/>
+      <c r="X26" s="560"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -22832,9 +22839,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="533"/>
-      <c r="X27" s="534"/>
-      <c r="Y27" s="535"/>
+      <c r="W27" s="553"/>
+      <c r="X27" s="554"/>
+      <c r="Y27" s="555"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22884,9 +22891,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="534"/>
-      <c r="X28" s="534"/>
-      <c r="Y28" s="535"/>
+      <c r="W28" s="554"/>
+      <c r="X28" s="554"/>
+      <c r="Y28" s="555"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -23221,11 +23228,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="524">
+      <c r="M36" s="571">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="526">
+      <c r="N36" s="573">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -23233,7 +23240,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="528">
+      <c r="Q36" s="575">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -23268,13 +23275,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="525"/>
-      <c r="N37" s="527"/>
+      <c r="M37" s="572"/>
+      <c r="N37" s="574"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="529"/>
+      <c r="Q37" s="576"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -23564,26 +23571,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="501" t="s">
+      <c r="H52" s="526" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="502"/>
+      <c r="I52" s="527"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="503">
+      <c r="K52" s="528">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="530"/>
+      <c r="L52" s="561"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="507" t="s">
+      <c r="D53" s="532" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="507"/>
+      <c r="E53" s="532"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -23592,29 +23599,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="531" t="s">
+      <c r="D54" s="562" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="531"/>
+      <c r="E54" s="562"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="508" t="s">
+      <c r="I54" s="533" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="509"/>
-      <c r="K54" s="510">
+      <c r="J54" s="534"/>
+      <c r="K54" s="535">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="510"/>
-      <c r="M54" s="516" t="s">
+      <c r="L54" s="535"/>
+      <c r="M54" s="563" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="517"/>
-      <c r="O54" s="517"/>
-      <c r="P54" s="517"/>
-      <c r="Q54" s="518"/>
+      <c r="N54" s="564"/>
+      <c r="O54" s="564"/>
+      <c r="P54" s="564"/>
+      <c r="Q54" s="565"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -23628,11 +23635,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="519"/>
-      <c r="N55" s="520"/>
-      <c r="O55" s="520"/>
-      <c r="P55" s="520"/>
-      <c r="Q55" s="521"/>
+      <c r="M55" s="566"/>
+      <c r="N55" s="567"/>
+      <c r="O55" s="567"/>
+      <c r="P55" s="567"/>
+      <c r="Q55" s="568"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -23650,11 +23657,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="512">
+      <c r="K56" s="537">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="513"/>
+      <c r="L56" s="538"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -23671,22 +23678,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="490" t="s">
+      <c r="D58" s="515" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="491"/>
+      <c r="E58" s="516"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="492" t="s">
+      <c r="I58" s="517" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="493"/>
-      <c r="K58" s="494">
+      <c r="J58" s="518"/>
+      <c r="K58" s="519">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="494"/>
+      <c r="L58" s="519"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -23830,14 +23837,17 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -23848,17 +23858,14 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="68" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -26276,7 +26283,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="541" t="s">
+      <c r="F87" s="577" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -26289,7 +26296,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="542"/>
+      <c r="F88" s="578"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -26601,23 +26608,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="479"/>
-      <c r="C1" s="481" t="s">
+      <c r="B1" s="539"/>
+      <c r="C1" s="541" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="482"/>
-      <c r="E1" s="482"/>
-      <c r="F1" s="482"/>
-      <c r="G1" s="482"/>
-      <c r="H1" s="482"/>
-      <c r="I1" s="482"/>
-      <c r="J1" s="482"/>
-      <c r="K1" s="482"/>
-      <c r="L1" s="482"/>
-      <c r="M1" s="482"/>
+      <c r="D1" s="542"/>
+      <c r="E1" s="542"/>
+      <c r="F1" s="542"/>
+      <c r="G1" s="542"/>
+      <c r="H1" s="542"/>
+      <c r="I1" s="542"/>
+      <c r="J1" s="542"/>
+      <c r="K1" s="542"/>
+      <c r="L1" s="542"/>
+      <c r="M1" s="542"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="480"/>
+      <c r="B2" s="540"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -26627,24 +26634,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="483" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="484"/>
+      <c r="B3" s="543" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="544"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="485" t="s">
+      <c r="H3" s="545" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="485"/>
+      <c r="I3" s="545"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="522" t="s">
+      <c r="P3" s="569" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="543" t="s">
+      <c r="R3" s="579" t="s">
         <v>216</v>
       </c>
     </row>
@@ -26659,14 +26666,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="486" t="s">
+      <c r="E4" s="546" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="487"/>
-      <c r="H4" s="488" t="s">
+      <c r="F4" s="547"/>
+      <c r="H4" s="548" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="489"/>
+      <c r="I4" s="549"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -26676,15 +26683,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="523"/>
+      <c r="P4" s="570"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="544"/>
-      <c r="W4" s="532" t="s">
+      <c r="R4" s="580"/>
+      <c r="W4" s="552" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="532"/>
+      <c r="X4" s="552"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26745,8 +26752,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="532"/>
-      <c r="X5" s="532"/>
+      <c r="W5" s="552"/>
+      <c r="X5" s="552"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -27503,7 +27510,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="536">
+      <c r="W19" s="556">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -27555,7 +27562,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="537"/>
+      <c r="W20" s="557"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -27604,8 +27611,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="538"/>
-      <c r="X21" s="538"/>
+      <c r="W21" s="558"/>
+      <c r="X21" s="558"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -27706,8 +27713,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="539"/>
-      <c r="X23" s="539"/>
+      <c r="W23" s="559"/>
+      <c r="X23" s="559"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -27758,8 +27765,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="539"/>
-      <c r="X24" s="539"/>
+      <c r="W24" s="559"/>
+      <c r="X24" s="559"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -27805,8 +27812,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="540"/>
-      <c r="X25" s="540"/>
+      <c r="W25" s="560"/>
+      <c r="X25" s="560"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -27854,8 +27861,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="540"/>
-      <c r="X26" s="540"/>
+      <c r="W26" s="560"/>
+      <c r="X26" s="560"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -27915,9 +27922,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="533"/>
-      <c r="X27" s="534"/>
-      <c r="Y27" s="535"/>
+      <c r="W27" s="553"/>
+      <c r="X27" s="554"/>
+      <c r="Y27" s="555"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -27971,9 +27978,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="534"/>
-      <c r="X28" s="534"/>
-      <c r="Y28" s="535"/>
+      <c r="W28" s="554"/>
+      <c r="X28" s="554"/>
+      <c r="Y28" s="555"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -28289,11 +28296,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="524">
+      <c r="M36" s="571">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="526">
+      <c r="N36" s="573">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -28301,7 +28308,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="528">
+      <c r="Q36" s="575">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -28320,13 +28327,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="525"/>
-      <c r="N37" s="527"/>
+      <c r="M37" s="572"/>
+      <c r="N37" s="574"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="529"/>
+      <c r="Q37" s="576"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -28600,26 +28607,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="501" t="s">
+      <c r="H52" s="526" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="502"/>
+      <c r="I52" s="527"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="503">
+      <c r="K52" s="528">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="530"/>
+      <c r="L52" s="561"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="507" t="s">
+      <c r="D53" s="532" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="507"/>
+      <c r="E53" s="532"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -28628,29 +28635,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="531" t="s">
+      <c r="D54" s="562" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="531"/>
+      <c r="E54" s="562"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="508" t="s">
+      <c r="I54" s="533" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="509"/>
-      <c r="K54" s="510">
+      <c r="J54" s="534"/>
+      <c r="K54" s="535">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="510"/>
-      <c r="M54" s="516" t="s">
+      <c r="L54" s="535"/>
+      <c r="M54" s="563" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="517"/>
-      <c r="O54" s="517"/>
-      <c r="P54" s="517"/>
-      <c r="Q54" s="518"/>
+      <c r="N54" s="564"/>
+      <c r="O54" s="564"/>
+      <c r="P54" s="564"/>
+      <c r="Q54" s="565"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -28664,11 +28671,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="519"/>
-      <c r="N55" s="520"/>
-      <c r="O55" s="520"/>
-      <c r="P55" s="520"/>
-      <c r="Q55" s="521"/>
+      <c r="M55" s="566"/>
+      <c r="N55" s="567"/>
+      <c r="O55" s="567"/>
+      <c r="P55" s="567"/>
+      <c r="Q55" s="568"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -28686,11 +28693,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="512">
+      <c r="K56" s="537">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="513"/>
+      <c r="L56" s="538"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -28707,22 +28714,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="490" t="s">
+      <c r="D58" s="515" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="491"/>
+      <c r="E58" s="516"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="492" t="s">
+      <c r="I58" s="517" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="493"/>
-      <c r="K58" s="494">
+      <c r="J58" s="518"/>
+      <c r="K58" s="519">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="494"/>
+      <c r="L58" s="519"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -28866,20 +28873,13 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="W4:X5"/>
@@ -28889,13 +28889,20 @@
     <mergeCell ref="W25:X25"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -31285,7 +31292,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="541" t="s">
+      <c r="F75" s="577" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -31298,7 +31305,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="542"/>
+      <c r="F76" s="578"/>
       <c r="K76" s="1"/>
       <c r="L76" s="256"/>
       <c r="M76" s="3"/>
@@ -31590,23 +31597,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="479"/>
-      <c r="C1" s="545" t="s">
+      <c r="B1" s="539"/>
+      <c r="C1" s="581" t="s">
         <v>323</v>
       </c>
-      <c r="D1" s="546"/>
-      <c r="E1" s="546"/>
-      <c r="F1" s="546"/>
-      <c r="G1" s="546"/>
-      <c r="H1" s="546"/>
-      <c r="I1" s="546"/>
-      <c r="J1" s="546"/>
-      <c r="K1" s="546"/>
-      <c r="L1" s="546"/>
-      <c r="M1" s="546"/>
+      <c r="D1" s="582"/>
+      <c r="E1" s="582"/>
+      <c r="F1" s="582"/>
+      <c r="G1" s="582"/>
+      <c r="H1" s="582"/>
+      <c r="I1" s="582"/>
+      <c r="J1" s="582"/>
+      <c r="K1" s="582"/>
+      <c r="L1" s="582"/>
+      <c r="M1" s="582"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="480"/>
+      <c r="B2" s="540"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -31616,24 +31623,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="483" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="484"/>
+      <c r="B3" s="543" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="544"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="485" t="s">
+      <c r="H3" s="545" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="485"/>
+      <c r="I3" s="545"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="522" t="s">
+      <c r="P3" s="569" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="543" t="s">
+      <c r="R3" s="579" t="s">
         <v>216</v>
       </c>
     </row>
@@ -31648,14 +31655,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="486" t="s">
+      <c r="E4" s="546" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="487"/>
-      <c r="H4" s="488" t="s">
+      <c r="F4" s="547"/>
+      <c r="H4" s="548" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="489"/>
+      <c r="I4" s="549"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -31665,15 +31672,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="523"/>
+      <c r="P4" s="570"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="544"/>
-      <c r="W4" s="532" t="s">
+      <c r="R4" s="580"/>
+      <c r="W4" s="552" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="532"/>
+      <c r="X4" s="552"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31724,8 +31731,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="532"/>
-      <c r="X5" s="532"/>
+      <c r="W5" s="552"/>
+      <c r="X5" s="552"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32489,7 +32496,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="536">
+      <c r="W19" s="556">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -32542,7 +32549,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="537"/>
+      <c r="W20" s="557"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -32591,8 +32598,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="538"/>
-      <c r="X21" s="538"/>
+      <c r="W21" s="558"/>
+      <c r="X21" s="558"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -32692,8 +32699,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="539"/>
-      <c r="X23" s="539"/>
+      <c r="W23" s="559"/>
+      <c r="X23" s="559"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -32748,8 +32755,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="539"/>
-      <c r="X24" s="539"/>
+      <c r="W24" s="559"/>
+      <c r="X24" s="559"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -32794,8 +32801,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="540"/>
-      <c r="X25" s="540"/>
+      <c r="W25" s="560"/>
+      <c r="X25" s="560"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -32843,8 +32850,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="540"/>
-      <c r="X26" s="540"/>
+      <c r="W26" s="560"/>
+      <c r="X26" s="560"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -32898,9 +32905,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="533"/>
-      <c r="X27" s="534"/>
-      <c r="Y27" s="535"/>
+      <c r="W27" s="553"/>
+      <c r="X27" s="554"/>
+      <c r="Y27" s="555"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32954,9 +32961,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="534"/>
-      <c r="X28" s="534"/>
-      <c r="Y28" s="535"/>
+      <c r="W28" s="554"/>
+      <c r="X28" s="554"/>
+      <c r="Y28" s="555"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -33267,11 +33274,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="524">
+      <c r="M36" s="571">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="526">
+      <c r="N36" s="573">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -33279,7 +33286,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="528">
+      <c r="Q36" s="575">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -33304,13 +33311,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="525"/>
-      <c r="N37" s="527"/>
+      <c r="M37" s="572"/>
+      <c r="N37" s="574"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="529"/>
+      <c r="Q37" s="576"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -33603,26 +33610,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="501" t="s">
+      <c r="H52" s="526" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="502"/>
+      <c r="I52" s="527"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="503">
+      <c r="K52" s="528">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="530"/>
+      <c r="L52" s="561"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="507" t="s">
+      <c r="D53" s="532" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="507"/>
+      <c r="E53" s="532"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -33631,22 +33638,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="531" t="s">
+      <c r="D54" s="562" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="531"/>
+      <c r="E54" s="562"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="508" t="s">
+      <c r="I54" s="533" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="509"/>
-      <c r="K54" s="510">
+      <c r="J54" s="534"/>
+      <c r="K54" s="535">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="510"/>
+      <c r="L54" s="535"/>
       <c r="M54" s="421"/>
       <c r="N54" s="421"/>
       <c r="O54" s="421"/>
@@ -33687,11 +33694,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="512">
+      <c r="K56" s="537">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="513"/>
+      <c r="L56" s="538"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -33708,22 +33715,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="490" t="s">
+      <c r="D58" s="515" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="491"/>
+      <c r="E58" s="516"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="492" t="s">
+      <c r="I58" s="517" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="493"/>
-      <c r="K58" s="494">
+      <c r="J58" s="518"/>
+      <c r="K58" s="519">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="494"/>
+      <c r="L58" s="519"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -33867,20 +33874,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -33896,6 +33889,20 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -33949,7 +33956,7 @@
       </c>
       <c r="J1" s="302"/>
       <c r="K1" s="303"/>
-      <c r="L1" s="599"/>
+      <c r="L1" s="485"/>
       <c r="M1" s="303"/>
       <c r="N1" s="377" t="s">
         <v>314</v>
@@ -34022,7 +34029,7 @@
       <c r="K3" s="409">
         <v>594.17999999999995</v>
       </c>
-      <c r="L3" s="600">
+      <c r="L3" s="486">
         <v>44593</v>
       </c>
       <c r="M3" s="409">
@@ -34063,7 +34070,7 @@
       <c r="K4" s="409">
         <v>388.8</v>
       </c>
-      <c r="L4" s="600">
+      <c r="L4" s="486">
         <v>44593</v>
       </c>
       <c r="M4" s="409">
@@ -34103,7 +34110,7 @@
       <c r="K5" s="409">
         <v>19510.8</v>
       </c>
-      <c r="L5" s="600">
+      <c r="L5" s="486">
         <v>44593</v>
       </c>
       <c r="M5" s="409">
@@ -34143,7 +34150,7 @@
       <c r="K6" s="409">
         <v>1380.6</v>
       </c>
-      <c r="L6" s="600">
+      <c r="L6" s="486">
         <v>44593</v>
       </c>
       <c r="M6" s="409">
@@ -34183,7 +34190,7 @@
       <c r="K7" s="409">
         <v>247.32</v>
       </c>
-      <c r="L7" s="600">
+      <c r="L7" s="486">
         <v>44593</v>
       </c>
       <c r="M7" s="409">
@@ -34223,7 +34230,7 @@
       <c r="K8" s="409">
         <v>80126.8</v>
       </c>
-      <c r="L8" s="600">
+      <c r="L8" s="486">
         <v>44593</v>
       </c>
       <c r="M8" s="409">
@@ -34263,7 +34270,7 @@
       <c r="K9" s="409">
         <v>5165.9799999999996</v>
       </c>
-      <c r="L9" s="600">
+      <c r="L9" s="486">
         <v>44593</v>
       </c>
       <c r="M9" s="409">
@@ -34304,7 +34311,7 @@
       <c r="K10" s="409">
         <v>3258.1</v>
       </c>
-      <c r="L10" s="600">
+      <c r="L10" s="486">
         <v>44593</v>
       </c>
       <c r="M10" s="409">
@@ -34344,7 +34351,7 @@
       <c r="K11" s="409">
         <v>472</v>
       </c>
-      <c r="L11" s="600">
+      <c r="L11" s="486">
         <v>44593</v>
       </c>
       <c r="M11" s="409">
@@ -34384,7 +34391,7 @@
       <c r="K12" s="409">
         <v>2558.1799999999998</v>
       </c>
-      <c r="L12" s="600">
+      <c r="L12" s="486">
         <v>44593</v>
       </c>
       <c r="M12" s="409">
@@ -34424,7 +34431,7 @@
       <c r="K13" s="409">
         <v>11429.6</v>
       </c>
-      <c r="L13" s="600">
+      <c r="L13" s="486">
         <v>44593</v>
       </c>
       <c r="M13" s="409">
@@ -34464,7 +34471,7 @@
       <c r="K14" s="409">
         <v>1470</v>
       </c>
-      <c r="L14" s="600">
+      <c r="L14" s="486">
         <v>44593</v>
       </c>
       <c r="M14" s="409">
@@ -34504,7 +34511,7 @@
       <c r="K15" s="409">
         <v>1407</v>
       </c>
-      <c r="L15" s="600">
+      <c r="L15" s="486">
         <v>44593</v>
       </c>
       <c r="M15" s="409">
@@ -34544,7 +34551,7 @@
       <c r="K16" s="409">
         <v>120922.4</v>
       </c>
-      <c r="L16" s="600">
+      <c r="L16" s="486">
         <v>44593</v>
       </c>
       <c r="M16" s="409">
@@ -34584,7 +34591,7 @@
       <c r="K17" s="409">
         <v>4686.3999999999996</v>
       </c>
-      <c r="L17" s="600">
+      <c r="L17" s="486">
         <v>44593</v>
       </c>
       <c r="M17" s="409">
@@ -34624,7 +34631,7 @@
       <c r="K18" s="409">
         <v>5822.6</v>
       </c>
-      <c r="L18" s="600">
+      <c r="L18" s="486">
         <v>44593</v>
       </c>
       <c r="M18" s="409">
@@ -34664,7 +34671,7 @@
       <c r="K19" s="409">
         <v>1530.8</v>
       </c>
-      <c r="L19" s="600">
+      <c r="L19" s="486">
         <v>44593</v>
       </c>
       <c r="M19" s="409">
@@ -34704,7 +34711,7 @@
       <c r="K20" s="409">
         <v>10637</v>
       </c>
-      <c r="L20" s="600">
+      <c r="L20" s="486">
         <v>44593</v>
       </c>
       <c r="M20" s="409">
@@ -34744,7 +34751,7 @@
       <c r="K21" s="409">
         <v>1146.2</v>
       </c>
-      <c r="L21" s="600">
+      <c r="L21" s="486">
         <v>44593</v>
       </c>
       <c r="M21" s="409">
@@ -34785,7 +34792,7 @@
       <c r="K22" s="409">
         <v>141067.6</v>
       </c>
-      <c r="L22" s="600">
+      <c r="L22" s="486">
         <v>44593</v>
       </c>
       <c r="M22" s="409">
@@ -34825,7 +34832,7 @@
       <c r="K23" s="409">
         <v>5205.2</v>
       </c>
-      <c r="L23" s="600">
+      <c r="L23" s="486">
         <v>44593</v>
       </c>
       <c r="M23" s="409">
@@ -34865,7 +34872,7 @@
       <c r="K24" s="409">
         <v>1487</v>
       </c>
-      <c r="L24" s="600">
+      <c r="L24" s="486">
         <v>44593</v>
       </c>
       <c r="M24" s="409">
@@ -34905,7 +34912,7 @@
       <c r="K25" s="409">
         <v>71469.2</v>
       </c>
-      <c r="L25" s="600">
+      <c r="L25" s="486">
         <v>44593</v>
       </c>
       <c r="M25" s="409">
@@ -34945,7 +34952,7 @@
       <c r="K26" s="409">
         <v>2041.4</v>
       </c>
-      <c r="L26" s="600">
+      <c r="L26" s="486">
         <v>44593</v>
       </c>
       <c r="M26" s="409">
@@ -34985,7 +34992,7 @@
       <c r="K27" s="409">
         <v>5828</v>
       </c>
-      <c r="L27" s="600">
+      <c r="L27" s="486">
         <v>44593</v>
       </c>
       <c r="M27" s="409">
@@ -35025,7 +35032,7 @@
       <c r="K28" s="409">
         <v>2464</v>
       </c>
-      <c r="L28" s="600">
+      <c r="L28" s="486">
         <v>44593</v>
       </c>
       <c r="M28" s="409">
@@ -35065,7 +35072,7 @@
       <c r="K29" s="409">
         <v>2056.8000000000002</v>
       </c>
-      <c r="L29" s="600">
+      <c r="L29" s="486">
         <v>44593</v>
       </c>
       <c r="M29" s="409">
@@ -35100,16 +35107,16 @@
       <c r="I30" s="407" t="s">
         <v>370</v>
       </c>
-      <c r="J30" s="596">
+      <c r="J30" s="482">
         <v>8340</v>
       </c>
       <c r="K30" s="409">
         <v>219199.6</v>
       </c>
-      <c r="L30" s="601">
+      <c r="L30" s="487">
         <v>44643</v>
       </c>
-      <c r="M30" s="611">
+      <c r="M30" s="497">
         <v>219199.6</v>
       </c>
       <c r="N30" s="137">
@@ -35141,16 +35148,16 @@
       <c r="I31" s="407" t="s">
         <v>371</v>
       </c>
-      <c r="J31" s="596">
+      <c r="J31" s="482">
         <v>8342</v>
       </c>
       <c r="K31" s="409">
         <v>1605</v>
       </c>
-      <c r="L31" s="601">
+      <c r="L31" s="487">
         <v>44643</v>
       </c>
-      <c r="M31" s="611">
+      <c r="M31" s="497">
         <v>1605</v>
       </c>
       <c r="N31" s="137">
@@ -35182,16 +35189,16 @@
       <c r="I32" s="407" t="s">
         <v>372</v>
       </c>
-      <c r="J32" s="596">
+      <c r="J32" s="482">
         <v>8359</v>
       </c>
       <c r="K32" s="409">
         <v>16970.400000000001</v>
       </c>
-      <c r="L32" s="601">
+      <c r="L32" s="487">
         <v>44643</v>
       </c>
-      <c r="M32" s="611">
+      <c r="M32" s="497">
         <v>16970.400000000001</v>
       </c>
       <c r="N32" s="137">
@@ -35223,16 +35230,16 @@
       <c r="I33" s="407" t="s">
         <v>373</v>
       </c>
-      <c r="J33" s="596">
+      <c r="J33" s="482">
         <v>8363</v>
       </c>
       <c r="K33" s="409">
         <v>1544.6</v>
       </c>
-      <c r="L33" s="601">
+      <c r="L33" s="487">
         <v>44643</v>
       </c>
-      <c r="M33" s="611">
+      <c r="M33" s="497">
         <v>1544.6</v>
       </c>
       <c r="N33" s="137">
@@ -35264,16 +35271,16 @@
       <c r="I34" s="407" t="s">
         <v>373</v>
       </c>
-      <c r="J34" s="596">
+      <c r="J34" s="482">
         <v>8365</v>
       </c>
       <c r="K34" s="409">
         <v>1161</v>
       </c>
-      <c r="L34" s="601">
+      <c r="L34" s="487">
         <v>44643</v>
       </c>
-      <c r="M34" s="611">
+      <c r="M34" s="497">
         <v>1161</v>
       </c>
       <c r="N34" s="137">
@@ -35305,16 +35312,16 @@
       <c r="I35" s="407" t="s">
         <v>374</v>
       </c>
-      <c r="J35" s="596">
+      <c r="J35" s="482">
         <v>8375</v>
       </c>
       <c r="K35" s="409">
         <v>3838.8</v>
       </c>
-      <c r="L35" s="601">
+      <c r="L35" s="487">
         <v>44643</v>
       </c>
-      <c r="M35" s="611">
+      <c r="M35" s="497">
         <v>3838.8</v>
       </c>
       <c r="N35" s="137">
@@ -35346,16 +35353,16 @@
       <c r="I36" s="407" t="s">
         <v>374</v>
       </c>
-      <c r="J36" s="596">
+      <c r="J36" s="482">
         <v>8379</v>
       </c>
       <c r="K36" s="409">
         <v>1696</v>
       </c>
-      <c r="L36" s="601">
+      <c r="L36" s="487">
         <v>44643</v>
       </c>
-      <c r="M36" s="611">
+      <c r="M36" s="497">
         <v>1696</v>
       </c>
       <c r="N36" s="137">
@@ -35387,16 +35394,16 @@
       <c r="I37" s="407" t="s">
         <v>375</v>
       </c>
-      <c r="J37" s="596">
+      <c r="J37" s="482">
         <v>8386</v>
       </c>
       <c r="K37" s="409">
         <v>953.6</v>
       </c>
-      <c r="L37" s="601">
+      <c r="L37" s="487">
         <v>44643</v>
       </c>
-      <c r="M37" s="611">
+      <c r="M37" s="497">
         <v>953.6</v>
       </c>
       <c r="N37" s="137">
@@ -35428,16 +35435,16 @@
       <c r="I38" s="407" t="s">
         <v>376</v>
       </c>
-      <c r="J38" s="596">
+      <c r="J38" s="482">
         <v>8393</v>
       </c>
       <c r="K38" s="409">
         <v>5587.4</v>
       </c>
-      <c r="L38" s="601">
+      <c r="L38" s="487">
         <v>44643</v>
       </c>
-      <c r="M38" s="611">
+      <c r="M38" s="497">
         <v>5587.4</v>
       </c>
       <c r="N38" s="137">
@@ -35469,16 +35476,16 @@
       <c r="I39" s="407" t="s">
         <v>377</v>
       </c>
-      <c r="J39" s="596">
+      <c r="J39" s="482">
         <v>8403</v>
       </c>
       <c r="K39" s="409">
         <v>2021.2</v>
       </c>
-      <c r="L39" s="601">
+      <c r="L39" s="487">
         <v>44643</v>
       </c>
-      <c r="M39" s="611">
+      <c r="M39" s="497">
         <v>2021.2</v>
       </c>
       <c r="N39" s="137">
@@ -35510,16 +35517,16 @@
       <c r="I40" s="407" t="s">
         <v>377</v>
       </c>
-      <c r="J40" s="596">
+      <c r="J40" s="482">
         <v>8404</v>
       </c>
       <c r="K40" s="409">
         <v>175</v>
       </c>
-      <c r="L40" s="601">
+      <c r="L40" s="487">
         <v>44643</v>
       </c>
-      <c r="M40" s="611">
+      <c r="M40" s="497">
         <v>175</v>
       </c>
       <c r="N40" s="137">
@@ -35541,16 +35548,16 @@
       <c r="I41" s="407" t="s">
         <v>377</v>
       </c>
-      <c r="J41" s="596">
+      <c r="J41" s="482">
         <v>8405</v>
       </c>
       <c r="K41" s="409">
         <v>118474.8</v>
       </c>
-      <c r="L41" s="601">
+      <c r="L41" s="487">
         <v>44643</v>
       </c>
-      <c r="M41" s="611">
+      <c r="M41" s="497">
         <v>118474.8</v>
       </c>
       <c r="N41" s="137">
@@ -35572,16 +35579,16 @@
       <c r="I42" s="407" t="s">
         <v>378</v>
       </c>
-      <c r="J42" s="596">
+      <c r="J42" s="482">
         <v>8422</v>
       </c>
       <c r="K42" s="409">
         <v>27106.9</v>
       </c>
-      <c r="L42" s="601">
+      <c r="L42" s="487">
         <v>44643</v>
       </c>
-      <c r="M42" s="611">
+      <c r="M42" s="497">
         <v>27106.9</v>
       </c>
       <c r="N42" s="137">
@@ -35592,12 +35599,12 @@
     </row>
     <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="245"/>
-      <c r="B43" s="547" t="s">
+      <c r="B43" s="583" t="s">
         <v>420</v>
       </c>
-      <c r="C43" s="548"/>
-      <c r="D43" s="548"/>
-      <c r="E43" s="549"/>
+      <c r="C43" s="584"/>
+      <c r="D43" s="584"/>
+      <c r="E43" s="585"/>
       <c r="F43" s="409">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -35605,16 +35612,16 @@
       <c r="I43" s="407" t="s">
         <v>378</v>
       </c>
-      <c r="J43" s="596">
+      <c r="J43" s="482">
         <v>8423</v>
       </c>
       <c r="K43" s="409">
         <v>1096.2</v>
       </c>
-      <c r="L43" s="601">
+      <c r="L43" s="487">
         <v>44643</v>
       </c>
-      <c r="M43" s="611">
+      <c r="M43" s="497">
         <v>1096.2</v>
       </c>
       <c r="N43" s="137">
@@ -35625,10 +35632,10 @@
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="245"/>
-      <c r="B44" s="550"/>
-      <c r="C44" s="551"/>
-      <c r="D44" s="551"/>
-      <c r="E44" s="552"/>
+      <c r="B44" s="586"/>
+      <c r="C44" s="587"/>
+      <c r="D44" s="587"/>
+      <c r="E44" s="588"/>
       <c r="F44" s="409">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -35636,16 +35643,16 @@
       <c r="I44" s="407" t="s">
         <v>379</v>
       </c>
-      <c r="J44" s="596">
+      <c r="J44" s="482">
         <v>8434</v>
       </c>
       <c r="K44" s="409">
         <v>1609</v>
       </c>
-      <c r="L44" s="601">
+      <c r="L44" s="487">
         <v>44643</v>
       </c>
-      <c r="M44" s="611">
+      <c r="M44" s="497">
         <v>1609</v>
       </c>
       <c r="N44" s="137">
@@ -35656,10 +35663,10 @@
     </row>
     <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="245"/>
-      <c r="B45" s="553"/>
-      <c r="C45" s="554"/>
-      <c r="D45" s="554"/>
-      <c r="E45" s="555"/>
+      <c r="B45" s="589"/>
+      <c r="C45" s="590"/>
+      <c r="D45" s="590"/>
+      <c r="E45" s="591"/>
       <c r="F45" s="409">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -35667,7 +35674,7 @@
       <c r="I45" s="407"/>
       <c r="J45" s="408"/>
       <c r="K45" s="409"/>
-      <c r="L45" s="601" t="s">
+      <c r="L45" s="487" t="s">
         <v>310</v>
       </c>
       <c r="M45" s="143"/>
@@ -35690,7 +35697,7 @@
       <c r="I46" s="407"/>
       <c r="J46" s="408"/>
       <c r="K46" s="409"/>
-      <c r="L46" s="601" t="s">
+      <c r="L46" s="487" t="s">
         <v>310</v>
       </c>
       <c r="M46" s="143"/>
@@ -35702,10 +35709,10 @@
     </row>
     <row r="47" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="245"/>
-      <c r="B47" s="588" t="s">
+      <c r="B47" s="598" t="s">
         <v>600</v>
       </c>
-      <c r="C47" s="589"/>
+      <c r="C47" s="599"/>
       <c r="D47" s="253"/>
       <c r="E47" s="69"/>
       <c r="F47" s="137">
@@ -35717,7 +35724,7 @@
       <c r="K47" s="360">
         <v>0</v>
       </c>
-      <c r="L47" s="597"/>
+      <c r="L47" s="483"/>
       <c r="M47" s="143"/>
       <c r="N47" s="137">
         <f t="shared" si="1"/>
@@ -35727,8 +35734,8 @@
     </row>
     <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="245"/>
-      <c r="B48" s="590"/>
-      <c r="C48" s="591"/>
+      <c r="B48" s="600"/>
+      <c r="C48" s="601"/>
       <c r="D48" s="253"/>
       <c r="E48" s="69"/>
       <c r="F48" s="137">
@@ -35736,11 +35743,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="348"/>
-      <c r="J48" s="556" t="s">
+      <c r="J48" s="592" t="s">
         <v>421</v>
       </c>
-      <c r="K48" s="557"/>
-      <c r="L48" s="558"/>
+      <c r="K48" s="593"/>
+      <c r="L48" s="594"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -35758,9 +35765,9 @@
         <v>0</v>
       </c>
       <c r="I49" s="348"/>
-      <c r="J49" s="559"/>
-      <c r="K49" s="560"/>
-      <c r="L49" s="561"/>
+      <c r="J49" s="595"/>
+      <c r="K49" s="596"/>
+      <c r="L49" s="597"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -35777,14 +35784,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I50" s="625" t="s">
+      <c r="I50" s="602" t="s">
         <v>601</v>
       </c>
-      <c r="J50" s="626"/>
+      <c r="J50" s="603"/>
       <c r="K50" s="215">
         <v>0</v>
       </c>
-      <c r="L50" s="598"/>
+      <c r="L50" s="484"/>
       <c r="M50" s="69"/>
       <c r="N50" s="137">
         <f t="shared" si="1"/>
@@ -35801,8 +35808,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I51" s="625"/>
-      <c r="J51" s="626"/>
+      <c r="I51" s="602"/>
+      <c r="J51" s="603"/>
       <c r="K51" s="69"/>
       <c r="L51" s="253"/>
       <c r="M51" s="69"/>
@@ -35821,8 +35828,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I52" s="625"/>
-      <c r="J52" s="626"/>
+      <c r="I52" s="602"/>
+      <c r="J52" s="603"/>
       <c r="K52" s="69"/>
       <c r="L52" s="253"/>
       <c r="M52" s="69"/>
@@ -35841,8 +35848,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I53" s="625"/>
-      <c r="J53" s="626"/>
+      <c r="I53" s="602"/>
+      <c r="J53" s="603"/>
       <c r="K53" s="69"/>
       <c r="L53" s="253"/>
       <c r="M53" s="69"/>
@@ -35861,8 +35868,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I54" s="625"/>
-      <c r="J54" s="626"/>
+      <c r="I54" s="602"/>
+      <c r="J54" s="603"/>
       <c r="K54" s="69"/>
       <c r="L54" s="253"/>
       <c r="M54" s="69"/>
@@ -35881,8 +35888,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I55" s="625"/>
-      <c r="J55" s="626"/>
+      <c r="I55" s="602"/>
+      <c r="J55" s="603"/>
       <c r="K55" s="69"/>
       <c r="L55" s="253"/>
       <c r="M55" s="69"/>
@@ -35901,8 +35908,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I56" s="625"/>
-      <c r="J56" s="626"/>
+      <c r="I56" s="602"/>
+      <c r="J56" s="603"/>
       <c r="K56" s="69"/>
       <c r="L56" s="253"/>
       <c r="M56" s="69"/>
@@ -35921,8 +35928,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I57" s="625"/>
-      <c r="J57" s="626"/>
+      <c r="I57" s="602"/>
+      <c r="J57" s="603"/>
       <c r="K57" s="69"/>
       <c r="L57" s="253"/>
       <c r="M57" s="69"/>
@@ -35941,8 +35948,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I58" s="625"/>
-      <c r="J58" s="626"/>
+      <c r="I58" s="602"/>
+      <c r="J58" s="603"/>
       <c r="K58" s="69"/>
       <c r="L58" s="253"/>
       <c r="M58" s="69"/>
@@ -35961,8 +35968,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I59" s="625"/>
-      <c r="J59" s="626"/>
+      <c r="I59" s="602"/>
+      <c r="J59" s="603"/>
       <c r="K59" s="69"/>
       <c r="L59" s="253"/>
       <c r="M59" s="69"/>
@@ -35981,8 +35988,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I60" s="625"/>
-      <c r="J60" s="626"/>
+      <c r="I60" s="602"/>
+      <c r="J60" s="603"/>
       <c r="K60" s="69"/>
       <c r="L60" s="253"/>
       <c r="M60" s="69"/>
@@ -36001,8 +36008,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I61" s="625"/>
-      <c r="J61" s="626"/>
+      <c r="I61" s="602"/>
+      <c r="J61" s="603"/>
       <c r="K61" s="69"/>
       <c r="L61" s="253"/>
       <c r="M61" s="69"/>
@@ -36021,8 +36028,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I62" s="625"/>
-      <c r="J62" s="626"/>
+      <c r="I62" s="602"/>
+      <c r="J62" s="603"/>
       <c r="K62" s="34"/>
       <c r="L62" s="118"/>
       <c r="M62" s="34"/>
@@ -36041,8 +36048,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I63" s="625"/>
-      <c r="J63" s="626"/>
+      <c r="I63" s="602"/>
+      <c r="J63" s="603"/>
       <c r="K63" s="34"/>
       <c r="L63" s="118"/>
       <c r="M63" s="34"/>
@@ -36061,8 +36068,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I64" s="625"/>
-      <c r="J64" s="626"/>
+      <c r="I64" s="602"/>
+      <c r="J64" s="603"/>
       <c r="K64" s="34"/>
       <c r="L64" s="118"/>
       <c r="M64" s="34"/>
@@ -36081,8 +36088,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I65" s="625"/>
-      <c r="J65" s="626"/>
+      <c r="I65" s="602"/>
+      <c r="J65" s="603"/>
       <c r="K65" s="34"/>
       <c r="L65" s="118"/>
       <c r="M65" s="34"/>
@@ -36101,8 +36108,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I66" s="625"/>
-      <c r="J66" s="626"/>
+      <c r="I66" s="602"/>
+      <c r="J66" s="603"/>
       <c r="K66" s="34"/>
       <c r="L66" s="118"/>
       <c r="M66" s="34"/>
@@ -36121,8 +36128,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I67" s="625"/>
-      <c r="J67" s="626"/>
+      <c r="I67" s="602"/>
+      <c r="J67" s="603"/>
       <c r="K67" s="34"/>
       <c r="L67" s="118"/>
       <c r="M67" s="34"/>
@@ -36141,8 +36148,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I68" s="625"/>
-      <c r="J68" s="626"/>
+      <c r="I68" s="602"/>
+      <c r="J68" s="603"/>
       <c r="K68" s="69"/>
       <c r="L68" s="254"/>
       <c r="M68" s="69"/>
@@ -36161,8 +36168,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I69" s="625"/>
-      <c r="J69" s="626"/>
+      <c r="I69" s="602"/>
+      <c r="J69" s="603"/>
       <c r="K69" s="69"/>
       <c r="L69" s="254"/>
       <c r="M69" s="69"/>
@@ -36181,8 +36188,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I70" s="625"/>
-      <c r="J70" s="626"/>
+      <c r="I70" s="602"/>
+      <c r="J70" s="603"/>
       <c r="K70" s="69"/>
       <c r="L70" s="254"/>
       <c r="M70" s="69"/>
@@ -36201,8 +36208,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I71" s="625"/>
-      <c r="J71" s="626"/>
+      <c r="I71" s="602"/>
+      <c r="J71" s="603"/>
       <c r="K71" s="69"/>
       <c r="L71" s="254"/>
       <c r="M71" s="69"/>
@@ -36221,8 +36228,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I72" s="625"/>
-      <c r="J72" s="626"/>
+      <c r="I72" s="602"/>
+      <c r="J72" s="603"/>
       <c r="K72" s="69"/>
       <c r="L72" s="254"/>
       <c r="M72" s="69"/>
@@ -36241,8 +36248,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I73" s="625"/>
-      <c r="J73" s="626"/>
+      <c r="I73" s="602"/>
+      <c r="J73" s="603"/>
       <c r="K73" s="69"/>
       <c r="L73" s="254"/>
       <c r="M73" s="69"/>
@@ -36261,8 +36268,8 @@
         <f>F73+C74-E74</f>
         <v>0</v>
       </c>
-      <c r="I74" s="625"/>
-      <c r="J74" s="626"/>
+      <c r="I74" s="602"/>
+      <c r="J74" s="603"/>
       <c r="K74" s="69"/>
       <c r="L74" s="254"/>
       <c r="M74" s="69"/>
@@ -36281,8 +36288,8 @@
         <f>F74+C75-E75</f>
         <v>0</v>
       </c>
-      <c r="I75" s="625"/>
-      <c r="J75" s="626"/>
+      <c r="I75" s="602"/>
+      <c r="J75" s="603"/>
       <c r="K75" s="69"/>
       <c r="L75" s="254"/>
       <c r="M75" s="69"/>
@@ -36301,8 +36308,8 @@
         <f>F75+C76-E76</f>
         <v>0</v>
       </c>
-      <c r="I76" s="625"/>
-      <c r="J76" s="626"/>
+      <c r="I76" s="602"/>
+      <c r="J76" s="603"/>
       <c r="K76" s="69"/>
       <c r="L76" s="254"/>
       <c r="M76" s="69"/>
@@ -36321,8 +36328,8 @@
         <f>F76+C77-E77</f>
         <v>0</v>
       </c>
-      <c r="I77" s="625"/>
-      <c r="J77" s="626"/>
+      <c r="I77" s="602"/>
+      <c r="J77" s="603"/>
       <c r="K77" s="69"/>
       <c r="L77" s="254"/>
       <c r="M77" s="69"/>
@@ -36343,8 +36350,8 @@
         <f>F77+C78-E78</f>
         <v>0</v>
       </c>
-      <c r="I78" s="627"/>
-      <c r="J78" s="628"/>
+      <c r="I78" s="604"/>
+      <c r="J78" s="605"/>
       <c r="K78" s="151">
         <v>0</v>
       </c>
@@ -36374,7 +36381,7 @@
         <f>SUM(K3:K78)</f>
         <v>907413.46000000008</v>
       </c>
-      <c r="L79" s="602"/>
+      <c r="L79" s="488"/>
       <c r="M79" s="209">
         <f>SUM(M3:M78)</f>
         <v>907413.46000000008</v>
@@ -36389,7 +36396,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="541" t="s">
+      <c r="F80" s="577" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -36401,7 +36408,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="542"/>
+      <c r="F81" s="578"/>
       <c r="K81" s="1"/>
       <c r="M81" s="3"/>
       <c r="N81" s="1"/>
@@ -36659,8 +36666,8 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -36689,23 +36696,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="479"/>
-      <c r="C1" s="545" t="s">
+      <c r="B1" s="539"/>
+      <c r="C1" s="581" t="s">
         <v>323</v>
       </c>
-      <c r="D1" s="546"/>
-      <c r="E1" s="546"/>
-      <c r="F1" s="546"/>
-      <c r="G1" s="546"/>
-      <c r="H1" s="546"/>
-      <c r="I1" s="546"/>
-      <c r="J1" s="546"/>
-      <c r="K1" s="546"/>
-      <c r="L1" s="546"/>
-      <c r="M1" s="546"/>
+      <c r="D1" s="582"/>
+      <c r="E1" s="582"/>
+      <c r="F1" s="582"/>
+      <c r="G1" s="582"/>
+      <c r="H1" s="582"/>
+      <c r="I1" s="582"/>
+      <c r="J1" s="582"/>
+      <c r="K1" s="582"/>
+      <c r="L1" s="582"/>
+      <c r="M1" s="582"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="480"/>
+      <c r="B2" s="540"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -36715,24 +36722,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="483" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="484"/>
+      <c r="B3" s="543" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="544"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="485" t="s">
+      <c r="H3" s="545" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="485"/>
+      <c r="I3" s="545"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="522" t="s">
+      <c r="P3" s="569" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="543" t="s">
+      <c r="R3" s="579" t="s">
         <v>216</v>
       </c>
     </row>
@@ -36747,14 +36754,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="486" t="s">
+      <c r="E4" s="546" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="487"/>
-      <c r="H4" s="488" t="s">
+      <c r="F4" s="547"/>
+      <c r="H4" s="548" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="489"/>
+      <c r="I4" s="549"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -36764,15 +36771,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="523"/>
+      <c r="P4" s="570"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="544"/>
-      <c r="W4" s="532" t="s">
+      <c r="R4" s="580"/>
+      <c r="W4" s="552" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="532"/>
+      <c r="X4" s="552"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -36823,8 +36830,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="532"/>
-      <c r="X5" s="532"/>
+      <c r="W5" s="552"/>
+      <c r="X5" s="552"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -37585,7 +37592,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="536">
+      <c r="W19" s="556">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -37637,7 +37644,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="537"/>
+      <c r="W20" s="557"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -37686,8 +37693,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="538"/>
-      <c r="X21" s="538"/>
+      <c r="W21" s="558"/>
+      <c r="X21" s="558"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -37786,8 +37793,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="539"/>
-      <c r="X23" s="539"/>
+      <c r="W23" s="559"/>
+      <c r="X23" s="559"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -37842,8 +37849,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="539"/>
-      <c r="X24" s="539"/>
+      <c r="W24" s="559"/>
+      <c r="X24" s="559"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -37891,8 +37898,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="540"/>
-      <c r="X25" s="540"/>
+      <c r="W25" s="560"/>
+      <c r="X25" s="560"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -37940,8 +37947,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="540"/>
-      <c r="X26" s="540"/>
+      <c r="W26" s="560"/>
+      <c r="X26" s="560"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -37989,9 +37996,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="533"/>
-      <c r="X27" s="534"/>
-      <c r="Y27" s="535"/>
+      <c r="W27" s="553"/>
+      <c r="X27" s="554"/>
+      <c r="Y27" s="555"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -38039,9 +38046,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="534"/>
-      <c r="X28" s="534"/>
-      <c r="Y28" s="535"/>
+      <c r="W28" s="554"/>
+      <c r="X28" s="554"/>
+      <c r="Y28" s="555"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -38382,11 +38389,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="524">
+      <c r="M36" s="571">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="526">
+      <c r="N36" s="573">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -38394,7 +38401,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="562">
+      <c r="Q36" s="606">
         <f>SUM(Q5:Q35)</f>
         <v>111.43999999999505</v>
       </c>
@@ -38419,13 +38426,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="525"/>
-      <c r="N37" s="527"/>
+      <c r="M37" s="572"/>
+      <c r="N37" s="574"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="563"/>
+      <c r="Q37" s="607"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -38475,11 +38482,11 @@
       <c r="L39" s="61">
         <v>14981.03</v>
       </c>
-      <c r="M39" s="564">
+      <c r="M39" s="608">
         <f>M36+N36</f>
         <v>2934972.49</v>
       </c>
-      <c r="N39" s="565"/>
+      <c r="N39" s="609"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3450079.65</v>
@@ -38727,26 +38734,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="501" t="s">
+      <c r="H52" s="526" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="502"/>
+      <c r="I52" s="527"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="503">
+      <c r="K52" s="528">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="530"/>
+      <c r="L52" s="561"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="507" t="s">
+      <c r="D53" s="532" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="507"/>
+      <c r="E53" s="532"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -38755,22 +38762,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="531" t="s">
+      <c r="D54" s="562" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="531"/>
+      <c r="E54" s="562"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="508" t="s">
+      <c r="I54" s="533" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="509"/>
-      <c r="K54" s="510">
+      <c r="J54" s="534"/>
+      <c r="K54" s="535">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="510"/>
+      <c r="L54" s="535"/>
       <c r="M54" s="421"/>
       <c r="N54" s="421"/>
       <c r="O54" s="421"/>
@@ -38811,11 +38818,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="512">
+      <c r="K56" s="537">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="513"/>
+      <c r="L56" s="538"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -38832,22 +38839,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="490" t="s">
+      <c r="D58" s="515" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="491"/>
+      <c r="E58" s="516"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="492" t="s">
+      <c r="I58" s="517" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="493"/>
-      <c r="K58" s="494">
+      <c r="J58" s="518"/>
+      <c r="K58" s="519">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="494"/>
+      <c r="L58" s="519"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -38991,6 +38998,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -39007,20 +39028,6 @@
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="M39:N39"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.23" top="0.4" bottom="0.28000000000000003" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/BALANCE    ZAVALETA   MARZO  2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/BALANCE    ZAVALETA   MARZO  2022.xlsx
@@ -457,7 +457,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="627">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2323,6 +2323,21 @@
   </si>
   <si>
     <t>17134 C</t>
+  </si>
+  <si>
+    <t>23-mar-2022</t>
+  </si>
+  <si>
+    <t>24-mar-2022</t>
+  </si>
+  <si>
+    <t>25-mar-2022</t>
+  </si>
+  <si>
+    <t>26-mar-2022</t>
+  </si>
+  <si>
+    <t>JAMON</t>
   </si>
 </sst>
 </file>
@@ -2826,7 +2841,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2951,6 +2966,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00FF99"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
@@ -4257,7 +4278,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="641">
+  <cellXfs count="648">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -5293,6 +5314,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="21" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="86" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="22" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="22" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5671,6 +5702,7 @@
     <xf numFmtId="44" fontId="11" fillId="14" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="16" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -8668,23 +8700,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="539"/>
-      <c r="C1" s="541" t="s">
+      <c r="B1" s="545"/>
+      <c r="C1" s="547" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="542"/>
-      <c r="E1" s="542"/>
-      <c r="F1" s="542"/>
-      <c r="G1" s="542"/>
-      <c r="H1" s="542"/>
-      <c r="I1" s="542"/>
-      <c r="J1" s="542"/>
-      <c r="K1" s="542"/>
-      <c r="L1" s="542"/>
-      <c r="M1" s="542"/>
+      <c r="D1" s="548"/>
+      <c r="E1" s="548"/>
+      <c r="F1" s="548"/>
+      <c r="G1" s="548"/>
+      <c r="H1" s="548"/>
+      <c r="I1" s="548"/>
+      <c r="J1" s="548"/>
+      <c r="K1" s="548"/>
+      <c r="L1" s="548"/>
+      <c r="M1" s="548"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="540"/>
+      <c r="B2" s="546"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -8694,17 +8726,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="543" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="544"/>
+      <c r="B3" s="549" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="550"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="545" t="s">
+      <c r="H3" s="551" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="545"/>
+      <c r="I3" s="551"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -8718,14 +8750,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="546" t="s">
+      <c r="E4" s="552" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="547"/>
-      <c r="H4" s="548" t="s">
+      <c r="F4" s="553"/>
+      <c r="H4" s="554" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="549"/>
+      <c r="I4" s="555"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -8735,10 +8767,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="520" t="s">
+      <c r="P4" s="526" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="521"/>
+      <c r="Q4" s="527"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -10179,11 +10211,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="522">
+      <c r="M39" s="528">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="524">
+      <c r="N39" s="530">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -10209,8 +10241,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="523"/>
-      <c r="N40" s="525"/>
+      <c r="M40" s="529"/>
+      <c r="N40" s="531"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -10425,29 +10457,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="526" t="s">
+      <c r="H52" s="532" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="527"/>
+      <c r="I52" s="533"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="528">
+      <c r="K52" s="534">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="529"/>
-      <c r="M52" s="530">
+      <c r="L52" s="535"/>
+      <c r="M52" s="536">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="531"/>
+      <c r="N52" s="537"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="532" t="s">
+      <c r="D53" s="538" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="532"/>
+      <c r="E53" s="538"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -10458,22 +10490,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="532" t="s">
+      <c r="D54" s="538" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="532"/>
+      <c r="E54" s="538"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="533" t="s">
+      <c r="I54" s="539" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="534"/>
-      <c r="K54" s="535">
+      <c r="J54" s="540"/>
+      <c r="K54" s="541">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="536"/>
+      <c r="L54" s="542"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -10506,11 +10538,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="537">
+      <c r="K56" s="543">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="538"/>
+      <c r="L56" s="544"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -10527,22 +10559,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="515" t="s">
+      <c r="D58" s="521" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="516"/>
+      <c r="E58" s="522"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="517" t="s">
+      <c r="I58" s="523" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="518"/>
-      <c r="K58" s="519">
+      <c r="J58" s="524"/>
+      <c r="K58" s="525">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="519"/>
+      <c r="L58" s="525"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -10721,7 +10753,7 @@
   </sheetPr>
   <dimension ref="A1:N115"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
@@ -13166,10 +13198,10 @@
         <f t="shared" si="3"/>
         <v>188840.46999999997</v>
       </c>
-      <c r="I76" s="611" t="s">
+      <c r="I76" s="617" t="s">
         <v>604</v>
       </c>
-      <c r="J76" s="612"/>
+      <c r="J76" s="618"/>
       <c r="K76" s="69"/>
       <c r="L76" s="148"/>
       <c r="M76" s="69"/>
@@ -13188,8 +13220,8 @@
         <f t="shared" si="3"/>
         <v>188840.46999999997</v>
       </c>
-      <c r="I77" s="613"/>
-      <c r="J77" s="614"/>
+      <c r="I77" s="619"/>
+      <c r="J77" s="620"/>
       <c r="K77" s="69"/>
       <c r="L77" s="148"/>
       <c r="M77" s="69"/>
@@ -13256,7 +13288,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="577" t="s">
+      <c r="F80" s="583" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -13271,7 +13303,7 @@
       <c r="C81" s="480"/>
       <c r="D81" s="481"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="578"/>
+      <c r="F81" s="584"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -13279,10 +13311,10 @@
     </row>
     <row r="82" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="452"/>
-      <c r="B82" s="610" t="s">
+      <c r="B82" s="616" t="s">
         <v>602</v>
       </c>
-      <c r="C82" s="610"/>
+      <c r="C82" s="616"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
     </row>
@@ -13534,8 +13566,8 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13564,23 +13596,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="539"/>
-      <c r="C1" s="581" t="s">
+      <c r="B1" s="545"/>
+      <c r="C1" s="587" t="s">
         <v>458</v>
       </c>
-      <c r="D1" s="582"/>
-      <c r="E1" s="582"/>
-      <c r="F1" s="582"/>
-      <c r="G1" s="582"/>
-      <c r="H1" s="582"/>
-      <c r="I1" s="582"/>
-      <c r="J1" s="582"/>
-      <c r="K1" s="582"/>
-      <c r="L1" s="582"/>
-      <c r="M1" s="582"/>
+      <c r="D1" s="588"/>
+      <c r="E1" s="588"/>
+      <c r="F1" s="588"/>
+      <c r="G1" s="588"/>
+      <c r="H1" s="588"/>
+      <c r="I1" s="588"/>
+      <c r="J1" s="588"/>
+      <c r="K1" s="588"/>
+      <c r="L1" s="588"/>
+      <c r="M1" s="588"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="540"/>
+      <c r="B2" s="546"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -13590,24 +13622,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="543" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="544"/>
+      <c r="B3" s="549" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="550"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="545" t="s">
+      <c r="H3" s="551" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="545"/>
+      <c r="I3" s="551"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="569" t="s">
+      <c r="P3" s="575" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="579" t="s">
+      <c r="R3" s="585" t="s">
         <v>216</v>
       </c>
     </row>
@@ -13622,14 +13654,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="546" t="s">
+      <c r="E4" s="552" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="547"/>
-      <c r="H4" s="548" t="s">
+      <c r="F4" s="553"/>
+      <c r="H4" s="554" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="549"/>
+      <c r="I4" s="555"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -13639,15 +13671,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="570"/>
+      <c r="P4" s="576"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="580"/>
-      <c r="W4" s="552" t="s">
+      <c r="R4" s="586"/>
+      <c r="W4" s="558" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="552"/>
+      <c r="X4" s="558"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -13679,7 +13711,7 @@
       <c r="J5" s="37"/>
       <c r="K5" s="31"/>
       <c r="L5" s="9"/>
-      <c r="M5" s="32">
+      <c r="M5" s="647">
         <v>52267</v>
       </c>
       <c r="N5" s="33">
@@ -13698,8 +13730,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="552"/>
-      <c r="X5" s="552"/>
+      <c r="W5" s="558"/>
+      <c r="X5" s="558"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -13729,7 +13761,7 @@
       <c r="J6" s="37"/>
       <c r="K6" s="38"/>
       <c r="L6" s="39"/>
-      <c r="M6" s="32">
+      <c r="M6" s="647">
         <v>33586.5</v>
       </c>
       <c r="N6" s="33">
@@ -13783,7 +13815,7 @@
       <c r="J7" s="37"/>
       <c r="K7" s="38"/>
       <c r="L7" s="39"/>
-      <c r="M7" s="32">
+      <c r="M7" s="647">
         <v>38157</v>
       </c>
       <c r="N7" s="33">
@@ -13838,7 +13870,7 @@
       <c r="J8" s="43"/>
       <c r="K8" s="38"/>
       <c r="L8" s="39"/>
-      <c r="M8" s="32">
+      <c r="M8" s="647">
         <f>31611+1120</f>
         <v>32731</v>
       </c>
@@ -13895,7 +13927,7 @@
       <c r="J9" s="37"/>
       <c r="K9" s="223"/>
       <c r="L9" s="39"/>
-      <c r="M9" s="32">
+      <c r="M9" s="647">
         <v>57014</v>
       </c>
       <c r="N9" s="33">
@@ -13956,7 +13988,7 @@
       <c r="L10" s="45">
         <v>12109.41</v>
       </c>
-      <c r="M10" s="32">
+      <c r="M10" s="647">
         <v>38720</v>
       </c>
       <c r="N10" s="33">
@@ -14012,7 +14044,7 @@
       <c r="J11" s="43"/>
       <c r="K11" s="168"/>
       <c r="L11" s="39"/>
-      <c r="M11" s="32">
+      <c r="M11" s="647">
         <v>62058</v>
       </c>
       <c r="N11" s="33">
@@ -14068,7 +14100,7 @@
       <c r="J12" s="37"/>
       <c r="K12" s="169"/>
       <c r="L12" s="39"/>
-      <c r="M12" s="32">
+      <c r="M12" s="647">
         <v>20493.5</v>
       </c>
       <c r="N12" s="33">
@@ -14125,7 +14157,7 @@
       <c r="J13" s="37"/>
       <c r="K13" s="38"/>
       <c r="L13" s="39"/>
-      <c r="M13" s="32">
+      <c r="M13" s="647">
         <v>41442.5</v>
       </c>
       <c r="N13" s="33">
@@ -14179,7 +14211,7 @@
       <c r="J14" s="37"/>
       <c r="K14" s="38"/>
       <c r="L14" s="39"/>
-      <c r="M14" s="32">
+      <c r="M14" s="647">
         <f>70135.5+580.16+6869</f>
         <v>77584.66</v>
       </c>
@@ -14232,7 +14264,7 @@
       <c r="J15" s="37"/>
       <c r="K15" s="38"/>
       <c r="L15" s="39"/>
-      <c r="M15" s="32">
+      <c r="M15" s="647">
         <v>47170</v>
       </c>
       <c r="N15" s="33">
@@ -14283,7 +14315,7 @@
       <c r="J16" s="37"/>
       <c r="K16" s="169"/>
       <c r="L16" s="9"/>
-      <c r="M16" s="32">
+      <c r="M16" s="647">
         <v>60292.5</v>
       </c>
       <c r="N16" s="33">
@@ -14341,7 +14373,7 @@
       <c r="L17" s="45">
         <v>18054.02</v>
       </c>
-      <c r="M17" s="32">
+      <c r="M17" s="647">
         <v>55203</v>
       </c>
       <c r="N17" s="33">
@@ -14392,7 +14424,7 @@
       <c r="J18" s="37"/>
       <c r="K18" s="170"/>
       <c r="L18" s="39"/>
-      <c r="M18" s="32">
+      <c r="M18" s="647">
         <v>47814</v>
       </c>
       <c r="N18" s="33">
@@ -14443,7 +14475,7 @@
       <c r="J19" s="37"/>
       <c r="K19" s="46"/>
       <c r="L19" s="47"/>
-      <c r="M19" s="32">
+      <c r="M19" s="647">
         <f>30013+8142</f>
         <v>38155</v>
       </c>
@@ -14462,7 +14494,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="556">
+      <c r="W19" s="562">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -14496,7 +14528,7 @@
       <c r="J20" s="37"/>
       <c r="K20" s="171"/>
       <c r="L20" s="45"/>
-      <c r="M20" s="32">
+      <c r="M20" s="647">
         <v>33949</v>
       </c>
       <c r="N20" s="33">
@@ -14514,7 +14546,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="557"/>
+      <c r="W20" s="563"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -14545,7 +14577,7 @@
       <c r="J21" s="37"/>
       <c r="K21" s="48"/>
       <c r="L21" s="45"/>
-      <c r="M21" s="32">
+      <c r="M21" s="647">
         <v>65434</v>
       </c>
       <c r="N21" s="33">
@@ -14563,8 +14595,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="558"/>
-      <c r="X21" s="558"/>
+      <c r="W21" s="564"/>
+      <c r="X21" s="564"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -14595,7 +14627,7 @@
       <c r="J22" s="37"/>
       <c r="K22" s="31"/>
       <c r="L22" s="49"/>
-      <c r="M22" s="32">
+      <c r="M22" s="647">
         <f>642+62879</f>
         <v>63521</v>
       </c>
@@ -14646,7 +14678,7 @@
       <c r="J23" s="50"/>
       <c r="K23" s="172"/>
       <c r="L23" s="45"/>
-      <c r="M23" s="32">
+      <c r="M23" s="647">
         <v>53950</v>
       </c>
       <c r="N23" s="33">
@@ -14664,8 +14696,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="559"/>
-      <c r="X23" s="559"/>
+      <c r="W23" s="565"/>
+      <c r="X23" s="565"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -14702,7 +14734,7 @@
       <c r="L24" s="52">
         <v>20799.990000000002</v>
       </c>
-      <c r="M24" s="32">
+      <c r="M24" s="647">
         <v>28076</v>
       </c>
       <c r="N24" s="33">
@@ -14720,8 +14752,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="559"/>
-      <c r="X24" s="559"/>
+      <c r="W24" s="565"/>
+      <c r="X24" s="565"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -14752,7 +14784,7 @@
       <c r="J25" s="50"/>
       <c r="K25" s="38"/>
       <c r="L25" s="54"/>
-      <c r="M25" s="32">
+      <c r="M25" s="647">
         <v>47560.5</v>
       </c>
       <c r="N25" s="33">
@@ -14769,8 +14801,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="560"/>
-      <c r="X25" s="560"/>
+      <c r="W25" s="566"/>
+      <c r="X25" s="566"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -14801,7 +14833,7 @@
       <c r="J26" s="37"/>
       <c r="K26" s="173"/>
       <c r="L26" s="45"/>
-      <c r="M26" s="32">
+      <c r="M26" s="647">
         <v>36536</v>
       </c>
       <c r="N26" s="33">
@@ -14819,8 +14851,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="560"/>
-      <c r="X26" s="560"/>
+      <c r="W26" s="566"/>
+      <c r="X26" s="566"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -14851,7 +14883,7 @@
       <c r="J27" s="55"/>
       <c r="K27" s="174"/>
       <c r="L27" s="54"/>
-      <c r="M27" s="32">
+      <c r="M27" s="647">
         <v>42310.5</v>
       </c>
       <c r="N27" s="33">
@@ -14868,9 +14900,9 @@
       <c r="R27" s="405">
         <v>170</v>
       </c>
-      <c r="W27" s="553"/>
-      <c r="X27" s="554"/>
-      <c r="Y27" s="555"/>
+      <c r="W27" s="559"/>
+      <c r="X27" s="560"/>
+      <c r="Y27" s="561"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -14900,7 +14932,7 @@
       <c r="J28" s="56"/>
       <c r="K28" s="57"/>
       <c r="L28" s="54"/>
-      <c r="M28" s="32">
+      <c r="M28" s="647">
         <f>49352+673725.34+200000+33828.02</f>
         <v>956905.36</v>
       </c>
@@ -14918,9 +14950,9 @@
       <c r="R28" s="405">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="554"/>
-      <c r="X28" s="554"/>
-      <c r="Y28" s="555"/>
+      <c r="W28" s="560"/>
+      <c r="X28" s="560"/>
+      <c r="Y28" s="561"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -14950,7 +14982,7 @@
       <c r="J29" s="59"/>
       <c r="K29" s="175"/>
       <c r="L29" s="54"/>
-      <c r="M29" s="32">
+      <c r="M29" s="647">
         <f>642+79978</f>
         <v>80620</v>
       </c>
@@ -15005,7 +15037,7 @@
       <c r="J30" s="60"/>
       <c r="K30" s="41"/>
       <c r="L30" s="61"/>
-      <c r="M30" s="32">
+      <c r="M30" s="647">
         <v>48450</v>
       </c>
       <c r="N30" s="33">
@@ -15062,7 +15094,7 @@
       <c r="L31" s="477">
         <v>19492.72</v>
       </c>
-      <c r="M31" s="32">
+      <c r="M31" s="647">
         <v>28431</v>
       </c>
       <c r="N31" s="33">
@@ -15111,7 +15143,7 @@
       <c r="J32" s="60"/>
       <c r="K32" s="41"/>
       <c r="L32" s="61"/>
-      <c r="M32" s="32">
+      <c r="M32" s="647">
         <v>32180</v>
       </c>
       <c r="N32" s="33">
@@ -15168,9 +15200,15 @@
     </row>
     <row r="34" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="23"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="64"/>
+      <c r="B34" s="24">
+        <v>44623</v>
+      </c>
+      <c r="C34" s="25">
+        <v>2564.8000000000002</v>
+      </c>
+      <c r="D34" s="64" t="s">
+        <v>626</v>
+      </c>
       <c r="E34" s="27"/>
       <c r="F34" s="28"/>
       <c r="G34" s="2"/>
@@ -15197,9 +15235,15 @@
     </row>
     <row r="35" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="23"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="65"/>
+      <c r="B35" s="24">
+        <v>44624</v>
+      </c>
+      <c r="C35" s="25">
+        <v>350000</v>
+      </c>
+      <c r="D35" s="65" t="s">
+        <v>49</v>
+      </c>
       <c r="E35" s="27"/>
       <c r="F35" s="28"/>
       <c r="G35" s="2"/>
@@ -15223,9 +15267,15 @@
     </row>
     <row r="36" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="23"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="62"/>
+      <c r="B36" s="24">
+        <v>44629</v>
+      </c>
+      <c r="C36" s="25">
+        <v>346259.20000000001</v>
+      </c>
+      <c r="D36" s="62" t="s">
+        <v>49</v>
+      </c>
       <c r="E36" s="27"/>
       <c r="F36" s="28"/>
       <c r="G36" s="2"/>
@@ -15234,11 +15284,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="571">
+      <c r="M36" s="577">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="573">
+      <c r="N36" s="579">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -15246,7 +15296,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="606">
+      <c r="Q36" s="612">
         <f>SUM(Q5:Q35)</f>
         <v>8.3000000000320142</v>
       </c>
@@ -15254,9 +15304,15 @@
     </row>
     <row r="37" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="23"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="65"/>
+      <c r="B37" s="24">
+        <v>44645</v>
+      </c>
+      <c r="C37" s="25">
+        <v>350000</v>
+      </c>
+      <c r="D37" s="65" t="s">
+        <v>49</v>
+      </c>
       <c r="E37" s="27"/>
       <c r="F37" s="28"/>
       <c r="G37" s="2"/>
@@ -15265,22 +15321,29 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="572"/>
-      <c r="N37" s="574"/>
+      <c r="M37" s="578"/>
+      <c r="N37" s="580"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="607"/>
+      <c r="Q37" s="613"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="65"/>
+      <c r="B38" s="24">
+        <v>44651</v>
+      </c>
+      <c r="C38" s="25">
+        <f>13429.46+396419.2</f>
+        <v>409848.66000000003</v>
+      </c>
+      <c r="D38" s="65" t="s">
+        <v>49</v>
+      </c>
       <c r="E38" s="27"/>
       <c r="F38" s="28"/>
       <c r="G38" s="2"/>
@@ -15309,11 +15372,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="608">
+      <c r="M39" s="614">
         <f>M36+N36</f>
         <v>3054477.02</v>
       </c>
-      <c r="N39" s="609"/>
+      <c r="N39" s="615"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3627989.66</v>
@@ -15531,7 +15594,7 @@
       </c>
       <c r="C50" s="87">
         <f>SUM(C5:C49)</f>
-        <v>419194</v>
+        <v>1877866.6600000001</v>
       </c>
       <c r="D50" s="88"/>
       <c r="E50" s="89" t="s">
@@ -15573,50 +15636,50 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="526" t="s">
+      <c r="H52" s="532" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="527"/>
+      <c r="I52" s="533"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="528">
+      <c r="K52" s="534">
         <f>I50+L50</f>
         <v>217159.4</v>
       </c>
-      <c r="L52" s="561"/>
+      <c r="L52" s="567"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="532" t="s">
+      <c r="D53" s="538" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="532"/>
+      <c r="E53" s="538"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
-        <v>2911914.6</v>
+        <v>1453241.94</v>
       </c>
       <c r="I53" s="102"/>
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="562" t="s">
+      <c r="D54" s="568" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="562"/>
+      <c r="E54" s="568"/>
       <c r="F54" s="111">
-        <v>0</v>
-      </c>
-      <c r="I54" s="533" t="s">
+        <v>-1360260.32</v>
+      </c>
+      <c r="I54" s="539" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="534"/>
-      <c r="K54" s="535">
+      <c r="J54" s="540"/>
+      <c r="K54" s="541">
         <f>F56+F57+F58</f>
-        <v>4704732.28</v>
-      </c>
-      <c r="L54" s="535"/>
+        <v>1797288.1999999997</v>
+      </c>
+      <c r="L54" s="541"/>
       <c r="M54" s="421"/>
       <c r="N54" s="421"/>
       <c r="O54" s="421"/>
@@ -15629,7 +15692,7 @@
       </c>
       <c r="E55" s="314"/>
       <c r="F55" s="315">
-        <v>0</v>
+        <v>-206286.1</v>
       </c>
       <c r="I55" s="105"/>
       <c r="J55" s="106"/>
@@ -15650,18 +15713,18 @@
       </c>
       <c r="F56" s="96">
         <f>SUM(F53:F55)</f>
-        <v>2911914.6</v>
+        <v>-113304.48000000013</v>
       </c>
       <c r="H56" s="23"/>
       <c r="I56" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="537">
+      <c r="K56" s="543">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L56" s="538"/>
+      <c r="L56" s="544"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -15671,29 +15734,29 @@
         <v>17</v>
       </c>
       <c r="F57" s="111">
-        <v>0</v>
+        <v>117775</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C58" s="112">
         <v>44647</v>
       </c>
-      <c r="D58" s="515" t="s">
+      <c r="D58" s="521" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="516"/>
+      <c r="E58" s="522"/>
       <c r="F58" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I58" s="517" t="s">
+      <c r="I58" s="523" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="518"/>
-      <c r="K58" s="519">
+      <c r="J58" s="524"/>
+      <c r="K58" s="525">
         <f>K54+K56</f>
-        <v>3438163.83</v>
-      </c>
-      <c r="L58" s="519"/>
+        <v>530719.74999999977</v>
+      </c>
+      <c r="L58" s="525"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -15882,8 +15945,8 @@
   </sheetPr>
   <dimension ref="A1:N115"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16826,14 +16889,20 @@
         <f t="shared" si="0"/>
         <v>51776.46</v>
       </c>
-      <c r="I25" s="370"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="111"/>
+      <c r="I25" s="515" t="s">
+        <v>622</v>
+      </c>
+      <c r="J25" s="516">
+        <v>8832</v>
+      </c>
+      <c r="K25" s="517">
+        <v>36766.699999999997</v>
+      </c>
       <c r="L25" s="493"/>
       <c r="M25" s="111"/>
       <c r="N25" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>36766.699999999997</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -16852,14 +16921,20 @@
         <f t="shared" si="0"/>
         <v>87124.5</v>
       </c>
-      <c r="I26" s="370"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="111"/>
+      <c r="I26" s="518" t="s">
+        <v>622</v>
+      </c>
+      <c r="J26" s="519">
+        <v>8834</v>
+      </c>
+      <c r="K26" s="520">
+        <v>6425.6</v>
+      </c>
       <c r="L26" s="493"/>
       <c r="M26" s="111"/>
       <c r="N26" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>43192.299999999996</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -16878,14 +16953,20 @@
         <f t="shared" si="0"/>
         <v>67449.740000000005</v>
       </c>
-      <c r="I27" s="370"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="111"/>
+      <c r="I27" s="518" t="s">
+        <v>623</v>
+      </c>
+      <c r="J27" s="519">
+        <v>8837</v>
+      </c>
+      <c r="K27" s="520">
+        <v>360</v>
+      </c>
       <c r="L27" s="493"/>
       <c r="M27" s="111"/>
       <c r="N27" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>43552.299999999996</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -16904,14 +16985,20 @@
         <f t="shared" si="0"/>
         <v>4430.8</v>
       </c>
-      <c r="I28" s="370"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="111"/>
+      <c r="I28" s="515" t="s">
+        <v>624</v>
+      </c>
+      <c r="J28" s="516">
+        <v>8849</v>
+      </c>
+      <c r="K28" s="517">
+        <v>23962.400000000001</v>
+      </c>
       <c r="L28" s="493"/>
       <c r="M28" s="111"/>
       <c r="N28" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>67514.7</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -16930,14 +17017,20 @@
         <f t="shared" si="0"/>
         <v>6400</v>
       </c>
-      <c r="I29" s="370"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="111"/>
+      <c r="I29" s="515" t="s">
+        <v>625</v>
+      </c>
+      <c r="J29" s="516">
+        <v>8859</v>
+      </c>
+      <c r="K29" s="517">
+        <v>180</v>
+      </c>
       <c r="L29" s="493"/>
       <c r="M29" s="111"/>
       <c r="N29" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>67694.7</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -16957,14 +17050,20 @@
         <v>129051.65</v>
       </c>
       <c r="G30" s="138"/>
-      <c r="I30" s="370"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="111"/>
+      <c r="I30" s="518" t="s">
+        <v>625</v>
+      </c>
+      <c r="J30" s="519">
+        <v>8863</v>
+      </c>
+      <c r="K30" s="520">
+        <v>44504</v>
+      </c>
       <c r="L30" s="493"/>
       <c r="M30" s="69"/>
       <c r="N30" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>112198.7</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -16990,7 +17089,7 @@
       <c r="M31" s="69"/>
       <c r="N31" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>112198.7</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -17016,7 +17115,7 @@
       <c r="M32" s="69"/>
       <c r="N32" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>112198.7</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -17042,7 +17141,7 @@
       <c r="M33" s="69"/>
       <c r="N33" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>112198.7</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -17068,7 +17167,7 @@
       <c r="M34" s="69"/>
       <c r="N34" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>112198.7</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -17094,7 +17193,7 @@
       <c r="M35" s="69"/>
       <c r="N35" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>112198.7</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -17120,7 +17219,7 @@
       <c r="M36" s="69"/>
       <c r="N36" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>112198.7</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -17146,7 +17245,7 @@
       <c r="M37" s="69"/>
       <c r="N37" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>112198.7</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -17166,7 +17265,7 @@
       <c r="M38" s="69"/>
       <c r="N38" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>112198.7</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -17186,7 +17285,7 @@
       <c r="M39" s="69"/>
       <c r="N39" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>112198.7</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -17206,7 +17305,7 @@
       <c r="M40" s="69"/>
       <c r="N40" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>112198.7</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -17226,7 +17325,7 @@
       <c r="M41" s="69"/>
       <c r="N41" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>112198.7</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -17246,7 +17345,7 @@
       <c r="M42" s="69"/>
       <c r="N42" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>112198.7</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -17266,7 +17365,7 @@
       <c r="M43" s="69"/>
       <c r="N43" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>112198.7</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17286,7 +17385,7 @@
       <c r="M44" s="69"/>
       <c r="N44" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>112198.7</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -17306,7 +17405,7 @@
       <c r="M45" s="69"/>
       <c r="N45" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>112198.7</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -17326,7 +17425,7 @@
       <c r="M46" s="69"/>
       <c r="N46" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>112198.7</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -17346,7 +17445,7 @@
       <c r="M47" s="215"/>
       <c r="N47" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>112198.7</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -17366,7 +17465,7 @@
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
-        <v>0</v>
+        <v>112198.7</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -17386,7 +17485,7 @@
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>112198.7</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -17408,7 +17507,7 @@
       <c r="M50" s="69"/>
       <c r="N50" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>112198.7</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17428,7 +17527,7 @@
       <c r="M51" s="69"/>
       <c r="N51" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>112198.7</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17448,7 +17547,7 @@
       <c r="M52" s="69"/>
       <c r="N52" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>112198.7</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17468,7 +17567,7 @@
       <c r="M53" s="69"/>
       <c r="N53" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>112198.7</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17488,7 +17587,7 @@
       <c r="M54" s="69"/>
       <c r="N54" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>112198.7</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17508,7 +17607,7 @@
       <c r="M55" s="69"/>
       <c r="N55" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>112198.7</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17528,7 +17627,7 @@
       <c r="M56" s="69"/>
       <c r="N56" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>112198.7</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17548,7 +17647,7 @@
       <c r="M57" s="69"/>
       <c r="N57" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>112198.7</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17568,7 +17667,7 @@
       <c r="M58" s="69"/>
       <c r="N58" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>112198.7</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17588,7 +17687,7 @@
       <c r="M59" s="69"/>
       <c r="N59" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>112198.7</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17608,7 +17707,7 @@
       <c r="M60" s="69"/>
       <c r="N60" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>112198.7</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17628,7 +17727,7 @@
       <c r="M61" s="69"/>
       <c r="N61" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>112198.7</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17648,7 +17747,7 @@
       <c r="M62" s="34"/>
       <c r="N62" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>112198.7</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17668,7 +17767,7 @@
       <c r="M63" s="34"/>
       <c r="N63" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>112198.7</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17688,7 +17787,7 @@
       <c r="M64" s="34"/>
       <c r="N64" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>112198.7</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17708,7 +17807,7 @@
       <c r="M65" s="34"/>
       <c r="N65" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>112198.7</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17728,7 +17827,7 @@
       <c r="M66" s="34"/>
       <c r="N66" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>112198.7</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17748,7 +17847,7 @@
       <c r="M67" s="34"/>
       <c r="N67" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>112198.7</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17768,7 +17867,7 @@
       <c r="M68" s="69"/>
       <c r="N68" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>112198.7</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17788,7 +17887,7 @@
       <c r="M69" s="69"/>
       <c r="N69" s="137">
         <f t="shared" ref="N69:N78" si="3">N68+K69-M69</f>
-        <v>0</v>
+        <v>112198.7</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17808,7 +17907,7 @@
       <c r="M70" s="69"/>
       <c r="N70" s="137">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>112198.7</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17828,7 +17927,7 @@
       <c r="M71" s="69"/>
       <c r="N71" s="137">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>112198.7</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17848,7 +17947,7 @@
       <c r="M72" s="69"/>
       <c r="N72" s="137">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>112198.7</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17868,7 +17967,7 @@
       <c r="M73" s="69"/>
       <c r="N73" s="137">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>112198.7</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17888,7 +17987,7 @@
       <c r="M74" s="69"/>
       <c r="N74" s="137">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>112198.7</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17908,7 +18007,7 @@
       <c r="M75" s="69"/>
       <c r="N75" s="137">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>112198.7</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17928,7 +18027,7 @@
       <c r="M76" s="69"/>
       <c r="N76" s="137">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>112198.7</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17948,7 +18047,7 @@
       <c r="M77" s="69"/>
       <c r="N77" s="137">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>112198.7</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -17972,7 +18071,7 @@
       <c r="M78" s="151"/>
       <c r="N78" s="137">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>112198.7</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -17992,7 +18091,7 @@
       </c>
       <c r="K79" s="209">
         <f>SUM(K3:K78)</f>
-        <v>94087.4</v>
+        <v>206286.09999999998</v>
       </c>
       <c r="L79" s="495"/>
       <c r="M79" s="209">
@@ -18001,7 +18100,7 @@
       </c>
       <c r="N79" s="153">
         <f>N78</f>
-        <v>0</v>
+        <v>112198.7</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18009,7 +18108,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="577" t="s">
+      <c r="F80" s="583" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -18022,7 +18121,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="578"/>
+      <c r="F81" s="584"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -18042,16 +18141,16 @@
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="473"/>
       <c r="B83" s="459"/>
-      <c r="I83" s="615" t="s">
+      <c r="I83" s="621" t="s">
         <v>601</v>
       </c>
-      <c r="J83" s="616"/>
+      <c r="J83" s="622"/>
     </row>
     <row r="84" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="473"/>
       <c r="B84" s="459"/>
-      <c r="I84" s="617"/>
-      <c r="J84" s="618"/>
+      <c r="I84" s="623"/>
+      <c r="J84" s="624"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="473"/>
@@ -18346,11 +18445,11 @@
   <sheetData>
     <row r="1" spans="2:6" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="155"/>
-      <c r="C1" s="625" t="s">
+      <c r="C1" s="631" t="s">
         <v>320</v>
       </c>
-      <c r="D1" s="625"/>
-      <c r="E1" s="626"/>
+      <c r="D1" s="631"/>
+      <c r="E1" s="632"/>
       <c r="F1" s="385"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -18368,12 +18467,12 @@
       <c r="F3" s="392"/>
     </row>
     <row r="4" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="627" t="s">
+      <c r="B4" s="633" t="s">
         <v>316</v>
       </c>
-      <c r="C4" s="628"/>
-      <c r="D4" s="628"/>
-      <c r="E4" s="628"/>
+      <c r="C4" s="634"/>
+      <c r="D4" s="634"/>
+      <c r="E4" s="634"/>
       <c r="F4" s="393">
         <v>499853.16</v>
       </c>
@@ -18388,12 +18487,12 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="629" t="s">
+      <c r="B6" s="635" t="s">
         <v>317</v>
       </c>
-      <c r="C6" s="630"/>
-      <c r="D6" s="630"/>
-      <c r="E6" s="630"/>
+      <c r="C6" s="636"/>
+      <c r="D6" s="636"/>
+      <c r="E6" s="636"/>
       <c r="F6" s="393">
         <v>781251.72</v>
       </c>
@@ -18411,10 +18510,10 @@
       <c r="B8" s="386"/>
       <c r="C8" s="379"/>
       <c r="D8" s="380"/>
-      <c r="E8" s="631" t="s">
+      <c r="E8" s="637" t="s">
         <v>315</v>
       </c>
-      <c r="F8" s="633">
+      <c r="F8" s="639">
         <f>SUM(F4:F7)</f>
         <v>1281104.8799999999</v>
       </c>
@@ -18423,8 +18522,8 @@
       <c r="B9" s="386"/>
       <c r="C9" s="379"/>
       <c r="D9" s="380"/>
-      <c r="E9" s="632"/>
-      <c r="F9" s="634"/>
+      <c r="E9" s="638"/>
+      <c r="F9" s="640"/>
     </row>
     <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="386"/>
@@ -18448,12 +18547,12 @@
       <c r="F12" s="392"/>
     </row>
     <row r="13" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="635" t="s">
+      <c r="B13" s="641" t="s">
         <v>318</v>
       </c>
-      <c r="C13" s="636"/>
-      <c r="D13" s="636"/>
-      <c r="E13" s="636"/>
+      <c r="C13" s="642"/>
+      <c r="D13" s="642"/>
+      <c r="E13" s="642"/>
       <c r="F13" s="393">
         <v>255460.4</v>
       </c>
@@ -18468,12 +18567,12 @@
       </c>
     </row>
     <row r="15" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="635" t="s">
+      <c r="B15" s="641" t="s">
         <v>319</v>
       </c>
-      <c r="C15" s="636"/>
-      <c r="D15" s="636"/>
-      <c r="E15" s="636"/>
+      <c r="C15" s="642"/>
+      <c r="D15" s="642"/>
+      <c r="E15" s="642"/>
       <c r="F15" s="393">
         <v>6037.34</v>
       </c>
@@ -18491,10 +18590,10 @@
       <c r="B17" s="386"/>
       <c r="C17" s="379"/>
       <c r="D17" s="380"/>
-      <c r="E17" s="637" t="s">
+      <c r="E17" s="643" t="s">
         <v>315</v>
       </c>
-      <c r="F17" s="639">
+      <c r="F17" s="645">
         <f>SUM(F13:F16)</f>
         <v>261497.74</v>
       </c>
@@ -18503,8 +18602,8 @@
       <c r="B18" s="386"/>
       <c r="C18" s="379"/>
       <c r="D18" s="380"/>
-      <c r="E18" s="638"/>
-      <c r="F18" s="640"/>
+      <c r="E18" s="644"/>
+      <c r="F18" s="646"/>
     </row>
     <row r="19" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="386"/>
@@ -18528,22 +18627,22 @@
       <c r="F21" s="392"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="619" t="s">
+      <c r="B22" s="625" t="s">
         <v>321</v>
       </c>
-      <c r="C22" s="620"/>
-      <c r="D22" s="620"/>
-      <c r="E22" s="620"/>
-      <c r="F22" s="623">
+      <c r="C22" s="626"/>
+      <c r="D22" s="626"/>
+      <c r="E22" s="626"/>
+      <c r="F22" s="629">
         <v>12020</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="621"/>
-      <c r="C23" s="622"/>
-      <c r="D23" s="622"/>
-      <c r="E23" s="622"/>
-      <c r="F23" s="624"/>
+      <c r="B23" s="627"/>
+      <c r="C23" s="628"/>
+      <c r="D23" s="628"/>
+      <c r="E23" s="628"/>
+      <c r="F23" s="630"/>
     </row>
     <row r="24" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="354"/>
@@ -19903,7 +20002,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="550" t="s">
+      <c r="B41" s="556" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -19935,7 +20034,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="551"/>
+      <c r="B42" s="557"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -21531,23 +21630,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="539"/>
-      <c r="C1" s="541" t="s">
+      <c r="B1" s="545"/>
+      <c r="C1" s="547" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="542"/>
-      <c r="E1" s="542"/>
-      <c r="F1" s="542"/>
-      <c r="G1" s="542"/>
-      <c r="H1" s="542"/>
-      <c r="I1" s="542"/>
-      <c r="J1" s="542"/>
-      <c r="K1" s="542"/>
-      <c r="L1" s="542"/>
-      <c r="M1" s="542"/>
+      <c r="D1" s="548"/>
+      <c r="E1" s="548"/>
+      <c r="F1" s="548"/>
+      <c r="G1" s="548"/>
+      <c r="H1" s="548"/>
+      <c r="I1" s="548"/>
+      <c r="J1" s="548"/>
+      <c r="K1" s="548"/>
+      <c r="L1" s="548"/>
+      <c r="M1" s="548"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="540"/>
+      <c r="B2" s="546"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -21557,21 +21656,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="543" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="544"/>
+      <c r="B3" s="549" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="550"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="545" t="s">
+      <c r="H3" s="551" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="545"/>
+      <c r="I3" s="551"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="569" t="s">
+      <c r="P3" s="575" t="s">
         <v>6</v>
       </c>
     </row>
@@ -21586,14 +21685,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="546" t="s">
+      <c r="E4" s="552" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="547"/>
-      <c r="H4" s="548" t="s">
+      <c r="F4" s="553"/>
+      <c r="H4" s="554" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="549"/>
+      <c r="I4" s="555"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -21603,14 +21702,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="570"/>
+      <c r="P4" s="576"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="552" t="s">
+      <c r="W4" s="558" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="552"/>
+      <c r="X4" s="558"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21661,8 +21760,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="552"/>
-      <c r="X5" s="552"/>
+      <c r="W5" s="558"/>
+      <c r="X5" s="558"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22433,7 +22532,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="556">
+      <c r="W19" s="562">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -22485,7 +22584,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="557"/>
+      <c r="W20" s="563"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -22534,8 +22633,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="558"/>
-      <c r="X21" s="558"/>
+      <c r="W21" s="564"/>
+      <c r="X21" s="564"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -22636,8 +22735,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="559"/>
-      <c r="X23" s="559"/>
+      <c r="W23" s="565"/>
+      <c r="X23" s="565"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -22691,8 +22790,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="559"/>
-      <c r="X24" s="559"/>
+      <c r="W24" s="565"/>
+      <c r="X24" s="565"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -22738,8 +22837,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="560"/>
-      <c r="X25" s="560"/>
+      <c r="W25" s="566"/>
+      <c r="X25" s="566"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -22790,8 +22889,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="560"/>
-      <c r="X26" s="560"/>
+      <c r="W26" s="566"/>
+      <c r="X26" s="566"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -22839,9 +22938,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="553"/>
-      <c r="X27" s="554"/>
-      <c r="Y27" s="555"/>
+      <c r="W27" s="559"/>
+      <c r="X27" s="560"/>
+      <c r="Y27" s="561"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22891,9 +22990,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="554"/>
-      <c r="X28" s="554"/>
-      <c r="Y28" s="555"/>
+      <c r="W28" s="560"/>
+      <c r="X28" s="560"/>
+      <c r="Y28" s="561"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -23228,11 +23327,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="571">
+      <c r="M36" s="577">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="573">
+      <c r="N36" s="579">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -23240,7 +23339,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="575">
+      <c r="Q36" s="581">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -23275,13 +23374,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="572"/>
-      <c r="N37" s="574"/>
+      <c r="M37" s="578"/>
+      <c r="N37" s="580"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="576"/>
+      <c r="Q37" s="582"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -23571,26 +23670,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="526" t="s">
+      <c r="H52" s="532" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="527"/>
+      <c r="I52" s="533"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="528">
+      <c r="K52" s="534">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="561"/>
+      <c r="L52" s="567"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="532" t="s">
+      <c r="D53" s="538" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="532"/>
+      <c r="E53" s="538"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -23599,29 +23698,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="562" t="s">
+      <c r="D54" s="568" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="562"/>
+      <c r="E54" s="568"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="533" t="s">
+      <c r="I54" s="539" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="534"/>
-      <c r="K54" s="535">
+      <c r="J54" s="540"/>
+      <c r="K54" s="541">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="535"/>
-      <c r="M54" s="563" t="s">
+      <c r="L54" s="541"/>
+      <c r="M54" s="569" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="564"/>
-      <c r="O54" s="564"/>
-      <c r="P54" s="564"/>
-      <c r="Q54" s="565"/>
+      <c r="N54" s="570"/>
+      <c r="O54" s="570"/>
+      <c r="P54" s="570"/>
+      <c r="Q54" s="571"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -23635,11 +23734,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="566"/>
-      <c r="N55" s="567"/>
-      <c r="O55" s="567"/>
-      <c r="P55" s="567"/>
-      <c r="Q55" s="568"/>
+      <c r="M55" s="572"/>
+      <c r="N55" s="573"/>
+      <c r="O55" s="573"/>
+      <c r="P55" s="573"/>
+      <c r="Q55" s="574"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -23657,11 +23756,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="537">
+      <c r="K56" s="543">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="538"/>
+      <c r="L56" s="544"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -23678,22 +23777,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="515" t="s">
+      <c r="D58" s="521" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="516"/>
+      <c r="E58" s="522"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="517" t="s">
+      <c r="I58" s="523" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="518"/>
-      <c r="K58" s="519">
+      <c r="J58" s="524"/>
+      <c r="K58" s="525">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="519"/>
+      <c r="L58" s="525"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -26283,7 +26382,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="577" t="s">
+      <c r="F87" s="583" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -26296,7 +26395,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="578"/>
+      <c r="F88" s="584"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -26608,23 +26707,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="539"/>
-      <c r="C1" s="541" t="s">
+      <c r="B1" s="545"/>
+      <c r="C1" s="547" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="542"/>
-      <c r="E1" s="542"/>
-      <c r="F1" s="542"/>
-      <c r="G1" s="542"/>
-      <c r="H1" s="542"/>
-      <c r="I1" s="542"/>
-      <c r="J1" s="542"/>
-      <c r="K1" s="542"/>
-      <c r="L1" s="542"/>
-      <c r="M1" s="542"/>
+      <c r="D1" s="548"/>
+      <c r="E1" s="548"/>
+      <c r="F1" s="548"/>
+      <c r="G1" s="548"/>
+      <c r="H1" s="548"/>
+      <c r="I1" s="548"/>
+      <c r="J1" s="548"/>
+      <c r="K1" s="548"/>
+      <c r="L1" s="548"/>
+      <c r="M1" s="548"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="540"/>
+      <c r="B2" s="546"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -26634,24 +26733,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="543" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="544"/>
+      <c r="B3" s="549" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="550"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="545" t="s">
+      <c r="H3" s="551" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="545"/>
+      <c r="I3" s="551"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="569" t="s">
+      <c r="P3" s="575" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="579" t="s">
+      <c r="R3" s="585" t="s">
         <v>216</v>
       </c>
     </row>
@@ -26666,14 +26765,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="546" t="s">
+      <c r="E4" s="552" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="547"/>
-      <c r="H4" s="548" t="s">
+      <c r="F4" s="553"/>
+      <c r="H4" s="554" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="549"/>
+      <c r="I4" s="555"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -26683,15 +26782,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="570"/>
+      <c r="P4" s="576"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="580"/>
-      <c r="W4" s="552" t="s">
+      <c r="R4" s="586"/>
+      <c r="W4" s="558" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="552"/>
+      <c r="X4" s="558"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26752,8 +26851,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="552"/>
-      <c r="X5" s="552"/>
+      <c r="W5" s="558"/>
+      <c r="X5" s="558"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -27510,7 +27609,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="556">
+      <c r="W19" s="562">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -27562,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="557"/>
+      <c r="W20" s="563"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -27611,8 +27710,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="558"/>
-      <c r="X21" s="558"/>
+      <c r="W21" s="564"/>
+      <c r="X21" s="564"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -27713,8 +27812,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="559"/>
-      <c r="X23" s="559"/>
+      <c r="W23" s="565"/>
+      <c r="X23" s="565"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -27765,8 +27864,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="559"/>
-      <c r="X24" s="559"/>
+      <c r="W24" s="565"/>
+      <c r="X24" s="565"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -27812,8 +27911,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="560"/>
-      <c r="X25" s="560"/>
+      <c r="W25" s="566"/>
+      <c r="X25" s="566"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -27861,8 +27960,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="560"/>
-      <c r="X26" s="560"/>
+      <c r="W26" s="566"/>
+      <c r="X26" s="566"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -27922,9 +28021,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="553"/>
-      <c r="X27" s="554"/>
-      <c r="Y27" s="555"/>
+      <c r="W27" s="559"/>
+      <c r="X27" s="560"/>
+      <c r="Y27" s="561"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -27978,9 +28077,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="554"/>
-      <c r="X28" s="554"/>
-      <c r="Y28" s="555"/>
+      <c r="W28" s="560"/>
+      <c r="X28" s="560"/>
+      <c r="Y28" s="561"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -28296,11 +28395,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="571">
+      <c r="M36" s="577">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="573">
+      <c r="N36" s="579">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -28308,7 +28407,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="575">
+      <c r="Q36" s="581">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -28327,13 +28426,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="572"/>
-      <c r="N37" s="574"/>
+      <c r="M37" s="578"/>
+      <c r="N37" s="580"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="576"/>
+      <c r="Q37" s="582"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -28607,26 +28706,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="526" t="s">
+      <c r="H52" s="532" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="527"/>
+      <c r="I52" s="533"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="528">
+      <c r="K52" s="534">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="561"/>
+      <c r="L52" s="567"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="532" t="s">
+      <c r="D53" s="538" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="532"/>
+      <c r="E53" s="538"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -28635,29 +28734,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="562" t="s">
+      <c r="D54" s="568" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="562"/>
+      <c r="E54" s="568"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="533" t="s">
+      <c r="I54" s="539" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="534"/>
-      <c r="K54" s="535">
+      <c r="J54" s="540"/>
+      <c r="K54" s="541">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="535"/>
-      <c r="M54" s="563" t="s">
+      <c r="L54" s="541"/>
+      <c r="M54" s="569" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="564"/>
-      <c r="O54" s="564"/>
-      <c r="P54" s="564"/>
-      <c r="Q54" s="565"/>
+      <c r="N54" s="570"/>
+      <c r="O54" s="570"/>
+      <c r="P54" s="570"/>
+      <c r="Q54" s="571"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -28671,11 +28770,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="566"/>
-      <c r="N55" s="567"/>
-      <c r="O55" s="567"/>
-      <c r="P55" s="567"/>
-      <c r="Q55" s="568"/>
+      <c r="M55" s="572"/>
+      <c r="N55" s="573"/>
+      <c r="O55" s="573"/>
+      <c r="P55" s="573"/>
+      <c r="Q55" s="574"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -28693,11 +28792,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="537">
+      <c r="K56" s="543">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="538"/>
+      <c r="L56" s="544"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -28714,22 +28813,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="515" t="s">
+      <c r="D58" s="521" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="516"/>
+      <c r="E58" s="522"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="517" t="s">
+      <c r="I58" s="523" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="518"/>
-      <c r="K58" s="519">
+      <c r="J58" s="524"/>
+      <c r="K58" s="525">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="519"/>
+      <c r="L58" s="525"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -31292,7 +31391,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="577" t="s">
+      <c r="F75" s="583" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -31305,7 +31404,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="578"/>
+      <c r="F76" s="584"/>
       <c r="K76" s="1"/>
       <c r="L76" s="256"/>
       <c r="M76" s="3"/>
@@ -31597,23 +31696,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="539"/>
-      <c r="C1" s="581" t="s">
+      <c r="B1" s="545"/>
+      <c r="C1" s="587" t="s">
         <v>323</v>
       </c>
-      <c r="D1" s="582"/>
-      <c r="E1" s="582"/>
-      <c r="F1" s="582"/>
-      <c r="G1" s="582"/>
-      <c r="H1" s="582"/>
-      <c r="I1" s="582"/>
-      <c r="J1" s="582"/>
-      <c r="K1" s="582"/>
-      <c r="L1" s="582"/>
-      <c r="M1" s="582"/>
+      <c r="D1" s="588"/>
+      <c r="E1" s="588"/>
+      <c r="F1" s="588"/>
+      <c r="G1" s="588"/>
+      <c r="H1" s="588"/>
+      <c r="I1" s="588"/>
+      <c r="J1" s="588"/>
+      <c r="K1" s="588"/>
+      <c r="L1" s="588"/>
+      <c r="M1" s="588"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="540"/>
+      <c r="B2" s="546"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -31623,24 +31722,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="543" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="544"/>
+      <c r="B3" s="549" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="550"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="545" t="s">
+      <c r="H3" s="551" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="545"/>
+      <c r="I3" s="551"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="569" t="s">
+      <c r="P3" s="575" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="579" t="s">
+      <c r="R3" s="585" t="s">
         <v>216</v>
       </c>
     </row>
@@ -31655,14 +31754,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="546" t="s">
+      <c r="E4" s="552" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="547"/>
-      <c r="H4" s="548" t="s">
+      <c r="F4" s="553"/>
+      <c r="H4" s="554" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="549"/>
+      <c r="I4" s="555"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -31672,15 +31771,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="570"/>
+      <c r="P4" s="576"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="580"/>
-      <c r="W4" s="552" t="s">
+      <c r="R4" s="586"/>
+      <c r="W4" s="558" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="552"/>
+      <c r="X4" s="558"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31731,8 +31830,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="552"/>
-      <c r="X5" s="552"/>
+      <c r="W5" s="558"/>
+      <c r="X5" s="558"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32496,7 +32595,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="556">
+      <c r="W19" s="562">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -32549,7 +32648,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="557"/>
+      <c r="W20" s="563"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -32598,8 +32697,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="558"/>
-      <c r="X21" s="558"/>
+      <c r="W21" s="564"/>
+      <c r="X21" s="564"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -32699,8 +32798,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="559"/>
-      <c r="X23" s="559"/>
+      <c r="W23" s="565"/>
+      <c r="X23" s="565"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -32755,8 +32854,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="559"/>
-      <c r="X24" s="559"/>
+      <c r="W24" s="565"/>
+      <c r="X24" s="565"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -32801,8 +32900,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="560"/>
-      <c r="X25" s="560"/>
+      <c r="W25" s="566"/>
+      <c r="X25" s="566"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -32850,8 +32949,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="560"/>
-      <c r="X26" s="560"/>
+      <c r="W26" s="566"/>
+      <c r="X26" s="566"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -32905,9 +33004,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="553"/>
-      <c r="X27" s="554"/>
-      <c r="Y27" s="555"/>
+      <c r="W27" s="559"/>
+      <c r="X27" s="560"/>
+      <c r="Y27" s="561"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32961,9 +33060,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="554"/>
-      <c r="X28" s="554"/>
-      <c r="Y28" s="555"/>
+      <c r="W28" s="560"/>
+      <c r="X28" s="560"/>
+      <c r="Y28" s="561"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -33274,11 +33373,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="571">
+      <c r="M36" s="577">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="573">
+      <c r="N36" s="579">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -33286,7 +33385,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="575">
+      <c r="Q36" s="581">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -33311,13 +33410,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="572"/>
-      <c r="N37" s="574"/>
+      <c r="M37" s="578"/>
+      <c r="N37" s="580"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="576"/>
+      <c r="Q37" s="582"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -33610,26 +33709,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="526" t="s">
+      <c r="H52" s="532" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="527"/>
+      <c r="I52" s="533"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="528">
+      <c r="K52" s="534">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="561"/>
+      <c r="L52" s="567"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="532" t="s">
+      <c r="D53" s="538" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="532"/>
+      <c r="E53" s="538"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -33638,22 +33737,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="562" t="s">
+      <c r="D54" s="568" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="562"/>
+      <c r="E54" s="568"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="533" t="s">
+      <c r="I54" s="539" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="534"/>
-      <c r="K54" s="535">
+      <c r="J54" s="540"/>
+      <c r="K54" s="541">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="535"/>
+      <c r="L54" s="541"/>
       <c r="M54" s="421"/>
       <c r="N54" s="421"/>
       <c r="O54" s="421"/>
@@ -33694,11 +33793,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="537">
+      <c r="K56" s="543">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="538"/>
+      <c r="L56" s="544"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -33715,22 +33814,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="515" t="s">
+      <c r="D58" s="521" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="516"/>
+      <c r="E58" s="522"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="517" t="s">
+      <c r="I58" s="523" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="518"/>
-      <c r="K58" s="519">
+      <c r="J58" s="524"/>
+      <c r="K58" s="525">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="519"/>
+      <c r="L58" s="525"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -35599,12 +35698,12 @@
     </row>
     <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="245"/>
-      <c r="B43" s="583" t="s">
+      <c r="B43" s="589" t="s">
         <v>420</v>
       </c>
-      <c r="C43" s="584"/>
-      <c r="D43" s="584"/>
-      <c r="E43" s="585"/>
+      <c r="C43" s="590"/>
+      <c r="D43" s="590"/>
+      <c r="E43" s="591"/>
       <c r="F43" s="409">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -35632,10 +35731,10 @@
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="245"/>
-      <c r="B44" s="586"/>
-      <c r="C44" s="587"/>
-      <c r="D44" s="587"/>
-      <c r="E44" s="588"/>
+      <c r="B44" s="592"/>
+      <c r="C44" s="593"/>
+      <c r="D44" s="593"/>
+      <c r="E44" s="594"/>
       <c r="F44" s="409">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -35663,10 +35762,10 @@
     </row>
     <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="245"/>
-      <c r="B45" s="589"/>
-      <c r="C45" s="590"/>
-      <c r="D45" s="590"/>
-      <c r="E45" s="591"/>
+      <c r="B45" s="595"/>
+      <c r="C45" s="596"/>
+      <c r="D45" s="596"/>
+      <c r="E45" s="597"/>
       <c r="F45" s="409">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -35709,10 +35808,10 @@
     </row>
     <row r="47" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="245"/>
-      <c r="B47" s="598" t="s">
+      <c r="B47" s="604" t="s">
         <v>600</v>
       </c>
-      <c r="C47" s="599"/>
+      <c r="C47" s="605"/>
       <c r="D47" s="253"/>
       <c r="E47" s="69"/>
       <c r="F47" s="137">
@@ -35734,8 +35833,8 @@
     </row>
     <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="245"/>
-      <c r="B48" s="600"/>
-      <c r="C48" s="601"/>
+      <c r="B48" s="606"/>
+      <c r="C48" s="607"/>
       <c r="D48" s="253"/>
       <c r="E48" s="69"/>
       <c r="F48" s="137">
@@ -35743,11 +35842,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="348"/>
-      <c r="J48" s="592" t="s">
+      <c r="J48" s="598" t="s">
         <v>421</v>
       </c>
-      <c r="K48" s="593"/>
-      <c r="L48" s="594"/>
+      <c r="K48" s="599"/>
+      <c r="L48" s="600"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -35765,9 +35864,9 @@
         <v>0</v>
       </c>
       <c r="I49" s="348"/>
-      <c r="J49" s="595"/>
-      <c r="K49" s="596"/>
-      <c r="L49" s="597"/>
+      <c r="J49" s="601"/>
+      <c r="K49" s="602"/>
+      <c r="L49" s="603"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -35784,10 +35883,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I50" s="602" t="s">
+      <c r="I50" s="608" t="s">
         <v>601</v>
       </c>
-      <c r="J50" s="603"/>
+      <c r="J50" s="609"/>
       <c r="K50" s="215">
         <v>0</v>
       </c>
@@ -35808,8 +35907,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I51" s="602"/>
-      <c r="J51" s="603"/>
+      <c r="I51" s="608"/>
+      <c r="J51" s="609"/>
       <c r="K51" s="69"/>
       <c r="L51" s="253"/>
       <c r="M51" s="69"/>
@@ -35828,8 +35927,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I52" s="602"/>
-      <c r="J52" s="603"/>
+      <c r="I52" s="608"/>
+      <c r="J52" s="609"/>
       <c r="K52" s="69"/>
       <c r="L52" s="253"/>
       <c r="M52" s="69"/>
@@ -35848,8 +35947,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I53" s="602"/>
-      <c r="J53" s="603"/>
+      <c r="I53" s="608"/>
+      <c r="J53" s="609"/>
       <c r="K53" s="69"/>
       <c r="L53" s="253"/>
       <c r="M53" s="69"/>
@@ -35868,8 +35967,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I54" s="602"/>
-      <c r="J54" s="603"/>
+      <c r="I54" s="608"/>
+      <c r="J54" s="609"/>
       <c r="K54" s="69"/>
       <c r="L54" s="253"/>
       <c r="M54" s="69"/>
@@ -35888,8 +35987,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I55" s="602"/>
-      <c r="J55" s="603"/>
+      <c r="I55" s="608"/>
+      <c r="J55" s="609"/>
       <c r="K55" s="69"/>
       <c r="L55" s="253"/>
       <c r="M55" s="69"/>
@@ -35908,8 +36007,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I56" s="602"/>
-      <c r="J56" s="603"/>
+      <c r="I56" s="608"/>
+      <c r="J56" s="609"/>
       <c r="K56" s="69"/>
       <c r="L56" s="253"/>
       <c r="M56" s="69"/>
@@ -35928,8 +36027,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I57" s="602"/>
-      <c r="J57" s="603"/>
+      <c r="I57" s="608"/>
+      <c r="J57" s="609"/>
       <c r="K57" s="69"/>
       <c r="L57" s="253"/>
       <c r="M57" s="69"/>
@@ -35948,8 +36047,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I58" s="602"/>
-      <c r="J58" s="603"/>
+      <c r="I58" s="608"/>
+      <c r="J58" s="609"/>
       <c r="K58" s="69"/>
       <c r="L58" s="253"/>
       <c r="M58" s="69"/>
@@ -35968,8 +36067,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I59" s="602"/>
-      <c r="J59" s="603"/>
+      <c r="I59" s="608"/>
+      <c r="J59" s="609"/>
       <c r="K59" s="69"/>
       <c r="L59" s="253"/>
       <c r="M59" s="69"/>
@@ -35988,8 +36087,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I60" s="602"/>
-      <c r="J60" s="603"/>
+      <c r="I60" s="608"/>
+      <c r="J60" s="609"/>
       <c r="K60" s="69"/>
       <c r="L60" s="253"/>
       <c r="M60" s="69"/>
@@ -36008,8 +36107,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I61" s="602"/>
-      <c r="J61" s="603"/>
+      <c r="I61" s="608"/>
+      <c r="J61" s="609"/>
       <c r="K61" s="69"/>
       <c r="L61" s="253"/>
       <c r="M61" s="69"/>
@@ -36028,8 +36127,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I62" s="602"/>
-      <c r="J62" s="603"/>
+      <c r="I62" s="608"/>
+      <c r="J62" s="609"/>
       <c r="K62" s="34"/>
       <c r="L62" s="118"/>
       <c r="M62" s="34"/>
@@ -36048,8 +36147,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I63" s="602"/>
-      <c r="J63" s="603"/>
+      <c r="I63" s="608"/>
+      <c r="J63" s="609"/>
       <c r="K63" s="34"/>
       <c r="L63" s="118"/>
       <c r="M63" s="34"/>
@@ -36068,8 +36167,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I64" s="602"/>
-      <c r="J64" s="603"/>
+      <c r="I64" s="608"/>
+      <c r="J64" s="609"/>
       <c r="K64" s="34"/>
       <c r="L64" s="118"/>
       <c r="M64" s="34"/>
@@ -36088,8 +36187,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I65" s="602"/>
-      <c r="J65" s="603"/>
+      <c r="I65" s="608"/>
+      <c r="J65" s="609"/>
       <c r="K65" s="34"/>
       <c r="L65" s="118"/>
       <c r="M65" s="34"/>
@@ -36108,8 +36207,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I66" s="602"/>
-      <c r="J66" s="603"/>
+      <c r="I66" s="608"/>
+      <c r="J66" s="609"/>
       <c r="K66" s="34"/>
       <c r="L66" s="118"/>
       <c r="M66" s="34"/>
@@ -36128,8 +36227,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I67" s="602"/>
-      <c r="J67" s="603"/>
+      <c r="I67" s="608"/>
+      <c r="J67" s="609"/>
       <c r="K67" s="34"/>
       <c r="L67" s="118"/>
       <c r="M67" s="34"/>
@@ -36148,8 +36247,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I68" s="602"/>
-      <c r="J68" s="603"/>
+      <c r="I68" s="608"/>
+      <c r="J68" s="609"/>
       <c r="K68" s="69"/>
       <c r="L68" s="254"/>
       <c r="M68" s="69"/>
@@ -36168,8 +36267,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I69" s="602"/>
-      <c r="J69" s="603"/>
+      <c r="I69" s="608"/>
+      <c r="J69" s="609"/>
       <c r="K69" s="69"/>
       <c r="L69" s="254"/>
       <c r="M69" s="69"/>
@@ -36188,8 +36287,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I70" s="602"/>
-      <c r="J70" s="603"/>
+      <c r="I70" s="608"/>
+      <c r="J70" s="609"/>
       <c r="K70" s="69"/>
       <c r="L70" s="254"/>
       <c r="M70" s="69"/>
@@ -36208,8 +36307,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I71" s="602"/>
-      <c r="J71" s="603"/>
+      <c r="I71" s="608"/>
+      <c r="J71" s="609"/>
       <c r="K71" s="69"/>
       <c r="L71" s="254"/>
       <c r="M71" s="69"/>
@@ -36228,8 +36327,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I72" s="602"/>
-      <c r="J72" s="603"/>
+      <c r="I72" s="608"/>
+      <c r="J72" s="609"/>
       <c r="K72" s="69"/>
       <c r="L72" s="254"/>
       <c r="M72" s="69"/>
@@ -36248,8 +36347,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I73" s="602"/>
-      <c r="J73" s="603"/>
+      <c r="I73" s="608"/>
+      <c r="J73" s="609"/>
       <c r="K73" s="69"/>
       <c r="L73" s="254"/>
       <c r="M73" s="69"/>
@@ -36268,8 +36367,8 @@
         <f>F73+C74-E74</f>
         <v>0</v>
       </c>
-      <c r="I74" s="602"/>
-      <c r="J74" s="603"/>
+      <c r="I74" s="608"/>
+      <c r="J74" s="609"/>
       <c r="K74" s="69"/>
       <c r="L74" s="254"/>
       <c r="M74" s="69"/>
@@ -36288,8 +36387,8 @@
         <f>F74+C75-E75</f>
         <v>0</v>
       </c>
-      <c r="I75" s="602"/>
-      <c r="J75" s="603"/>
+      <c r="I75" s="608"/>
+      <c r="J75" s="609"/>
       <c r="K75" s="69"/>
       <c r="L75" s="254"/>
       <c r="M75" s="69"/>
@@ -36308,8 +36407,8 @@
         <f>F75+C76-E76</f>
         <v>0</v>
       </c>
-      <c r="I76" s="602"/>
-      <c r="J76" s="603"/>
+      <c r="I76" s="608"/>
+      <c r="J76" s="609"/>
       <c r="K76" s="69"/>
       <c r="L76" s="254"/>
       <c r="M76" s="69"/>
@@ -36328,8 +36427,8 @@
         <f>F76+C77-E77</f>
         <v>0</v>
       </c>
-      <c r="I77" s="602"/>
-      <c r="J77" s="603"/>
+      <c r="I77" s="608"/>
+      <c r="J77" s="609"/>
       <c r="K77" s="69"/>
       <c r="L77" s="254"/>
       <c r="M77" s="69"/>
@@ -36350,8 +36449,8 @@
         <f>F77+C78-E78</f>
         <v>0</v>
       </c>
-      <c r="I78" s="604"/>
-      <c r="J78" s="605"/>
+      <c r="I78" s="610"/>
+      <c r="J78" s="611"/>
       <c r="K78" s="151">
         <v>0</v>
       </c>
@@ -36396,7 +36495,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="577" t="s">
+      <c r="F80" s="583" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -36408,7 +36507,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="578"/>
+      <c r="F81" s="584"/>
       <c r="K81" s="1"/>
       <c r="M81" s="3"/>
       <c r="N81" s="1"/>
@@ -36696,23 +36795,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="539"/>
-      <c r="C1" s="581" t="s">
+      <c r="B1" s="545"/>
+      <c r="C1" s="587" t="s">
         <v>323</v>
       </c>
-      <c r="D1" s="582"/>
-      <c r="E1" s="582"/>
-      <c r="F1" s="582"/>
-      <c r="G1" s="582"/>
-      <c r="H1" s="582"/>
-      <c r="I1" s="582"/>
-      <c r="J1" s="582"/>
-      <c r="K1" s="582"/>
-      <c r="L1" s="582"/>
-      <c r="M1" s="582"/>
+      <c r="D1" s="588"/>
+      <c r="E1" s="588"/>
+      <c r="F1" s="588"/>
+      <c r="G1" s="588"/>
+      <c r="H1" s="588"/>
+      <c r="I1" s="588"/>
+      <c r="J1" s="588"/>
+      <c r="K1" s="588"/>
+      <c r="L1" s="588"/>
+      <c r="M1" s="588"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="540"/>
+      <c r="B2" s="546"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -36722,24 +36821,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="543" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="544"/>
+      <c r="B3" s="549" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="550"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="545" t="s">
+      <c r="H3" s="551" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="545"/>
+      <c r="I3" s="551"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="569" t="s">
+      <c r="P3" s="575" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="579" t="s">
+      <c r="R3" s="585" t="s">
         <v>216</v>
       </c>
     </row>
@@ -36754,14 +36853,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="546" t="s">
+      <c r="E4" s="552" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="547"/>
-      <c r="H4" s="548" t="s">
+      <c r="F4" s="553"/>
+      <c r="H4" s="554" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="549"/>
+      <c r="I4" s="555"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -36771,15 +36870,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="570"/>
+      <c r="P4" s="576"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="580"/>
-      <c r="W4" s="552" t="s">
+      <c r="R4" s="586"/>
+      <c r="W4" s="558" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="552"/>
+      <c r="X4" s="558"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -36830,8 +36929,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="552"/>
-      <c r="X5" s="552"/>
+      <c r="W5" s="558"/>
+      <c r="X5" s="558"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -37592,7 +37691,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="556">
+      <c r="W19" s="562">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -37644,7 +37743,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="557"/>
+      <c r="W20" s="563"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -37693,8 +37792,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="558"/>
-      <c r="X21" s="558"/>
+      <c r="W21" s="564"/>
+      <c r="X21" s="564"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -37793,8 +37892,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="559"/>
-      <c r="X23" s="559"/>
+      <c r="W23" s="565"/>
+      <c r="X23" s="565"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -37849,8 +37948,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="559"/>
-      <c r="X24" s="559"/>
+      <c r="W24" s="565"/>
+      <c r="X24" s="565"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -37898,8 +37997,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="560"/>
-      <c r="X25" s="560"/>
+      <c r="W25" s="566"/>
+      <c r="X25" s="566"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -37947,8 +38046,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="560"/>
-      <c r="X26" s="560"/>
+      <c r="W26" s="566"/>
+      <c r="X26" s="566"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -37996,9 +38095,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="553"/>
-      <c r="X27" s="554"/>
-      <c r="Y27" s="555"/>
+      <c r="W27" s="559"/>
+      <c r="X27" s="560"/>
+      <c r="Y27" s="561"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -38046,9 +38145,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="554"/>
-      <c r="X28" s="554"/>
-      <c r="Y28" s="555"/>
+      <c r="W28" s="560"/>
+      <c r="X28" s="560"/>
+      <c r="Y28" s="561"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -38389,11 +38488,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="571">
+      <c r="M36" s="577">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="573">
+      <c r="N36" s="579">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -38401,7 +38500,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="606">
+      <c r="Q36" s="612">
         <f>SUM(Q5:Q35)</f>
         <v>111.43999999999505</v>
       </c>
@@ -38426,13 +38525,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="572"/>
-      <c r="N37" s="574"/>
+      <c r="M37" s="578"/>
+      <c r="N37" s="580"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="607"/>
+      <c r="Q37" s="613"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -38482,11 +38581,11 @@
       <c r="L39" s="61">
         <v>14981.03</v>
       </c>
-      <c r="M39" s="608">
+      <c r="M39" s="614">
         <f>M36+N36</f>
         <v>2934972.49</v>
       </c>
-      <c r="N39" s="609"/>
+      <c r="N39" s="615"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3450079.65</v>
@@ -38734,26 +38833,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="526" t="s">
+      <c r="H52" s="532" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="527"/>
+      <c r="I52" s="533"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="528">
+      <c r="K52" s="534">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="561"/>
+      <c r="L52" s="567"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="532" t="s">
+      <c r="D53" s="538" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="532"/>
+      <c r="E53" s="538"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -38762,22 +38861,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="562" t="s">
+      <c r="D54" s="568" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="562"/>
+      <c r="E54" s="568"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="533" t="s">
+      <c r="I54" s="539" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="534"/>
-      <c r="K54" s="535">
+      <c r="J54" s="540"/>
+      <c r="K54" s="541">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="535"/>
+      <c r="L54" s="541"/>
       <c r="M54" s="421"/>
       <c r="N54" s="421"/>
       <c r="O54" s="421"/>
@@ -38818,11 +38917,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="537">
+      <c r="K56" s="543">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="538"/>
+      <c r="L56" s="544"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -38839,22 +38938,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="515" t="s">
+      <c r="D58" s="521" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="516"/>
+      <c r="E58" s="522"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="517" t="s">
+      <c r="I58" s="523" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="518"/>
-      <c r="K58" s="519">
+      <c r="J58" s="524"/>
+      <c r="K58" s="525">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="519"/>
+      <c r="L58" s="525"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
